--- a/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResIconCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResIconCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ResConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6909B31-64DC-4EE4-9E54-7A0B01B06742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F7F543-011B-4FC3-BEC6-6EB77DEB566F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="384" windowWidth="23040" windowHeight="9144" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
   <si>
     <t>##var</t>
   </si>
@@ -227,6 +227,10 @@
   </si>
   <si>
     <t>Icon_Hovertank.png</t>
+  </si>
+  <si>
+    <t>MonsterCall</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -640,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA18"/>
+  <dimension ref="A1:AA19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -916,7 +920,7 @@
         <v>22</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" ref="D9:D15" si="0">B9&amp;"_"&amp;C9</f>
+        <f t="shared" ref="D9:D16" si="0">B9&amp;"_"&amp;C9</f>
         <v>ResIcon_Monster1</v>
       </c>
       <c r="F9" s="7"/>
@@ -927,7 +931,7 @@
         <v>19</v>
       </c>
       <c r="I9" s="8" t="str">
-        <f t="shared" ref="I9:I15" si="1">G9&amp;"/"&amp;H9</f>
+        <f t="shared" ref="I9:I16" si="1">G9&amp;"/"&amp;H9</f>
         <v>Assets/ResAB/UI/Icon/Icon_2.png</v>
       </c>
     </row>
@@ -958,161 +962,161 @@
       <c r="B11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" ref="D11" si="2">B11&amp;"_"&amp;C11</f>
+        <v>ResIcon_MonsterCall</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="8" t="str">
+        <f t="shared" ref="I11" si="3">G11&amp;"/"&amp;H11</f>
+        <v>Assets/ResAB/UI/Icon/Icon_HeadQuarter1.png</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="str">
+      <c r="D12" t="str">
         <f t="shared" si="0"/>
         <v>ResIcon_MachineGunTower_0</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="7" t="s">
+      <c r="F12" s="7"/>
+      <c r="G12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="8" t="str">
+      <c r="I12" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Assets/ResAB/UI/Icon/Icon_MachineGunTower_0.png</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
         <v>25</v>
       </c>
-      <c r="D12" t="str">
+      <c r="D13" t="str">
         <f t="shared" si="0"/>
         <v>ResIcon_EnergyPylon_2</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="7" t="s">
+      <c r="F13" s="7"/>
+      <c r="G13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="8" t="str">
+      <c r="I13" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Assets/ResAB/UI/Icon/Icon_EnergyPylon_2.png</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
         <v>26</v>
       </c>
-      <c r="D13" t="str">
+      <c r="D14" t="str">
         <f t="shared" si="0"/>
         <v>ResIcon_LaserTower_0</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="7" t="s">
+      <c r="F14" s="7"/>
+      <c r="G14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="8" t="str">
+      <c r="I14" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Assets/ResAB/UI/Icon/Icon_LaserTower_0.png</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
         <v>27</v>
       </c>
-      <c r="D14" t="str">
+      <c r="D15" t="str">
         <f t="shared" si="0"/>
         <v>ResIcon_RocketTower_1</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="7" t="s">
+      <c r="F15" s="7"/>
+      <c r="G15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I14" s="8" t="str">
+      <c r="I15" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Assets/ResAB/UI/Icon/Icon_RocketTower_1.png</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
         <v>34</v>
       </c>
-      <c r="D15" t="str">
+      <c r="D16" t="str">
         <f t="shared" si="0"/>
         <v>ResIcon_Hoverboss</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="7" t="s">
+      <c r="F16" s="7"/>
+      <c r="G16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="8" t="str">
+      <c r="I16" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Assets/ResAB/UI/Icon/Icon_Hoverboss.png</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" t="str">
-        <f t="shared" ref="D16:D18" si="2">B16&amp;"_"&amp;C16</f>
-        <v>ResIcon_Hoverbuggy</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I16" s="8" t="str">
-        <f t="shared" ref="I16:I18" si="3">G16&amp;"/"&amp;H16</f>
-        <v>Assets/ResAB/UI/Icon/Icon_Hoverbuggy.png</v>
-      </c>
-    </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="2"/>
-        <v>ResIcon_Hovercopter</v>
+        <f t="shared" ref="D17:D19" si="4">B17&amp;"_"&amp;C17</f>
+        <v>ResIcon_Hoverbuggy</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I17" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>Assets/ResAB/UI/Icon/Icon_Hovercopter.png</v>
+        <f t="shared" ref="I17:I19" si="5">G17&amp;"/"&amp;H17</f>
+        <v>Assets/ResAB/UI/Icon/Icon_Hoverbuggy.png</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -1120,21 +1124,44 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="2"/>
-        <v>ResIcon_Hovertank</v>
+        <f t="shared" si="4"/>
+        <v>ResIcon_Hovercopter</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H18" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon/Icon_Hovercopter.png</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_Hovertank</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I18" s="8" t="str">
-        <f t="shared" si="3"/>
+      <c r="I19" s="8" t="str">
+        <f t="shared" si="5"/>
         <v>Assets/ResAB/UI/Icon/Icon_Hovertank.png</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResIconCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResIconCfg.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ResConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ResConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F7F543-011B-4FC3-BEC6-6EB77DEB566F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F9A666-10C0-4162-B557-4EA6C5A66B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="51">
   <si>
     <t>##var</t>
   </si>
@@ -230,6 +219,48 @@
   </si>
   <si>
     <t>MonsterCall</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDragon1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerElec1</t>
+  </si>
+  <si>
+    <t>TowerIce1</t>
+  </si>
+  <si>
+    <t>TowerTime1</t>
+  </si>
+  <si>
+    <r>
+      <t>Icon_TowerDragon_1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.png</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_TowerElec_1.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_TowerIce_1.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_TowerTime_1.png</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -357,7 +388,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -367,6 +398,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -644,25 +676,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA19"/>
+  <dimension ref="A1:AA23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="I19" sqref="I18:I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.21875" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="1" max="2" width="9.25" customWidth="1"/>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
-    <col min="7" max="7" width="31.33203125" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.625" customWidth="1"/>
+    <col min="7" max="7" width="31.375" customWidth="1"/>
+    <col min="8" max="8" width="20.625" customWidth="1"/>
+    <col min="9" max="9" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -701,7 +733,7 @@
       <c r="Z1"/>
       <c r="AA1"/>
     </row>
-    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -732,7 +764,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -771,7 +803,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -804,7 +836,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -843,7 +875,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
@@ -866,7 +898,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_3.png</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
         <v>16</v>
       </c>
@@ -889,7 +921,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_1.png</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
@@ -912,7 +944,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_1.png</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
         <v>16</v>
       </c>
@@ -935,7 +967,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_2.png</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
         <v>16</v>
       </c>
@@ -958,7 +990,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_HeadQuarter1.png</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
         <v>16</v>
       </c>
@@ -981,7 +1013,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_HeadQuarter1.png</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
         <v>16</v>
       </c>
@@ -1004,7 +1036,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_MachineGunTower_0.png</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
         <v>16</v>
       </c>
@@ -1027,7 +1059,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_EnergyPylon_2.png</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B14" s="7" t="s">
         <v>16</v>
       </c>
@@ -1050,7 +1082,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_LaserTower_0.png</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B15" s="7" t="s">
         <v>16</v>
       </c>
@@ -1073,7 +1105,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_RocketTower_1.png</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B16" s="7" t="s">
         <v>16</v>
       </c>
@@ -1096,7 +1128,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_Hoverboss.png</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="7" t="s">
         <v>16</v>
       </c>
@@ -1104,7 +1136,7 @@
         <v>35</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" ref="D17:D19" si="4">B17&amp;"_"&amp;C17</f>
+        <f t="shared" ref="D17:D23" si="4">B17&amp;"_"&amp;C17</f>
         <v>ResIcon_Hoverbuggy</v>
       </c>
       <c r="F17" s="7"/>
@@ -1115,11 +1147,11 @@
         <v>39</v>
       </c>
       <c r="I17" s="8" t="str">
-        <f t="shared" ref="I17:I19" si="5">G17&amp;"/"&amp;H17</f>
+        <f t="shared" ref="I17:I23" si="5">G17&amp;"/"&amp;H17</f>
         <v>Assets/ResAB/UI/Icon/Icon_Hoverbuggy.png</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="7" t="s">
         <v>16</v>
       </c>
@@ -1142,7 +1174,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_Hovercopter.png</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="7" t="s">
         <v>16</v>
       </c>
@@ -1163,6 +1195,94 @@
       <c r="I19" s="8" t="str">
         <f t="shared" si="5"/>
         <v>Assets/ResAB/UI/Icon/Icon_Hovertank.png</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerDragon1</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerDragon_1.png</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerElec1</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerElec_1.png</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerIce1</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerIce_1.png</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerTime1</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I23" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerTime_1.png</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResIconCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResIconCfg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ResConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F9A666-10C0-4162-B557-4EA6C5A66B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC986150-E6D7-4F20-8CD1-1F154F2C04B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2400" yWindow="5430" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="49">
   <si>
     <t>##var</t>
   </si>
@@ -148,12 +148,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Icon_2.png</t>
-  </si>
-  <si>
-    <t>Icon_3.png</t>
-  </si>
-  <si>
     <t>Player1</t>
   </si>
   <si>
@@ -177,9 +171,6 @@
   <si>
     <t>NULL</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon_HeadQuarter1.png</t>
   </si>
   <si>
     <t>Icon_MachineGunTower_0.png</t>
@@ -262,6 +253,9 @@
   <si>
     <t>Icon_TowerTime_1.png</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_1.png</t>
   </si>
 </sst>
 </file>
@@ -388,7 +382,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -398,7 +392,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -679,7 +672,7 @@
   <dimension ref="A1:AA23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I18:I23"/>
+      <selection activeCell="H8" sqref="H8:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -880,7 +873,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6" t="str">
         <f>B6&amp;"_"&amp;C6</f>
@@ -891,11 +884,11 @@
         <v>17</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I6" s="8" t="str">
         <f>G6&amp;"/"&amp;H6</f>
-        <v>Assets/ResAB/UI/Icon/Icon_3.png</v>
+        <v>Assets/ResAB/UI/Icon/Icon_1.png</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
@@ -926,7 +919,7 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8" t="str">
         <f>B8&amp;"_"&amp;C8</f>
@@ -949,7 +942,7 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" ref="D9:D16" si="0">B9&amp;"_"&amp;C9</f>
@@ -960,11 +953,11 @@
         <v>17</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I9" s="8" t="str">
         <f t="shared" ref="I9:I16" si="1">G9&amp;"/"&amp;H9</f>
-        <v>Assets/ResAB/UI/Icon/Icon_2.png</v>
+        <v>Assets/ResAB/UI/Icon/Icon_1.png</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
@@ -972,7 +965,7 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
@@ -983,11 +976,11 @@
         <v>17</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="I10" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>Assets/ResAB/UI/Icon/Icon_HeadQuarter1.png</v>
+        <v>Assets/ResAB/UI/Icon/Icon_1.png</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
@@ -995,7 +988,7 @@
         <v>16</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" ref="D11" si="2">B11&amp;"_"&amp;C11</f>
@@ -1006,11 +999,11 @@
         <v>17</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="I11" s="8" t="str">
         <f t="shared" ref="I11" si="3">G11&amp;"/"&amp;H11</f>
-        <v>Assets/ResAB/UI/Icon/Icon_HeadQuarter1.png</v>
+        <v>Assets/ResAB/UI/Icon/Icon_1.png</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
@@ -1018,7 +1011,7 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
@@ -1029,7 +1022,7 @@
         <v>17</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I12" s="8" t="str">
         <f t="shared" si="1"/>
@@ -1041,7 +1034,7 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
@@ -1052,7 +1045,7 @@
         <v>17</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I13" s="8" t="str">
         <f t="shared" si="1"/>
@@ -1064,7 +1057,7 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
@@ -1075,7 +1068,7 @@
         <v>17</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I14" s="8" t="str">
         <f t="shared" si="1"/>
@@ -1087,7 +1080,7 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
@@ -1098,7 +1091,7 @@
         <v>17</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I15" s="8" t="str">
         <f t="shared" si="1"/>
@@ -1110,7 +1103,7 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
@@ -1121,7 +1114,7 @@
         <v>17</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I16" s="8" t="str">
         <f t="shared" si="1"/>
@@ -1133,7 +1126,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" ref="D17:D23" si="4">B17&amp;"_"&amp;C17</f>
@@ -1144,7 +1137,7 @@
         <v>17</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I17" s="8" t="str">
         <f t="shared" ref="I17:I23" si="5">G17&amp;"/"&amp;H17</f>
@@ -1156,7 +1149,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="4"/>
@@ -1167,7 +1160,7 @@
         <v>17</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I18" s="8" t="str">
         <f t="shared" si="5"/>
@@ -1179,7 +1172,7 @@
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="4"/>
@@ -1190,7 +1183,7 @@
         <v>17</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I19" s="8" t="str">
         <f t="shared" si="5"/>
@@ -1202,7 +1195,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="4"/>
@@ -1212,7 +1205,7 @@
         <v>17</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I20" s="8" t="str">
         <f t="shared" si="5"/>
@@ -1224,7 +1217,7 @@
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="4"/>
@@ -1233,8 +1226,8 @@
       <c r="G21" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="9" t="s">
-        <v>48</v>
+      <c r="H21" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="I21" s="8" t="str">
         <f t="shared" si="5"/>
@@ -1246,7 +1239,7 @@
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="4"/>
@@ -1255,8 +1248,8 @@
       <c r="G22" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="9" t="s">
-        <v>49</v>
+      <c r="H22" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="I22" s="8" t="str">
         <f t="shared" si="5"/>
@@ -1268,7 +1261,7 @@
         <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="4"/>
@@ -1277,8 +1270,8 @@
       <c r="G23" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="9" t="s">
-        <v>50</v>
+      <c r="H23" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="I23" s="8" t="str">
         <f t="shared" si="5"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResIconCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResIconCfg.xlsx
@@ -1,26 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ResConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ResConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC986150-E6D7-4F20-8CD1-1F154F2C04B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA71214-BC2B-4577-8211-10F98090BFF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="5430" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="69">
   <si>
     <t>##var</t>
   </si>
@@ -257,12 +269,78 @@
   <si>
     <t>Icon_1.png</t>
   </si>
+  <si>
+    <t>Assets/ResAB/UI/Beginners_Guide</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beginners_Guide_img_guide1.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beginners_Guide_img_guide2.png</t>
+  </si>
+  <si>
+    <t>Beginners_Guide_img_guide3.png</t>
+  </si>
+  <si>
+    <t>Beginners_Guide_img_guide4.png</t>
+  </si>
+  <si>
+    <t>Avatar04</t>
+  </si>
+  <si>
+    <t>Avatar01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/common</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common_img_avatar_04.png</t>
+  </si>
+  <si>
+    <t>Common_img_avatar_01.png</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avatar02</t>
+  </si>
+  <si>
+    <t>Common_img_avatar_02.png</t>
+  </si>
+  <si>
+    <t>Avatar03</t>
+  </si>
+  <si>
+    <t>Common_img_avatar_03.png</t>
+  </si>
+  <si>
+    <t>Avatar05</t>
+  </si>
+  <si>
+    <t>Common_img_avatar_05.png</t>
+  </si>
+  <si>
+    <t>Beginners_Guide1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beginners_Guide2</t>
+  </si>
+  <si>
+    <t>Beginners_Guide3</t>
+  </si>
+  <si>
+    <t>Beginners_Guide4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,6 +392,12 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -671,23 +755,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="A1:I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.25" customWidth="1"/>
-    <col min="3" max="3" width="11.25" customWidth="1"/>
-    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="1" max="2" width="9.21875" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="14.625" customWidth="1"/>
-    <col min="7" max="7" width="31.375" customWidth="1"/>
-    <col min="8" max="8" width="20.625" customWidth="1"/>
-    <col min="9" max="9" width="19.625" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="31.33203125" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -726,7 +810,7 @@
       <c r="Z1"/>
       <c r="AA1"/>
     </row>
-    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -757,7 +841,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -796,7 +880,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -829,7 +913,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -868,7 +952,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
@@ -891,7 +975,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_1.png</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>16</v>
       </c>
@@ -914,7 +998,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_1.png</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
@@ -937,7 +1021,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_1.png</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>16</v>
       </c>
@@ -960,7 +1044,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_1.png</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>16</v>
       </c>
@@ -983,7 +1067,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_1.png</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>16</v>
       </c>
@@ -1006,7 +1090,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_1.png</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>16</v>
       </c>
@@ -1029,7 +1113,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_MachineGunTower_0.png</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
         <v>16</v>
       </c>
@@ -1052,7 +1136,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_EnergyPylon_2.png</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
         <v>16</v>
       </c>
@@ -1075,7 +1159,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_LaserTower_0.png</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>16</v>
       </c>
@@ -1098,7 +1182,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_RocketTower_1.png</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
         <v>16</v>
       </c>
@@ -1121,7 +1205,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_Hoverboss.png</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
         <v>16</v>
       </c>
@@ -1144,7 +1228,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_Hoverbuggy.png</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
         <v>16</v>
       </c>
@@ -1167,7 +1251,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_Hovercopter.png</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
         <v>16</v>
       </c>
@@ -1190,7 +1274,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_Hovertank.png</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
         <v>16</v>
       </c>
@@ -1212,7 +1296,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_TowerDragon_1.png</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
         <v>16</v>
       </c>
@@ -1234,7 +1318,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_TowerElec_1.png</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
         <v>16</v>
       </c>
@@ -1256,7 +1340,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_TowerIce_1.png</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
         <v>16</v>
       </c>
@@ -1283,4 +1367,334 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B46AE2C1-2AA7-4FF9-B793-82F93B725DED}">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="17.21875" customWidth="1"/>
+    <col min="7" max="7" width="32.33203125" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" customWidth="1"/>
+    <col min="9" max="9" width="25.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" t="str">
+        <f>B6&amp;"_"&amp;C6</f>
+        <v>ResIcon_Beginners_Guide1</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="8" t="str">
+        <f>G6&amp;"/"&amp;H6</f>
+        <v>Assets/ResAB/UI/Beginners_Guide/Beginners_Guide_img_guide1.png</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" t="str">
+        <f>B7&amp;"_"&amp;C7</f>
+        <v>ResIcon_Beginners_Guide2</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="8" t="str">
+        <f>G7&amp;"/"&amp;H7</f>
+        <v>Assets/ResAB/UI/Beginners_Guide/Beginners_Guide_img_guide2.png</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" t="str">
+        <f>B8&amp;"_"&amp;C8</f>
+        <v>ResIcon_Beginners_Guide3</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="8" t="str">
+        <f>G8&amp;"/"&amp;H8</f>
+        <v>Assets/ResAB/UI/Beginners_Guide/Beginners_Guide_img_guide3.png</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" ref="D9" si="0">B9&amp;"_"&amp;C9</f>
+        <v>ResIcon_Beginners_Guide4</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="8" t="str">
+        <f t="shared" ref="I9" si="1">G9&amp;"/"&amp;H9</f>
+        <v>Assets/ResAB/UI/Beginners_Guide/Beginners_Guide_img_guide4.png</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="str">
+        <f>B11&amp;"_"&amp;C11</f>
+        <v>ResIcon_Avatar01</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="8" t="str">
+        <f>G11&amp;"/"&amp;H11</f>
+        <v>Assets/ResAB/UI/common/Common_img_avatar_01.png</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" ref="D12:D15" si="2">B12&amp;"_"&amp;C12</f>
+        <v>ResIcon_Avatar02</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="8" t="str">
+        <f t="shared" ref="I12:I15" si="3">G12&amp;"/"&amp;H12</f>
+        <v>Assets/ResAB/UI/common/Common_img_avatar_02.png</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="2"/>
+        <v>ResIcon_Avatar03</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>Assets/ResAB/UI/common/Common_img_avatar_03.png</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="2"/>
+        <v>ResIcon_Avatar04</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>Assets/ResAB/UI/common/Common_img_avatar_04.png</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="2"/>
+        <v>ResIcon_Avatar05</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>Assets/ResAB/UI/common/Common_img_avatar_05.png</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResIconCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResIconCfg.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ResConfig\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA71214-BC2B-4577-8211-10F98090BFF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19635" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,6 +19,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="251">
   <si>
     <t>##var</t>
   </si>
@@ -42,7 +38,6 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -53,7 +48,6 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -69,7 +63,6 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -80,7 +73,6 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -88,10 +80,16 @@
     </r>
   </si>
   <si>
+    <t>res_name</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>string#path=unity</t>
   </si>
   <si>
     <t>##group</t>
@@ -108,7 +106,6 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -119,7 +116,6 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -133,31 +129,19 @@
     <t>描述</t>
   </si>
   <si>
-    <t>res_name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>资源路径</t>
   </si>
   <si>
-    <t>string#path=unity</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ResIcon</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
   </si>
   <si>
     <t>Assets/ResAB/UI/Icon</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Icon_1.png</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Player1</t>
@@ -169,178 +153,704 @@
     <t>HeadQuarter1</t>
   </si>
   <si>
+    <t>MonsterCall</t>
+  </si>
+  <si>
     <t>MachineGunTower_0</t>
   </si>
   <si>
+    <t>Icon_MachineGunTower_0.png</t>
+  </si>
+  <si>
     <t>EnergyPylon_2</t>
   </si>
   <si>
+    <t>Icon_EnergyPylon_2.png</t>
+  </si>
+  <si>
     <t>LaserTower_0</t>
   </si>
   <si>
+    <t>Icon_LaserTower_0.png</t>
+  </si>
+  <si>
     <t>RocketTower_1</t>
   </si>
   <si>
-    <t>NULL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon_MachineGunTower_0.png</t>
-  </si>
-  <si>
-    <t>Icon_EnergyPylon_2.png</t>
-  </si>
-  <si>
-    <t>Icon_LaserTower_0.png</t>
-  </si>
-  <si>
     <t>Icon_RocketTower_1.png</t>
   </si>
   <si>
     <t>Hoverboss</t>
   </si>
   <si>
+    <t>Icon_Hoverboss.png</t>
+  </si>
+  <si>
     <t>Hoverbuggy</t>
   </si>
   <si>
+    <t>Icon_Hoverbuggy.png</t>
+  </si>
+  <si>
     <t>Hovercopter</t>
   </si>
   <si>
+    <t>Icon_Hovercopter.png</t>
+  </si>
+  <si>
     <t>Hovertank</t>
   </si>
   <si>
-    <t>Icon_Hoverboss.png</t>
-  </si>
-  <si>
-    <t>Icon_Hoverbuggy.png</t>
-  </si>
-  <si>
-    <t>Icon_Hovercopter.png</t>
-  </si>
-  <si>
     <t>Icon_Hovertank.png</t>
   </si>
   <si>
-    <t>MonsterCall</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>TowerMagicBall1</t>
+  </si>
+  <si>
+    <t>Icon_TowerMagicBall1.png</t>
+  </si>
+  <si>
+    <t>TowerMagicBall2</t>
+  </si>
+  <si>
+    <t>Icon_TowerMagicBall2.png</t>
+  </si>
+  <si>
+    <t>TowerMagicBall3</t>
+  </si>
+  <si>
+    <t>Icon_TowerMagicBall3.png</t>
+  </si>
+  <si>
+    <t>TowerAlchemy1</t>
+  </si>
+  <si>
+    <t>Icon_TowerAlchemy1.png</t>
+  </si>
+  <si>
+    <t>TowerAlchemy2</t>
+  </si>
+  <si>
+    <t>Icon_TowerAlchemy2.png</t>
+  </si>
+  <si>
+    <t>TowerAlchemy3</t>
+  </si>
+  <si>
+    <t>Icon_TowerAlchemy3.png</t>
+  </si>
+  <si>
+    <t>TowerScorpio1</t>
+  </si>
+  <si>
+    <t>Icon_TowerScorpio1.png</t>
+  </si>
+  <si>
+    <t>TowerScorpio2</t>
+  </si>
+  <si>
+    <t>Icon_TowerScorpio2.png</t>
+  </si>
+  <si>
+    <t>TowerScorpio3</t>
+  </si>
+  <si>
+    <t>Icon_TowerScorpio3.png</t>
+  </si>
+  <si>
+    <t>TowerCurse1</t>
+  </si>
+  <si>
+    <t>Icon_TowerCurse1.png</t>
+  </si>
+  <si>
+    <t>TowerCurse2</t>
+  </si>
+  <si>
+    <t>Icon_TowerCurse2.png</t>
+  </si>
+  <si>
+    <t>TowerCurse3</t>
+  </si>
+  <si>
+    <t>Icon_TowerCurse3.png</t>
+  </si>
+  <si>
+    <t>Towerwitch1</t>
+  </si>
+  <si>
+    <t>Icon_Towerwitch1.png</t>
+  </si>
+  <si>
+    <t>Towerwitch2</t>
+  </si>
+  <si>
+    <t>Icon_Towerwitch2.png</t>
+  </si>
+  <si>
+    <t>Towerwitch3</t>
+  </si>
+  <si>
+    <t>Icon_Towerwitch3.png</t>
+  </si>
+  <si>
+    <t>TowerIceArrow1</t>
+  </si>
+  <si>
+    <t>Icon_TowerIceArrow1.png</t>
+  </si>
+  <si>
+    <t>TowerIceArrow2</t>
+  </si>
+  <si>
+    <t>Icon_TowerIceArrow2.png</t>
+  </si>
+  <si>
+    <t>TowerIceArrow3</t>
+  </si>
+  <si>
+    <t>Icon_TowerIceArrow3.png</t>
+  </si>
+  <si>
+    <t>TowerWater1</t>
+  </si>
+  <si>
+    <t>Icon_TowerWater1.png</t>
+  </si>
+  <si>
+    <t>TowerWater2</t>
+  </si>
+  <si>
+    <t>Icon_TowerWater2.png</t>
+  </si>
+  <si>
+    <t>TowerWater3</t>
+  </si>
+  <si>
+    <t>Icon_TowerWater3.png</t>
+  </si>
+  <si>
+    <t>TowerElectromagnetic1</t>
+  </si>
+  <si>
+    <t>Icon_TowerElectromagnetic1.png</t>
+  </si>
+  <si>
+    <t>TowerElectromagnetic2</t>
+  </si>
+  <si>
+    <t>Icon_TowerElectromagnetic2.png</t>
+  </si>
+  <si>
+    <t>TowerElectromagnetic3</t>
+  </si>
+  <si>
+    <t>Icon_TowerElectromagnetic3.png</t>
+  </si>
+  <si>
+    <t>TowerFire1</t>
+  </si>
+  <si>
+    <t>Icon_TowerFire1.png</t>
+  </si>
+  <si>
+    <t>TowerFire2</t>
+  </si>
+  <si>
+    <t>Icon_TowerFire2.png</t>
+  </si>
+  <si>
+    <t>TowerFire3</t>
+  </si>
+  <si>
+    <t>Icon_TowerFire3.png</t>
+  </si>
+  <si>
+    <t>TowerAoShu1</t>
+  </si>
+  <si>
+    <t>Icon_TowerAoShu1.png</t>
+  </si>
+  <si>
+    <t>TowerAoShu2</t>
+  </si>
+  <si>
+    <t>Icon_TowerAoShu2.png</t>
+  </si>
+  <si>
+    <t>TowerAoShu3</t>
+  </si>
+  <si>
+    <t>Icon_TowerAoShu3.png</t>
+  </si>
+  <si>
+    <t>TowerLianJi1</t>
+  </si>
+  <si>
+    <t>Icon_TowerLianJi1.png</t>
+  </si>
+  <si>
+    <t>TowerLianJi2</t>
+  </si>
+  <si>
+    <t>Icon_TowerLianJi2.png</t>
+  </si>
+  <si>
+    <t>TowerLianJi3</t>
+  </si>
+  <si>
+    <t>Icon_TowerLianJi3.png</t>
+  </si>
+  <si>
+    <t>TowerZaiE1</t>
+  </si>
+  <si>
+    <t>Icon_TowerZaiE1.png</t>
+  </si>
+  <si>
+    <t>TowerZaiE2</t>
+  </si>
+  <si>
+    <t>Icon_TowerZaiE2.png</t>
+  </si>
+  <si>
+    <t>TowerZaiE3</t>
+  </si>
+  <si>
+    <t>Icon_TowerZaiE3.png</t>
+  </si>
+  <si>
+    <t>TowerGoblin1</t>
+  </si>
+  <si>
+    <t>Icon_TowerGoblin1.png</t>
+  </si>
+  <si>
+    <t>TowerGoblin2</t>
+  </si>
+  <si>
+    <t>Icon_TowerGoblin2.png</t>
+  </si>
+  <si>
+    <t>TowerGoblin3</t>
+  </si>
+  <si>
+    <t>Icon_TowerGoblin3.png</t>
+  </si>
+  <si>
+    <t>TowerDuCi1</t>
+  </si>
+  <si>
+    <t>Icon_TowerDuCi1.png</t>
+  </si>
+  <si>
+    <t>TowerDuCi2</t>
+  </si>
+  <si>
+    <t>Icon_TowerDuCi2.png</t>
+  </si>
+  <si>
+    <t>TowerDuCi3</t>
+  </si>
+  <si>
+    <t>Icon_TowerDuCi3.png</t>
+  </si>
+  <si>
+    <t>TowerRocket1</t>
+  </si>
+  <si>
+    <t>Icon_TowerRocket1.png</t>
+  </si>
+  <si>
+    <t>TowerRocket2</t>
+  </si>
+  <si>
+    <t>Icon_TowerRocket2.png</t>
+  </si>
+  <si>
+    <t>TowerRocket3</t>
+  </si>
+  <si>
+    <t>Icon_TowerRocket3.png</t>
+  </si>
+  <si>
+    <t>TowerFireBall1</t>
+  </si>
+  <si>
+    <t>Icon_TowerFireBall1.png</t>
+  </si>
+  <si>
+    <t>TowerFireBall2</t>
+  </si>
+  <si>
+    <t>Icon_TowerFireBall2.png</t>
+  </si>
+  <si>
+    <t>TowerFireBall3</t>
+  </si>
+  <si>
+    <t>Icon_TowerFireBall3.png</t>
+  </si>
+  <si>
+    <t>Tower_ArrowSolo_1</t>
+  </si>
+  <si>
+    <t>ResIcon_Tower_ArrowSolo_1</t>
+  </si>
+  <si>
+    <t>Icon_Tower_ArrowSolo_1.png</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Icon/Icon_Tower_ArrowSolo_1.png</t>
+  </si>
+  <si>
+    <t>Tower_ArrowSolo_2</t>
+  </si>
+  <si>
+    <t>ResIcon_Tower_ArrowSolo_2</t>
+  </si>
+  <si>
+    <t>Icon_Tower_ArrowSolo_2.png</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Icon/Icon_Tower_ArrowSolo_2.png</t>
+  </si>
+  <si>
+    <t>Tower_ArrowSolo_3</t>
+  </si>
+  <si>
+    <t>ResIcon_Tower_ArrowSolo_3</t>
+  </si>
+  <si>
+    <t>Icon_Tower_ArrowSolo_3.png</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Icon/Icon_Tower_ArrowSolo_3.png</t>
+  </si>
+  <si>
+    <t>Tower_Canon_1</t>
+  </si>
+  <si>
+    <t>ResIcon_Tower_Canon_1</t>
+  </si>
+  <si>
+    <t>Icon_Tower_Canon_1.png</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Icon/Icon_Tower_Canon_1.png</t>
+  </si>
+  <si>
+    <t>Tower_Canon_2</t>
+  </si>
+  <si>
+    <t>ResIcon_Tower_Canon_2</t>
+  </si>
+  <si>
+    <t>Icon_Tower_Canon_2.png</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Icon/Icon_Tower_Canon_2.png</t>
+  </si>
+  <si>
+    <t>Tower_Canon_3</t>
+  </si>
+  <si>
+    <t>ResIcon_Tower_Canon_3</t>
+  </si>
+  <si>
+    <t>Icon_Tower_Canon_3.png</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Icon/Icon_Tower_Canon_3.png</t>
   </si>
   <si>
     <t>TowerDragon1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResIcon_TowerDragon1</t>
+  </si>
+  <si>
+    <t>Icon_TowerDragon1.png</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Icon/Icon_TowerDragon1.png</t>
+  </si>
+  <si>
+    <t>TowerDragon2</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerDragon2</t>
+  </si>
+  <si>
+    <t>Icon_TowerDragon2.png</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Icon/Icon_TowerDragon2.png</t>
+  </si>
+  <si>
+    <t>TowerDragon3</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerDragon3</t>
+  </si>
+  <si>
+    <t>Icon_TowerDragon3.png</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Icon/Icon_TowerDragon3.png</t>
   </si>
   <si>
     <t>TowerElec1</t>
   </si>
   <si>
+    <t>ResIcon_TowerElec1</t>
+  </si>
+  <si>
+    <t>Icon_TowerElec1.png</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Icon/Icon_TowerElec1.png</t>
+  </si>
+  <si>
+    <t>TowerElec2</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerElec2</t>
+  </si>
+  <si>
+    <t>Icon_TowerElec2.png</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Icon/Icon_TowerElec2.png</t>
+  </si>
+  <si>
+    <t>TowerElec3</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerElec3</t>
+  </si>
+  <si>
+    <t>Icon_TowerElec3.png</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Icon/Icon_TowerElec3.png</t>
+  </si>
+  <si>
     <t>TowerIce1</t>
   </si>
   <si>
+    <t>ResIcon_TowerIce1</t>
+  </si>
+  <si>
+    <t>Icon_TowerIce1.png</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Icon/Icon_TowerIce1.png</t>
+  </si>
+  <si>
+    <t>TowerIce2</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerIce2</t>
+  </si>
+  <si>
+    <t>Icon_TowerIce2.png</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Icon/Icon_TowerIce2.png</t>
+  </si>
+  <si>
+    <t>TowerIce3</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerIce3</t>
+  </si>
+  <si>
+    <t>Icon_TowerIce3.png</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Icon/Icon_TowerIce3.png</t>
+  </si>
+  <si>
     <t>TowerTime1</t>
   </si>
   <si>
-    <r>
-      <t>Icon_TowerDragon_1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.png</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon_TowerElec_1.png</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon_TowerIce_1.png</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon_TowerTime_1.png</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon_1.png</t>
+    <t>ResIcon_TowerTime1</t>
+  </si>
+  <si>
+    <t>Icon_TowerTime1.png</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Icon/Icon_TowerTime1.png</t>
+  </si>
+  <si>
+    <t>TowerTime2</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerTime2</t>
+  </si>
+  <si>
+    <t>Icon_TowerTime2.png</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Icon/Icon_TowerTime2.png</t>
+  </si>
+  <si>
+    <t>TowerTime3</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerTime3</t>
+  </si>
+  <si>
+    <t>Icon_TowerTime3.png</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Icon/Icon_TowerTime3.png</t>
+  </si>
+  <si>
+    <t>Tower_FireLine_1</t>
+  </si>
+  <si>
+    <t>ResIcon_Tower_FireLine_1</t>
+  </si>
+  <si>
+    <t>Icon_Tower_FireLine_1.png</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Icon/Icon_Tower_FireLine_1.png</t>
+  </si>
+  <si>
+    <t>Tower_FireLine_2</t>
+  </si>
+  <si>
+    <t>ResIcon_Tower_FireLine_2</t>
+  </si>
+  <si>
+    <t>Icon_Tower_FireLine_2.png</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Icon/Icon_Tower_FireLine_2.png</t>
+  </si>
+  <si>
+    <t>Tower_FireLine_3</t>
+  </si>
+  <si>
+    <t>ResIcon_Tower_FireLine_3</t>
+  </si>
+  <si>
+    <t>Icon_Tower_FireLine_3.png</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Icon/Icon_Tower_FireLine_3.png</t>
+  </si>
+  <si>
+    <t>Tower_DragCircle_1</t>
+  </si>
+  <si>
+    <t>ResIcon_Tower_DragCircle_1</t>
+  </si>
+  <si>
+    <t>Icon_Tower_DragCircle_1.png</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Icon/Icon_Tower_DragCircle_1.png</t>
+  </si>
+  <si>
+    <t>Tower_DragCircle_2</t>
+  </si>
+  <si>
+    <t>ResIcon_Tower_DragCircle_2</t>
+  </si>
+  <si>
+    <t>Icon_Tower_DragCircle_2.png</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Icon/Icon_Tower_DragCircle_2.png</t>
+  </si>
+  <si>
+    <t>Tower_DragCircle_3</t>
+  </si>
+  <si>
+    <t>ResIcon_Tower_DragCircle_3</t>
+  </si>
+  <si>
+    <t>Icon_Tower_DragCircle_3.png</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Icon/Icon_Tower_DragCircle_3.png</t>
+  </si>
+  <si>
+    <t>Beginners_Guide1</t>
   </si>
   <si>
     <t>Assets/ResAB/UI/Beginners_Guide</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Beginners_Guide_img_guide1.png</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beginners_Guide2</t>
   </si>
   <si>
     <t>Beginners_Guide_img_guide2.png</t>
   </si>
   <si>
+    <t>Beginners_Guide3</t>
+  </si>
+  <si>
     <t>Beginners_Guide_img_guide3.png</t>
   </si>
   <si>
+    <t>Beginners_Guide4</t>
+  </si>
+  <si>
     <t>Beginners_Guide_img_guide4.png</t>
   </si>
   <si>
+    <t>Avatar01</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/common</t>
+  </si>
+  <si>
+    <t>Common_img_avatar_01.png</t>
+  </si>
+  <si>
+    <t>Avatar02</t>
+  </si>
+  <si>
+    <t>Common_img_avatar_02.png</t>
+  </si>
+  <si>
+    <t>Avatar03</t>
+  </si>
+  <si>
+    <t>Common_img_avatar_03.png</t>
+  </si>
+  <si>
     <t>Avatar04</t>
   </si>
   <si>
-    <t>Avatar01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/ResAB/UI/common</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Common_img_avatar_04.png</t>
   </si>
   <si>
-    <t>Common_img_avatar_01.png</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Avatar02</t>
-  </si>
-  <si>
-    <t>Common_img_avatar_02.png</t>
-  </si>
-  <si>
-    <t>Avatar03</t>
-  </si>
-  <si>
-    <t>Common_img_avatar_03.png</t>
-  </si>
-  <si>
     <t>Avatar05</t>
   </si>
   <si>
     <t>Common_img_avatar_05.png</t>
-  </si>
-  <si>
-    <t>Beginners_Guide1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Beginners_Guide2</t>
-  </si>
-  <si>
-    <t>Beginners_Guide3</t>
-  </si>
-  <si>
-    <t>Beginners_Guide4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,7 +862,6 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -360,49 +869,141 @@
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -421,8 +1022,182 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -456,40 +1231,319 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="差" xfId="1" builtinId="27"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="2" builtinId="26"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -747,49 +1801,49 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AA94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="A1:I23"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="9.21875" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="1" max="2" width="9.25" customWidth="1"/>
+    <col min="3" max="3" width="32.625" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
-    <col min="7" max="7" width="31.33203125" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.625" customWidth="1"/>
+    <col min="7" max="7" width="31.375" customWidth="1"/>
+    <col min="8" max="8" width="20.625" customWidth="1"/>
+    <col min="9" max="9" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="7" customFormat="1" spans="1:27">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
       <c r="I1" s="5" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J1"/>
       <c r="K1"/>
@@ -810,18 +1864,18 @@
       <c r="Z1"/>
       <c r="AA1"/>
     </row>
-    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" s="7" customFormat="1" spans="1:27">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
@@ -841,25 +1895,25 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="4" t="s">
+    <row r="3" s="8" customFormat="1" spans="1:27">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="6" t="s">
-        <v>15</v>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="J3"/>
       <c r="K3"/>
@@ -880,20 +1934,20 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+    <row r="4" s="8" customFormat="1" spans="1:27">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
@@ -913,24 +1967,24 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="3" t="s">
+    <row r="5" s="7" customFormat="1" spans="1:27">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3" t="s">
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J5"/>
@@ -952,32 +2006,32 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
+    <row r="6" spans="2:9">
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="D6" t="str">
         <f>B6&amp;"_"&amp;C6</f>
         <v>ResIcon_NULL</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="7" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="8" t="str">
+      <c r="I6" s="6" t="str">
         <f>G6&amp;"/"&amp;H6</f>
         <v>Assets/ResAB/UI/Icon/Icon_1.png</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
-        <v>16</v>
+    <row r="7" spans="2:9">
+      <c r="B7" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -986,21 +2040,21 @@
         <f>B7&amp;"_"&amp;C7</f>
         <v>ResIcon_1</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="7" t="s">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="8" t="str">
+      <c r="I7" s="6" t="str">
         <f>G7&amp;"/"&amp;H7</f>
         <v>Assets/ResAB/UI/Icon/Icon_1.png</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
-        <v>16</v>
+    <row r="8" spans="2:9">
+      <c r="B8" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
@@ -1009,44 +2063,44 @@
         <f>B8&amp;"_"&amp;C8</f>
         <v>ResIcon_Player1</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="7" t="s">
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="8" t="str">
+      <c r="I8" s="6" t="str">
         <f>G8&amp;"/"&amp;H8</f>
         <v>Assets/ResAB/UI/Icon/Icon_1.png</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
-        <v>16</v>
+    <row r="9" spans="2:9">
+      <c r="B9" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" ref="D9:D16" si="0">B9&amp;"_"&amp;C9</f>
+        <f t="shared" ref="D9:D17" si="0">B9&amp;"_"&amp;C9</f>
         <v>ResIcon_Monster1</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="7" t="s">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="8" t="str">
-        <f t="shared" ref="I9:I16" si="1">G9&amp;"/"&amp;H9</f>
+      <c r="I9" s="6" t="str">
+        <f t="shared" ref="I9:I17" si="1">G9&amp;"/"&amp;H9</f>
         <v>Assets/ResAB/UI/Icon/Icon_1.png</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
-        <v>16</v>
+    <row r="10" spans="2:9">
+      <c r="B10" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -1055,646 +2109,2118 @@
         <f t="shared" si="0"/>
         <v>ResIcon_HeadQuarter1</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" s="8" t="str">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Assets/ResAB/UI/Icon/Icon_1.png</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>39</v>
+    <row r="11" spans="2:9">
+      <c r="B11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" ref="D11" si="2">B11&amp;"_"&amp;C11</f>
         <v>ResIcon_MonsterCall</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" s="8" t="str">
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="6" t="str">
         <f t="shared" ref="I11" si="3">G11&amp;"/"&amp;H11</f>
         <v>Assets/ResAB/UI/Icon/Icon_1.png</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" t="str">
+    <row r="12" spans="2:9">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="str">
         <f t="shared" si="0"/>
         <v>ResIcon_MachineGunTower_0</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" s="8" t="str">
+      <c r="F13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Assets/ResAB/UI/Icon/Icon_MachineGunTower_0.png</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="str">
+    <row r="14" spans="2:9">
+      <c r="B14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="str">
         <f t="shared" si="0"/>
         <v>ResIcon_EnergyPylon_2</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="8" t="str">
+      <c r="F14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Assets/ResAB/UI/Icon/Icon_EnergyPylon_2.png</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="str">
+    <row r="15" spans="2:9">
+      <c r="B15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="str">
         <f t="shared" si="0"/>
         <v>ResIcon_LaserTower_0</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" s="8" t="str">
+      <c r="F15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Assets/ResAB/UI/Icon/Icon_LaserTower_0.png</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="str">
+    <row r="16" spans="2:9">
+      <c r="B16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="str">
         <f t="shared" si="0"/>
         <v>ResIcon_RocketTower_1</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="7" t="s">
+      <c r="F16" s="4"/>
+      <c r="G16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="8" t="str">
+      <c r="I16" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Assets/ResAB/UI/Icon/Icon_RocketTower_1.png</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" t="s">
+    <row r="17" spans="2:9">
+      <c r="B17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
         <v>31</v>
       </c>
-      <c r="D16" t="str">
+      <c r="D17" t="str">
         <f t="shared" si="0"/>
         <v>ResIcon_Hoverboss</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I16" s="8" t="str">
+      <c r="F17" s="4"/>
+      <c r="G17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Assets/ResAB/UI/Icon/Icon_Hoverboss.png</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" t="str">
-        <f t="shared" ref="D17:D23" si="4">B17&amp;"_"&amp;C17</f>
-        <v>ResIcon_Hoverbuggy</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I17" s="8" t="str">
-        <f t="shared" ref="I17:I23" si="5">G17&amp;"/"&amp;H17</f>
-        <v>Assets/ResAB/UI/Icon/Icon_Hoverbuggy.png</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="7" t="s">
-        <v>16</v>
+    <row r="18" spans="2:9">
+      <c r="B18" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="4"/>
+        <f>B18&amp;"_"&amp;C18</f>
+        <v>ResIcon_Hoverbuggy</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="6" t="str">
+        <f>G18&amp;"/"&amp;H18</f>
+        <v>Assets/ResAB/UI/Icon/Icon_Hoverbuggy.png</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" t="str">
+        <f>B19&amp;"_"&amp;C19</f>
         <v>ResIcon_Hovercopter</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="7" t="s">
+      <c r="F19" s="4"/>
+      <c r="G19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" s="6" t="str">
+        <f>G19&amp;"/"&amp;H19</f>
+        <v>Assets/ResAB/UI/Icon/Icon_Hovercopter.png</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
         <v>37</v>
       </c>
-      <c r="I18" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>Assets/ResAB/UI/Icon/Icon_Hovercopter.png</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" t="str">
-        <f t="shared" si="4"/>
+      <c r="D20" t="str">
+        <f>B20&amp;"_"&amp;C20</f>
         <v>ResIcon_Hovertank</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="7" t="s">
+      <c r="F20" s="4"/>
+      <c r="G20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I19" s="8" t="str">
-        <f t="shared" si="5"/>
+      <c r="I20" s="6" t="str">
+        <f>G20&amp;"/"&amp;H20</f>
         <v>Assets/ResAB/UI/Icon/Icon_Hovertank.png</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7" t="s">
+    <row r="21" spans="2:9">
+      <c r="B21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" ref="D21:D69" si="4">B22&amp;"_"&amp;C22</f>
+        <v>ResIcon_TowerMagicBall1</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" t="s">
         <v>40</v>
       </c>
-      <c r="D20" t="str">
-        <f t="shared" si="4"/>
-        <v>ResIcon_TowerDragon1</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="7" t="s">
+      <c r="I22" s="6" t="str">
+        <f t="shared" ref="I21:I69" si="5">G22&amp;"/"&amp;H22</f>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerMagicBall1.png</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerMagicBall2</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerMagicBall2.png</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerMagicBall3</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" t="s">
         <v>44</v>
       </c>
-      <c r="I20" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerDragon_1.png</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" t="str">
-        <f t="shared" si="4"/>
-        <v>ResIcon_TowerElec1</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="7" t="s">
+      <c r="I24" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerMagicBall3.png</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
         <v>45</v>
       </c>
-      <c r="I21" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerElec_1.png</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" t="str">
-        <f t="shared" si="4"/>
-        <v>ResIcon_TowerIce1</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="7" t="s">
+      <c r="D25" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerAlchemy1</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" t="s">
         <v>46</v>
       </c>
-      <c r="I22" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerIce_1.png</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" t="str">
-        <f t="shared" si="4"/>
-        <v>ResIcon_TowerTime1</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" s="7" t="s">
+      <c r="I25" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerAlchemy1.png</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" t="s">
         <v>47</v>
       </c>
-      <c r="I23" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerTime_1.png</v>
+      <c r="D26" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerAlchemy2</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" t="s">
+        <v>48</v>
+      </c>
+      <c r="I26" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerAlchemy2.png</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerAlchemy3</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" t="s">
+        <v>50</v>
+      </c>
+      <c r="I27" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerAlchemy3.png</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerScorpio1</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" t="s">
+        <v>52</v>
+      </c>
+      <c r="I28" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerScorpio1.png</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerScorpio2</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" t="s">
+        <v>54</v>
+      </c>
+      <c r="I29" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerScorpio2.png</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerScorpio3</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" t="s">
+        <v>56</v>
+      </c>
+      <c r="I30" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerScorpio3.png</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerCurse1</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" t="s">
+        <v>58</v>
+      </c>
+      <c r="I31" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerCurse1.png</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerCurse2</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" t="s">
+        <v>60</v>
+      </c>
+      <c r="I32" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerCurse2.png</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerCurse3</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerCurse3.png</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_Towerwitch1</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" t="s">
+        <v>64</v>
+      </c>
+      <c r="I34" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon/Icon_Towerwitch1.png</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_Towerwitch2</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" t="s">
+        <v>66</v>
+      </c>
+      <c r="I35" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon/Icon_Towerwitch2.png</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_Towerwitch3</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" t="s">
+        <v>68</v>
+      </c>
+      <c r="I36" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon/Icon_Towerwitch3.png</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerIceArrow1</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" t="s">
+        <v>70</v>
+      </c>
+      <c r="I37" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerIceArrow1.png</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerIceArrow2</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" t="s">
+        <v>72</v>
+      </c>
+      <c r="I38" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerIceArrow2.png</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerIceArrow3</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" t="s">
+        <v>74</v>
+      </c>
+      <c r="I39" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerIceArrow3.png</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerWater1</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" t="s">
+        <v>76</v>
+      </c>
+      <c r="I40" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerWater1.png</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerWater2</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" t="s">
+        <v>78</v>
+      </c>
+      <c r="I41" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerWater2.png</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="B42" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" t="s">
+        <v>79</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerWater3</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" t="s">
+        <v>80</v>
+      </c>
+      <c r="I42" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerWater3.png</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="B43" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerElectromagnetic1</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" t="s">
+        <v>82</v>
+      </c>
+      <c r="I43" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerElectromagnetic1.png</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="B44" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerElectromagnetic2</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" t="s">
+        <v>84</v>
+      </c>
+      <c r="I44" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerElectromagnetic2.png</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="B45" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerElectromagnetic3</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" t="s">
+        <v>86</v>
+      </c>
+      <c r="I45" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerElectromagnetic3.png</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="B46" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" t="s">
+        <v>87</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerFire1</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" t="s">
+        <v>88</v>
+      </c>
+      <c r="I46" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerFire1.png</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9">
+      <c r="B47" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" t="s">
+        <v>89</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerFire2</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" t="s">
+        <v>90</v>
+      </c>
+      <c r="I47" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerFire2.png</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="B48" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" t="s">
+        <v>91</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerFire3</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" t="s">
+        <v>92</v>
+      </c>
+      <c r="I48" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerFire3.png</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9">
+      <c r="B49" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" t="s">
+        <v>93</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerAoShu1</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" t="s">
+        <v>94</v>
+      </c>
+      <c r="I49" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerAoShu1.png</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9">
+      <c r="B50" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" t="s">
+        <v>95</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerAoShu2</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" t="s">
+        <v>96</v>
+      </c>
+      <c r="I50" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerAoShu2.png</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9">
+      <c r="B51" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" t="s">
+        <v>97</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerAoShu3</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" t="s">
+        <v>98</v>
+      </c>
+      <c r="I51" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerAoShu3.png</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9">
+      <c r="B52" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" t="s">
+        <v>99</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerLianJi1</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" t="s">
+        <v>100</v>
+      </c>
+      <c r="I52" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerLianJi1.png</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9">
+      <c r="B53" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" t="s">
+        <v>101</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerLianJi2</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" t="s">
+        <v>102</v>
+      </c>
+      <c r="I53" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerLianJi2.png</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9">
+      <c r="B54" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" t="s">
+        <v>103</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerLianJi3</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" t="s">
+        <v>104</v>
+      </c>
+      <c r="I54" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerLianJi3.png</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9">
+      <c r="B55" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" t="s">
+        <v>105</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerZaiE1</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" t="s">
+        <v>106</v>
+      </c>
+      <c r="I55" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerZaiE1.png</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9">
+      <c r="B56" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" t="s">
+        <v>107</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerZaiE2</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" t="s">
+        <v>108</v>
+      </c>
+      <c r="I56" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerZaiE2.png</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9">
+      <c r="B57" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerZaiE3</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" t="s">
+        <v>110</v>
+      </c>
+      <c r="I57" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerZaiE3.png</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9">
+      <c r="B58" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" t="s">
+        <v>111</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerGoblin1</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" t="s">
+        <v>112</v>
+      </c>
+      <c r="I58" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerGoblin1.png</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9">
+      <c r="B59" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" t="s">
+        <v>113</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerGoblin2</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" t="s">
+        <v>114</v>
+      </c>
+      <c r="I59" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerGoblin2.png</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9">
+      <c r="B60" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" t="s">
+        <v>115</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerGoblin3</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" t="s">
+        <v>116</v>
+      </c>
+      <c r="I60" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerGoblin3.png</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9">
+      <c r="B61" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" t="s">
+        <v>117</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerDuCi1</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H61" t="s">
+        <v>118</v>
+      </c>
+      <c r="I61" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerDuCi1.png</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9">
+      <c r="B62" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" t="s">
+        <v>119</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerDuCi2</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H62" t="s">
+        <v>120</v>
+      </c>
+      <c r="I62" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerDuCi2.png</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9">
+      <c r="B63" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" t="s">
+        <v>121</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerDuCi3</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H63" t="s">
+        <v>122</v>
+      </c>
+      <c r="I63" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerDuCi3.png</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9">
+      <c r="B64" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" t="s">
+        <v>123</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerRocket1</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H64" t="s">
+        <v>124</v>
+      </c>
+      <c r="I64" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerRocket1.png</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9">
+      <c r="B65" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" t="s">
+        <v>125</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerRocket2</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H65" t="s">
+        <v>126</v>
+      </c>
+      <c r="I65" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerRocket2.png</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9">
+      <c r="B66" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" t="s">
+        <v>127</v>
+      </c>
+      <c r="D66" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerRocket3</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H66" t="s">
+        <v>128</v>
+      </c>
+      <c r="I66" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerRocket3.png</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9">
+      <c r="B67" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerFireBall1</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H67" t="s">
+        <v>130</v>
+      </c>
+      <c r="I67" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerFireBall1.png</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9">
+      <c r="B68" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" t="s">
+        <v>131</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerFireBall2</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H68" t="s">
+        <v>132</v>
+      </c>
+      <c r="I68" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerFireBall2.png</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9">
+      <c r="B69" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" t="s">
+        <v>133</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerFireBall3</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I69" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerFireBall3.png</v>
+      </c>
+    </row>
+    <row r="71" customFormat="1" spans="2:9">
+      <c r="B71" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D71" t="s">
+        <v>136</v>
+      </c>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="I71" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="72" customFormat="1" spans="2:9">
+      <c r="B72" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D72" t="s">
+        <v>140</v>
+      </c>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="I72" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="73" customFormat="1" spans="2:9">
+      <c r="B73" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="I73" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="74" customFormat="1" spans="2:9">
+      <c r="B74" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D74" t="s">
+        <v>148</v>
+      </c>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="I74" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="75" customFormat="1" spans="2:9">
+      <c r="B75" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D75" t="s">
+        <v>152</v>
+      </c>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I75" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="76" customFormat="1" spans="2:9">
+      <c r="B76" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D76" t="s">
+        <v>156</v>
+      </c>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="I76" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="77" customFormat="1" spans="2:9">
+      <c r="B77" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D77" t="s">
+        <v>160</v>
+      </c>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="I77" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="78" customFormat="1" spans="2:9">
+      <c r="B78" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D78" t="s">
+        <v>164</v>
+      </c>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="I78" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="79" customFormat="1" spans="2:9">
+      <c r="B79" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D79" t="s">
+        <v>168</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="I79" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="80" customFormat="1" spans="2:9">
+      <c r="B80" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D80" t="s">
+        <v>172</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="I80" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="81" customFormat="1" spans="2:9">
+      <c r="B81" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D81" t="s">
+        <v>176</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="I81" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="82" customFormat="1" spans="2:9">
+      <c r="B82" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D82" t="s">
+        <v>180</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="I82" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="83" customFormat="1" spans="2:9">
+      <c r="B83" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D83" t="s">
+        <v>184</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I83" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="84" customFormat="1" spans="2:9">
+      <c r="B84" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D84" t="s">
+        <v>188</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="I84" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="85" customFormat="1" spans="2:9">
+      <c r="B85" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D85" t="s">
+        <v>192</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="I85" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="86" customFormat="1" spans="2:9">
+      <c r="B86" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D86" t="s">
+        <v>196</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="I86" s="9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="87" customFormat="1" spans="2:9">
+      <c r="B87" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D87" t="s">
+        <v>200</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="I87" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="88" customFormat="1" spans="2:9">
+      <c r="B88" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D88" t="s">
+        <v>204</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="I88" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="89" customFormat="1" spans="2:9">
+      <c r="B89" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D89" t="s">
+        <v>208</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="I89" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="90" customFormat="1" spans="2:9">
+      <c r="B90" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D90" t="s">
+        <v>212</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="I90" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="91" customFormat="1" spans="2:9">
+      <c r="B91" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D91" t="s">
+        <v>216</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="I91" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="92" customFormat="1" spans="2:9">
+      <c r="B92" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D92" t="s">
+        <v>220</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="I92" s="9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="93" customFormat="1" spans="2:9">
+      <c r="B93" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D93" t="s">
+        <v>224</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="I93" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="94" customFormat="1" spans="2:9">
+      <c r="B94" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D94" t="s">
+        <v>228</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I94" s="9" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B46AE2C1-2AA7-4FF9-B793-82F93B725DED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="4" max="4" width="17.21875" customWidth="1"/>
-    <col min="7" max="7" width="32.33203125" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" customWidth="1"/>
-    <col min="9" max="9" width="25.77734375" customWidth="1"/>
+    <col min="4" max="4" width="17.25" customWidth="1"/>
+    <col min="7" max="7" width="32.375" customWidth="1"/>
+    <col min="8" max="8" width="30.625" customWidth="1"/>
+    <col min="9" max="9" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
       <c r="I1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="6" t="s">
+      <c r="F5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3" t="s">
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>65</v>
+    <row r="6" spans="2:9">
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>231</v>
       </c>
       <c r="D6" t="str">
         <f>B6&amp;"_"&amp;C6</f>
         <v>ResIcon_Beginners_Guide1</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="8" t="str">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="I6" s="6" t="str">
         <f>G6&amp;"/"&amp;H6</f>
         <v>Assets/ResAB/UI/Beginners_Guide/Beginners_Guide_img_guide1.png</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>66</v>
+    <row r="7" spans="2:9">
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="D7" t="str">
         <f>B7&amp;"_"&amp;C7</f>
         <v>ResIcon_Beginners_Guide2</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="8" t="str">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="I7" s="6" t="str">
         <f>G7&amp;"/"&amp;H7</f>
         <v>Assets/ResAB/UI/Beginners_Guide/Beginners_Guide_img_guide2.png</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>67</v>
+    <row r="8" spans="2:9">
+      <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="D8" t="str">
         <f>B8&amp;"_"&amp;C8</f>
         <v>ResIcon_Beginners_Guide3</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" s="8" t="str">
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="I8" s="6" t="str">
         <f>G8&amp;"/"&amp;H8</f>
         <v>Assets/ResAB/UI/Beginners_Guide/Beginners_Guide_img_guide3.png</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>68</v>
+    <row r="9" spans="2:9">
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>238</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" ref="D9" si="0">B9&amp;"_"&amp;C9</f>
         <v>ResIcon_Beginners_Guide4</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="8" t="str">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="I9" s="6" t="str">
         <f t="shared" ref="I9" si="1">G9&amp;"/"&amp;H9</f>
         <v>Assets/ResAB/UI/Beginners_Guide/Beginners_Guide_img_guide4.png</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>55</v>
+    <row r="11" spans="2:9">
+      <c r="B11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>240</v>
       </c>
       <c r="D11" t="str">
         <f>B11&amp;"_"&amp;C11</f>
         <v>ResIcon_Avatar01</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="I11" s="8" t="str">
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="I11" s="6" t="str">
         <f>G11&amp;"/"&amp;H11</f>
         <v>Assets/ResAB/UI/common/Common_img_avatar_01.png</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>59</v>
+    <row r="12" spans="2:9">
+      <c r="B12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>243</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" ref="D12:D15" si="2">B12&amp;"_"&amp;C12</f>
         <v>ResIcon_Avatar02</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="I12" s="8" t="str">
+      <c r="F12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="I12" s="6" t="str">
         <f t="shared" ref="I12:I15" si="3">G12&amp;"/"&amp;H12</f>
         <v>Assets/ResAB/UI/common/Common_img_avatar_02.png</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>61</v>
+    <row r="13" spans="2:9">
+      <c r="B13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>245</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="2"/>
         <v>ResIcon_Avatar03</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="I13" s="8" t="str">
+      <c r="F13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="I13" s="6" t="str">
         <f t="shared" si="3"/>
         <v>Assets/ResAB/UI/common/Common_img_avatar_03.png</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>54</v>
+    <row r="14" spans="2:9">
+      <c r="B14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>247</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="2"/>
         <v>ResIcon_Avatar04</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="I14" s="8" t="str">
+      <c r="F14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="I14" s="6" t="str">
         <f t="shared" si="3"/>
         <v>Assets/ResAB/UI/common/Common_img_avatar_04.png</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>63</v>
+    <row r="15" spans="2:9">
+      <c r="B15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="2"/>
         <v>ResIcon_Avatar05</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I15" s="8" t="str">
+      <c r="F15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="I15" s="6" t="str">
         <f t="shared" si="3"/>
         <v>Assets/ResAB/UI/common/Common_img_avatar_05.png</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H17" s="7"/>
+    <row r="16" spans="2:8">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="8:8">
+      <c r="H17" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResIconCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResIconCfg.xlsx
@@ -492,76 +492,76 @@
     <t>Icon_TowerFireBall3.png</t>
   </si>
   <si>
-    <t>Tower_ArrowSolo_1</t>
-  </si>
-  <si>
-    <t>ResIcon_Tower_ArrowSolo_1</t>
-  </si>
-  <si>
-    <t>Icon_Tower_ArrowSolo_1.png</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UI/Icon/Icon_Tower_ArrowSolo_1.png</t>
-  </si>
-  <si>
-    <t>Tower_ArrowSolo_2</t>
-  </si>
-  <si>
-    <t>ResIcon_Tower_ArrowSolo_2</t>
-  </si>
-  <si>
-    <t>Icon_Tower_ArrowSolo_2.png</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UI/Icon/Icon_Tower_ArrowSolo_2.png</t>
-  </si>
-  <si>
-    <t>Tower_ArrowSolo_3</t>
-  </si>
-  <si>
-    <t>ResIcon_Tower_ArrowSolo_3</t>
-  </si>
-  <si>
-    <t>Icon_Tower_ArrowSolo_3.png</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UI/Icon/Icon_Tower_ArrowSolo_3.png</t>
-  </si>
-  <si>
-    <t>Tower_Canon_1</t>
-  </si>
-  <si>
-    <t>ResIcon_Tower_Canon_1</t>
-  </si>
-  <si>
-    <t>Icon_Tower_Canon_1.png</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UI/Icon/Icon_Tower_Canon_1.png</t>
-  </si>
-  <si>
-    <t>Tower_Canon_2</t>
-  </si>
-  <si>
-    <t>ResIcon_Tower_Canon_2</t>
-  </si>
-  <si>
-    <t>Icon_Tower_Canon_2.png</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UI/Icon/Icon_Tower_Canon_2.png</t>
-  </si>
-  <si>
-    <t>Tower_Canon_3</t>
-  </si>
-  <si>
-    <t>ResIcon_Tower_Canon_3</t>
-  </si>
-  <si>
-    <t>Icon_Tower_Canon_3.png</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UI/Icon/Icon_Tower_Canon_3.png</t>
+    <t>TowerArrowSolo1</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerArrowSolo1</t>
+  </si>
+  <si>
+    <t>Icon_TowerArrowSolo1.png</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Icon/Icon_TowerArrowSolo1.png</t>
+  </si>
+  <si>
+    <t>TowerArrowSolo2</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerArrowSolo2</t>
+  </si>
+  <si>
+    <t>Icon_TowerArrowSolo2.png</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Icon/Icon_TowerArrowSolo2.png</t>
+  </si>
+  <si>
+    <t>TowerArrowSolo3</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerArrowSolo3</t>
+  </si>
+  <si>
+    <t>Icon_TowerArrowSolo3.png</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Icon/Icon_TowerArrowSolo3.png</t>
+  </si>
+  <si>
+    <t>TowerCanon1</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerCanon1</t>
+  </si>
+  <si>
+    <t>Icon_TowerCanon1.png</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Icon/Icon_TowerCanon1.png</t>
+  </si>
+  <si>
+    <t>TowerCanon2</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerCanon2</t>
+  </si>
+  <si>
+    <t>Icon_TowerCanon2.png</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Icon/Icon_TowerCanon2.png</t>
+  </si>
+  <si>
+    <t>TowerCanon3</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerCanon3</t>
+  </si>
+  <si>
+    <t>Icon_TowerCanon3.png</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Icon/Icon_TowerCanon3.png</t>
   </si>
   <si>
     <t>TowerDragon1</t>
@@ -708,76 +708,76 @@
     <t>Assets/ResAB/UI/Icon/Icon_TowerTime3.png</t>
   </si>
   <si>
-    <t>Tower_FireLine_1</t>
-  </si>
-  <si>
-    <t>ResIcon_Tower_FireLine_1</t>
-  </si>
-  <si>
-    <t>Icon_Tower_FireLine_1.png</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UI/Icon/Icon_Tower_FireLine_1.png</t>
-  </si>
-  <si>
-    <t>Tower_FireLine_2</t>
-  </si>
-  <si>
-    <t>ResIcon_Tower_FireLine_2</t>
-  </si>
-  <si>
-    <t>Icon_Tower_FireLine_2.png</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UI/Icon/Icon_Tower_FireLine_2.png</t>
-  </si>
-  <si>
-    <t>Tower_FireLine_3</t>
-  </si>
-  <si>
-    <t>ResIcon_Tower_FireLine_3</t>
-  </si>
-  <si>
-    <t>Icon_Tower_FireLine_3.png</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UI/Icon/Icon_Tower_FireLine_3.png</t>
-  </si>
-  <si>
-    <t>Tower_DragCircle_1</t>
-  </si>
-  <si>
-    <t>ResIcon_Tower_DragCircle_1</t>
-  </si>
-  <si>
-    <t>Icon_Tower_DragCircle_1.png</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UI/Icon/Icon_Tower_DragCircle_1.png</t>
-  </si>
-  <si>
-    <t>Tower_DragCircle_2</t>
-  </si>
-  <si>
-    <t>ResIcon_Tower_DragCircle_2</t>
-  </si>
-  <si>
-    <t>Icon_Tower_DragCircle_2.png</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UI/Icon/Icon_Tower_DragCircle_2.png</t>
-  </si>
-  <si>
-    <t>Tower_DragCircle_3</t>
-  </si>
-  <si>
-    <t>ResIcon_Tower_DragCircle_3</t>
-  </si>
-  <si>
-    <t>Icon_Tower_DragCircle_3.png</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UI/Icon/Icon_Tower_DragCircle_3.png</t>
+    <t>TowerFireLine1</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerFireLine1</t>
+  </si>
+  <si>
+    <t>Icon_TowerFireLine1.png</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Icon/Icon_TowerFireLine1.png</t>
+  </si>
+  <si>
+    <t>TowerFireLine2</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerFireLine2</t>
+  </si>
+  <si>
+    <t>Icon_TowerFireLine2.png</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Icon/Icon_TowerFireLine2.png</t>
+  </si>
+  <si>
+    <t>TowerFireLine3</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerFireLine3</t>
+  </si>
+  <si>
+    <t>Icon_TowerFireLine3.png</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Icon/Icon_TowerFireLine3.png</t>
+  </si>
+  <si>
+    <t>TowerDragCircle1</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerDragCircle1</t>
+  </si>
+  <si>
+    <t>Icon_TowerDragCircle1.png</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Icon/Icon_TowerDragCircle1.png</t>
+  </si>
+  <si>
+    <t>TowerDragCircle2</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerDragCircle2</t>
+  </si>
+  <si>
+    <t>Icon_TowerDragCircle2.png</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Icon/Icon_TowerDragCircle2.png</t>
+  </si>
+  <si>
+    <t>TowerDragCircle3</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerDragCircle3</t>
+  </si>
+  <si>
+    <t>Icon_TowerDragCircle3.png</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Icon/Icon_TowerDragCircle3.png</t>
   </si>
   <si>
     <t>Beginners_Guide1</t>
@@ -1809,8 +1809,8 @@
   <sheetPr/>
   <dimension ref="A1:AA94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2083,7 +2083,7 @@
         <v>20</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" ref="D9:D17" si="0">B9&amp;"_"&amp;C9</f>
+        <f t="shared" ref="D9:D20" si="0">B9&amp;"_"&amp;C9</f>
         <v>ResIcon_Monster1</v>
       </c>
       <c r="F9" s="4"/>
@@ -2094,7 +2094,7 @@
         <v>18</v>
       </c>
       <c r="I9" s="6" t="str">
-        <f t="shared" ref="I9:I17" si="1">G9&amp;"/"&amp;H9</f>
+        <f t="shared" ref="I9:I20" si="1">G9&amp;"/"&amp;H9</f>
         <v>Assets/ResAB/UI/Icon/Icon_1.png</v>
       </c>
     </row>
@@ -2275,7 +2275,7 @@
         <v>33</v>
       </c>
       <c r="D18" t="str">
-        <f>B18&amp;"_"&amp;C18</f>
+        <f t="shared" si="0"/>
         <v>ResIcon_Hoverbuggy</v>
       </c>
       <c r="F18" s="4"/>
@@ -2286,7 +2286,7 @@
         <v>34</v>
       </c>
       <c r="I18" s="6" t="str">
-        <f>G18&amp;"/"&amp;H18</f>
+        <f t="shared" si="1"/>
         <v>Assets/ResAB/UI/Icon/Icon_Hoverbuggy.png</v>
       </c>
     </row>
@@ -2298,7 +2298,7 @@
         <v>35</v>
       </c>
       <c r="D19" t="str">
-        <f>B19&amp;"_"&amp;C19</f>
+        <f t="shared" si="0"/>
         <v>ResIcon_Hovercopter</v>
       </c>
       <c r="F19" s="4"/>
@@ -2309,7 +2309,7 @@
         <v>36</v>
       </c>
       <c r="I19" s="6" t="str">
-        <f>G19&amp;"/"&amp;H19</f>
+        <f t="shared" si="1"/>
         <v>Assets/ResAB/UI/Icon/Icon_Hovercopter.png</v>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
         <v>37</v>
       </c>
       <c r="D20" t="str">
-        <f>B20&amp;"_"&amp;C20</f>
+        <f t="shared" si="0"/>
         <v>ResIcon_Hovertank</v>
       </c>
       <c r="F20" s="4"/>
@@ -2332,7 +2332,7 @@
         <v>38</v>
       </c>
       <c r="I20" s="6" t="str">
-        <f>G20&amp;"/"&amp;H20</f>
+        <f t="shared" si="1"/>
         <v>Assets/ResAB/UI/Icon/Icon_Hovertank.png</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResIconCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResIconCfg.xlsx
@@ -1,34 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ResConfig\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209F615A-8B8B-4DC4-8517-58891A92EF09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7695"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="293">
   <si>
     <t>##var</t>
   </si>
@@ -777,80 +770,208 @@
     <t>Icon_TowerDragCircle3.png</t>
   </si>
   <si>
+    <t>Beginners_Guide1</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Beginners_Guide</t>
+  </si>
+  <si>
+    <t>Beginners_Guide_img_guide1.png</t>
+  </si>
+  <si>
+    <t>Beginners_Guide2</t>
+  </si>
+  <si>
+    <t>Beginners_Guide_img_guide2.png</t>
+  </si>
+  <si>
+    <t>Beginners_Guide3</t>
+  </si>
+  <si>
+    <t>Beginners_Guide_img_guide3.png</t>
+  </si>
+  <si>
+    <t>Beginners_Guide4</t>
+  </si>
+  <si>
+    <t>Beginners_Guide_img_guide4.png</t>
+  </si>
+  <si>
+    <t>Avatar01</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/common</t>
+  </si>
+  <si>
+    <t>Common_img_avatar_01.png</t>
+  </si>
+  <si>
+    <t>Avatar02</t>
+  </si>
+  <si>
+    <t>Common_img_avatar_02.png</t>
+  </si>
+  <si>
+    <t>Avatar03</t>
+  </si>
+  <si>
+    <t>Common_img_avatar_03.png</t>
+  </si>
+  <si>
+    <t>Avatar04</t>
+  </si>
+  <si>
+    <t>Common_img_avatar_04.png</t>
+  </si>
+  <si>
+    <t>Avatar05</t>
+  </si>
+  <si>
+    <t>Common_img_avatar_05.png</t>
+  </si>
+  <si>
+    <t>Monster_MiFeng1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_MiFeng2</t>
+  </si>
+  <si>
+    <t>Monster_MiFeng3</t>
+  </si>
+  <si>
+    <t>Monster_BianFu1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_BianFu2</t>
+  </si>
+  <si>
+    <t>Monster_BianFu3</t>
+  </si>
+  <si>
+    <t>Monster_ZhiZhu1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_ZhiZhu2</t>
+  </si>
+  <si>
+    <t>Monster_ZhiZhu3</t>
+  </si>
+  <si>
+    <t>Monster_ZhongZi1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_ZhongZi2</t>
+  </si>
+  <si>
+    <t>Monster_ZhongZi3</t>
+  </si>
+  <si>
+    <t>Monster_Gui1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_Gui2</t>
+  </si>
+  <si>
+    <t>Monster_Gui3</t>
+  </si>
+  <si>
+    <t>Monster_Dan1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_Dan2</t>
+  </si>
+  <si>
+    <t>Monster_Dan3</t>
+  </si>
+  <si>
+    <t>Monster_Niao1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_Niao2</t>
+  </si>
+  <si>
+    <t>Monster_Niao3</t>
+  </si>
+  <si>
+    <t>Icon_Monster_Gui1</t>
+  </si>
+  <si>
+    <t>Icon_Monster_MiFeng1</t>
+  </si>
+  <si>
+    <t>Icon_Monster_MiFeng2</t>
+  </si>
+  <si>
+    <t>Icon_Monster_MiFeng3</t>
+  </si>
+  <si>
+    <t>Icon_Monster_BianFu1</t>
+  </si>
+  <si>
+    <t>Icon_Monster_BianFu2</t>
+  </si>
+  <si>
+    <t>Icon_Monster_BianFu3</t>
+  </si>
+  <si>
+    <t>Icon_Monster_ZhiZhu1</t>
+  </si>
+  <si>
+    <t>Icon_Monster_ZhiZhu2</t>
+  </si>
+  <si>
+    <t>Icon_Monster_ZhiZhu3</t>
+  </si>
+  <si>
+    <t>Icon_Monster_ZhongZi1</t>
+  </si>
+  <si>
+    <t>Icon_Monster_ZhongZi2</t>
+  </si>
+  <si>
+    <t>Icon_Monster_ZhongZi3</t>
+  </si>
+  <si>
+    <t>Icon_Monster_Gui2</t>
+  </si>
+  <si>
+    <t>Icon_Monster_Gui3</t>
+  </si>
+  <si>
+    <t>Icon_Monster_Dan1</t>
+  </si>
+  <si>
+    <t>Icon_Monster_Dan2</t>
+  </si>
+  <si>
+    <t>Icon_Monster_Dan3</t>
+  </si>
+  <si>
+    <t>Icon_Monster_Niao1</t>
+  </si>
+  <si>
+    <t>Icon_Monster_Niao2</t>
+  </si>
+  <si>
+    <t>Icon_Monster_Niao3</t>
+  </si>
+  <si>
     <t>Assets/ResAB/UI/Icon/Icon_TowerDragCircle3.png</t>
-  </si>
-  <si>
-    <t>Beginners_Guide1</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UI/Beginners_Guide</t>
-  </si>
-  <si>
-    <t>Beginners_Guide_img_guide1.png</t>
-  </si>
-  <si>
-    <t>Beginners_Guide2</t>
-  </si>
-  <si>
-    <t>Beginners_Guide_img_guide2.png</t>
-  </si>
-  <si>
-    <t>Beginners_Guide3</t>
-  </si>
-  <si>
-    <t>Beginners_Guide_img_guide3.png</t>
-  </si>
-  <si>
-    <t>Beginners_Guide4</t>
-  </si>
-  <si>
-    <t>Beginners_Guide_img_guide4.png</t>
-  </si>
-  <si>
-    <t>Avatar01</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UI/common</t>
-  </si>
-  <si>
-    <t>Common_img_avatar_01.png</t>
-  </si>
-  <si>
-    <t>Avatar02</t>
-  </si>
-  <si>
-    <t>Common_img_avatar_02.png</t>
-  </si>
-  <si>
-    <t>Avatar03</t>
-  </si>
-  <si>
-    <t>Common_img_avatar_03.png</t>
-  </si>
-  <si>
-    <t>Avatar04</t>
-  </si>
-  <si>
-    <t>Common_img_avatar_04.png</t>
-  </si>
-  <si>
-    <t>Avatar05</t>
-  </si>
-  <si>
-    <t>Common_img_avatar_05.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -873,137 +994,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1022,182 +1026,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1231,319 +1061,40 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+  </cellStyleXfs>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="3">
+    <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1801,19 +1352,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AA94"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="I96" sqref="I96:I116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9.25" customWidth="1"/>
     <col min="3" max="3" width="32.625" customWidth="1"/>
@@ -1825,7 +1376,7 @@
     <col min="9" max="9" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" spans="1:27">
+    <row r="1" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1842,7 +1393,7 @@
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J1"/>
@@ -1864,7 +1415,7 @@
       <c r="Z1"/>
       <c r="AA1"/>
     </row>
-    <row r="2" s="7" customFormat="1" spans="1:27">
+    <row r="2" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1895,13 +1446,13 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" s="8" customFormat="1" spans="1:27">
+    <row r="3" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -1912,7 +1463,7 @@
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J3"/>
@@ -1934,7 +1485,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" s="8" customFormat="1" spans="1:27">
+    <row r="4" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1967,7 +1518,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" s="7" customFormat="1" spans="1:27">
+    <row r="5" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -2006,31 +1557,30 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="2:9">
-      <c r="B6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="4" t="s">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
         <v>16</v>
       </c>
       <c r="D6" t="str">
         <f>B6&amp;"_"&amp;C6</f>
         <v>ResIcon_NULL</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="4" t="s">
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="6" t="str">
+      <c r="I6" s="3" t="str">
         <f>G6&amp;"/"&amp;H6</f>
         <v>Assets/ResAB/UI/Icon/Icon_1.png</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="4" t="s">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7">
@@ -2040,20 +1590,19 @@
         <f>B7&amp;"_"&amp;C7</f>
         <v>ResIcon_1</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="4" t="s">
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="6" t="str">
+      <c r="I7" s="3" t="str">
         <f>G7&amp;"/"&amp;H7</f>
         <v>Assets/ResAB/UI/Icon/Icon_1.png</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8" t="s">
@@ -2063,20 +1612,19 @@
         <f>B8&amp;"_"&amp;C8</f>
         <v>ResIcon_Player1</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="4" t="s">
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="6" t="str">
+      <c r="I8" s="3" t="str">
         <f>G8&amp;"/"&amp;H8</f>
         <v>Assets/ResAB/UI/Icon/Icon_1.png</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9" t="s">
@@ -2086,20 +1634,19 @@
         <f t="shared" ref="D9:D20" si="0">B9&amp;"_"&amp;C9</f>
         <v>ResIcon_Monster1</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="4" t="s">
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="6" t="str">
+      <c r="I9" s="3" t="str">
         <f t="shared" ref="I9:I20" si="1">G9&amp;"/"&amp;H9</f>
         <v>Assets/ResAB/UI/Icon/Icon_1.png</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="4" t="s">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10" t="s">
@@ -2109,51 +1656,44 @@
         <f t="shared" si="0"/>
         <v>ResIcon_HeadQuarter1</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="4" t="s">
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="6" t="str">
+      <c r="I10" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Assets/ResAB/UI/Icon/Icon_1.png</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="4" t="s">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
         <v>22</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" ref="D11" si="2">B11&amp;"_"&amp;C11</f>
         <v>ResIcon_MonsterCall</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="4" t="s">
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="6" t="str">
+      <c r="I11" s="3" t="str">
         <f t="shared" ref="I11" si="3">G11&amp;"/"&amp;H11</f>
         <v>Assets/ResAB/UI/Icon/Icon_1.png</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="4" t="s">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="C13" t="s">
@@ -2163,20 +1703,19 @@
         <f t="shared" si="0"/>
         <v>ResIcon_MachineGunTower_0</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="4" t="s">
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="6" t="str">
+      <c r="I13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Assets/ResAB/UI/Icon/Icon_MachineGunTower_0.png</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="4" t="s">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14" t="s">
@@ -2186,20 +1725,19 @@
         <f t="shared" si="0"/>
         <v>ResIcon_EnergyPylon_2</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="4" t="s">
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="6" t="str">
+      <c r="I14" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Assets/ResAB/UI/Icon/Icon_EnergyPylon_2.png</v>
       </c>
     </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="4" t="s">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15" t="s">
@@ -2209,20 +1747,19 @@
         <f t="shared" si="0"/>
         <v>ResIcon_LaserTower_0</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="4" t="s">
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="6" t="str">
+      <c r="I15" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Assets/ResAB/UI/Icon/Icon_LaserTower_0.png</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
-      <c r="B16" s="4" t="s">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
         <v>15</v>
       </c>
       <c r="C16" t="s">
@@ -2232,20 +1769,19 @@
         <f t="shared" si="0"/>
         <v>ResIcon_RocketTower_1</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="4" t="s">
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="6" t="str">
+      <c r="I16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Assets/ResAB/UI/Icon/Icon_RocketTower_1.png</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="4" t="s">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
         <v>15</v>
       </c>
       <c r="C17" t="s">
@@ -2255,20 +1791,19 @@
         <f t="shared" si="0"/>
         <v>ResIcon_Hoverboss</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="4" t="s">
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="6" t="str">
+      <c r="I17" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Assets/ResAB/UI/Icon/Icon_Hoverboss.png</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="4" t="s">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
         <v>15</v>
       </c>
       <c r="C18" t="s">
@@ -2278,20 +1813,19 @@
         <f t="shared" si="0"/>
         <v>ResIcon_Hoverbuggy</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="4" t="s">
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="6" t="str">
+      <c r="I18" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Assets/ResAB/UI/Icon/Icon_Hoverbuggy.png</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="4" t="s">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
         <v>15</v>
       </c>
       <c r="C19" t="s">
@@ -2301,20 +1835,19 @@
         <f t="shared" si="0"/>
         <v>ResIcon_Hovercopter</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="4" t="s">
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="6" t="str">
+      <c r="I19" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Assets/ResAB/UI/Icon/Icon_Hovercopter.png</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
-      <c r="B20" s="4" t="s">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
         <v>15</v>
       </c>
       <c r="C20" t="s">
@@ -2324,48 +1857,44 @@
         <f t="shared" si="0"/>
         <v>ResIcon_Hovertank</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="4" t="s">
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="6" t="str">
+      <c r="I20" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Assets/ResAB/UI/Icon/Icon_Hovertank.png</v>
       </c>
     </row>
-    <row r="21" spans="2:9">
-      <c r="B21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="6"/>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="B22" s="4" t="s">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
         <v>15</v>
       </c>
       <c r="C22" t="s">
         <v>39</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" ref="D21:D69" si="4">B22&amp;"_"&amp;C22</f>
+        <f t="shared" ref="D22:D69" si="4">B22&amp;"_"&amp;C22</f>
         <v>ResIcon_TowerMagicBall1</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" t="s">
         <v>17</v>
       </c>
       <c r="H22" t="s">
         <v>40</v>
       </c>
-      <c r="I22" s="6" t="str">
-        <f t="shared" ref="I21:I69" si="5">G22&amp;"/"&amp;H22</f>
+      <c r="I22" s="3" t="str">
+        <f t="shared" ref="I22:I69" si="5">G22&amp;"/"&amp;H22</f>
         <v>Assets/ResAB/UI/Icon/Icon_TowerMagicBall1.png</v>
       </c>
     </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="4" t="s">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
         <v>15</v>
       </c>
       <c r="C23" t="s">
@@ -2375,19 +1904,19 @@
         <f t="shared" si="4"/>
         <v>ResIcon_TowerMagicBall2</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" t="s">
         <v>17</v>
       </c>
       <c r="H23" t="s">
         <v>42</v>
       </c>
-      <c r="I23" s="6" t="str">
+      <c r="I23" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerMagicBall2.png</v>
       </c>
     </row>
-    <row r="24" spans="2:9">
-      <c r="B24" s="4" t="s">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
         <v>15</v>
       </c>
       <c r="C24" t="s">
@@ -2397,19 +1926,19 @@
         <f t="shared" si="4"/>
         <v>ResIcon_TowerMagicBall3</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" t="s">
         <v>17</v>
       </c>
       <c r="H24" t="s">
         <v>44</v>
       </c>
-      <c r="I24" s="6" t="str">
+      <c r="I24" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerMagicBall3.png</v>
       </c>
     </row>
-    <row r="25" spans="2:9">
-      <c r="B25" s="4" t="s">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>15</v>
       </c>
       <c r="C25" t="s">
@@ -2419,19 +1948,19 @@
         <f t="shared" si="4"/>
         <v>ResIcon_TowerAlchemy1</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" t="s">
         <v>17</v>
       </c>
       <c r="H25" t="s">
         <v>46</v>
       </c>
-      <c r="I25" s="6" t="str">
+      <c r="I25" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerAlchemy1.png</v>
       </c>
     </row>
-    <row r="26" spans="2:9">
-      <c r="B26" s="4" t="s">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
         <v>15</v>
       </c>
       <c r="C26" t="s">
@@ -2441,19 +1970,19 @@
         <f t="shared" si="4"/>
         <v>ResIcon_TowerAlchemy2</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" t="s">
         <v>17</v>
       </c>
       <c r="H26" t="s">
         <v>48</v>
       </c>
-      <c r="I26" s="6" t="str">
+      <c r="I26" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerAlchemy2.png</v>
       </c>
     </row>
-    <row r="27" spans="2:9">
-      <c r="B27" s="4" t="s">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
         <v>15</v>
       </c>
       <c r="C27" t="s">
@@ -2463,19 +1992,19 @@
         <f t="shared" si="4"/>
         <v>ResIcon_TowerAlchemy3</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" t="s">
         <v>17</v>
       </c>
       <c r="H27" t="s">
         <v>50</v>
       </c>
-      <c r="I27" s="6" t="str">
+      <c r="I27" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerAlchemy3.png</v>
       </c>
     </row>
-    <row r="28" spans="2:9">
-      <c r="B28" s="4" t="s">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
         <v>15</v>
       </c>
       <c r="C28" t="s">
@@ -2485,19 +2014,19 @@
         <f t="shared" si="4"/>
         <v>ResIcon_TowerScorpio1</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" t="s">
         <v>17</v>
       </c>
       <c r="H28" t="s">
         <v>52</v>
       </c>
-      <c r="I28" s="6" t="str">
+      <c r="I28" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerScorpio1.png</v>
       </c>
     </row>
-    <row r="29" spans="2:9">
-      <c r="B29" s="4" t="s">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
         <v>15</v>
       </c>
       <c r="C29" t="s">
@@ -2507,19 +2036,19 @@
         <f t="shared" si="4"/>
         <v>ResIcon_TowerScorpio2</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" t="s">
         <v>17</v>
       </c>
       <c r="H29" t="s">
         <v>54</v>
       </c>
-      <c r="I29" s="6" t="str">
+      <c r="I29" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerScorpio2.png</v>
       </c>
     </row>
-    <row r="30" spans="2:9">
-      <c r="B30" s="4" t="s">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>15</v>
       </c>
       <c r="C30" t="s">
@@ -2529,19 +2058,19 @@
         <f t="shared" si="4"/>
         <v>ResIcon_TowerScorpio3</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" t="s">
         <v>17</v>
       </c>
       <c r="H30" t="s">
         <v>56</v>
       </c>
-      <c r="I30" s="6" t="str">
+      <c r="I30" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerScorpio3.png</v>
       </c>
     </row>
-    <row r="31" spans="2:9">
-      <c r="B31" s="4" t="s">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
         <v>15</v>
       </c>
       <c r="C31" t="s">
@@ -2551,19 +2080,19 @@
         <f t="shared" si="4"/>
         <v>ResIcon_TowerCurse1</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" t="s">
         <v>17</v>
       </c>
       <c r="H31" t="s">
         <v>58</v>
       </c>
-      <c r="I31" s="6" t="str">
+      <c r="I31" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerCurse1.png</v>
       </c>
     </row>
-    <row r="32" spans="2:9">
-      <c r="B32" s="4" t="s">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
         <v>15</v>
       </c>
       <c r="C32" t="s">
@@ -2573,19 +2102,19 @@
         <f t="shared" si="4"/>
         <v>ResIcon_TowerCurse2</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G32" t="s">
         <v>17</v>
       </c>
       <c r="H32" t="s">
         <v>60</v>
       </c>
-      <c r="I32" s="6" t="str">
+      <c r="I32" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerCurse2.png</v>
       </c>
     </row>
-    <row r="33" spans="2:9">
-      <c r="B33" s="4" t="s">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
         <v>15</v>
       </c>
       <c r="C33" t="s">
@@ -2595,19 +2124,19 @@
         <f t="shared" si="4"/>
         <v>ResIcon_TowerCurse3</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G33" t="s">
         <v>17</v>
       </c>
       <c r="H33" t="s">
         <v>62</v>
       </c>
-      <c r="I33" s="6" t="str">
+      <c r="I33" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerCurse3.png</v>
       </c>
     </row>
-    <row r="34" spans="2:9">
-      <c r="B34" s="4" t="s">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
         <v>15</v>
       </c>
       <c r="C34" t="s">
@@ -2617,19 +2146,19 @@
         <f t="shared" si="4"/>
         <v>ResIcon_Towerwitch1</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="G34" t="s">
         <v>17</v>
       </c>
       <c r="H34" t="s">
         <v>64</v>
       </c>
-      <c r="I34" s="6" t="str">
+      <c r="I34" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Assets/ResAB/UI/Icon/Icon_Towerwitch1.png</v>
       </c>
     </row>
-    <row r="35" spans="2:9">
-      <c r="B35" s="4" t="s">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>15</v>
       </c>
       <c r="C35" t="s">
@@ -2639,19 +2168,19 @@
         <f t="shared" si="4"/>
         <v>ResIcon_Towerwitch2</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G35" t="s">
         <v>17</v>
       </c>
       <c r="H35" t="s">
         <v>66</v>
       </c>
-      <c r="I35" s="6" t="str">
+      <c r="I35" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Assets/ResAB/UI/Icon/Icon_Towerwitch2.png</v>
       </c>
     </row>
-    <row r="36" spans="2:9">
-      <c r="B36" s="4" t="s">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
         <v>15</v>
       </c>
       <c r="C36" t="s">
@@ -2661,19 +2190,19 @@
         <f t="shared" si="4"/>
         <v>ResIcon_Towerwitch3</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="G36" t="s">
         <v>17</v>
       </c>
       <c r="H36" t="s">
         <v>68</v>
       </c>
-      <c r="I36" s="6" t="str">
+      <c r="I36" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Assets/ResAB/UI/Icon/Icon_Towerwitch3.png</v>
       </c>
     </row>
-    <row r="37" spans="2:9">
-      <c r="B37" s="4" t="s">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
         <v>15</v>
       </c>
       <c r="C37" t="s">
@@ -2683,19 +2212,19 @@
         <f t="shared" si="4"/>
         <v>ResIcon_TowerIceArrow1</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="G37" t="s">
         <v>17</v>
       </c>
       <c r="H37" t="s">
         <v>70</v>
       </c>
-      <c r="I37" s="6" t="str">
+      <c r="I37" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerIceArrow1.png</v>
       </c>
     </row>
-    <row r="38" spans="2:9">
-      <c r="B38" s="4" t="s">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
         <v>15</v>
       </c>
       <c r="C38" t="s">
@@ -2705,19 +2234,19 @@
         <f t="shared" si="4"/>
         <v>ResIcon_TowerIceArrow2</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="G38" t="s">
         <v>17</v>
       </c>
       <c r="H38" t="s">
         <v>72</v>
       </c>
-      <c r="I38" s="6" t="str">
+      <c r="I38" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerIceArrow2.png</v>
       </c>
     </row>
-    <row r="39" spans="2:9">
-      <c r="B39" s="4" t="s">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
         <v>15</v>
       </c>
       <c r="C39" t="s">
@@ -2727,19 +2256,19 @@
         <f t="shared" si="4"/>
         <v>ResIcon_TowerIceArrow3</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="G39" t="s">
         <v>17</v>
       </c>
       <c r="H39" t="s">
         <v>74</v>
       </c>
-      <c r="I39" s="6" t="str">
+      <c r="I39" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerIceArrow3.png</v>
       </c>
     </row>
-    <row r="40" spans="2:9">
-      <c r="B40" s="4" t="s">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
         <v>15</v>
       </c>
       <c r="C40" t="s">
@@ -2749,19 +2278,19 @@
         <f t="shared" si="4"/>
         <v>ResIcon_TowerWater1</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="G40" t="s">
         <v>17</v>
       </c>
       <c r="H40" t="s">
         <v>76</v>
       </c>
-      <c r="I40" s="6" t="str">
+      <c r="I40" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerWater1.png</v>
       </c>
     </row>
-    <row r="41" spans="2:9">
-      <c r="B41" s="4" t="s">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
         <v>15</v>
       </c>
       <c r="C41" t="s">
@@ -2771,19 +2300,19 @@
         <f t="shared" si="4"/>
         <v>ResIcon_TowerWater2</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="G41" t="s">
         <v>17</v>
       </c>
       <c r="H41" t="s">
         <v>78</v>
       </c>
-      <c r="I41" s="6" t="str">
+      <c r="I41" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerWater2.png</v>
       </c>
     </row>
-    <row r="42" spans="2:9">
-      <c r="B42" s="4" t="s">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
         <v>15</v>
       </c>
       <c r="C42" t="s">
@@ -2793,19 +2322,19 @@
         <f t="shared" si="4"/>
         <v>ResIcon_TowerWater3</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="G42" t="s">
         <v>17</v>
       </c>
       <c r="H42" t="s">
         <v>80</v>
       </c>
-      <c r="I42" s="6" t="str">
+      <c r="I42" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerWater3.png</v>
       </c>
     </row>
-    <row r="43" spans="2:9">
-      <c r="B43" s="4" t="s">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
         <v>15</v>
       </c>
       <c r="C43" t="s">
@@ -2815,19 +2344,19 @@
         <f t="shared" si="4"/>
         <v>ResIcon_TowerElectromagnetic1</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="G43" t="s">
         <v>17</v>
       </c>
       <c r="H43" t="s">
         <v>82</v>
       </c>
-      <c r="I43" s="6" t="str">
+      <c r="I43" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerElectromagnetic1.png</v>
       </c>
     </row>
-    <row r="44" spans="2:9">
-      <c r="B44" s="4" t="s">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
         <v>15</v>
       </c>
       <c r="C44" t="s">
@@ -2837,19 +2366,19 @@
         <f t="shared" si="4"/>
         <v>ResIcon_TowerElectromagnetic2</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="G44" t="s">
         <v>17</v>
       </c>
       <c r="H44" t="s">
         <v>84</v>
       </c>
-      <c r="I44" s="6" t="str">
+      <c r="I44" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerElectromagnetic2.png</v>
       </c>
     </row>
-    <row r="45" spans="2:9">
-      <c r="B45" s="4" t="s">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
         <v>15</v>
       </c>
       <c r="C45" t="s">
@@ -2859,19 +2388,19 @@
         <f t="shared" si="4"/>
         <v>ResIcon_TowerElectromagnetic3</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="G45" t="s">
         <v>17</v>
       </c>
       <c r="H45" t="s">
         <v>86</v>
       </c>
-      <c r="I45" s="6" t="str">
+      <c r="I45" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerElectromagnetic3.png</v>
       </c>
     </row>
-    <row r="46" spans="2:9">
-      <c r="B46" s="4" t="s">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
         <v>15</v>
       </c>
       <c r="C46" t="s">
@@ -2881,19 +2410,19 @@
         <f t="shared" si="4"/>
         <v>ResIcon_TowerFire1</v>
       </c>
-      <c r="G46" s="4" t="s">
+      <c r="G46" t="s">
         <v>17</v>
       </c>
       <c r="H46" t="s">
         <v>88</v>
       </c>
-      <c r="I46" s="6" t="str">
+      <c r="I46" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerFire1.png</v>
       </c>
     </row>
-    <row r="47" spans="2:9">
-      <c r="B47" s="4" t="s">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
         <v>15</v>
       </c>
       <c r="C47" t="s">
@@ -2903,19 +2432,19 @@
         <f t="shared" si="4"/>
         <v>ResIcon_TowerFire2</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="G47" t="s">
         <v>17</v>
       </c>
       <c r="H47" t="s">
         <v>90</v>
       </c>
-      <c r="I47" s="6" t="str">
+      <c r="I47" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerFire2.png</v>
       </c>
     </row>
-    <row r="48" spans="2:9">
-      <c r="B48" s="4" t="s">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
         <v>15</v>
       </c>
       <c r="C48" t="s">
@@ -2925,19 +2454,19 @@
         <f t="shared" si="4"/>
         <v>ResIcon_TowerFire3</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="G48" t="s">
         <v>17</v>
       </c>
       <c r="H48" t="s">
         <v>92</v>
       </c>
-      <c r="I48" s="6" t="str">
+      <c r="I48" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerFire3.png</v>
       </c>
     </row>
-    <row r="49" spans="2:9">
-      <c r="B49" s="4" t="s">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
         <v>15</v>
       </c>
       <c r="C49" t="s">
@@ -2947,19 +2476,19 @@
         <f t="shared" si="4"/>
         <v>ResIcon_TowerAoShu1</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="G49" t="s">
         <v>17</v>
       </c>
       <c r="H49" t="s">
         <v>94</v>
       </c>
-      <c r="I49" s="6" t="str">
+      <c r="I49" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerAoShu1.png</v>
       </c>
     </row>
-    <row r="50" spans="2:9">
-      <c r="B50" s="4" t="s">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
         <v>15</v>
       </c>
       <c r="C50" t="s">
@@ -2969,19 +2498,19 @@
         <f t="shared" si="4"/>
         <v>ResIcon_TowerAoShu2</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="G50" t="s">
         <v>17</v>
       </c>
       <c r="H50" t="s">
         <v>96</v>
       </c>
-      <c r="I50" s="6" t="str">
+      <c r="I50" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerAoShu2.png</v>
       </c>
     </row>
-    <row r="51" spans="2:9">
-      <c r="B51" s="4" t="s">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
         <v>15</v>
       </c>
       <c r="C51" t="s">
@@ -2991,19 +2520,19 @@
         <f t="shared" si="4"/>
         <v>ResIcon_TowerAoShu3</v>
       </c>
-      <c r="G51" s="4" t="s">
+      <c r="G51" t="s">
         <v>17</v>
       </c>
       <c r="H51" t="s">
         <v>98</v>
       </c>
-      <c r="I51" s="6" t="str">
+      <c r="I51" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerAoShu3.png</v>
       </c>
     </row>
-    <row r="52" spans="2:9">
-      <c r="B52" s="4" t="s">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
         <v>15</v>
       </c>
       <c r="C52" t="s">
@@ -3013,19 +2542,19 @@
         <f t="shared" si="4"/>
         <v>ResIcon_TowerLianJi1</v>
       </c>
-      <c r="G52" s="4" t="s">
+      <c r="G52" t="s">
         <v>17</v>
       </c>
       <c r="H52" t="s">
         <v>100</v>
       </c>
-      <c r="I52" s="6" t="str">
+      <c r="I52" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerLianJi1.png</v>
       </c>
     </row>
-    <row r="53" spans="2:9">
-      <c r="B53" s="4" t="s">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
         <v>15</v>
       </c>
       <c r="C53" t="s">
@@ -3035,19 +2564,19 @@
         <f t="shared" si="4"/>
         <v>ResIcon_TowerLianJi2</v>
       </c>
-      <c r="G53" s="4" t="s">
+      <c r="G53" t="s">
         <v>17</v>
       </c>
       <c r="H53" t="s">
         <v>102</v>
       </c>
-      <c r="I53" s="6" t="str">
+      <c r="I53" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerLianJi2.png</v>
       </c>
     </row>
-    <row r="54" spans="2:9">
-      <c r="B54" s="4" t="s">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
         <v>15</v>
       </c>
       <c r="C54" t="s">
@@ -3057,19 +2586,19 @@
         <f t="shared" si="4"/>
         <v>ResIcon_TowerLianJi3</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="G54" t="s">
         <v>17</v>
       </c>
       <c r="H54" t="s">
         <v>104</v>
       </c>
-      <c r="I54" s="6" t="str">
+      <c r="I54" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerLianJi3.png</v>
       </c>
     </row>
-    <row r="55" spans="2:9">
-      <c r="B55" s="4" t="s">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
         <v>15</v>
       </c>
       <c r="C55" t="s">
@@ -3079,19 +2608,19 @@
         <f t="shared" si="4"/>
         <v>ResIcon_TowerZaiE1</v>
       </c>
-      <c r="G55" s="4" t="s">
+      <c r="G55" t="s">
         <v>17</v>
       </c>
       <c r="H55" t="s">
         <v>106</v>
       </c>
-      <c r="I55" s="6" t="str">
+      <c r="I55" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerZaiE1.png</v>
       </c>
     </row>
-    <row r="56" spans="2:9">
-      <c r="B56" s="4" t="s">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
         <v>15</v>
       </c>
       <c r="C56" t="s">
@@ -3101,19 +2630,19 @@
         <f t="shared" si="4"/>
         <v>ResIcon_TowerZaiE2</v>
       </c>
-      <c r="G56" s="4" t="s">
+      <c r="G56" t="s">
         <v>17</v>
       </c>
       <c r="H56" t="s">
         <v>108</v>
       </c>
-      <c r="I56" s="6" t="str">
+      <c r="I56" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerZaiE2.png</v>
       </c>
     </row>
-    <row r="57" spans="2:9">
-      <c r="B57" s="4" t="s">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
         <v>15</v>
       </c>
       <c r="C57" t="s">
@@ -3123,19 +2652,19 @@
         <f t="shared" si="4"/>
         <v>ResIcon_TowerZaiE3</v>
       </c>
-      <c r="G57" s="4" t="s">
+      <c r="G57" t="s">
         <v>17</v>
       </c>
       <c r="H57" t="s">
         <v>110</v>
       </c>
-      <c r="I57" s="6" t="str">
+      <c r="I57" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerZaiE3.png</v>
       </c>
     </row>
-    <row r="58" spans="2:9">
-      <c r="B58" s="4" t="s">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
         <v>15</v>
       </c>
       <c r="C58" t="s">
@@ -3145,19 +2674,19 @@
         <f t="shared" si="4"/>
         <v>ResIcon_TowerGoblin1</v>
       </c>
-      <c r="G58" s="4" t="s">
+      <c r="G58" t="s">
         <v>17</v>
       </c>
       <c r="H58" t="s">
         <v>112</v>
       </c>
-      <c r="I58" s="6" t="str">
+      <c r="I58" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerGoblin1.png</v>
       </c>
     </row>
-    <row r="59" spans="2:9">
-      <c r="B59" s="4" t="s">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
         <v>15</v>
       </c>
       <c r="C59" t="s">
@@ -3167,19 +2696,19 @@
         <f t="shared" si="4"/>
         <v>ResIcon_TowerGoblin2</v>
       </c>
-      <c r="G59" s="4" t="s">
+      <c r="G59" t="s">
         <v>17</v>
       </c>
       <c r="H59" t="s">
         <v>114</v>
       </c>
-      <c r="I59" s="6" t="str">
+      <c r="I59" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerGoblin2.png</v>
       </c>
     </row>
-    <row r="60" spans="2:9">
-      <c r="B60" s="4" t="s">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
         <v>15</v>
       </c>
       <c r="C60" t="s">
@@ -3189,19 +2718,19 @@
         <f t="shared" si="4"/>
         <v>ResIcon_TowerGoblin3</v>
       </c>
-      <c r="G60" s="4" t="s">
+      <c r="G60" t="s">
         <v>17</v>
       </c>
       <c r="H60" t="s">
         <v>116</v>
       </c>
-      <c r="I60" s="6" t="str">
+      <c r="I60" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerGoblin3.png</v>
       </c>
     </row>
-    <row r="61" spans="2:9">
-      <c r="B61" s="4" t="s">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
         <v>15</v>
       </c>
       <c r="C61" t="s">
@@ -3211,19 +2740,19 @@
         <f t="shared" si="4"/>
         <v>ResIcon_TowerDuCi1</v>
       </c>
-      <c r="G61" s="4" t="s">
+      <c r="G61" t="s">
         <v>17</v>
       </c>
       <c r="H61" t="s">
         <v>118</v>
       </c>
-      <c r="I61" s="6" t="str">
+      <c r="I61" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerDuCi1.png</v>
       </c>
     </row>
-    <row r="62" spans="2:9">
-      <c r="B62" s="4" t="s">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
         <v>15</v>
       </c>
       <c r="C62" t="s">
@@ -3233,19 +2762,19 @@
         <f t="shared" si="4"/>
         <v>ResIcon_TowerDuCi2</v>
       </c>
-      <c r="G62" s="4" t="s">
+      <c r="G62" t="s">
         <v>17</v>
       </c>
       <c r="H62" t="s">
         <v>120</v>
       </c>
-      <c r="I62" s="6" t="str">
+      <c r="I62" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerDuCi2.png</v>
       </c>
     </row>
-    <row r="63" spans="2:9">
-      <c r="B63" s="4" t="s">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
         <v>15</v>
       </c>
       <c r="C63" t="s">
@@ -3255,19 +2784,19 @@
         <f t="shared" si="4"/>
         <v>ResIcon_TowerDuCi3</v>
       </c>
-      <c r="G63" s="4" t="s">
+      <c r="G63" t="s">
         <v>17</v>
       </c>
       <c r="H63" t="s">
         <v>122</v>
       </c>
-      <c r="I63" s="6" t="str">
+      <c r="I63" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerDuCi3.png</v>
       </c>
     </row>
-    <row r="64" spans="2:9">
-      <c r="B64" s="4" t="s">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
         <v>15</v>
       </c>
       <c r="C64" t="s">
@@ -3277,19 +2806,19 @@
         <f t="shared" si="4"/>
         <v>ResIcon_TowerRocket1</v>
       </c>
-      <c r="G64" s="4" t="s">
+      <c r="G64" t="s">
         <v>17</v>
       </c>
       <c r="H64" t="s">
         <v>124</v>
       </c>
-      <c r="I64" s="6" t="str">
+      <c r="I64" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerRocket1.png</v>
       </c>
     </row>
-    <row r="65" spans="2:9">
-      <c r="B65" s="4" t="s">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
         <v>15</v>
       </c>
       <c r="C65" t="s">
@@ -3299,19 +2828,19 @@
         <f t="shared" si="4"/>
         <v>ResIcon_TowerRocket2</v>
       </c>
-      <c r="G65" s="4" t="s">
+      <c r="G65" t="s">
         <v>17</v>
       </c>
       <c r="H65" t="s">
         <v>126</v>
       </c>
-      <c r="I65" s="6" t="str">
+      <c r="I65" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerRocket2.png</v>
       </c>
     </row>
-    <row r="66" spans="2:9">
-      <c r="B66" s="4" t="s">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
         <v>15</v>
       </c>
       <c r="C66" t="s">
@@ -3321,19 +2850,19 @@
         <f t="shared" si="4"/>
         <v>ResIcon_TowerRocket3</v>
       </c>
-      <c r="G66" s="4" t="s">
+      <c r="G66" t="s">
         <v>17</v>
       </c>
       <c r="H66" t="s">
         <v>128</v>
       </c>
-      <c r="I66" s="6" t="str">
+      <c r="I66" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerRocket3.png</v>
       </c>
     </row>
-    <row r="67" spans="2:9">
-      <c r="B67" s="4" t="s">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
         <v>15</v>
       </c>
       <c r="C67" t="s">
@@ -3343,19 +2872,19 @@
         <f t="shared" si="4"/>
         <v>ResIcon_TowerFireBall1</v>
       </c>
-      <c r="G67" s="4" t="s">
+      <c r="G67" t="s">
         <v>17</v>
       </c>
       <c r="H67" t="s">
         <v>130</v>
       </c>
-      <c r="I67" s="6" t="str">
+      <c r="I67" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerFireBall1.png</v>
       </c>
     </row>
-    <row r="68" spans="2:9">
-      <c r="B68" s="4" t="s">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
         <v>15</v>
       </c>
       <c r="C68" t="s">
@@ -3365,19 +2894,19 @@
         <f t="shared" si="4"/>
         <v>ResIcon_TowerFireBall2</v>
       </c>
-      <c r="G68" s="4" t="s">
+      <c r="G68" t="s">
         <v>17</v>
       </c>
       <c r="H68" t="s">
         <v>132</v>
       </c>
-      <c r="I68" s="6" t="str">
+      <c r="I68" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerFireBall2.png</v>
       </c>
     </row>
-    <row r="69" spans="2:9">
-      <c r="B69" s="4" t="s">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
         <v>15</v>
       </c>
       <c r="C69" t="s">
@@ -3387,522 +2916,975 @@
         <f t="shared" si="4"/>
         <v>ResIcon_TowerFireBall3</v>
       </c>
-      <c r="G69" s="4" t="s">
+      <c r="G69" t="s">
         <v>17</v>
       </c>
       <c r="H69" t="s">
         <v>134</v>
       </c>
-      <c r="I69" s="6" t="str">
+      <c r="I69" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerFireBall3.png</v>
       </c>
     </row>
-    <row r="71" customFormat="1" spans="2:9">
-      <c r="B71" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C71" s="4" t="s">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" t="s">
         <v>135</v>
       </c>
       <c r="D71" t="s">
         <v>136</v>
       </c>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H71" s="4" t="s">
+      <c r="G71" t="s">
+        <v>17</v>
+      </c>
+      <c r="H71" t="s">
         <v>137</v>
       </c>
-      <c r="I71" s="9" t="s">
+      <c r="I71" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="72" customFormat="1" spans="2:9">
-      <c r="B72" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C72" s="4" t="s">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" t="s">
         <v>139</v>
       </c>
       <c r="D72" t="s">
         <v>140</v>
       </c>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H72" s="4" t="s">
+      <c r="G72" t="s">
+        <v>17</v>
+      </c>
+      <c r="H72" t="s">
         <v>141</v>
       </c>
-      <c r="I72" s="9" t="s">
+      <c r="I72" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="73" customFormat="1" spans="2:9">
-      <c r="B73" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C73" s="4" t="s">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>15</v>
+      </c>
+      <c r="C73" t="s">
         <v>143</v>
       </c>
       <c r="D73" t="s">
         <v>144</v>
       </c>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H73" s="4" t="s">
+      <c r="G73" t="s">
+        <v>17</v>
+      </c>
+      <c r="H73" t="s">
         <v>145</v>
       </c>
-      <c r="I73" s="9" t="s">
+      <c r="I73" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="74" customFormat="1" spans="2:9">
-      <c r="B74" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C74" s="4" t="s">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74" t="s">
         <v>147</v>
       </c>
       <c r="D74" t="s">
         <v>148</v>
       </c>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H74" s="4" t="s">
+      <c r="G74" t="s">
+        <v>17</v>
+      </c>
+      <c r="H74" t="s">
         <v>149</v>
       </c>
-      <c r="I74" s="9" t="s">
+      <c r="I74" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="75" customFormat="1" spans="2:9">
-      <c r="B75" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C75" s="4" t="s">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" t="s">
         <v>151</v>
       </c>
       <c r="D75" t="s">
         <v>152</v>
       </c>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H75" s="4" t="s">
+      <c r="G75" t="s">
+        <v>17</v>
+      </c>
+      <c r="H75" t="s">
         <v>153</v>
       </c>
-      <c r="I75" s="9" t="s">
+      <c r="I75" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="76" customFormat="1" spans="2:9">
-      <c r="B76" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C76" s="4" t="s">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" t="s">
         <v>155</v>
       </c>
       <c r="D76" t="s">
         <v>156</v>
       </c>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H76" s="4" t="s">
+      <c r="G76" t="s">
+        <v>17</v>
+      </c>
+      <c r="H76" t="s">
         <v>157</v>
       </c>
-      <c r="I76" s="9" t="s">
+      <c r="I76" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="77" customFormat="1" spans="2:9">
-      <c r="B77" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C77" s="4" t="s">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" t="s">
         <v>159</v>
       </c>
       <c r="D77" t="s">
         <v>160</v>
       </c>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H77" s="4" t="s">
+      <c r="G77" t="s">
+        <v>17</v>
+      </c>
+      <c r="H77" t="s">
         <v>161</v>
       </c>
-      <c r="I77" s="9" t="s">
+      <c r="I77" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="78" customFormat="1" spans="2:9">
-      <c r="B78" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C78" s="4" t="s">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" t="s">
         <v>163</v>
       </c>
       <c r="D78" t="s">
         <v>164</v>
       </c>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H78" s="4" t="s">
+      <c r="G78" t="s">
+        <v>17</v>
+      </c>
+      <c r="H78" t="s">
         <v>165</v>
       </c>
-      <c r="I78" s="9" t="s">
+      <c r="I78" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="79" customFormat="1" spans="2:9">
-      <c r="B79" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C79" s="4" t="s">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79" t="s">
         <v>167</v>
       </c>
       <c r="D79" t="s">
         <v>168</v>
       </c>
-      <c r="G79" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H79" s="4" t="s">
+      <c r="G79" t="s">
+        <v>17</v>
+      </c>
+      <c r="H79" t="s">
         <v>169</v>
       </c>
-      <c r="I79" s="9" t="s">
+      <c r="I79" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="80" customFormat="1" spans="2:9">
-      <c r="B80" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C80" s="4" t="s">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" t="s">
         <v>171</v>
       </c>
       <c r="D80" t="s">
         <v>172</v>
       </c>
-      <c r="G80" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H80" s="4" t="s">
+      <c r="G80" t="s">
+        <v>17</v>
+      </c>
+      <c r="H80" t="s">
         <v>173</v>
       </c>
-      <c r="I80" s="9" t="s">
+      <c r="I80" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="81" customFormat="1" spans="2:9">
-      <c r="B81" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C81" s="4" t="s">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81" t="s">
         <v>175</v>
       </c>
       <c r="D81" t="s">
         <v>176</v>
       </c>
-      <c r="G81" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H81" s="4" t="s">
+      <c r="G81" t="s">
+        <v>17</v>
+      </c>
+      <c r="H81" t="s">
         <v>177</v>
       </c>
-      <c r="I81" s="9" t="s">
+      <c r="I81" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="82" customFormat="1" spans="2:9">
-      <c r="B82" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C82" s="4" t="s">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" t="s">
         <v>179</v>
       </c>
       <c r="D82" t="s">
         <v>180</v>
       </c>
-      <c r="G82" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H82" s="4" t="s">
+      <c r="G82" t="s">
+        <v>17</v>
+      </c>
+      <c r="H82" t="s">
         <v>181</v>
       </c>
-      <c r="I82" s="9" t="s">
+      <c r="I82" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="83" customFormat="1" spans="2:9">
-      <c r="B83" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C83" s="4" t="s">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83" t="s">
         <v>183</v>
       </c>
       <c r="D83" t="s">
         <v>184</v>
       </c>
-      <c r="G83" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H83" s="4" t="s">
+      <c r="G83" t="s">
+        <v>17</v>
+      </c>
+      <c r="H83" t="s">
         <v>185</v>
       </c>
-      <c r="I83" s="9" t="s">
+      <c r="I83" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="84" customFormat="1" spans="2:9">
-      <c r="B84" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C84" s="4" t="s">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>15</v>
+      </c>
+      <c r="C84" t="s">
         <v>187</v>
       </c>
       <c r="D84" t="s">
         <v>188</v>
       </c>
-      <c r="G84" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H84" s="4" t="s">
+      <c r="G84" t="s">
+        <v>17</v>
+      </c>
+      <c r="H84" t="s">
         <v>189</v>
       </c>
-      <c r="I84" s="9" t="s">
+      <c r="I84" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="85" customFormat="1" spans="2:9">
-      <c r="B85" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C85" s="4" t="s">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85" t="s">
         <v>191</v>
       </c>
       <c r="D85" t="s">
         <v>192</v>
       </c>
-      <c r="G85" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H85" s="4" t="s">
+      <c r="G85" t="s">
+        <v>17</v>
+      </c>
+      <c r="H85" t="s">
         <v>193</v>
       </c>
-      <c r="I85" s="9" t="s">
+      <c r="I85" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="86" customFormat="1" spans="2:9">
-      <c r="B86" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C86" s="4" t="s">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86" t="s">
         <v>195</v>
       </c>
       <c r="D86" t="s">
         <v>196</v>
       </c>
-      <c r="G86" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H86" s="4" t="s">
+      <c r="G86" t="s">
+        <v>17</v>
+      </c>
+      <c r="H86" t="s">
         <v>197</v>
       </c>
-      <c r="I86" s="9" t="s">
+      <c r="I86" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="87" customFormat="1" spans="2:9">
-      <c r="B87" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C87" s="4" t="s">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" t="s">
         <v>199</v>
       </c>
       <c r="D87" t="s">
         <v>200</v>
       </c>
-      <c r="G87" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H87" s="4" t="s">
+      <c r="G87" t="s">
+        <v>17</v>
+      </c>
+      <c r="H87" t="s">
         <v>201</v>
       </c>
-      <c r="I87" s="9" t="s">
+      <c r="I87" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="88" customFormat="1" spans="2:9">
-      <c r="B88" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C88" s="4" t="s">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88" t="s">
         <v>203</v>
       </c>
       <c r="D88" t="s">
         <v>204</v>
       </c>
-      <c r="G88" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H88" s="4" t="s">
+      <c r="G88" t="s">
+        <v>17</v>
+      </c>
+      <c r="H88" t="s">
         <v>205</v>
       </c>
-      <c r="I88" s="9" t="s">
+      <c r="I88" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="89" customFormat="1" spans="2:9">
-      <c r="B89" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C89" s="4" t="s">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
+        <v>15</v>
+      </c>
+      <c r="C89" t="s">
         <v>207</v>
       </c>
       <c r="D89" t="s">
         <v>208</v>
       </c>
-      <c r="G89" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H89" s="4" t="s">
+      <c r="G89" t="s">
+        <v>17</v>
+      </c>
+      <c r="H89" t="s">
         <v>209</v>
       </c>
-      <c r="I89" s="9" t="s">
+      <c r="I89" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="90" customFormat="1" spans="2:9">
-      <c r="B90" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C90" s="4" t="s">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
+        <v>15</v>
+      </c>
+      <c r="C90" t="s">
         <v>211</v>
       </c>
       <c r="D90" t="s">
         <v>212</v>
       </c>
-      <c r="G90" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H90" s="4" t="s">
+      <c r="G90" t="s">
+        <v>17</v>
+      </c>
+      <c r="H90" t="s">
         <v>213</v>
       </c>
-      <c r="I90" s="9" t="s">
+      <c r="I90" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="91" customFormat="1" spans="2:9">
-      <c r="B91" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C91" s="4" t="s">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
+        <v>15</v>
+      </c>
+      <c r="C91" t="s">
         <v>215</v>
       </c>
       <c r="D91" t="s">
         <v>216</v>
       </c>
-      <c r="G91" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H91" s="4" t="s">
+      <c r="G91" t="s">
+        <v>17</v>
+      </c>
+      <c r="H91" t="s">
         <v>217</v>
       </c>
-      <c r="I91" s="9" t="s">
+      <c r="I91" s="3" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="92" customFormat="1" spans="2:9">
-      <c r="B92" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C92" s="4" t="s">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
+        <v>15</v>
+      </c>
+      <c r="C92" t="s">
         <v>219</v>
       </c>
       <c r="D92" t="s">
         <v>220</v>
       </c>
-      <c r="G92" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H92" s="4" t="s">
+      <c r="G92" t="s">
+        <v>17</v>
+      </c>
+      <c r="H92" t="s">
         <v>221</v>
       </c>
-      <c r="I92" s="9" t="s">
+      <c r="I92" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="93" customFormat="1" spans="2:9">
-      <c r="B93" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C93" s="4" t="s">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93" t="s">
         <v>223</v>
       </c>
       <c r="D93" t="s">
         <v>224</v>
       </c>
-      <c r="G93" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H93" s="4" t="s">
+      <c r="G93" t="s">
+        <v>17</v>
+      </c>
+      <c r="H93" t="s">
         <v>225</v>
       </c>
-      <c r="I93" s="9" t="s">
+      <c r="I93" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="94" customFormat="1" spans="2:9">
-      <c r="B94" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C94" s="4" t="s">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
+        <v>15</v>
+      </c>
+      <c r="C94" t="s">
         <v>227</v>
       </c>
       <c r="D94" t="s">
         <v>228</v>
       </c>
-      <c r="G94" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H94" s="4" t="s">
+      <c r="G94" t="s">
+        <v>17</v>
+      </c>
+      <c r="H94" t="s">
         <v>229</v>
       </c>
-      <c r="I94" s="9" t="s">
-        <v>230</v>
+      <c r="I94" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D96" t="str">
+        <f>B96&amp;"_"&amp;C96</f>
+        <v>ResIcon_Monster_MiFeng1</v>
+      </c>
+      <c r="G96" t="s">
+        <v>17</v>
+      </c>
+      <c r="H96" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="I96" t="str">
+        <f>"Assets/ResAB/UI/Icon/"&amp;H96&amp;".png"</f>
+        <v>Assets/ResAB/UI/Icon/Icon_Monster_MiFeng1.png</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
+        <v>15</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D97" t="str">
+        <f t="shared" ref="D97:D116" si="6">B97&amp;"_"&amp;C97</f>
+        <v>ResIcon_Monster_MiFeng2</v>
+      </c>
+      <c r="G97" t="s">
+        <v>17</v>
+      </c>
+      <c r="H97" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" ref="I97:I116" si="7">"Assets/ResAB/UI/Icon/"&amp;H97&amp;".png"</f>
+        <v>Assets/ResAB/UI/Icon/Icon_Monster_MiFeng2.png</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
+        <v>15</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D98" t="str">
+        <f t="shared" si="6"/>
+        <v>ResIcon_Monster_MiFeng3</v>
+      </c>
+      <c r="G98" t="s">
+        <v>17</v>
+      </c>
+      <c r="H98" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="7"/>
+        <v>Assets/ResAB/UI/Icon/Icon_Monster_MiFeng3.png</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B99" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D99" t="str">
+        <f t="shared" si="6"/>
+        <v>ResIcon_Monster_BianFu1</v>
+      </c>
+      <c r="G99" t="s">
+        <v>17</v>
+      </c>
+      <c r="H99" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="7"/>
+        <v>Assets/ResAB/UI/Icon/Icon_Monster_BianFu1.png</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D100" t="str">
+        <f t="shared" si="6"/>
+        <v>ResIcon_Monster_BianFu2</v>
+      </c>
+      <c r="G100" t="s">
+        <v>17</v>
+      </c>
+      <c r="H100" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="7"/>
+        <v>Assets/ResAB/UI/Icon/Icon_Monster_BianFu2.png</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="D101" t="str">
+        <f t="shared" si="6"/>
+        <v>ResIcon_Monster_BianFu3</v>
+      </c>
+      <c r="G101" t="s">
+        <v>17</v>
+      </c>
+      <c r="H101" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="7"/>
+        <v>Assets/ResAB/UI/Icon/Icon_Monster_BianFu3.png</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
+        <v>15</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D102" t="str">
+        <f t="shared" si="6"/>
+        <v>ResIcon_Monster_ZhiZhu1</v>
+      </c>
+      <c r="G102" t="s">
+        <v>17</v>
+      </c>
+      <c r="H102" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="7"/>
+        <v>Assets/ResAB/UI/Icon/Icon_Monster_ZhiZhu1.png</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B103" t="s">
+        <v>15</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="D103" t="str">
+        <f t="shared" si="6"/>
+        <v>ResIcon_Monster_ZhiZhu2</v>
+      </c>
+      <c r="G103" t="s">
+        <v>17</v>
+      </c>
+      <c r="H103" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="7"/>
+        <v>Assets/ResAB/UI/Icon/Icon_Monster_ZhiZhu2.png</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B104" t="s">
+        <v>15</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D104" t="str">
+        <f t="shared" si="6"/>
+        <v>ResIcon_Monster_ZhiZhu3</v>
+      </c>
+      <c r="G104" t="s">
+        <v>17</v>
+      </c>
+      <c r="H104" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="7"/>
+        <v>Assets/ResAB/UI/Icon/Icon_Monster_ZhiZhu3.png</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B105" t="s">
+        <v>15</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D105" t="str">
+        <f t="shared" si="6"/>
+        <v>ResIcon_Monster_ZhongZi1</v>
+      </c>
+      <c r="G105" t="s">
+        <v>17</v>
+      </c>
+      <c r="H105" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="7"/>
+        <v>Assets/ResAB/UI/Icon/Icon_Monster_ZhongZi1.png</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B106" t="s">
+        <v>15</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D106" t="str">
+        <f t="shared" si="6"/>
+        <v>ResIcon_Monster_ZhongZi2</v>
+      </c>
+      <c r="G106" t="s">
+        <v>17</v>
+      </c>
+      <c r="H106" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="7"/>
+        <v>Assets/ResAB/UI/Icon/Icon_Monster_ZhongZi2.png</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B107" t="s">
+        <v>15</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D107" t="str">
+        <f t="shared" si="6"/>
+        <v>ResIcon_Monster_ZhongZi3</v>
+      </c>
+      <c r="G107" t="s">
+        <v>17</v>
+      </c>
+      <c r="H107" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="7"/>
+        <v>Assets/ResAB/UI/Icon/Icon_Monster_ZhongZi3.png</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
+        <v>15</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="D108" t="str">
+        <f t="shared" si="6"/>
+        <v>ResIcon_Monster_Gui1</v>
+      </c>
+      <c r="G108" t="s">
+        <v>17</v>
+      </c>
+      <c r="H108" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="I108" t="str">
+        <f t="shared" si="7"/>
+        <v>Assets/ResAB/UI/Icon/Icon_Monster_Gui1.png</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B109" t="s">
+        <v>15</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D109" t="str">
+        <f t="shared" si="6"/>
+        <v>ResIcon_Monster_Gui2</v>
+      </c>
+      <c r="G109" t="s">
+        <v>17</v>
+      </c>
+      <c r="H109" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="I109" t="str">
+        <f t="shared" si="7"/>
+        <v>Assets/ResAB/UI/Icon/Icon_Monster_Gui2.png</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B110" t="s">
+        <v>15</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D110" t="str">
+        <f t="shared" si="6"/>
+        <v>ResIcon_Monster_Gui3</v>
+      </c>
+      <c r="G110" t="s">
+        <v>17</v>
+      </c>
+      <c r="H110" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="I110" t="str">
+        <f t="shared" si="7"/>
+        <v>Assets/ResAB/UI/Icon/Icon_Monster_Gui3.png</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B111" t="s">
+        <v>15</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D111" t="str">
+        <f t="shared" si="6"/>
+        <v>ResIcon_Monster_Dan1</v>
+      </c>
+      <c r="G111" t="s">
+        <v>17</v>
+      </c>
+      <c r="H111" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="I111" t="str">
+        <f t="shared" si="7"/>
+        <v>Assets/ResAB/UI/Icon/Icon_Monster_Dan1.png</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B112" t="s">
+        <v>15</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D112" t="str">
+        <f t="shared" si="6"/>
+        <v>ResIcon_Monster_Dan2</v>
+      </c>
+      <c r="G112" t="s">
+        <v>17</v>
+      </c>
+      <c r="H112" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="I112" t="str">
+        <f t="shared" si="7"/>
+        <v>Assets/ResAB/UI/Icon/Icon_Monster_Dan2.png</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B113" t="s">
+        <v>15</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D113" t="str">
+        <f t="shared" si="6"/>
+        <v>ResIcon_Monster_Dan3</v>
+      </c>
+      <c r="G113" t="s">
+        <v>17</v>
+      </c>
+      <c r="H113" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="I113" t="str">
+        <f t="shared" si="7"/>
+        <v>Assets/ResAB/UI/Icon/Icon_Monster_Dan3.png</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
+        <v>15</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D114" t="str">
+        <f t="shared" si="6"/>
+        <v>ResIcon_Monster_Niao1</v>
+      </c>
+      <c r="G114" t="s">
+        <v>17</v>
+      </c>
+      <c r="H114" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="I114" t="str">
+        <f t="shared" si="7"/>
+        <v>Assets/ResAB/UI/Icon/Icon_Monster_Niao1.png</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B115" t="s">
+        <v>15</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D115" t="str">
+        <f t="shared" si="6"/>
+        <v>ResIcon_Monster_Niao2</v>
+      </c>
+      <c r="G115" t="s">
+        <v>17</v>
+      </c>
+      <c r="H115" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="I115" t="str">
+        <f t="shared" si="7"/>
+        <v>Assets/ResAB/UI/Icon/Icon_Monster_Niao2.png</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B116" t="s">
+        <v>15</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D116" t="str">
+        <f t="shared" si="6"/>
+        <v>ResIcon_Monster_Niao3</v>
+      </c>
+      <c r="G116" t="s">
+        <v>17</v>
+      </c>
+      <c r="H116" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="I116" t="str">
+        <f t="shared" si="7"/>
+        <v>Assets/ResAB/UI/Icon/Icon_Monster_Niao3.png</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="17.25" customWidth="1"/>
     <col min="7" max="7" width="32.375" customWidth="1"/>
@@ -3910,7 +3892,7 @@
     <col min="9" max="9" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3927,11 +3909,11 @@
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3944,13 +3926,13 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -3961,11 +3943,11 @@
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -3980,7 +3962,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -4001,226 +3983,207 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
-      <c r="B6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>231</v>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>230</v>
       </c>
       <c r="D6" t="str">
         <f>B6&amp;"_"&amp;C6</f>
         <v>ResIcon_Beginners_Guide1</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
+      <c r="G6" t="s">
+        <v>231</v>
+      </c>
+      <c r="H6" t="s">
         <v>232</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="I6" s="6" t="str">
+      <c r="I6" s="3" t="str">
         <f>G6&amp;"/"&amp;H6</f>
         <v>Assets/ResAB/UI/Beginners_Guide/Beginners_Guide_img_guide1.png</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>234</v>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>233</v>
       </c>
       <c r="D7" t="str">
         <f>B7&amp;"_"&amp;C7</f>
         <v>ResIcon_Beginners_Guide2</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="I7" s="6" t="str">
+      <c r="G7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H7" t="s">
+        <v>234</v>
+      </c>
+      <c r="I7" s="3" t="str">
         <f>G7&amp;"/"&amp;H7</f>
         <v>Assets/ResAB/UI/Beginners_Guide/Beginners_Guide_img_guide2.png</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>236</v>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>235</v>
       </c>
       <c r="D8" t="str">
         <f>B8&amp;"_"&amp;C8</f>
         <v>ResIcon_Beginners_Guide3</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="I8" s="6" t="str">
+      <c r="G8" t="s">
+        <v>231</v>
+      </c>
+      <c r="H8" t="s">
+        <v>236</v>
+      </c>
+      <c r="I8" s="3" t="str">
         <f>G8&amp;"/"&amp;H8</f>
         <v>Assets/ResAB/UI/Beginners_Guide/Beginners_Guide_img_guide3.png</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>238</v>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>237</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" ref="D9" si="0">B9&amp;"_"&amp;C9</f>
         <v>ResIcon_Beginners_Guide4</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="I9" s="6" t="str">
+      <c r="G9" t="s">
+        <v>231</v>
+      </c>
+      <c r="H9" t="s">
+        <v>238</v>
+      </c>
+      <c r="I9" s="3" t="str">
         <f t="shared" ref="I9" si="1">G9&amp;"/"&amp;H9</f>
         <v>Assets/ResAB/UI/Beginners_Guide/Beginners_Guide_img_guide4.png</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>240</v>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>239</v>
       </c>
       <c r="D11" t="str">
         <f>B11&amp;"_"&amp;C11</f>
         <v>ResIcon_Avatar01</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4" t="s">
+      <c r="G11" t="s">
+        <v>240</v>
+      </c>
+      <c r="H11" t="s">
         <v>241</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="I11" s="6" t="str">
+      <c r="I11" s="3" t="str">
         <f>G11&amp;"/"&amp;H11</f>
         <v>Assets/ResAB/UI/common/Common_img_avatar_01.png</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>243</v>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>242</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" ref="D12:D15" si="2">B12&amp;"_"&amp;C12</f>
         <v>ResIcon_Avatar02</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="I12" s="6" t="str">
+      <c r="G12" t="s">
+        <v>240</v>
+      </c>
+      <c r="H12" t="s">
+        <v>243</v>
+      </c>
+      <c r="I12" s="3" t="str">
         <f t="shared" ref="I12:I15" si="3">G12&amp;"/"&amp;H12</f>
         <v>Assets/ResAB/UI/common/Common_img_avatar_02.png</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>245</v>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>244</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="2"/>
         <v>ResIcon_Avatar03</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="I13" s="6" t="str">
+      <c r="G13" t="s">
+        <v>240</v>
+      </c>
+      <c r="H13" t="s">
+        <v>245</v>
+      </c>
+      <c r="I13" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Assets/ResAB/UI/common/Common_img_avatar_03.png</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>247</v>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>246</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="2"/>
         <v>ResIcon_Avatar04</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="I14" s="6" t="str">
+      <c r="G14" t="s">
+        <v>240</v>
+      </c>
+      <c r="H14" t="s">
+        <v>247</v>
+      </c>
+      <c r="I14" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Assets/ResAB/UI/common/Common_img_avatar_04.png</v>
       </c>
     </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>249</v>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>248</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="2"/>
         <v>ResIcon_Avatar05</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="I15" s="6" t="str">
+      <c r="G15" t="s">
+        <v>240</v>
+      </c>
+      <c r="H15" t="s">
+        <v>249</v>
+      </c>
+      <c r="I15" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Assets/ResAB/UI/common/Common_img_avatar_05.png</v>
       </c>
     </row>
-    <row r="16" spans="2:8">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="8:8">
-      <c r="H17" s="4"/>
-    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResIconCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResIconCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ResConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209F615A-8B8B-4DC4-8517-58891A92EF09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EA333A-DC0C-402C-9E55-67A248962E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="308">
   <si>
     <t>##var</t>
   </si>
@@ -31,6 +31,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -41,6 +42,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -56,6 +58,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -66,6 +69,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -99,6 +103,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -109,6 +114,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -155,24 +161,12 @@
     <t>Icon_MachineGunTower_0.png</t>
   </si>
   <si>
-    <t>EnergyPylon_2</t>
-  </si>
-  <si>
-    <t>Icon_EnergyPylon_2.png</t>
-  </si>
-  <si>
     <t>LaserTower_0</t>
   </si>
   <si>
     <t>Icon_LaserTower_0.png</t>
   </si>
   <si>
-    <t>RocketTower_1</t>
-  </si>
-  <si>
-    <t>Icon_RocketTower_1.png</t>
-  </si>
-  <si>
     <t>Hoverboss</t>
   </si>
   <si>
@@ -831,147 +825,276 @@
   </si>
   <si>
     <t>Monster_MiFeng1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_MiFeng2</t>
+  </si>
+  <si>
+    <t>Monster_MiFeng3</t>
+  </si>
+  <si>
+    <t>Monster_BianFu1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_BianFu2</t>
+  </si>
+  <si>
+    <t>Monster_BianFu3</t>
+  </si>
+  <si>
+    <t>Monster_ZhiZhu1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_ZhiZhu2</t>
+  </si>
+  <si>
+    <t>Monster_ZhiZhu3</t>
+  </si>
+  <si>
+    <t>Monster_ZhongZi1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_ZhongZi2</t>
+  </si>
+  <si>
+    <t>Monster_ZhongZi3</t>
+  </si>
+  <si>
+    <t>Monster_Gui1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_Gui2</t>
+  </si>
+  <si>
+    <t>Monster_Gui3</t>
+  </si>
+  <si>
+    <t>Monster_Dan1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_Dan2</t>
+  </si>
+  <si>
+    <t>Monster_Dan3</t>
+  </si>
+  <si>
+    <t>Monster_Niao1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_Niao2</t>
+  </si>
+  <si>
+    <t>Monster_Niao3</t>
+  </si>
+  <si>
+    <t>Icon_Monster_Gui1</t>
+  </si>
+  <si>
+    <t>Icon_Monster_MiFeng1</t>
+  </si>
+  <si>
+    <t>Icon_Monster_MiFeng2</t>
+  </si>
+  <si>
+    <t>Icon_Monster_MiFeng3</t>
+  </si>
+  <si>
+    <t>Icon_Monster_BianFu1</t>
+  </si>
+  <si>
+    <t>Icon_Monster_BianFu2</t>
+  </si>
+  <si>
+    <t>Icon_Monster_BianFu3</t>
+  </si>
+  <si>
+    <t>Icon_Monster_ZhiZhu1</t>
+  </si>
+  <si>
+    <t>Icon_Monster_ZhiZhu2</t>
+  </si>
+  <si>
+    <t>Icon_Monster_ZhiZhu3</t>
+  </si>
+  <si>
+    <t>Icon_Monster_ZhongZi1</t>
+  </si>
+  <si>
+    <t>Icon_Monster_ZhongZi2</t>
+  </si>
+  <si>
+    <t>Icon_Monster_ZhongZi3</t>
+  </si>
+  <si>
+    <t>Icon_Monster_Gui2</t>
+  </si>
+  <si>
+    <t>Icon_Monster_Gui3</t>
+  </si>
+  <si>
+    <t>Icon_Monster_Dan1</t>
+  </si>
+  <si>
+    <t>Icon_Monster_Dan2</t>
+  </si>
+  <si>
+    <t>Icon_Monster_Dan3</t>
+  </si>
+  <si>
+    <t>Icon_Monster_Niao1</t>
+  </si>
+  <si>
+    <t>Icon_Monster_Niao2</t>
+  </si>
+  <si>
+    <t>Icon_Monster_Niao3</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Icon/Icon_TowerDragCircle3.png</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Monster_MiFeng2</t>
-  </si>
-  <si>
-    <t>Monster_MiFeng3</t>
-  </si>
-  <si>
-    <t>Monster_BianFu1</t>
+    <r>
+      <t>ResIcon_TowerBomb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Monster_BianFu2</t>
-  </si>
-  <si>
-    <t>Monster_BianFu3</t>
-  </si>
-  <si>
-    <t>Monster_ZhiZhu1</t>
+    <r>
+      <t>ResIcon_TowerBomb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ResIcon_TowerBomb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>Icon_TowerBomb1.png</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Monster_ZhiZhu2</t>
-  </si>
-  <si>
-    <t>Monster_ZhiZhu3</t>
-  </si>
-  <si>
-    <t>Monster_ZhongZi1</t>
+    <t>Icon_TowerBomb2.png</t>
+  </si>
+  <si>
+    <t>Icon_TowerBomb3.png</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Icon/Icon_TowerBomb1.png</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Monster_ZhongZi2</t>
-  </si>
-  <si>
-    <t>Monster_ZhongZi3</t>
-  </si>
-  <si>
-    <t>Monster_Gui1</t>
+    <t>Assets/ResAB/UI/Icon/Icon_TowerBomb2.png</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Icon/Icon_TowerBomb3.png</t>
+  </si>
+  <si>
+    <t>Infinite</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Monster_Gui2</t>
-  </si>
-  <si>
-    <t>Monster_Gui3</t>
-  </si>
-  <si>
-    <t>Monster_Dan1</t>
+    <t>Icon_Infinite.png</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Monster_Dan2</t>
-  </si>
-  <si>
-    <t>Monster_Dan3</t>
-  </si>
-  <si>
-    <t>Monster_Niao1</t>
+    <t>ResIcon_PVP</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Monster_Niao2</t>
-  </si>
-  <si>
-    <t>Monster_Niao3</t>
-  </si>
-  <si>
-    <t>Icon_Monster_Gui1</t>
-  </si>
-  <si>
-    <t>Icon_Monster_MiFeng1</t>
-  </si>
-  <si>
-    <t>Icon_Monster_MiFeng2</t>
-  </si>
-  <si>
-    <t>Icon_Monster_MiFeng3</t>
-  </si>
-  <si>
-    <t>Icon_Monster_BianFu1</t>
-  </si>
-  <si>
-    <t>Icon_Monster_BianFu2</t>
-  </si>
-  <si>
-    <t>Icon_Monster_BianFu3</t>
-  </si>
-  <si>
-    <t>Icon_Monster_ZhiZhu1</t>
-  </si>
-  <si>
-    <t>Icon_Monster_ZhiZhu2</t>
-  </si>
-  <si>
-    <t>Icon_Monster_ZhiZhu3</t>
-  </si>
-  <si>
-    <t>Icon_Monster_ZhongZi1</t>
-  </si>
-  <si>
-    <t>Icon_Monster_ZhongZi2</t>
-  </si>
-  <si>
-    <t>Icon_Monster_ZhongZi3</t>
-  </si>
-  <si>
-    <t>Icon_Monster_Gui2</t>
-  </si>
-  <si>
-    <t>Icon_Monster_Gui3</t>
-  </si>
-  <si>
-    <t>Icon_Monster_Dan1</t>
-  </si>
-  <si>
-    <t>Icon_Monster_Dan2</t>
-  </si>
-  <si>
-    <t>Icon_Monster_Dan3</t>
-  </si>
-  <si>
-    <t>Icon_Monster_Niao1</t>
-  </si>
-  <si>
-    <t>Icon_Monster_Niao2</t>
-  </si>
-  <si>
-    <t>Icon_Monster_Niao3</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UI/Icon/Icon_TowerDragCircle3.png</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>ResIcon_Towers</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResIcon_Team</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResIcon_Discord</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_PVP.png</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_card.png</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_battle.png</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_discord.png</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -981,8 +1104,16 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -990,17 +1121,27 @@
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1064,23 +1205,24 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -1358,10 +1500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA116"/>
+  <dimension ref="A1:AA122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="I96" sqref="I96:I116"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1631,7 +1773,7 @@
         <v>20</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" ref="D9:D20" si="0">B9&amp;"_"&amp;C9</f>
+        <f t="shared" ref="D9:D18" si="0">B9&amp;"_"&amp;C9</f>
         <v>ResIcon_Monster1</v>
       </c>
       <c r="G9" t="s">
@@ -1641,7 +1783,7 @@
         <v>18</v>
       </c>
       <c r="I9" s="3" t="str">
-        <f t="shared" ref="I9:I20" si="1">G9&amp;"/"&amp;H9</f>
+        <f t="shared" ref="I9:I18" si="1">G9&amp;"/"&amp;H9</f>
         <v>Assets/ResAB/UI/Icon/Icon_1.png</v>
       </c>
     </row>
@@ -1723,7 +1865,7 @@
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
-        <v>ResIcon_EnergyPylon_2</v>
+        <v>ResIcon_LaserTower_0</v>
       </c>
       <c r="G14" t="s">
         <v>17</v>
@@ -1733,7 +1875,7 @@
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Assets/ResAB/UI/Icon/Icon_EnergyPylon_2.png</v>
+        <v>Assets/ResAB/UI/Icon/Icon_LaserTower_0.png</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
@@ -1745,7 +1887,7 @@
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
-        <v>ResIcon_LaserTower_0</v>
+        <v>ResIcon_Hoverboss</v>
       </c>
       <c r="G15" t="s">
         <v>17</v>
@@ -1755,7 +1897,7 @@
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Assets/ResAB/UI/Icon/Icon_LaserTower_0.png</v>
+        <v>Assets/ResAB/UI/Icon/Icon_Hoverboss.png</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
@@ -1767,7 +1909,7 @@
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
-        <v>ResIcon_RocketTower_1</v>
+        <v>ResIcon_Hoverbuggy</v>
       </c>
       <c r="G16" t="s">
         <v>17</v>
@@ -1777,7 +1919,7 @@
       </c>
       <c r="I16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Assets/ResAB/UI/Icon/Icon_RocketTower_1.png</v>
+        <v>Assets/ResAB/UI/Icon/Icon_Hoverbuggy.png</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
@@ -1789,7 +1931,7 @@
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
-        <v>ResIcon_Hoverboss</v>
+        <v>ResIcon_Hovercopter</v>
       </c>
       <c r="G17" t="s">
         <v>17</v>
@@ -1799,7 +1941,7 @@
       </c>
       <c r="I17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Assets/ResAB/UI/Icon/Icon_Hoverboss.png</v>
+        <v>Assets/ResAB/UI/Icon/Icon_Hovercopter.png</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
@@ -1811,7 +1953,7 @@
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
-        <v>ResIcon_Hoverbuggy</v>
+        <v>ResIcon_Hovertank</v>
       </c>
       <c r="G18" t="s">
         <v>17</v>
@@ -1821,142 +1963,118 @@
       </c>
       <c r="I18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Assets/ResAB/UI/Icon/Icon_Hoverbuggy.png</v>
+        <v>Assets/ResAB/UI/Icon/Icon_Hovertank.png</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>15</v>
       </c>
-      <c r="C19" t="s">
-        <v>35</v>
+      <c r="C19" s="7" t="s">
+        <v>298</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="0"/>
-        <v>ResIcon_Hovercopter</v>
+        <f t="shared" ref="D19" si="4">B19&amp;"_"&amp;C19</f>
+        <v>ResIcon_Infinite</v>
       </c>
       <c r="G19" t="s">
         <v>17</v>
       </c>
-      <c r="H19" t="s">
-        <v>36</v>
+      <c r="H19" s="7" t="s">
+        <v>299</v>
       </c>
       <c r="I19" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Assets/ResAB/UI/Icon/Icon_Hovercopter.png</v>
+        <f t="shared" ref="I19" si="5">G19&amp;"/"&amp;H19</f>
+        <v>Assets/ResAB/UI/Icon/Icon_Infinite.png</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" t="str">
-        <f t="shared" si="0"/>
-        <v>ResIcon_Hovertank</v>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7" t="s">
+        <v>300</v>
       </c>
       <c r="G20" t="s">
         <v>17</v>
       </c>
-      <c r="H20" t="s">
-        <v>38</v>
+      <c r="H20" s="7" t="s">
+        <v>304</v>
       </c>
       <c r="I20" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Assets/ResAB/UI/Icon/Icon_Hovertank.png</v>
+        <f t="shared" ref="I20:I23" si="6">G20&amp;"/"&amp;H20</f>
+        <v>Assets/ResAB/UI/Icon/Icon_PVP.png</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="I21" s="3"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="I21" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>Assets/ResAB/UI/Icon/Icon_card.png</v>
+      </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" t="str">
-        <f t="shared" ref="D22:D69" si="4">B22&amp;"_"&amp;C22</f>
-        <v>ResIcon_TowerMagicBall1</v>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7" t="s">
+        <v>302</v>
       </c>
       <c r="G22" t="s">
         <v>17</v>
       </c>
-      <c r="H22" t="s">
-        <v>40</v>
+      <c r="H22" s="7" t="s">
+        <v>306</v>
       </c>
       <c r="I22" s="3" t="str">
-        <f t="shared" ref="I22:I69" si="5">G22&amp;"/"&amp;H22</f>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerMagicBall1.png</v>
+        <f t="shared" si="6"/>
+        <v>Assets/ResAB/UI/Icon/Icon_battle.png</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" t="str">
-        <f t="shared" si="4"/>
-        <v>ResIcon_TowerMagicBall2</v>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7" t="s">
+        <v>303</v>
       </c>
       <c r="G23" t="s">
         <v>17</v>
       </c>
-      <c r="H23" t="s">
-        <v>42</v>
+      <c r="H23" s="7" t="s">
+        <v>307</v>
       </c>
       <c r="I23" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerMagicBall2.png</v>
+        <f t="shared" si="6"/>
+        <v>Assets/ResAB/UI/Icon/Icon_discord.png</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" t="str">
-        <f t="shared" si="4"/>
-        <v>ResIcon_TowerMagicBall3</v>
-      </c>
-      <c r="G24" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" t="s">
-        <v>44</v>
-      </c>
-      <c r="I24" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerMagicBall3.png</v>
-      </c>
+      <c r="I24" s="3"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D25" t="str">
-        <f t="shared" si="4"/>
-        <v>ResIcon_TowerAlchemy1</v>
+        <f t="shared" ref="D25:D72" si="7">B25&amp;"_"&amp;C25</f>
+        <v>ResIcon_TowerMagicBall1</v>
       </c>
       <c r="G25" t="s">
         <v>17</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I25" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerAlchemy1.png</v>
+        <f t="shared" ref="I25:I72" si="8">G25&amp;"/"&amp;H25</f>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerMagicBall1.png</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
@@ -1964,21 +2082,21 @@
         <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" si="4"/>
-        <v>ResIcon_TowerAlchemy2</v>
+        <f t="shared" si="7"/>
+        <v>ResIcon_TowerMagicBall2</v>
       </c>
       <c r="G26" t="s">
         <v>17</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I26" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerAlchemy2.png</v>
+        <f t="shared" si="8"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerMagicBall2.png</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
@@ -1986,21 +2104,21 @@
         <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D27" t="str">
-        <f t="shared" si="4"/>
-        <v>ResIcon_TowerAlchemy3</v>
+        <f t="shared" si="7"/>
+        <v>ResIcon_TowerMagicBall3</v>
       </c>
       <c r="G27" t="s">
         <v>17</v>
       </c>
       <c r="H27" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I27" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerAlchemy3.png</v>
+        <f t="shared" si="8"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerMagicBall3.png</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
@@ -2008,21 +2126,21 @@
         <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D28" t="str">
-        <f t="shared" si="4"/>
-        <v>ResIcon_TowerScorpio1</v>
+        <f t="shared" si="7"/>
+        <v>ResIcon_TowerAlchemy1</v>
       </c>
       <c r="G28" t="s">
         <v>17</v>
       </c>
       <c r="H28" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I28" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerScorpio1.png</v>
+        <f t="shared" si="8"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerAlchemy1.png</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
@@ -2030,21 +2148,21 @@
         <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D29" t="str">
-        <f t="shared" si="4"/>
-        <v>ResIcon_TowerScorpio2</v>
+        <f t="shared" si="7"/>
+        <v>ResIcon_TowerAlchemy2</v>
       </c>
       <c r="G29" t="s">
         <v>17</v>
       </c>
       <c r="H29" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I29" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerScorpio2.png</v>
+        <f t="shared" si="8"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerAlchemy2.png</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
@@ -2052,21 +2170,21 @@
         <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D30" t="str">
-        <f t="shared" si="4"/>
-        <v>ResIcon_TowerScorpio3</v>
+        <f t="shared" si="7"/>
+        <v>ResIcon_TowerAlchemy3</v>
       </c>
       <c r="G30" t="s">
         <v>17</v>
       </c>
       <c r="H30" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="I30" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerScorpio3.png</v>
+        <f t="shared" si="8"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerAlchemy3.png</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
@@ -2074,21 +2192,21 @@
         <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D31" t="str">
-        <f t="shared" si="4"/>
-        <v>ResIcon_TowerCurse1</v>
+        <f t="shared" si="7"/>
+        <v>ResIcon_TowerScorpio1</v>
       </c>
       <c r="G31" t="s">
         <v>17</v>
       </c>
       <c r="H31" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I31" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerCurse1.png</v>
+        <f t="shared" si="8"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerScorpio1.png</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
@@ -2096,21 +2214,21 @@
         <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D32" t="str">
-        <f t="shared" si="4"/>
-        <v>ResIcon_TowerCurse2</v>
+        <f t="shared" si="7"/>
+        <v>ResIcon_TowerScorpio2</v>
       </c>
       <c r="G32" t="s">
         <v>17</v>
       </c>
       <c r="H32" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I32" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerCurse2.png</v>
+        <f t="shared" si="8"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerScorpio2.png</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.2">
@@ -2118,21 +2236,21 @@
         <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D33" t="str">
-        <f t="shared" si="4"/>
-        <v>ResIcon_TowerCurse3</v>
+        <f t="shared" si="7"/>
+        <v>ResIcon_TowerScorpio3</v>
       </c>
       <c r="G33" t="s">
         <v>17</v>
       </c>
       <c r="H33" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I33" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerCurse3.png</v>
+        <f t="shared" si="8"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerScorpio3.png</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.2">
@@ -2140,21 +2258,21 @@
         <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" si="4"/>
-        <v>ResIcon_Towerwitch1</v>
+        <f t="shared" si="7"/>
+        <v>ResIcon_TowerCurse1</v>
       </c>
       <c r="G34" t="s">
         <v>17</v>
       </c>
       <c r="H34" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="I34" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Assets/ResAB/UI/Icon/Icon_Towerwitch1.png</v>
+        <f t="shared" si="8"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerCurse1.png</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.2">
@@ -2162,21 +2280,21 @@
         <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" si="4"/>
-        <v>ResIcon_Towerwitch2</v>
+        <f t="shared" si="7"/>
+        <v>ResIcon_TowerCurse2</v>
       </c>
       <c r="G35" t="s">
         <v>17</v>
       </c>
       <c r="H35" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="I35" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Assets/ResAB/UI/Icon/Icon_Towerwitch2.png</v>
+        <f t="shared" si="8"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerCurse2.png</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.2">
@@ -2184,21 +2302,21 @@
         <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D36" t="str">
-        <f t="shared" si="4"/>
-        <v>ResIcon_Towerwitch3</v>
+        <f t="shared" si="7"/>
+        <v>ResIcon_TowerCurse3</v>
       </c>
       <c r="G36" t="s">
         <v>17</v>
       </c>
       <c r="H36" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I36" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Assets/ResAB/UI/Icon/Icon_Towerwitch3.png</v>
+        <f t="shared" si="8"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerCurse3.png</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.2">
@@ -2206,21 +2324,21 @@
         <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D37" t="str">
-        <f t="shared" si="4"/>
-        <v>ResIcon_TowerIceArrow1</v>
+        <f t="shared" si="7"/>
+        <v>ResIcon_Towerwitch1</v>
       </c>
       <c r="G37" t="s">
         <v>17</v>
       </c>
       <c r="H37" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="I37" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerIceArrow1.png</v>
+        <f t="shared" si="8"/>
+        <v>Assets/ResAB/UI/Icon/Icon_Towerwitch1.png</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.2">
@@ -2228,21 +2346,21 @@
         <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D38" t="str">
-        <f t="shared" si="4"/>
-        <v>ResIcon_TowerIceArrow2</v>
+        <f t="shared" si="7"/>
+        <v>ResIcon_Towerwitch2</v>
       </c>
       <c r="G38" t="s">
         <v>17</v>
       </c>
       <c r="H38" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="I38" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerIceArrow2.png</v>
+        <f t="shared" si="8"/>
+        <v>Assets/ResAB/UI/Icon/Icon_Towerwitch2.png</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.2">
@@ -2250,21 +2368,21 @@
         <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D39" t="str">
-        <f t="shared" si="4"/>
-        <v>ResIcon_TowerIceArrow3</v>
+        <f t="shared" si="7"/>
+        <v>ResIcon_Towerwitch3</v>
       </c>
       <c r="G39" t="s">
         <v>17</v>
       </c>
       <c r="H39" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="I39" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerIceArrow3.png</v>
+        <f t="shared" si="8"/>
+        <v>Assets/ResAB/UI/Icon/Icon_Towerwitch3.png</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.2">
@@ -2272,21 +2390,21 @@
         <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D40" t="str">
-        <f t="shared" si="4"/>
-        <v>ResIcon_TowerWater1</v>
+        <f t="shared" si="7"/>
+        <v>ResIcon_TowerIceArrow1</v>
       </c>
       <c r="G40" t="s">
         <v>17</v>
       </c>
       <c r="H40" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="I40" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerWater1.png</v>
+        <f t="shared" si="8"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerIceArrow1.png</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.2">
@@ -2294,21 +2412,21 @@
         <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D41" t="str">
-        <f t="shared" si="4"/>
-        <v>ResIcon_TowerWater2</v>
+        <f t="shared" si="7"/>
+        <v>ResIcon_TowerIceArrow2</v>
       </c>
       <c r="G41" t="s">
         <v>17</v>
       </c>
       <c r="H41" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="I41" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerWater2.png</v>
+        <f t="shared" si="8"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerIceArrow2.png</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.2">
@@ -2316,21 +2434,21 @@
         <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D42" t="str">
-        <f t="shared" si="4"/>
-        <v>ResIcon_TowerWater3</v>
+        <f t="shared" si="7"/>
+        <v>ResIcon_TowerIceArrow3</v>
       </c>
       <c r="G42" t="s">
         <v>17</v>
       </c>
       <c r="H42" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="I42" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerWater3.png</v>
+        <f t="shared" si="8"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerIceArrow3.png</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.2">
@@ -2338,21 +2456,21 @@
         <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" si="4"/>
-        <v>ResIcon_TowerElectromagnetic1</v>
+        <f t="shared" si="7"/>
+        <v>ResIcon_TowerWater1</v>
       </c>
       <c r="G43" t="s">
         <v>17</v>
       </c>
       <c r="H43" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I43" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerElectromagnetic1.png</v>
+        <f t="shared" si="8"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerWater1.png</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.2">
@@ -2360,21 +2478,21 @@
         <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D44" t="str">
-        <f t="shared" si="4"/>
-        <v>ResIcon_TowerElectromagnetic2</v>
+        <f t="shared" si="7"/>
+        <v>ResIcon_TowerWater2</v>
       </c>
       <c r="G44" t="s">
         <v>17</v>
       </c>
       <c r="H44" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I44" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerElectromagnetic2.png</v>
+        <f t="shared" si="8"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerWater2.png</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.2">
@@ -2382,21 +2500,21 @@
         <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D45" t="str">
-        <f t="shared" si="4"/>
-        <v>ResIcon_TowerElectromagnetic3</v>
+        <f t="shared" si="7"/>
+        <v>ResIcon_TowerWater3</v>
       </c>
       <c r="G45" t="s">
         <v>17</v>
       </c>
       <c r="H45" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I45" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerElectromagnetic3.png</v>
+        <f t="shared" si="8"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerWater3.png</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.2">
@@ -2404,21 +2522,21 @@
         <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D46" t="str">
-        <f t="shared" si="4"/>
-        <v>ResIcon_TowerFire1</v>
+        <f t="shared" si="7"/>
+        <v>ResIcon_TowerElectromagnetic1</v>
       </c>
       <c r="G46" t="s">
         <v>17</v>
       </c>
       <c r="H46" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="I46" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerFire1.png</v>
+        <f t="shared" si="8"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerElectromagnetic1.png</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.2">
@@ -2426,21 +2544,21 @@
         <v>15</v>
       </c>
       <c r="C47" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D47" t="str">
-        <f t="shared" si="4"/>
-        <v>ResIcon_TowerFire2</v>
+        <f t="shared" si="7"/>
+        <v>ResIcon_TowerElectromagnetic2</v>
       </c>
       <c r="G47" t="s">
         <v>17</v>
       </c>
       <c r="H47" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I47" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerFire2.png</v>
+        <f t="shared" si="8"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerElectromagnetic2.png</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.2">
@@ -2448,21 +2566,21 @@
         <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D48" t="str">
-        <f t="shared" si="4"/>
-        <v>ResIcon_TowerFire3</v>
+        <f t="shared" si="7"/>
+        <v>ResIcon_TowerElectromagnetic3</v>
       </c>
       <c r="G48" t="s">
         <v>17</v>
       </c>
       <c r="H48" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="I48" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerFire3.png</v>
+        <f t="shared" si="8"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerElectromagnetic3.png</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.2">
@@ -2470,21 +2588,21 @@
         <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D49" t="str">
-        <f t="shared" si="4"/>
-        <v>ResIcon_TowerAoShu1</v>
+        <f t="shared" si="7"/>
+        <v>ResIcon_TowerFire1</v>
       </c>
       <c r="G49" t="s">
         <v>17</v>
       </c>
       <c r="H49" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="I49" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerAoShu1.png</v>
+        <f t="shared" si="8"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerFire1.png</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.2">
@@ -2492,21 +2610,21 @@
         <v>15</v>
       </c>
       <c r="C50" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D50" t="str">
-        <f t="shared" si="4"/>
-        <v>ResIcon_TowerAoShu2</v>
+        <f t="shared" si="7"/>
+        <v>ResIcon_TowerFire2</v>
       </c>
       <c r="G50" t="s">
         <v>17</v>
       </c>
       <c r="H50" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="I50" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerAoShu2.png</v>
+        <f t="shared" si="8"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerFire2.png</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.2">
@@ -2514,21 +2632,21 @@
         <v>15</v>
       </c>
       <c r="C51" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D51" t="str">
-        <f t="shared" si="4"/>
-        <v>ResIcon_TowerAoShu3</v>
+        <f t="shared" si="7"/>
+        <v>ResIcon_TowerFire3</v>
       </c>
       <c r="G51" t="s">
         <v>17</v>
       </c>
       <c r="H51" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="I51" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerAoShu3.png</v>
+        <f t="shared" si="8"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerFire3.png</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.2">
@@ -2536,21 +2654,21 @@
         <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D52" t="str">
-        <f t="shared" si="4"/>
-        <v>ResIcon_TowerLianJi1</v>
+        <f t="shared" si="7"/>
+        <v>ResIcon_TowerAoShu1</v>
       </c>
       <c r="G52" t="s">
         <v>17</v>
       </c>
       <c r="H52" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="I52" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerLianJi1.png</v>
+        <f t="shared" si="8"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerAoShu1.png</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.2">
@@ -2558,21 +2676,21 @@
         <v>15</v>
       </c>
       <c r="C53" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D53" t="str">
-        <f t="shared" si="4"/>
-        <v>ResIcon_TowerLianJi2</v>
+        <f t="shared" si="7"/>
+        <v>ResIcon_TowerAoShu2</v>
       </c>
       <c r="G53" t="s">
         <v>17</v>
       </c>
       <c r="H53" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="I53" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerLianJi2.png</v>
+        <f t="shared" si="8"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerAoShu2.png</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.2">
@@ -2580,21 +2698,21 @@
         <v>15</v>
       </c>
       <c r="C54" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D54" t="str">
-        <f t="shared" si="4"/>
-        <v>ResIcon_TowerLianJi3</v>
+        <f t="shared" si="7"/>
+        <v>ResIcon_TowerAoShu3</v>
       </c>
       <c r="G54" t="s">
         <v>17</v>
       </c>
       <c r="H54" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="I54" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerLianJi3.png</v>
+        <f t="shared" si="8"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerAoShu3.png</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.2">
@@ -2602,21 +2720,21 @@
         <v>15</v>
       </c>
       <c r="C55" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D55" t="str">
-        <f t="shared" si="4"/>
-        <v>ResIcon_TowerZaiE1</v>
+        <f t="shared" si="7"/>
+        <v>ResIcon_TowerLianJi1</v>
       </c>
       <c r="G55" t="s">
         <v>17</v>
       </c>
       <c r="H55" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="I55" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerZaiE1.png</v>
+        <f t="shared" si="8"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerLianJi1.png</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.2">
@@ -2624,21 +2742,21 @@
         <v>15</v>
       </c>
       <c r="C56" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D56" t="str">
-        <f t="shared" si="4"/>
-        <v>ResIcon_TowerZaiE2</v>
+        <f t="shared" si="7"/>
+        <v>ResIcon_TowerLianJi2</v>
       </c>
       <c r="G56" t="s">
         <v>17</v>
       </c>
       <c r="H56" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="I56" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerZaiE2.png</v>
+        <f t="shared" si="8"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerLianJi2.png</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.2">
@@ -2646,21 +2764,21 @@
         <v>15</v>
       </c>
       <c r="C57" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D57" t="str">
-        <f t="shared" si="4"/>
-        <v>ResIcon_TowerZaiE3</v>
+        <f t="shared" si="7"/>
+        <v>ResIcon_TowerLianJi3</v>
       </c>
       <c r="G57" t="s">
         <v>17</v>
       </c>
       <c r="H57" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerZaiE3.png</v>
+        <f t="shared" si="8"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerLianJi3.png</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.2">
@@ -2668,21 +2786,21 @@
         <v>15</v>
       </c>
       <c r="C58" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D58" t="str">
-        <f t="shared" si="4"/>
-        <v>ResIcon_TowerGoblin1</v>
+        <f t="shared" si="7"/>
+        <v>ResIcon_TowerZaiE1</v>
       </c>
       <c r="G58" t="s">
         <v>17</v>
       </c>
       <c r="H58" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="I58" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerGoblin1.png</v>
+        <f t="shared" si="8"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerZaiE1.png</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.2">
@@ -2690,21 +2808,21 @@
         <v>15</v>
       </c>
       <c r="C59" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D59" t="str">
-        <f t="shared" si="4"/>
-        <v>ResIcon_TowerGoblin2</v>
+        <f t="shared" si="7"/>
+        <v>ResIcon_TowerZaiE2</v>
       </c>
       <c r="G59" t="s">
         <v>17</v>
       </c>
       <c r="H59" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="I59" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerGoblin2.png</v>
+        <f t="shared" si="8"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerZaiE2.png</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.2">
@@ -2712,21 +2830,21 @@
         <v>15</v>
       </c>
       <c r="C60" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D60" t="str">
-        <f t="shared" si="4"/>
-        <v>ResIcon_TowerGoblin3</v>
+        <f t="shared" si="7"/>
+        <v>ResIcon_TowerZaiE3</v>
       </c>
       <c r="G60" t="s">
         <v>17</v>
       </c>
       <c r="H60" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="I60" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerGoblin3.png</v>
+        <f t="shared" si="8"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerZaiE3.png</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.2">
@@ -2734,21 +2852,21 @@
         <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D61" t="str">
-        <f t="shared" si="4"/>
-        <v>ResIcon_TowerDuCi1</v>
+        <f t="shared" si="7"/>
+        <v>ResIcon_TowerGoblin1</v>
       </c>
       <c r="G61" t="s">
         <v>17</v>
       </c>
       <c r="H61" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="I61" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerDuCi1.png</v>
+        <f t="shared" si="8"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerGoblin1.png</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.2">
@@ -2756,21 +2874,21 @@
         <v>15</v>
       </c>
       <c r="C62" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D62" t="str">
-        <f t="shared" si="4"/>
-        <v>ResIcon_TowerDuCi2</v>
+        <f t="shared" si="7"/>
+        <v>ResIcon_TowerGoblin2</v>
       </c>
       <c r="G62" t="s">
         <v>17</v>
       </c>
       <c r="H62" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="I62" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerDuCi2.png</v>
+        <f t="shared" si="8"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerGoblin2.png</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.2">
@@ -2778,21 +2896,21 @@
         <v>15</v>
       </c>
       <c r="C63" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D63" t="str">
-        <f t="shared" si="4"/>
-        <v>ResIcon_TowerDuCi3</v>
+        <f t="shared" si="7"/>
+        <v>ResIcon_TowerGoblin3</v>
       </c>
       <c r="G63" t="s">
         <v>17</v>
       </c>
       <c r="H63" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="I63" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerDuCi3.png</v>
+        <f t="shared" si="8"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerGoblin3.png</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.2">
@@ -2800,21 +2918,21 @@
         <v>15</v>
       </c>
       <c r="C64" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D64" t="str">
-        <f t="shared" si="4"/>
-        <v>ResIcon_TowerRocket1</v>
+        <f t="shared" si="7"/>
+        <v>ResIcon_TowerDuCi1</v>
       </c>
       <c r="G64" t="s">
         <v>17</v>
       </c>
       <c r="H64" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="I64" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerRocket1.png</v>
+        <f t="shared" si="8"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerDuCi1.png</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.2">
@@ -2822,21 +2940,21 @@
         <v>15</v>
       </c>
       <c r="C65" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D65" t="str">
-        <f t="shared" si="4"/>
-        <v>ResIcon_TowerRocket2</v>
+        <f t="shared" si="7"/>
+        <v>ResIcon_TowerDuCi2</v>
       </c>
       <c r="G65" t="s">
         <v>17</v>
       </c>
       <c r="H65" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="I65" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerRocket2.png</v>
+        <f t="shared" si="8"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerDuCi2.png</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.2">
@@ -2844,21 +2962,21 @@
         <v>15</v>
       </c>
       <c r="C66" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D66" t="str">
-        <f t="shared" si="4"/>
-        <v>ResIcon_TowerRocket3</v>
+        <f t="shared" si="7"/>
+        <v>ResIcon_TowerDuCi3</v>
       </c>
       <c r="G66" t="s">
         <v>17</v>
       </c>
       <c r="H66" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="I66" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerRocket3.png</v>
+        <f t="shared" si="8"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerDuCi3.png</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.2">
@@ -2866,21 +2984,21 @@
         <v>15</v>
       </c>
       <c r="C67" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D67" t="str">
-        <f t="shared" si="4"/>
-        <v>ResIcon_TowerFireBall1</v>
+        <f t="shared" si="7"/>
+        <v>ResIcon_TowerRocket1</v>
       </c>
       <c r="G67" t="s">
         <v>17</v>
       </c>
       <c r="H67" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="I67" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerFireBall1.png</v>
+        <f t="shared" si="8"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerRocket1.png</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.2">
@@ -2888,21 +3006,21 @@
         <v>15</v>
       </c>
       <c r="C68" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D68" t="str">
-        <f t="shared" si="4"/>
-        <v>ResIcon_TowerFireBall2</v>
+        <f t="shared" si="7"/>
+        <v>ResIcon_TowerRocket2</v>
       </c>
       <c r="G68" t="s">
         <v>17</v>
       </c>
       <c r="H68" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="I68" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerFireBall2.png</v>
+        <f t="shared" si="8"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerRocket2.png</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.2">
@@ -2910,21 +3028,43 @@
         <v>15</v>
       </c>
       <c r="C69" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D69" t="str">
-        <f t="shared" si="4"/>
-        <v>ResIcon_TowerFireBall3</v>
+        <f t="shared" si="7"/>
+        <v>ResIcon_TowerRocket3</v>
       </c>
       <c r="G69" t="s">
         <v>17</v>
       </c>
       <c r="H69" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="I69" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerFireBall3.png</v>
+        <f t="shared" si="8"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerRocket3.png</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" t="s">
+        <v>125</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" si="7"/>
+        <v>ResIcon_TowerFireBall1</v>
+      </c>
+      <c r="G70" t="s">
+        <v>17</v>
+      </c>
+      <c r="H70" t="s">
+        <v>126</v>
+      </c>
+      <c r="I70" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerFireBall1.png</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.2">
@@ -2932,19 +3072,21 @@
         <v>15</v>
       </c>
       <c r="C71" t="s">
-        <v>135</v>
-      </c>
-      <c r="D71" t="s">
-        <v>136</v>
+        <v>127</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="7"/>
+        <v>ResIcon_TowerFireBall2</v>
       </c>
       <c r="G71" t="s">
         <v>17</v>
       </c>
       <c r="H71" t="s">
-        <v>137</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>138</v>
+        <v>128</v>
+      </c>
+      <c r="I71" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerFireBall2.png</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.2">
@@ -2952,39 +3094,21 @@
         <v>15</v>
       </c>
       <c r="C72" t="s">
-        <v>139</v>
-      </c>
-      <c r="D72" t="s">
-        <v>140</v>
+        <v>129</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" si="7"/>
+        <v>ResIcon_TowerFireBall3</v>
       </c>
       <c r="G72" t="s">
         <v>17</v>
       </c>
       <c r="H72" t="s">
-        <v>141</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B73" t="s">
-        <v>15</v>
-      </c>
-      <c r="C73" t="s">
-        <v>143</v>
-      </c>
-      <c r="D73" t="s">
-        <v>144</v>
-      </c>
-      <c r="G73" t="s">
-        <v>17</v>
-      </c>
-      <c r="H73" t="s">
-        <v>145</v>
-      </c>
-      <c r="I73" s="3" t="s">
-        <v>146</v>
+        <v>130</v>
+      </c>
+      <c r="I72" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>Assets/ResAB/UI/Icon/Icon_TowerFireBall3.png</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.2">
@@ -2992,19 +3116,19 @@
         <v>15</v>
       </c>
       <c r="C74" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="D74" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="G74" t="s">
         <v>17</v>
       </c>
       <c r="H74" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.2">
@@ -3012,19 +3136,19 @@
         <v>15</v>
       </c>
       <c r="C75" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D75" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="G75" t="s">
         <v>17</v>
       </c>
       <c r="H75" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.2">
@@ -3032,19 +3156,19 @@
         <v>15</v>
       </c>
       <c r="C76" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="D76" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="G76" t="s">
         <v>17</v>
       </c>
       <c r="H76" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.2">
@@ -3052,19 +3176,19 @@
         <v>15</v>
       </c>
       <c r="C77" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="D77" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="G77" t="s">
         <v>17</v>
       </c>
       <c r="H77" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.2">
@@ -3072,19 +3196,19 @@
         <v>15</v>
       </c>
       <c r="C78" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="D78" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="G78" t="s">
         <v>17</v>
       </c>
       <c r="H78" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.2">
@@ -3092,19 +3216,19 @@
         <v>15</v>
       </c>
       <c r="C79" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="D79" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="G79" t="s">
         <v>17</v>
       </c>
       <c r="H79" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.2">
@@ -3112,19 +3236,19 @@
         <v>15</v>
       </c>
       <c r="C80" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="D80" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="G80" t="s">
         <v>17</v>
       </c>
       <c r="H80" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.2">
@@ -3132,19 +3256,19 @@
         <v>15</v>
       </c>
       <c r="C81" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="D81" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="G81" t="s">
         <v>17</v>
       </c>
       <c r="H81" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.2">
@@ -3152,19 +3276,19 @@
         <v>15</v>
       </c>
       <c r="C82" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="D82" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="G82" t="s">
         <v>17</v>
       </c>
       <c r="H82" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.2">
@@ -3172,19 +3296,19 @@
         <v>15</v>
       </c>
       <c r="C83" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="D83" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="G83" t="s">
         <v>17</v>
       </c>
       <c r="H83" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.2">
@@ -3192,19 +3316,19 @@
         <v>15</v>
       </c>
       <c r="C84" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="D84" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="G84" t="s">
         <v>17</v>
       </c>
       <c r="H84" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.2">
@@ -3212,19 +3336,19 @@
         <v>15</v>
       </c>
       <c r="C85" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="D85" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="G85" t="s">
         <v>17</v>
       </c>
       <c r="H85" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.2">
@@ -3232,19 +3356,19 @@
         <v>15</v>
       </c>
       <c r="C86" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="D86" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="G86" t="s">
         <v>17</v>
       </c>
       <c r="H86" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.2">
@@ -3252,19 +3376,19 @@
         <v>15</v>
       </c>
       <c r="C87" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="D87" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="G87" t="s">
         <v>17</v>
       </c>
       <c r="H87" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.2">
@@ -3272,19 +3396,19 @@
         <v>15</v>
       </c>
       <c r="C88" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="D88" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="G88" t="s">
         <v>17</v>
       </c>
       <c r="H88" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.2">
@@ -3292,19 +3416,19 @@
         <v>15</v>
       </c>
       <c r="C89" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="D89" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="G89" t="s">
         <v>17</v>
       </c>
       <c r="H89" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.2">
@@ -3312,19 +3436,19 @@
         <v>15</v>
       </c>
       <c r="C90" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="D90" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="G90" t="s">
         <v>17</v>
       </c>
       <c r="H90" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.2">
@@ -3332,19 +3456,19 @@
         <v>15</v>
       </c>
       <c r="C91" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="D91" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="G91" t="s">
         <v>17</v>
       </c>
       <c r="H91" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.2">
@@ -3352,19 +3476,19 @@
         <v>15</v>
       </c>
       <c r="C92" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="D92" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="G92" t="s">
         <v>17</v>
       </c>
       <c r="H92" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.2">
@@ -3372,19 +3496,19 @@
         <v>15</v>
       </c>
       <c r="C93" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="D93" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="G93" t="s">
         <v>17</v>
       </c>
       <c r="H93" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.2">
@@ -3392,151 +3516,121 @@
         <v>15</v>
       </c>
       <c r="C94" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="D94" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="G94" t="s">
         <v>17</v>
       </c>
       <c r="H94" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>292</v>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
+        <v>15</v>
+      </c>
+      <c r="C95" t="s">
+        <v>215</v>
+      </c>
+      <c r="D95" t="s">
+        <v>216</v>
+      </c>
+      <c r="G95" t="s">
+        <v>17</v>
+      </c>
+      <c r="H95" t="s">
+        <v>217</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>15</v>
       </c>
-      <c r="C96" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="D96" t="str">
-        <f>B96&amp;"_"&amp;C96</f>
-        <v>ResIcon_Monster_MiFeng1</v>
+      <c r="C96" t="s">
+        <v>219</v>
+      </c>
+      <c r="D96" t="s">
+        <v>220</v>
       </c>
       <c r="G96" t="s">
         <v>17</v>
       </c>
-      <c r="H96" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="I96" t="str">
-        <f>"Assets/ResAB/UI/Icon/"&amp;H96&amp;".png"</f>
-        <v>Assets/ResAB/UI/Icon/Icon_Monster_MiFeng1.png</v>
+      <c r="H96" t="s">
+        <v>221</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>15</v>
       </c>
-      <c r="C97" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="D97" t="str">
-        <f t="shared" ref="D97:D116" si="6">B97&amp;"_"&amp;C97</f>
-        <v>ResIcon_Monster_MiFeng2</v>
+      <c r="C97" t="s">
+        <v>223</v>
+      </c>
+      <c r="D97" t="s">
+        <v>224</v>
       </c>
       <c r="G97" t="s">
         <v>17</v>
       </c>
-      <c r="H97" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="I97" t="str">
-        <f t="shared" ref="I97:I116" si="7">"Assets/ResAB/UI/Icon/"&amp;H97&amp;".png"</f>
-        <v>Assets/ResAB/UI/Icon/Icon_Monster_MiFeng2.png</v>
+      <c r="H97" t="s">
+        <v>225</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B98" t="s">
-        <v>15</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="D98" t="str">
-        <f t="shared" si="6"/>
-        <v>ResIcon_Monster_MiFeng3</v>
+      <c r="D98" s="7" t="s">
+        <v>289</v>
       </c>
       <c r="G98" t="s">
         <v>17</v>
       </c>
-      <c r="H98" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="I98" t="str">
-        <f t="shared" si="7"/>
-        <v>Assets/ResAB/UI/Icon/Icon_Monster_MiFeng3.png</v>
+      <c r="H98" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B99" t="s">
-        <v>15</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="D99" t="str">
-        <f t="shared" si="6"/>
-        <v>ResIcon_Monster_BianFu1</v>
+      <c r="D99" s="7" t="s">
+        <v>290</v>
       </c>
       <c r="G99" t="s">
         <v>17</v>
       </c>
-      <c r="H99" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="I99" t="str">
-        <f t="shared" si="7"/>
-        <v>Assets/ResAB/UI/Icon/Icon_Monster_BianFu1.png</v>
+      <c r="H99" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B100" t="s">
-        <v>15</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="D100" t="str">
-        <f t="shared" si="6"/>
-        <v>ResIcon_Monster_BianFu2</v>
+      <c r="D100" s="7" t="s">
+        <v>291</v>
       </c>
       <c r="G100" t="s">
         <v>17</v>
       </c>
-      <c r="H100" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="I100" t="str">
-        <f t="shared" si="7"/>
-        <v>Assets/ResAB/UI/Icon/Icon_Monster_BianFu2.png</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B101" t="s">
-        <v>15</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="D101" t="str">
-        <f t="shared" si="6"/>
-        <v>ResIcon_Monster_BianFu3</v>
-      </c>
-      <c r="G101" t="s">
-        <v>17</v>
-      </c>
-      <c r="H101" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="I101" t="str">
-        <f t="shared" si="7"/>
-        <v>Assets/ResAB/UI/Icon/Icon_Monster_BianFu3.png</v>
+      <c r="H100" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.2">
@@ -3544,21 +3638,21 @@
         <v>15</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="D102" t="str">
-        <f t="shared" si="6"/>
-        <v>ResIcon_Monster_ZhiZhu1</v>
+        <f>B102&amp;"_"&amp;C102</f>
+        <v>ResIcon_Monster_MiFeng1</v>
       </c>
       <c r="G102" t="s">
         <v>17</v>
       </c>
       <c r="H102" s="6" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="I102" t="str">
-        <f t="shared" si="7"/>
-        <v>Assets/ResAB/UI/Icon/Icon_Monster_ZhiZhu1.png</v>
+        <f>"Assets/ResAB/UI/Icon/"&amp;H102&amp;".png"</f>
+        <v>Assets/ResAB/UI/Icon/Icon_Monster_MiFeng1.png</v>
       </c>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.2">
@@ -3566,21 +3660,21 @@
         <v>15</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="D103" t="str">
-        <f t="shared" si="6"/>
-        <v>ResIcon_Monster_ZhiZhu2</v>
+        <f t="shared" ref="D103:D122" si="9">B103&amp;"_"&amp;C103</f>
+        <v>ResIcon_Monster_MiFeng2</v>
       </c>
       <c r="G103" t="s">
         <v>17</v>
       </c>
       <c r="H103" s="6" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="I103" t="str">
-        <f t="shared" si="7"/>
-        <v>Assets/ResAB/UI/Icon/Icon_Monster_ZhiZhu2.png</v>
+        <f t="shared" ref="I103:I122" si="10">"Assets/ResAB/UI/Icon/"&amp;H103&amp;".png"</f>
+        <v>Assets/ResAB/UI/Icon/Icon_Monster_MiFeng2.png</v>
       </c>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.2">
@@ -3588,21 +3682,21 @@
         <v>15</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="D104" t="str">
-        <f t="shared" si="6"/>
-        <v>ResIcon_Monster_ZhiZhu3</v>
+        <f t="shared" si="9"/>
+        <v>ResIcon_Monster_MiFeng3</v>
       </c>
       <c r="G104" t="s">
         <v>17</v>
       </c>
       <c r="H104" s="6" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="I104" t="str">
-        <f t="shared" si="7"/>
-        <v>Assets/ResAB/UI/Icon/Icon_Monster_ZhiZhu3.png</v>
+        <f t="shared" si="10"/>
+        <v>Assets/ResAB/UI/Icon/Icon_Monster_MiFeng3.png</v>
       </c>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.2">
@@ -3610,21 +3704,21 @@
         <v>15</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="D105" t="str">
-        <f t="shared" si="6"/>
-        <v>ResIcon_Monster_ZhongZi1</v>
+        <f t="shared" si="9"/>
+        <v>ResIcon_Monster_BianFu1</v>
       </c>
       <c r="G105" t="s">
         <v>17</v>
       </c>
       <c r="H105" s="6" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="I105" t="str">
-        <f t="shared" si="7"/>
-        <v>Assets/ResAB/UI/Icon/Icon_Monster_ZhongZi1.png</v>
+        <f t="shared" si="10"/>
+        <v>Assets/ResAB/UI/Icon/Icon_Monster_BianFu1.png</v>
       </c>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.2">
@@ -3632,21 +3726,21 @@
         <v>15</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D106" t="str">
-        <f t="shared" si="6"/>
-        <v>ResIcon_Monster_ZhongZi2</v>
+        <f t="shared" si="9"/>
+        <v>ResIcon_Monster_BianFu2</v>
       </c>
       <c r="G106" t="s">
         <v>17</v>
       </c>
       <c r="H106" s="6" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="I106" t="str">
-        <f t="shared" si="7"/>
-        <v>Assets/ResAB/UI/Icon/Icon_Monster_ZhongZi2.png</v>
+        <f t="shared" si="10"/>
+        <v>Assets/ResAB/UI/Icon/Icon_Monster_BianFu2.png</v>
       </c>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.2">
@@ -3654,21 +3748,21 @@
         <v>15</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="D107" t="str">
-        <f t="shared" si="6"/>
-        <v>ResIcon_Monster_ZhongZi3</v>
+        <f t="shared" si="9"/>
+        <v>ResIcon_Monster_BianFu3</v>
       </c>
       <c r="G107" t="s">
         <v>17</v>
       </c>
       <c r="H107" s="6" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="I107" t="str">
-        <f t="shared" si="7"/>
-        <v>Assets/ResAB/UI/Icon/Icon_Monster_ZhongZi3.png</v>
+        <f t="shared" si="10"/>
+        <v>Assets/ResAB/UI/Icon/Icon_Monster_BianFu3.png</v>
       </c>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.2">
@@ -3676,21 +3770,21 @@
         <v>15</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="D108" t="str">
-        <f t="shared" si="6"/>
-        <v>ResIcon_Monster_Gui1</v>
+        <f t="shared" si="9"/>
+        <v>ResIcon_Monster_ZhiZhu1</v>
       </c>
       <c r="G108" t="s">
         <v>17</v>
       </c>
       <c r="H108" s="6" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="I108" t="str">
-        <f t="shared" si="7"/>
-        <v>Assets/ResAB/UI/Icon/Icon_Monster_Gui1.png</v>
+        <f t="shared" si="10"/>
+        <v>Assets/ResAB/UI/Icon/Icon_Monster_ZhiZhu1.png</v>
       </c>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.2">
@@ -3698,21 +3792,21 @@
         <v>15</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="D109" t="str">
-        <f t="shared" si="6"/>
-        <v>ResIcon_Monster_Gui2</v>
+        <f t="shared" si="9"/>
+        <v>ResIcon_Monster_ZhiZhu2</v>
       </c>
       <c r="G109" t="s">
         <v>17</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="I109" t="str">
-        <f t="shared" si="7"/>
-        <v>Assets/ResAB/UI/Icon/Icon_Monster_Gui2.png</v>
+        <f t="shared" si="10"/>
+        <v>Assets/ResAB/UI/Icon/Icon_Monster_ZhiZhu2.png</v>
       </c>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.2">
@@ -3720,21 +3814,21 @@
         <v>15</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D110" t="str">
-        <f t="shared" si="6"/>
-        <v>ResIcon_Monster_Gui3</v>
+        <f t="shared" si="9"/>
+        <v>ResIcon_Monster_ZhiZhu3</v>
       </c>
       <c r="G110" t="s">
         <v>17</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="I110" t="str">
-        <f t="shared" si="7"/>
-        <v>Assets/ResAB/UI/Icon/Icon_Monster_Gui3.png</v>
+        <f t="shared" si="10"/>
+        <v>Assets/ResAB/UI/Icon/Icon_Monster_ZhiZhu3.png</v>
       </c>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.2">
@@ -3742,21 +3836,21 @@
         <v>15</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D111" t="str">
-        <f t="shared" si="6"/>
-        <v>ResIcon_Monster_Dan1</v>
+        <f t="shared" si="9"/>
+        <v>ResIcon_Monster_ZhongZi1</v>
       </c>
       <c r="G111" t="s">
         <v>17</v>
       </c>
       <c r="H111" s="6" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="I111" t="str">
-        <f t="shared" si="7"/>
-        <v>Assets/ResAB/UI/Icon/Icon_Monster_Dan1.png</v>
+        <f t="shared" si="10"/>
+        <v>Assets/ResAB/UI/Icon/Icon_Monster_ZhongZi1.png</v>
       </c>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.2">
@@ -3764,21 +3858,21 @@
         <v>15</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="D112" t="str">
-        <f t="shared" si="6"/>
-        <v>ResIcon_Monster_Dan2</v>
+        <f t="shared" si="9"/>
+        <v>ResIcon_Monster_ZhongZi2</v>
       </c>
       <c r="G112" t="s">
         <v>17</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="I112" t="str">
-        <f t="shared" si="7"/>
-        <v>Assets/ResAB/UI/Icon/Icon_Monster_Dan2.png</v>
+        <f t="shared" si="10"/>
+        <v>Assets/ResAB/UI/Icon/Icon_Monster_ZhongZi2.png</v>
       </c>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.2">
@@ -3786,21 +3880,21 @@
         <v>15</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="D113" t="str">
-        <f t="shared" si="6"/>
-        <v>ResIcon_Monster_Dan3</v>
+        <f t="shared" si="9"/>
+        <v>ResIcon_Monster_ZhongZi3</v>
       </c>
       <c r="G113" t="s">
         <v>17</v>
       </c>
       <c r="H113" s="6" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="I113" t="str">
-        <f t="shared" si="7"/>
-        <v>Assets/ResAB/UI/Icon/Icon_Monster_Dan3.png</v>
+        <f t="shared" si="10"/>
+        <v>Assets/ResAB/UI/Icon/Icon_Monster_ZhongZi3.png</v>
       </c>
     </row>
     <row r="114" spans="2:9" x14ac:dyDescent="0.2">
@@ -3808,21 +3902,21 @@
         <v>15</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="D114" t="str">
-        <f t="shared" si="6"/>
-        <v>ResIcon_Monster_Niao1</v>
+        <f t="shared" si="9"/>
+        <v>ResIcon_Monster_Gui1</v>
       </c>
       <c r="G114" t="s">
         <v>17</v>
       </c>
       <c r="H114" s="6" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="I114" t="str">
-        <f t="shared" si="7"/>
-        <v>Assets/ResAB/UI/Icon/Icon_Monster_Niao1.png</v>
+        <f t="shared" si="10"/>
+        <v>Assets/ResAB/UI/Icon/Icon_Monster_Gui1.png</v>
       </c>
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.2">
@@ -3830,21 +3924,21 @@
         <v>15</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="D115" t="str">
-        <f t="shared" si="6"/>
-        <v>ResIcon_Monster_Niao2</v>
+        <f t="shared" si="9"/>
+        <v>ResIcon_Monster_Gui2</v>
       </c>
       <c r="G115" t="s">
         <v>17</v>
       </c>
       <c r="H115" s="6" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="I115" t="str">
-        <f t="shared" si="7"/>
-        <v>Assets/ResAB/UI/Icon/Icon_Monster_Niao2.png</v>
+        <f t="shared" si="10"/>
+        <v>Assets/ResAB/UI/Icon/Icon_Monster_Gui2.png</v>
       </c>
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.2">
@@ -3852,25 +3946,157 @@
         <v>15</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="D116" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>ResIcon_Monster_Gui3</v>
+      </c>
+      <c r="G116" t="s">
+        <v>17</v>
+      </c>
+      <c r="H116" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="I116" t="str">
+        <f t="shared" si="10"/>
+        <v>Assets/ResAB/UI/Icon/Icon_Monster_Gui3.png</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B117" t="s">
+        <v>15</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D117" t="str">
+        <f t="shared" si="9"/>
+        <v>ResIcon_Monster_Dan1</v>
+      </c>
+      <c r="G117" t="s">
+        <v>17</v>
+      </c>
+      <c r="H117" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="I117" t="str">
+        <f t="shared" si="10"/>
+        <v>Assets/ResAB/UI/Icon/Icon_Monster_Dan1.png</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B118" t="s">
+        <v>15</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="D118" t="str">
+        <f t="shared" si="9"/>
+        <v>ResIcon_Monster_Dan2</v>
+      </c>
+      <c r="G118" t="s">
+        <v>17</v>
+      </c>
+      <c r="H118" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="I118" t="str">
+        <f t="shared" si="10"/>
+        <v>Assets/ResAB/UI/Icon/Icon_Monster_Dan2.png</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B119" t="s">
+        <v>15</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D119" t="str">
+        <f t="shared" si="9"/>
+        <v>ResIcon_Monster_Dan3</v>
+      </c>
+      <c r="G119" t="s">
+        <v>17</v>
+      </c>
+      <c r="H119" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="I119" t="str">
+        <f t="shared" si="10"/>
+        <v>Assets/ResAB/UI/Icon/Icon_Monster_Dan3.png</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B120" t="s">
+        <v>15</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D120" t="str">
+        <f t="shared" si="9"/>
+        <v>ResIcon_Monster_Niao1</v>
+      </c>
+      <c r="G120" t="s">
+        <v>17</v>
+      </c>
+      <c r="H120" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="I120" t="str">
+        <f t="shared" si="10"/>
+        <v>Assets/ResAB/UI/Icon/Icon_Monster_Niao1.png</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B121" t="s">
+        <v>15</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D121" t="str">
+        <f t="shared" si="9"/>
+        <v>ResIcon_Monster_Niao2</v>
+      </c>
+      <c r="G121" t="s">
+        <v>17</v>
+      </c>
+      <c r="H121" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="I121" t="str">
+        <f t="shared" si="10"/>
+        <v>Assets/ResAB/UI/Icon/Icon_Monster_Niao2.png</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B122" t="s">
+        <v>15</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D122" t="str">
+        <f t="shared" si="9"/>
         <v>ResIcon_Monster_Niao3</v>
       </c>
-      <c r="G116" t="s">
-        <v>17</v>
-      </c>
-      <c r="H116" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="I116" t="str">
-        <f t="shared" si="7"/>
+      <c r="G122" t="s">
+        <v>17</v>
+      </c>
+      <c r="H122" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="I122" t="str">
+        <f t="shared" si="10"/>
         <v>Assets/ResAB/UI/Icon/Icon_Monster_Niao3.png</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -3988,17 +4214,17 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D6" t="str">
         <f>B6&amp;"_"&amp;C6</f>
         <v>ResIcon_Beginners_Guide1</v>
       </c>
       <c r="G6" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="I6" s="3" t="str">
         <f>G6&amp;"/"&amp;H6</f>
@@ -4010,17 +4236,17 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D7" t="str">
         <f>B7&amp;"_"&amp;C7</f>
         <v>ResIcon_Beginners_Guide2</v>
       </c>
       <c r="G7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="I7" s="3" t="str">
         <f>G7&amp;"/"&amp;H7</f>
@@ -4032,17 +4258,17 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D8" t="str">
         <f>B8&amp;"_"&amp;C8</f>
         <v>ResIcon_Beginners_Guide3</v>
       </c>
       <c r="G8" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H8" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="I8" s="3" t="str">
         <f>G8&amp;"/"&amp;H8</f>
@@ -4054,17 +4280,17 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" ref="D9" si="0">B9&amp;"_"&amp;C9</f>
         <v>ResIcon_Beginners_Guide4</v>
       </c>
       <c r="G9" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H9" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="I9" s="3" t="str">
         <f t="shared" ref="I9" si="1">G9&amp;"/"&amp;H9</f>
@@ -4076,17 +4302,17 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D11" t="str">
         <f>B11&amp;"_"&amp;C11</f>
         <v>ResIcon_Avatar01</v>
       </c>
       <c r="G11" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H11" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="I11" s="3" t="str">
         <f>G11&amp;"/"&amp;H11</f>
@@ -4098,17 +4324,17 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" ref="D12:D15" si="2">B12&amp;"_"&amp;C12</f>
         <v>ResIcon_Avatar02</v>
       </c>
       <c r="G12" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H12" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I12" s="3" t="str">
         <f t="shared" ref="I12:I15" si="3">G12&amp;"/"&amp;H12</f>
@@ -4120,17 +4346,17 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="2"/>
         <v>ResIcon_Avatar03</v>
       </c>
       <c r="G13" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H13" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I13" s="3" t="str">
         <f t="shared" si="3"/>
@@ -4142,17 +4368,17 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="2"/>
         <v>ResIcon_Avatar04</v>
       </c>
       <c r="G14" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H14" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="3"/>
@@ -4164,17 +4390,17 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="2"/>
         <v>ResIcon_Avatar05</v>
       </c>
       <c r="G15" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H15" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" si="3"/>
@@ -4182,7 +4408,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResIconCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResIconCfg.xlsx
@@ -1,27 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ResConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ResConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EA333A-DC0C-402C-9E55-67A248962E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99A540C-80C0-4AAD-9B86-843172C7447E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="318">
   <si>
     <t>##var</t>
   </si>
@@ -1087,6 +1098,38 @@
   </si>
   <si>
     <t>Icon_discord.png</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common_img_frame_01.png</t>
+  </si>
+  <si>
+    <t>Common_img_frame_02.png</t>
+  </si>
+  <si>
+    <t>Common_img_frame_03.png</t>
+  </si>
+  <si>
+    <t>Common_img_frame_04.png</t>
+  </si>
+  <si>
+    <t>AvatarFrame01</t>
+  </si>
+  <si>
+    <t>AvatarFrame02</t>
+  </si>
+  <si>
+    <t>AvatarFrame03</t>
+  </si>
+  <si>
+    <t>AvatarFrame04</t>
+  </si>
+  <si>
+    <t>AvatarFrame_None</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common_img_frame_None.png</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1502,23 +1545,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.25" customWidth="1"/>
-    <col min="3" max="3" width="32.625" customWidth="1"/>
-    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="1" max="2" width="9.21875" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="14.625" customWidth="1"/>
-    <col min="7" max="7" width="31.375" customWidth="1"/>
-    <col min="8" max="8" width="20.625" customWidth="1"/>
-    <col min="9" max="9" width="19.625" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="31.33203125" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1557,7 +1600,7 @@
       <c r="Z1"/>
       <c r="AA1"/>
     </row>
-    <row r="2" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1588,7 +1631,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1627,7 +1670,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1660,7 +1703,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1699,7 +1742,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>15</v>
       </c>
@@ -1721,7 +1764,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_1.png</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>15</v>
       </c>
@@ -1743,7 +1786,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_1.png</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>15</v>
       </c>
@@ -1765,7 +1808,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_1.png</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>15</v>
       </c>
@@ -1787,7 +1830,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_1.png</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>15</v>
       </c>
@@ -1809,7 +1852,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_1.png</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>15</v>
       </c>
@@ -1831,10 +1874,10 @@
         <v>Assets/ResAB/UI/Icon/Icon_1.png</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>15</v>
       </c>
@@ -1856,7 +1899,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_MachineGunTower_0.png</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>15</v>
       </c>
@@ -1878,7 +1921,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_LaserTower_0.png</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>15</v>
       </c>
@@ -1900,7 +1943,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_Hoverboss.png</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>15</v>
       </c>
@@ -1922,7 +1965,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_Hoverbuggy.png</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>15</v>
       </c>
@@ -1944,7 +1987,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_Hovercopter.png</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>15</v>
       </c>
@@ -1966,7 +2009,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_Hovertank.png</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>15</v>
       </c>
@@ -1988,7 +2031,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_Infinite.png</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C20" s="7"/>
       <c r="D20" s="7" t="s">
         <v>300</v>
@@ -2004,7 +2047,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_PVP.png</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C21" s="7"/>
       <c r="D21" s="7" t="s">
         <v>301</v>
@@ -2020,7 +2063,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_card.png</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C22" s="7"/>
       <c r="D22" s="7" t="s">
         <v>302</v>
@@ -2036,7 +2079,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_battle.png</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C23" s="7"/>
       <c r="D23" s="7" t="s">
         <v>303</v>
@@ -2052,10 +2095,10 @@
         <v>Assets/ResAB/UI/Icon/Icon_discord.png</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>15</v>
       </c>
@@ -2077,7 +2120,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_TowerMagicBall1.png</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>15</v>
       </c>
@@ -2099,7 +2142,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_TowerMagicBall2.png</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>15</v>
       </c>
@@ -2121,7 +2164,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_TowerMagicBall3.png</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>15</v>
       </c>
@@ -2143,7 +2186,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_TowerAlchemy1.png</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>15</v>
       </c>
@@ -2165,7 +2208,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_TowerAlchemy2.png</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>15</v>
       </c>
@@ -2187,7 +2230,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_TowerAlchemy3.png</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>15</v>
       </c>
@@ -2209,7 +2252,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_TowerScorpio1.png</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>15</v>
       </c>
@@ -2231,7 +2274,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_TowerScorpio2.png</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>15</v>
       </c>
@@ -2253,7 +2296,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_TowerScorpio3.png</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>15</v>
       </c>
@@ -2275,7 +2318,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_TowerCurse1.png</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>15</v>
       </c>
@@ -2297,7 +2340,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_TowerCurse2.png</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>15</v>
       </c>
@@ -2319,7 +2362,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_TowerCurse3.png</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>15</v>
       </c>
@@ -2341,7 +2384,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_Towerwitch1.png</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>15</v>
       </c>
@@ -2363,7 +2406,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_Towerwitch2.png</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>15</v>
       </c>
@@ -2385,7 +2428,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_Towerwitch3.png</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>15</v>
       </c>
@@ -2407,7 +2450,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_TowerIceArrow1.png</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>15</v>
       </c>
@@ -2429,7 +2472,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_TowerIceArrow2.png</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>15</v>
       </c>
@@ -2451,7 +2494,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_TowerIceArrow3.png</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>15</v>
       </c>
@@ -2473,7 +2516,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_TowerWater1.png</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>15</v>
       </c>
@@ -2495,7 +2538,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_TowerWater2.png</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>15</v>
       </c>
@@ -2517,7 +2560,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_TowerWater3.png</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>15</v>
       </c>
@@ -2539,7 +2582,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_TowerElectromagnetic1.png</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>15</v>
       </c>
@@ -2561,7 +2604,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_TowerElectromagnetic2.png</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>15</v>
       </c>
@@ -2583,7 +2626,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_TowerElectromagnetic3.png</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>15</v>
       </c>
@@ -2605,7 +2648,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_TowerFire1.png</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>15</v>
       </c>
@@ -2627,7 +2670,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_TowerFire2.png</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>15</v>
       </c>
@@ -2649,7 +2692,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_TowerFire3.png</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>15</v>
       </c>
@@ -2671,7 +2714,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_TowerAoShu1.png</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>15</v>
       </c>
@@ -2693,7 +2736,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_TowerAoShu2.png</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>15</v>
       </c>
@@ -2715,7 +2758,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_TowerAoShu3.png</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>15</v>
       </c>
@@ -2737,7 +2780,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_TowerLianJi1.png</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>15</v>
       </c>
@@ -2759,7 +2802,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_TowerLianJi2.png</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>15</v>
       </c>
@@ -2781,7 +2824,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_TowerLianJi3.png</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>15</v>
       </c>
@@ -2803,7 +2846,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_TowerZaiE1.png</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>15</v>
       </c>
@@ -2825,7 +2868,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_TowerZaiE2.png</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>15</v>
       </c>
@@ -2847,7 +2890,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_TowerZaiE3.png</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>15</v>
       </c>
@@ -2869,7 +2912,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_TowerGoblin1.png</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>15</v>
       </c>
@@ -2891,7 +2934,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_TowerGoblin2.png</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>15</v>
       </c>
@@ -2913,7 +2956,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_TowerGoblin3.png</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>15</v>
       </c>
@@ -2935,7 +2978,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_TowerDuCi1.png</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>15</v>
       </c>
@@ -2957,7 +3000,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_TowerDuCi2.png</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>15</v>
       </c>
@@ -2979,7 +3022,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_TowerDuCi3.png</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>15</v>
       </c>
@@ -3001,7 +3044,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_TowerRocket1.png</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>15</v>
       </c>
@@ -3023,7 +3066,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_TowerRocket2.png</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>15</v>
       </c>
@@ -3045,7 +3088,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_TowerRocket3.png</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>15</v>
       </c>
@@ -3067,7 +3110,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_TowerFireBall1.png</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>15</v>
       </c>
@@ -3089,7 +3132,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_TowerFireBall2.png</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>15</v>
       </c>
@@ -3111,7 +3154,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_TowerFireBall3.png</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>15</v>
       </c>
@@ -3131,7 +3174,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>15</v>
       </c>
@@ -3151,7 +3194,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>15</v>
       </c>
@@ -3171,7 +3214,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>15</v>
       </c>
@@ -3191,7 +3234,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>15</v>
       </c>
@@ -3211,7 +3254,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>15</v>
       </c>
@@ -3231,7 +3274,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>15</v>
       </c>
@@ -3251,7 +3294,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>15</v>
       </c>
@@ -3271,7 +3314,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>15</v>
       </c>
@@ -3291,7 +3334,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>15</v>
       </c>
@@ -3311,7 +3354,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>15</v>
       </c>
@@ -3331,7 +3374,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>15</v>
       </c>
@@ -3351,7 +3394,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>15</v>
       </c>
@@ -3371,7 +3414,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>15</v>
       </c>
@@ -3391,7 +3434,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>15</v>
       </c>
@@ -3411,7 +3454,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>15</v>
       </c>
@@ -3431,7 +3474,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>15</v>
       </c>
@@ -3451,7 +3494,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>15</v>
       </c>
@@ -3471,7 +3514,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>15</v>
       </c>
@@ -3491,7 +3534,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>15</v>
       </c>
@@ -3511,7 +3554,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>15</v>
       </c>
@@ -3531,7 +3574,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>15</v>
       </c>
@@ -3551,7 +3594,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>15</v>
       </c>
@@ -3571,7 +3614,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>15</v>
       </c>
@@ -3591,7 +3634,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D98" s="7" t="s">
         <v>289</v>
       </c>
@@ -3605,7 +3648,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D99" s="7" t="s">
         <v>290</v>
       </c>
@@ -3619,7 +3662,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D100" s="7" t="s">
         <v>291</v>
       </c>
@@ -3633,7 +3676,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>15</v>
       </c>
@@ -3655,7 +3698,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_Monster_MiFeng1.png</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>15</v>
       </c>
@@ -3677,7 +3720,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_Monster_MiFeng2.png</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>15</v>
       </c>
@@ -3699,7 +3742,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_Monster_MiFeng3.png</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>15</v>
       </c>
@@ -3721,7 +3764,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_Monster_BianFu1.png</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>15</v>
       </c>
@@ -3743,7 +3786,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_Monster_BianFu2.png</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>15</v>
       </c>
@@ -3765,7 +3808,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_Monster_BianFu3.png</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>15</v>
       </c>
@@ -3787,7 +3830,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_Monster_ZhiZhu1.png</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>15</v>
       </c>
@@ -3809,7 +3852,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_Monster_ZhiZhu2.png</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>15</v>
       </c>
@@ -3831,7 +3874,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_Monster_ZhiZhu3.png</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>15</v>
       </c>
@@ -3853,7 +3896,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_Monster_ZhongZi1.png</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>15</v>
       </c>
@@ -3875,7 +3918,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_Monster_ZhongZi2.png</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>15</v>
       </c>
@@ -3897,7 +3940,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_Monster_ZhongZi3.png</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>15</v>
       </c>
@@ -3919,7 +3962,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_Monster_Gui1.png</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>15</v>
       </c>
@@ -3941,7 +3984,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_Monster_Gui2.png</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>15</v>
       </c>
@@ -3963,7 +4006,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_Monster_Gui3.png</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>15</v>
       </c>
@@ -3985,7 +4028,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_Monster_Dan1.png</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>15</v>
       </c>
@@ -4007,7 +4050,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_Monster_Dan2.png</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>15</v>
       </c>
@@ -4029,7 +4072,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_Monster_Dan3.png</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>15</v>
       </c>
@@ -4051,7 +4094,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_Monster_Niao1.png</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>15</v>
       </c>
@@ -4073,7 +4116,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_Monster_Niao2.png</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>15</v>
       </c>
@@ -4104,21 +4147,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="17.25" customWidth="1"/>
-    <col min="7" max="7" width="32.375" customWidth="1"/>
-    <col min="8" max="8" width="30.625" customWidth="1"/>
-    <col min="9" max="9" width="25.75" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" customWidth="1"/>
+    <col min="7" max="7" width="32.33203125" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" customWidth="1"/>
+    <col min="9" max="9" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4139,7 +4182,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4152,7 +4195,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -4173,7 +4216,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -4188,7 +4231,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -4209,7 +4252,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>15</v>
       </c>
@@ -4231,7 +4274,7 @@
         <v>Assets/ResAB/UI/Beginners_Guide/Beginners_Guide_img_guide1.png</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>15</v>
       </c>
@@ -4253,7 +4296,7 @@
         <v>Assets/ResAB/UI/Beginners_Guide/Beginners_Guide_img_guide2.png</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>15</v>
       </c>
@@ -4275,7 +4318,7 @@
         <v>Assets/ResAB/UI/Beginners_Guide/Beginners_Guide_img_guide3.png</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>15</v>
       </c>
@@ -4297,7 +4340,7 @@
         <v>Assets/ResAB/UI/Beginners_Guide/Beginners_Guide_img_guide4.png</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>15</v>
       </c>
@@ -4319,7 +4362,7 @@
         <v>Assets/ResAB/UI/common/Common_img_avatar_01.png</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>15</v>
       </c>
@@ -4341,7 +4384,7 @@
         <v>Assets/ResAB/UI/common/Common_img_avatar_02.png</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>15</v>
       </c>
@@ -4363,7 +4406,7 @@
         <v>Assets/ResAB/UI/common/Common_img_avatar_03.png</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>15</v>
       </c>
@@ -4385,7 +4428,7 @@
         <v>Assets/ResAB/UI/common/Common_img_avatar_04.png</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>15</v>
       </c>
@@ -4405,6 +4448,116 @@
       <c r="I15" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Assets/ResAB/UI/common/Common_img_avatar_05.png</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="D17" t="str">
+        <f>B17&amp;"_"&amp;C17</f>
+        <v>ResIcon_AvatarFrame_None</v>
+      </c>
+      <c r="G17" t="s">
+        <v>236</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="I17" s="3" t="str">
+        <f>G17&amp;"/"&amp;H17</f>
+        <v>Assets/ResAB/UI/common/Common_img_frame_None.png</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>312</v>
+      </c>
+      <c r="D18" t="str">
+        <f>B18&amp;"_"&amp;C18</f>
+        <v>ResIcon_AvatarFrame01</v>
+      </c>
+      <c r="G18" t="s">
+        <v>236</v>
+      </c>
+      <c r="H18" t="s">
+        <v>308</v>
+      </c>
+      <c r="I18" s="3" t="str">
+        <f>G18&amp;"/"&amp;H18</f>
+        <v>Assets/ResAB/UI/common/Common_img_frame_01.png</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>313</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" ref="D19:D21" si="4">B19&amp;"_"&amp;C19</f>
+        <v>ResIcon_AvatarFrame02</v>
+      </c>
+      <c r="G19" t="s">
+        <v>236</v>
+      </c>
+      <c r="H19" t="s">
+        <v>309</v>
+      </c>
+      <c r="I19" s="3" t="str">
+        <f t="shared" ref="I19:I21" si="5">G19&amp;"/"&amp;H19</f>
+        <v>Assets/ResAB/UI/common/Common_img_frame_02.png</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>314</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_AvatarFrame03</v>
+      </c>
+      <c r="G20" t="s">
+        <v>236</v>
+      </c>
+      <c r="H20" t="s">
+        <v>310</v>
+      </c>
+      <c r="I20" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/common/Common_img_frame_03.png</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>315</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_AvatarFrame04</v>
+      </c>
+      <c r="G21" t="s">
+        <v>236</v>
+      </c>
+      <c r="H21" t="s">
+        <v>311</v>
+      </c>
+      <c r="I21" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/common/Common_img_frame_04.png</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResIconCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResIconCfg.xlsx
@@ -1,38 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ResConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ResConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99A540C-80C0-4AAD-9B86-843172C7447E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9906921E-FD13-4C22-9197-E4F53E0DA856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="367">
   <si>
     <t>##var</t>
   </si>
@@ -1131,6 +1120,172 @@
   <si>
     <t>Common_img_frame_None.png</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResIcon_Diamond_Common</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Icon/Icon_common_diamond.png</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResIcon_SeasonBringUp_MaxTowers</t>
+  </si>
+  <si>
+    <t>ResIcon_SeasonBringUp_StartingGold</t>
+  </si>
+  <si>
+    <t>ResIcon_SeasonBringUp_Damage</t>
+  </si>
+  <si>
+    <t>ResIcon_SeasonBringUp_TowerCost</t>
+  </si>
+  <si>
+    <t>ResIcon_SeasonBringUp_BaseHealth</t>
+  </si>
+  <si>
+    <t>ResIcon_SeasonBringUp_BaseRegen</t>
+  </si>
+  <si>
+    <t>ResIcon_SeasonBringUp_AttackRange</t>
+  </si>
+  <si>
+    <t>ResIcon_SeasonBringUp_AttackInterval</t>
+  </si>
+  <si>
+    <t>ResIcon_SeasonBringUp_GoldRewards</t>
+  </si>
+  <si>
+    <t>ResIcon_SeasonBringUp_ExtraLives</t>
+  </si>
+  <si>
+    <t>ResIcon_SeasonBringUp_DiamondRewards</t>
+  </si>
+  <si>
+    <r>
+      <t>Assets/ResAB/UI/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Season</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Season_icon_Maxtowers</t>
+  </si>
+  <si>
+    <t>Season_icon_startinggold</t>
+  </si>
+  <si>
+    <t>Season_icon_damage</t>
+  </si>
+  <si>
+    <t>Season_icon_towercost</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Season_icon_HQHP</t>
+  </si>
+  <si>
+    <t>Season_icon_HQregen</t>
+  </si>
+  <si>
+    <t>Season_icon_ATKrange</t>
+  </si>
+  <si>
+    <t>Season_icon_ATKInterval</t>
+  </si>
+  <si>
+    <t>Season_icon_goldreward</t>
+  </si>
+  <si>
+    <t>Season_icon_revive</t>
+  </si>
+  <si>
+    <t>Season_icon_diamondreward</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerGolem1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResIcon_TowerGolem2</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerGolem3</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Icon/Icon_TowerGolem1.png</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Icon/Icon_TowerGolem2.png</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Icon/Icon_TowerGolem3.png</t>
+  </si>
+  <si>
+    <t>ResIcon_Monster_Rou1</t>
+  </si>
+  <si>
+    <t>ResIcon_Monster_Rou2</t>
+  </si>
+  <si>
+    <t>ResIcon_Monster_Rou3</t>
+  </si>
+  <si>
+    <t>ResIcon_Monster_XueRen1</t>
+  </si>
+  <si>
+    <t>ResIcon_Monster_XueRen2</t>
+  </si>
+  <si>
+    <t>ResIcon_Monster_XueRen3</t>
+  </si>
+  <si>
+    <t>ResIcon_Monster_WuGui1</t>
+  </si>
+  <si>
+    <t>ResIcon_Monster_WuGui2</t>
+  </si>
+  <si>
+    <t>ResIcon_Monster_WuGui3</t>
+  </si>
+  <si>
+    <t>Icon_Monster_Rou1</t>
+  </si>
+  <si>
+    <t>Icon_Monster_Rou2</t>
+  </si>
+  <si>
+    <t>Icon_Monster_Rou3</t>
+  </si>
+  <si>
+    <t>Icon_Monster_XueRen1</t>
+  </si>
+  <si>
+    <t>Icon_Monster_XueRen2</t>
+  </si>
+  <si>
+    <t>Icon_Monster_XueRen3</t>
+  </si>
+  <si>
+    <t>Icon_Monster_WuGui1</t>
+  </si>
+  <si>
+    <t>Icon_Monster_WuGui2</t>
+  </si>
+  <si>
+    <t>Icon_Monster_WuGui3</t>
   </si>
 </sst>
 </file>
@@ -1272,7 +1427,28 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1543,25 +1719,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA122"/>
+  <dimension ref="A1:AA148"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="5" topLeftCell="E120" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="I127" sqref="I127:I136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.21875" customWidth="1"/>
-    <col min="3" max="3" width="32.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.25" customWidth="1"/>
+    <col min="2" max="2" width="4.25" customWidth="1"/>
+    <col min="3" max="3" width="6.125" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
-    <col min="7" max="7" width="31.33203125" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.625" customWidth="1"/>
+    <col min="7" max="7" width="31.375" customWidth="1"/>
+    <col min="8" max="8" width="20.625" customWidth="1"/>
+    <col min="9" max="9" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1600,7 +1780,7 @@
       <c r="Z1"/>
       <c r="AA1"/>
     </row>
-    <row r="2" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1631,7 +1811,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1670,7 +1850,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1703,7 +1883,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1742,7 +1922,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>15</v>
       </c>
@@ -1764,7 +1944,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_1.png</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>15</v>
       </c>
@@ -1786,7 +1966,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_1.png</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>15</v>
       </c>
@@ -1808,7 +1988,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_1.png</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>15</v>
       </c>
@@ -1830,7 +2010,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_1.png</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>15</v>
       </c>
@@ -1852,7 +2032,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_1.png</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>15</v>
       </c>
@@ -1874,10 +2054,10 @@
         <v>Assets/ResAB/UI/Icon/Icon_1.png</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>15</v>
       </c>
@@ -1899,7 +2079,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_MachineGunTower_0.png</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>15</v>
       </c>
@@ -1921,7 +2101,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_LaserTower_0.png</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>15</v>
       </c>
@@ -1943,7 +2123,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_Hoverboss.png</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>15</v>
       </c>
@@ -1965,7 +2145,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_Hoverbuggy.png</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>15</v>
       </c>
@@ -1987,7 +2167,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_Hovercopter.png</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>15</v>
       </c>
@@ -2009,7 +2189,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_Hovertank.png</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>15</v>
       </c>
@@ -2031,7 +2211,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_Infinite.png</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C20" s="7"/>
       <c r="D20" s="7" t="s">
         <v>300</v>
@@ -2047,7 +2227,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_PVP.png</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C21" s="7"/>
       <c r="D21" s="7" t="s">
         <v>301</v>
@@ -2063,7 +2243,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_card.png</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C22" s="7"/>
       <c r="D22" s="7" t="s">
         <v>302</v>
@@ -2079,7 +2259,7 @@
         <v>Assets/ResAB/UI/Icon/Icon_battle.png</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C23" s="7"/>
       <c r="D23" s="7" t="s">
         <v>303</v>
@@ -2095,2051 +2275,2397 @@
         <v>Assets/ResAB/UI/Icon/Icon_discord.png</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="H24" s="7"/>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" t="s">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>318</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H26" s="7"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" t="s">
         <v>35</v>
       </c>
-      <c r="D25" t="str">
-        <f t="shared" ref="D25:D72" si="7">B25&amp;"_"&amp;C25</f>
+      <c r="D27" t="str">
+        <f t="shared" ref="D27:D74" si="7">B27&amp;"_"&amp;C27</f>
         <v>ResIcon_TowerMagicBall1</v>
       </c>
-      <c r="G25" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" t="s">
         <v>36</v>
       </c>
-      <c r="I25" s="3" t="str">
-        <f t="shared" ref="I25:I72" si="8">G25&amp;"/"&amp;H25</f>
+      <c r="I27" s="3" t="str">
+        <f t="shared" ref="I27:I74" si="8">G27&amp;"/"&amp;H27</f>
         <v>Assets/ResAB/UI/Icon/Icon_TowerMagicBall1.png</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" t="s">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" t="s">
         <v>37</v>
       </c>
-      <c r="D26" t="str">
+      <c r="D28" t="str">
         <f t="shared" si="7"/>
         <v>ResIcon_TowerMagicBall2</v>
       </c>
-      <c r="G26" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" t="s">
         <v>38</v>
       </c>
-      <c r="I26" s="3" t="str">
+      <c r="I28" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerMagicBall2.png</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" t="s">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" t="s">
         <v>39</v>
       </c>
-      <c r="D27" t="str">
+      <c r="D29" t="str">
         <f t="shared" si="7"/>
         <v>ResIcon_TowerMagicBall3</v>
       </c>
-      <c r="G27" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" t="s">
         <v>40</v>
       </c>
-      <c r="I27" s="3" t="str">
+      <c r="I29" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerMagicBall3.png</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" t="s">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" t="s">
         <v>41</v>
       </c>
-      <c r="D28" t="str">
+      <c r="D30" t="str">
         <f t="shared" si="7"/>
         <v>ResIcon_TowerAlchemy1</v>
       </c>
-      <c r="G28" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" t="s">
         <v>42</v>
       </c>
-      <c r="I28" s="3" t="str">
+      <c r="I30" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerAlchemy1.png</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" t="s">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" t="s">
         <v>43</v>
       </c>
-      <c r="D29" t="str">
+      <c r="D31" t="str">
         <f t="shared" si="7"/>
         <v>ResIcon_TowerAlchemy2</v>
       </c>
-      <c r="G29" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" t="s">
         <v>44</v>
       </c>
-      <c r="I29" s="3" t="str">
+      <c r="I31" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerAlchemy2.png</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" t="s">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" t="s">
         <v>45</v>
       </c>
-      <c r="D30" t="str">
+      <c r="D32" t="str">
         <f t="shared" si="7"/>
         <v>ResIcon_TowerAlchemy3</v>
       </c>
-      <c r="G30" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" t="s">
+      <c r="G32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" t="s">
         <v>46</v>
       </c>
-      <c r="I30" s="3" t="str">
+      <c r="I32" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerAlchemy3.png</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" t="s">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
         <v>47</v>
       </c>
-      <c r="D31" t="str">
+      <c r="D33" t="str">
         <f t="shared" si="7"/>
         <v>ResIcon_TowerScorpio1</v>
       </c>
-      <c r="G31" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" t="s">
         <v>48</v>
       </c>
-      <c r="I31" s="3" t="str">
+      <c r="I33" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerScorpio1.png</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" t="s">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" t="s">
         <v>49</v>
       </c>
-      <c r="D32" t="str">
+      <c r="D34" t="str">
         <f t="shared" si="7"/>
         <v>ResIcon_TowerScorpio2</v>
       </c>
-      <c r="G32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32" t="s">
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" t="s">
         <v>50</v>
       </c>
-      <c r="I32" s="3" t="str">
+      <c r="I34" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerScorpio2.png</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" t="s">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
         <v>51</v>
       </c>
-      <c r="D33" t="str">
+      <c r="D35" t="str">
         <f t="shared" si="7"/>
         <v>ResIcon_TowerScorpio3</v>
       </c>
-      <c r="G33" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33" t="s">
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" t="s">
         <v>52</v>
       </c>
-      <c r="I33" s="3" t="str">
+      <c r="I35" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerScorpio3.png</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" t="s">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
         <v>53</v>
       </c>
-      <c r="D34" t="str">
+      <c r="D36" t="str">
         <f t="shared" si="7"/>
         <v>ResIcon_TowerCurse1</v>
       </c>
-      <c r="G34" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34" t="s">
+      <c r="G36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" t="s">
         <v>54</v>
       </c>
-      <c r="I34" s="3" t="str">
+      <c r="I36" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerCurse1.png</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" t="s">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
         <v>55</v>
       </c>
-      <c r="D35" t="str">
+      <c r="D37" t="str">
         <f t="shared" si="7"/>
         <v>ResIcon_TowerCurse2</v>
       </c>
-      <c r="G35" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" t="s">
+      <c r="G37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" t="s">
         <v>56</v>
       </c>
-      <c r="I35" s="3" t="str">
+      <c r="I37" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerCurse2.png</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" t="s">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
         <v>57</v>
       </c>
-      <c r="D36" t="str">
+      <c r="D38" t="str">
         <f t="shared" si="7"/>
         <v>ResIcon_TowerCurse3</v>
       </c>
-      <c r="G36" t="s">
-        <v>17</v>
-      </c>
-      <c r="H36" t="s">
+      <c r="G38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" t="s">
         <v>58</v>
       </c>
-      <c r="I36" s="3" t="str">
+      <c r="I38" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerCurse3.png</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" t="s">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" t="s">
         <v>59</v>
       </c>
-      <c r="D37" t="str">
+      <c r="D39" t="str">
         <f t="shared" si="7"/>
         <v>ResIcon_Towerwitch1</v>
       </c>
-      <c r="G37" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37" t="s">
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" t="s">
         <v>60</v>
       </c>
-      <c r="I37" s="3" t="str">
+      <c r="I39" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Assets/ResAB/UI/Icon/Icon_Towerwitch1.png</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" t="s">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" t="s">
         <v>61</v>
       </c>
-      <c r="D38" t="str">
+      <c r="D40" t="str">
         <f t="shared" si="7"/>
         <v>ResIcon_Towerwitch2</v>
       </c>
-      <c r="G38" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" t="s">
+      <c r="G40" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" t="s">
         <v>62</v>
       </c>
-      <c r="I38" s="3" t="str">
+      <c r="I40" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Assets/ResAB/UI/Icon/Icon_Towerwitch2.png</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" t="s">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" t="s">
         <v>63</v>
       </c>
-      <c r="D39" t="str">
+      <c r="D41" t="str">
         <f t="shared" si="7"/>
         <v>ResIcon_Towerwitch3</v>
       </c>
-      <c r="G39" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39" t="s">
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" t="s">
         <v>64</v>
       </c>
-      <c r="I39" s="3" t="str">
+      <c r="I41" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Assets/ResAB/UI/Icon/Icon_Towerwitch3.png</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" t="s">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" t="s">
         <v>65</v>
       </c>
-      <c r="D40" t="str">
+      <c r="D42" t="str">
         <f t="shared" si="7"/>
         <v>ResIcon_TowerIceArrow1</v>
       </c>
-      <c r="G40" t="s">
-        <v>17</v>
-      </c>
-      <c r="H40" t="s">
+      <c r="G42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" t="s">
         <v>66</v>
       </c>
-      <c r="I40" s="3" t="str">
+      <c r="I42" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerIceArrow1.png</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" t="s">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" t="s">
         <v>67</v>
       </c>
-      <c r="D41" t="str">
+      <c r="D43" t="str">
         <f t="shared" si="7"/>
         <v>ResIcon_TowerIceArrow2</v>
       </c>
-      <c r="G41" t="s">
-        <v>17</v>
-      </c>
-      <c r="H41" t="s">
+      <c r="G43" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" t="s">
         <v>68</v>
       </c>
-      <c r="I41" s="3" t="str">
+      <c r="I43" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerIceArrow2.png</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42" t="s">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" t="s">
         <v>69</v>
       </c>
-      <c r="D42" t="str">
+      <c r="D44" t="str">
         <f t="shared" si="7"/>
         <v>ResIcon_TowerIceArrow3</v>
       </c>
-      <c r="G42" t="s">
-        <v>17</v>
-      </c>
-      <c r="H42" t="s">
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" t="s">
         <v>70</v>
       </c>
-      <c r="I42" s="3" t="str">
+      <c r="I44" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerIceArrow3.png</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43" t="s">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" t="s">
         <v>71</v>
       </c>
-      <c r="D43" t="str">
+      <c r="D45" t="str">
         <f t="shared" si="7"/>
         <v>ResIcon_TowerWater1</v>
       </c>
-      <c r="G43" t="s">
-        <v>17</v>
-      </c>
-      <c r="H43" t="s">
+      <c r="G45" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" t="s">
         <v>72</v>
       </c>
-      <c r="I43" s="3" t="str">
+      <c r="I45" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerWater1.png</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" t="s">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" t="s">
         <v>73</v>
       </c>
-      <c r="D44" t="str">
+      <c r="D46" t="str">
         <f t="shared" si="7"/>
         <v>ResIcon_TowerWater2</v>
       </c>
-      <c r="G44" t="s">
-        <v>17</v>
-      </c>
-      <c r="H44" t="s">
+      <c r="G46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" t="s">
         <v>74</v>
       </c>
-      <c r="I44" s="3" t="str">
+      <c r="I46" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerWater2.png</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" t="s">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" t="s">
         <v>75</v>
       </c>
-      <c r="D45" t="str">
+      <c r="D47" t="str">
         <f t="shared" si="7"/>
         <v>ResIcon_TowerWater3</v>
       </c>
-      <c r="G45" t="s">
-        <v>17</v>
-      </c>
-      <c r="H45" t="s">
+      <c r="G47" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" t="s">
         <v>76</v>
       </c>
-      <c r="I45" s="3" t="str">
+      <c r="I47" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerWater3.png</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" t="s">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" t="s">
         <v>77</v>
       </c>
-      <c r="D46" t="str">
+      <c r="D48" t="str">
         <f t="shared" si="7"/>
         <v>ResIcon_TowerElectromagnetic1</v>
       </c>
-      <c r="G46" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46" t="s">
+      <c r="G48" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" t="s">
         <v>78</v>
       </c>
-      <c r="I46" s="3" t="str">
+      <c r="I48" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerElectromagnetic1.png</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>15</v>
-      </c>
-      <c r="C47" t="s">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" t="s">
         <v>79</v>
       </c>
-      <c r="D47" t="str">
+      <c r="D49" t="str">
         <f t="shared" si="7"/>
         <v>ResIcon_TowerElectromagnetic2</v>
       </c>
-      <c r="G47" t="s">
-        <v>17</v>
-      </c>
-      <c r="H47" t="s">
+      <c r="G49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" t="s">
         <v>80</v>
       </c>
-      <c r="I47" s="3" t="str">
+      <c r="I49" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerElectromagnetic2.png</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" t="s">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" t="s">
         <v>81</v>
       </c>
-      <c r="D48" t="str">
+      <c r="D50" t="str">
         <f t="shared" si="7"/>
         <v>ResIcon_TowerElectromagnetic3</v>
       </c>
-      <c r="G48" t="s">
-        <v>17</v>
-      </c>
-      <c r="H48" t="s">
+      <c r="G50" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" t="s">
         <v>82</v>
       </c>
-      <c r="I48" s="3" t="str">
+      <c r="I50" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerElectromagnetic3.png</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" t="s">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" t="s">
         <v>83</v>
       </c>
-      <c r="D49" t="str">
+      <c r="D51" t="str">
         <f t="shared" si="7"/>
         <v>ResIcon_TowerFire1</v>
       </c>
-      <c r="G49" t="s">
-        <v>17</v>
-      </c>
-      <c r="H49" t="s">
+      <c r="G51" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" t="s">
         <v>84</v>
       </c>
-      <c r="I49" s="3" t="str">
+      <c r="I51" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerFire1.png</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>15</v>
-      </c>
-      <c r="C50" t="s">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" t="s">
         <v>85</v>
       </c>
-      <c r="D50" t="str">
+      <c r="D52" t="str">
         <f t="shared" si="7"/>
         <v>ResIcon_TowerFire2</v>
       </c>
-      <c r="G50" t="s">
-        <v>17</v>
-      </c>
-      <c r="H50" t="s">
+      <c r="G52" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" t="s">
         <v>86</v>
       </c>
-      <c r="I50" s="3" t="str">
+      <c r="I52" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerFire2.png</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51" t="s">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" t="s">
         <v>87</v>
       </c>
-      <c r="D51" t="str">
+      <c r="D53" t="str">
         <f t="shared" si="7"/>
         <v>ResIcon_TowerFire3</v>
       </c>
-      <c r="G51" t="s">
-        <v>17</v>
-      </c>
-      <c r="H51" t="s">
+      <c r="G53" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" t="s">
         <v>88</v>
       </c>
-      <c r="I51" s="3" t="str">
+      <c r="I53" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerFire3.png</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>15</v>
-      </c>
-      <c r="C52" t="s">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" t="s">
         <v>89</v>
       </c>
-      <c r="D52" t="str">
+      <c r="D54" t="str">
         <f t="shared" si="7"/>
         <v>ResIcon_TowerAoShu1</v>
       </c>
-      <c r="G52" t="s">
-        <v>17</v>
-      </c>
-      <c r="H52" t="s">
+      <c r="G54" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" t="s">
         <v>90</v>
       </c>
-      <c r="I52" s="3" t="str">
+      <c r="I54" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerAoShu1.png</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>15</v>
-      </c>
-      <c r="C53" t="s">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" t="s">
         <v>91</v>
       </c>
-      <c r="D53" t="str">
+      <c r="D55" t="str">
         <f t="shared" si="7"/>
         <v>ResIcon_TowerAoShu2</v>
       </c>
-      <c r="G53" t="s">
-        <v>17</v>
-      </c>
-      <c r="H53" t="s">
+      <c r="G55" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" t="s">
         <v>92</v>
       </c>
-      <c r="I53" s="3" t="str">
+      <c r="I55" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerAoShu2.png</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>15</v>
-      </c>
-      <c r="C54" t="s">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" t="s">
         <v>93</v>
       </c>
-      <c r="D54" t="str">
+      <c r="D56" t="str">
         <f t="shared" si="7"/>
         <v>ResIcon_TowerAoShu3</v>
       </c>
-      <c r="G54" t="s">
-        <v>17</v>
-      </c>
-      <c r="H54" t="s">
+      <c r="G56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" t="s">
         <v>94</v>
       </c>
-      <c r="I54" s="3" t="str">
+      <c r="I56" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerAoShu3.png</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>15</v>
-      </c>
-      <c r="C55" t="s">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" t="s">
         <v>95</v>
       </c>
-      <c r="D55" t="str">
+      <c r="D57" t="str">
         <f t="shared" si="7"/>
         <v>ResIcon_TowerLianJi1</v>
       </c>
-      <c r="G55" t="s">
-        <v>17</v>
-      </c>
-      <c r="H55" t="s">
+      <c r="G57" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" t="s">
         <v>96</v>
       </c>
-      <c r="I55" s="3" t="str">
+      <c r="I57" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerLianJi1.png</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>15</v>
-      </c>
-      <c r="C56" t="s">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" t="s">
         <v>97</v>
       </c>
-      <c r="D56" t="str">
+      <c r="D58" t="str">
         <f t="shared" si="7"/>
         <v>ResIcon_TowerLianJi2</v>
       </c>
-      <c r="G56" t="s">
-        <v>17</v>
-      </c>
-      <c r="H56" t="s">
+      <c r="G58" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" t="s">
         <v>98</v>
       </c>
-      <c r="I56" s="3" t="str">
+      <c r="I58" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerLianJi2.png</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>15</v>
-      </c>
-      <c r="C57" t="s">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" t="s">
         <v>99</v>
       </c>
-      <c r="D57" t="str">
+      <c r="D59" t="str">
         <f t="shared" si="7"/>
         <v>ResIcon_TowerLianJi3</v>
       </c>
-      <c r="G57" t="s">
-        <v>17</v>
-      </c>
-      <c r="H57" t="s">
+      <c r="G59" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" t="s">
         <v>100</v>
       </c>
-      <c r="I57" s="3" t="str">
+      <c r="I59" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerLianJi3.png</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>15</v>
-      </c>
-      <c r="C58" t="s">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" t="s">
         <v>101</v>
       </c>
-      <c r="D58" t="str">
+      <c r="D60" t="str">
         <f t="shared" si="7"/>
         <v>ResIcon_TowerZaiE1</v>
       </c>
-      <c r="G58" t="s">
-        <v>17</v>
-      </c>
-      <c r="H58" t="s">
+      <c r="G60" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" t="s">
         <v>102</v>
       </c>
-      <c r="I58" s="3" t="str">
+      <c r="I60" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerZaiE1.png</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>15</v>
-      </c>
-      <c r="C59" t="s">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" t="s">
         <v>103</v>
       </c>
-      <c r="D59" t="str">
+      <c r="D61" t="str">
         <f t="shared" si="7"/>
         <v>ResIcon_TowerZaiE2</v>
       </c>
-      <c r="G59" t="s">
-        <v>17</v>
-      </c>
-      <c r="H59" t="s">
+      <c r="G61" t="s">
+        <v>17</v>
+      </c>
+      <c r="H61" t="s">
         <v>104</v>
       </c>
-      <c r="I59" s="3" t="str">
+      <c r="I61" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerZaiE2.png</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>15</v>
-      </c>
-      <c r="C60" t="s">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" t="s">
         <v>105</v>
       </c>
-      <c r="D60" t="str">
+      <c r="D62" t="str">
         <f t="shared" si="7"/>
         <v>ResIcon_TowerZaiE3</v>
       </c>
-      <c r="G60" t="s">
-        <v>17</v>
-      </c>
-      <c r="H60" t="s">
+      <c r="G62" t="s">
+        <v>17</v>
+      </c>
+      <c r="H62" t="s">
         <v>106</v>
       </c>
-      <c r="I60" s="3" t="str">
+      <c r="I62" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerZaiE3.png</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>15</v>
-      </c>
-      <c r="C61" t="s">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" t="s">
         <v>107</v>
       </c>
-      <c r="D61" t="str">
+      <c r="D63" t="str">
         <f t="shared" si="7"/>
         <v>ResIcon_TowerGoblin1</v>
       </c>
-      <c r="G61" t="s">
-        <v>17</v>
-      </c>
-      <c r="H61" t="s">
+      <c r="G63" t="s">
+        <v>17</v>
+      </c>
+      <c r="H63" t="s">
         <v>108</v>
       </c>
-      <c r="I61" s="3" t="str">
+      <c r="I63" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerGoblin1.png</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>15</v>
-      </c>
-      <c r="C62" t="s">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" t="s">
         <v>109</v>
       </c>
-      <c r="D62" t="str">
+      <c r="D64" t="str">
         <f t="shared" si="7"/>
         <v>ResIcon_TowerGoblin2</v>
       </c>
-      <c r="G62" t="s">
-        <v>17</v>
-      </c>
-      <c r="H62" t="s">
+      <c r="G64" t="s">
+        <v>17</v>
+      </c>
+      <c r="H64" t="s">
         <v>110</v>
       </c>
-      <c r="I62" s="3" t="str">
+      <c r="I64" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerGoblin2.png</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>15</v>
-      </c>
-      <c r="C63" t="s">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" t="s">
         <v>111</v>
       </c>
-      <c r="D63" t="str">
+      <c r="D65" t="str">
         <f t="shared" si="7"/>
         <v>ResIcon_TowerGoblin3</v>
       </c>
-      <c r="G63" t="s">
-        <v>17</v>
-      </c>
-      <c r="H63" t="s">
+      <c r="G65" t="s">
+        <v>17</v>
+      </c>
+      <c r="H65" t="s">
         <v>112</v>
       </c>
-      <c r="I63" s="3" t="str">
+      <c r="I65" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerGoblin3.png</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>15</v>
-      </c>
-      <c r="C64" t="s">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" t="s">
         <v>113</v>
       </c>
-      <c r="D64" t="str">
+      <c r="D66" t="str">
         <f t="shared" si="7"/>
         <v>ResIcon_TowerDuCi1</v>
       </c>
-      <c r="G64" t="s">
-        <v>17</v>
-      </c>
-      <c r="H64" t="s">
+      <c r="G66" t="s">
+        <v>17</v>
+      </c>
+      <c r="H66" t="s">
         <v>114</v>
       </c>
-      <c r="I64" s="3" t="str">
+      <c r="I66" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerDuCi1.png</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>15</v>
-      </c>
-      <c r="C65" t="s">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" t="s">
         <v>115</v>
       </c>
-      <c r="D65" t="str">
+      <c r="D67" t="str">
         <f t="shared" si="7"/>
         <v>ResIcon_TowerDuCi2</v>
       </c>
-      <c r="G65" t="s">
-        <v>17</v>
-      </c>
-      <c r="H65" t="s">
+      <c r="G67" t="s">
+        <v>17</v>
+      </c>
+      <c r="H67" t="s">
         <v>116</v>
       </c>
-      <c r="I65" s="3" t="str">
+      <c r="I67" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerDuCi2.png</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>15</v>
-      </c>
-      <c r="C66" t="s">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" t="s">
         <v>117</v>
       </c>
-      <c r="D66" t="str">
+      <c r="D68" t="str">
         <f t="shared" si="7"/>
         <v>ResIcon_TowerDuCi3</v>
       </c>
-      <c r="G66" t="s">
-        <v>17</v>
-      </c>
-      <c r="H66" t="s">
+      <c r="G68" t="s">
+        <v>17</v>
+      </c>
+      <c r="H68" t="s">
         <v>118</v>
       </c>
-      <c r="I66" s="3" t="str">
+      <c r="I68" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerDuCi3.png</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>15</v>
-      </c>
-      <c r="C67" t="s">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" t="s">
         <v>119</v>
       </c>
-      <c r="D67" t="str">
+      <c r="D69" t="str">
         <f t="shared" si="7"/>
         <v>ResIcon_TowerRocket1</v>
       </c>
-      <c r="G67" t="s">
-        <v>17</v>
-      </c>
-      <c r="H67" t="s">
+      <c r="G69" t="s">
+        <v>17</v>
+      </c>
+      <c r="H69" t="s">
         <v>120</v>
       </c>
-      <c r="I67" s="3" t="str">
+      <c r="I69" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerRocket1.png</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>15</v>
-      </c>
-      <c r="C68" t="s">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" t="s">
         <v>121</v>
       </c>
-      <c r="D68" t="str">
+      <c r="D70" t="str">
         <f t="shared" si="7"/>
         <v>ResIcon_TowerRocket2</v>
       </c>
-      <c r="G68" t="s">
-        <v>17</v>
-      </c>
-      <c r="H68" t="s">
+      <c r="G70" t="s">
+        <v>17</v>
+      </c>
+      <c r="H70" t="s">
         <v>122</v>
       </c>
-      <c r="I68" s="3" t="str">
+      <c r="I70" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerRocket2.png</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>15</v>
-      </c>
-      <c r="C69" t="s">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" t="s">
         <v>123</v>
       </c>
-      <c r="D69" t="str">
+      <c r="D71" t="str">
         <f t="shared" si="7"/>
         <v>ResIcon_TowerRocket3</v>
       </c>
-      <c r="G69" t="s">
-        <v>17</v>
-      </c>
-      <c r="H69" t="s">
+      <c r="G71" t="s">
+        <v>17</v>
+      </c>
+      <c r="H71" t="s">
         <v>124</v>
       </c>
-      <c r="I69" s="3" t="str">
+      <c r="I71" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerRocket3.png</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>15</v>
-      </c>
-      <c r="C70" t="s">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" t="s">
         <v>125</v>
       </c>
-      <c r="D70" t="str">
+      <c r="D72" t="str">
         <f t="shared" si="7"/>
         <v>ResIcon_TowerFireBall1</v>
       </c>
-      <c r="G70" t="s">
-        <v>17</v>
-      </c>
-      <c r="H70" t="s">
+      <c r="G72" t="s">
+        <v>17</v>
+      </c>
+      <c r="H72" t="s">
         <v>126</v>
       </c>
-      <c r="I70" s="3" t="str">
+      <c r="I72" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerFireBall1.png</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>15</v>
-      </c>
-      <c r="C71" t="s">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>15</v>
+      </c>
+      <c r="C73" t="s">
         <v>127</v>
       </c>
-      <c r="D71" t="str">
+      <c r="D73" t="str">
         <f t="shared" si="7"/>
         <v>ResIcon_TowerFireBall2</v>
       </c>
-      <c r="G71" t="s">
-        <v>17</v>
-      </c>
-      <c r="H71" t="s">
+      <c r="G73" t="s">
+        <v>17</v>
+      </c>
+      <c r="H73" t="s">
         <v>128</v>
       </c>
-      <c r="I71" s="3" t="str">
+      <c r="I73" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerFireBall2.png</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>15</v>
-      </c>
-      <c r="C72" t="s">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74" t="s">
         <v>129</v>
       </c>
-      <c r="D72" t="str">
+      <c r="D74" t="str">
         <f t="shared" si="7"/>
         <v>ResIcon_TowerFireBall3</v>
       </c>
-      <c r="G72" t="s">
-        <v>17</v>
-      </c>
-      <c r="H72" t="s">
+      <c r="G74" t="s">
+        <v>17</v>
+      </c>
+      <c r="H74" t="s">
         <v>130</v>
       </c>
-      <c r="I72" s="3" t="str">
+      <c r="I74" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Assets/ResAB/UI/Icon/Icon_TowerFireBall3.png</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>15</v>
-      </c>
-      <c r="C74" t="s">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D75" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D76" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D77" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79" t="s">
         <v>131</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D79" t="s">
         <v>132</v>
       </c>
-      <c r="G74" t="s">
-        <v>17</v>
-      </c>
-      <c r="H74" t="s">
+      <c r="G79" t="s">
+        <v>17</v>
+      </c>
+      <c r="H79" t="s">
         <v>133</v>
       </c>
-      <c r="I74" s="3" t="s">
+      <c r="I79" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>15</v>
-      </c>
-      <c r="C75" t="s">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" t="s">
         <v>135</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D80" t="s">
         <v>136</v>
       </c>
-      <c r="G75" t="s">
-        <v>17</v>
-      </c>
-      <c r="H75" t="s">
+      <c r="G80" t="s">
+        <v>17</v>
+      </c>
+      <c r="H80" t="s">
         <v>137</v>
       </c>
-      <c r="I75" s="3" t="s">
+      <c r="I80" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>15</v>
-      </c>
-      <c r="C76" t="s">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81" t="s">
         <v>139</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D81" t="s">
         <v>140</v>
       </c>
-      <c r="G76" t="s">
-        <v>17</v>
-      </c>
-      <c r="H76" t="s">
+      <c r="G81" t="s">
+        <v>17</v>
+      </c>
+      <c r="H81" t="s">
         <v>141</v>
       </c>
-      <c r="I76" s="3" t="s">
+      <c r="I81" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>15</v>
-      </c>
-      <c r="C77" t="s">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" t="s">
         <v>143</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D82" t="s">
         <v>144</v>
       </c>
-      <c r="G77" t="s">
-        <v>17</v>
-      </c>
-      <c r="H77" t="s">
+      <c r="G82" t="s">
+        <v>17</v>
+      </c>
+      <c r="H82" t="s">
         <v>145</v>
       </c>
-      <c r="I77" s="3" t="s">
+      <c r="I82" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>15</v>
-      </c>
-      <c r="C78" t="s">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83" t="s">
         <v>147</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D83" t="s">
         <v>148</v>
       </c>
-      <c r="G78" t="s">
-        <v>17</v>
-      </c>
-      <c r="H78" t="s">
+      <c r="G83" t="s">
+        <v>17</v>
+      </c>
+      <c r="H83" t="s">
         <v>149</v>
       </c>
-      <c r="I78" s="3" t="s">
+      <c r="I83" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>15</v>
-      </c>
-      <c r="C79" t="s">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>15</v>
+      </c>
+      <c r="C84" t="s">
         <v>151</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D84" t="s">
         <v>152</v>
       </c>
-      <c r="G79" t="s">
-        <v>17</v>
-      </c>
-      <c r="H79" t="s">
+      <c r="G84" t="s">
+        <v>17</v>
+      </c>
+      <c r="H84" t="s">
         <v>153</v>
       </c>
-      <c r="I79" s="3" t="s">
+      <c r="I84" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>15</v>
-      </c>
-      <c r="C80" t="s">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85" t="s">
         <v>155</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D85" t="s">
         <v>156</v>
       </c>
-      <c r="G80" t="s">
-        <v>17</v>
-      </c>
-      <c r="H80" t="s">
+      <c r="G85" t="s">
+        <v>17</v>
+      </c>
+      <c r="H85" t="s">
         <v>157</v>
       </c>
-      <c r="I80" s="3" t="s">
+      <c r="I85" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
-        <v>15</v>
-      </c>
-      <c r="C81" t="s">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86" t="s">
         <v>159</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D86" t="s">
         <v>160</v>
       </c>
-      <c r="G81" t="s">
-        <v>17</v>
-      </c>
-      <c r="H81" t="s">
+      <c r="G86" t="s">
+        <v>17</v>
+      </c>
+      <c r="H86" t="s">
         <v>161</v>
       </c>
-      <c r="I81" s="3" t="s">
+      <c r="I86" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
-        <v>15</v>
-      </c>
-      <c r="C82" t="s">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" t="s">
         <v>163</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D87" t="s">
         <v>164</v>
       </c>
-      <c r="G82" t="s">
-        <v>17</v>
-      </c>
-      <c r="H82" t="s">
+      <c r="G87" t="s">
+        <v>17</v>
+      </c>
+      <c r="H87" t="s">
         <v>165</v>
       </c>
-      <c r="I82" s="3" t="s">
+      <c r="I87" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
-        <v>15</v>
-      </c>
-      <c r="C83" t="s">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88" t="s">
         <v>167</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D88" t="s">
         <v>168</v>
       </c>
-      <c r="G83" t="s">
-        <v>17</v>
-      </c>
-      <c r="H83" t="s">
+      <c r="G88" t="s">
+        <v>17</v>
+      </c>
+      <c r="H88" t="s">
         <v>169</v>
       </c>
-      <c r="I83" s="3" t="s">
+      <c r="I88" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
-        <v>15</v>
-      </c>
-      <c r="C84" t="s">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
+        <v>15</v>
+      </c>
+      <c r="C89" t="s">
         <v>171</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D89" t="s">
         <v>172</v>
       </c>
-      <c r="G84" t="s">
-        <v>17</v>
-      </c>
-      <c r="H84" t="s">
+      <c r="G89" t="s">
+        <v>17</v>
+      </c>
+      <c r="H89" t="s">
         <v>173</v>
       </c>
-      <c r="I84" s="3" t="s">
+      <c r="I89" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
-        <v>15</v>
-      </c>
-      <c r="C85" t="s">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
+        <v>15</v>
+      </c>
+      <c r="C90" t="s">
         <v>175</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D90" t="s">
         <v>176</v>
       </c>
-      <c r="G85" t="s">
-        <v>17</v>
-      </c>
-      <c r="H85" t="s">
+      <c r="G90" t="s">
+        <v>17</v>
+      </c>
+      <c r="H90" t="s">
         <v>177</v>
       </c>
-      <c r="I85" s="3" t="s">
+      <c r="I90" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
-        <v>15</v>
-      </c>
-      <c r="C86" t="s">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
+        <v>15</v>
+      </c>
+      <c r="C91" t="s">
         <v>179</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D91" t="s">
         <v>180</v>
       </c>
-      <c r="G86" t="s">
-        <v>17</v>
-      </c>
-      <c r="H86" t="s">
+      <c r="G91" t="s">
+        <v>17</v>
+      </c>
+      <c r="H91" t="s">
         <v>181</v>
       </c>
-      <c r="I86" s="3" t="s">
+      <c r="I91" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
-        <v>15</v>
-      </c>
-      <c r="C87" t="s">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
+        <v>15</v>
+      </c>
+      <c r="C92" t="s">
         <v>183</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D92" t="s">
         <v>184</v>
       </c>
-      <c r="G87" t="s">
-        <v>17</v>
-      </c>
-      <c r="H87" t="s">
+      <c r="G92" t="s">
+        <v>17</v>
+      </c>
+      <c r="H92" t="s">
         <v>185</v>
       </c>
-      <c r="I87" s="3" t="s">
+      <c r="I92" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
-        <v>15</v>
-      </c>
-      <c r="C88" t="s">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93" t="s">
         <v>187</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D93" t="s">
         <v>188</v>
       </c>
-      <c r="G88" t="s">
-        <v>17</v>
-      </c>
-      <c r="H88" t="s">
+      <c r="G93" t="s">
+        <v>17</v>
+      </c>
+      <c r="H93" t="s">
         <v>189</v>
       </c>
-      <c r="I88" s="3" t="s">
+      <c r="I93" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
-        <v>15</v>
-      </c>
-      <c r="C89" t="s">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
+        <v>15</v>
+      </c>
+      <c r="C94" t="s">
         <v>191</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D94" t="s">
         <v>192</v>
       </c>
-      <c r="G89" t="s">
-        <v>17</v>
-      </c>
-      <c r="H89" t="s">
+      <c r="G94" t="s">
+        <v>17</v>
+      </c>
+      <c r="H94" t="s">
         <v>193</v>
       </c>
-      <c r="I89" s="3" t="s">
+      <c r="I94" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
-        <v>15</v>
-      </c>
-      <c r="C90" t="s">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
+        <v>15</v>
+      </c>
+      <c r="C95" t="s">
         <v>195</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D95" t="s">
         <v>196</v>
       </c>
-      <c r="G90" t="s">
-        <v>17</v>
-      </c>
-      <c r="H90" t="s">
+      <c r="G95" t="s">
+        <v>17</v>
+      </c>
+      <c r="H95" t="s">
         <v>197</v>
       </c>
-      <c r="I90" s="3" t="s">
+      <c r="I95" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
-        <v>15</v>
-      </c>
-      <c r="C91" t="s">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96" t="s">
         <v>199</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D96" t="s">
         <v>200</v>
       </c>
-      <c r="G91" t="s">
-        <v>17</v>
-      </c>
-      <c r="H91" t="s">
+      <c r="G96" t="s">
+        <v>17</v>
+      </c>
+      <c r="H96" t="s">
         <v>201</v>
       </c>
-      <c r="I91" s="3" t="s">
+      <c r="I96" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
-        <v>15</v>
-      </c>
-      <c r="C92" t="s">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
+        <v>15</v>
+      </c>
+      <c r="C97" t="s">
         <v>203</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D97" t="s">
         <v>204</v>
       </c>
-      <c r="G92" t="s">
-        <v>17</v>
-      </c>
-      <c r="H92" t="s">
+      <c r="G97" t="s">
+        <v>17</v>
+      </c>
+      <c r="H97" t="s">
         <v>205</v>
       </c>
-      <c r="I92" s="3" t="s">
+      <c r="I97" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
-        <v>15</v>
-      </c>
-      <c r="C93" t="s">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
+        <v>15</v>
+      </c>
+      <c r="C98" t="s">
         <v>207</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D98" t="s">
         <v>208</v>
       </c>
-      <c r="G93" t="s">
-        <v>17</v>
-      </c>
-      <c r="H93" t="s">
+      <c r="G98" t="s">
+        <v>17</v>
+      </c>
+      <c r="H98" t="s">
         <v>209</v>
       </c>
-      <c r="I93" s="3" t="s">
+      <c r="I98" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
-        <v>15</v>
-      </c>
-      <c r="C94" t="s">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B99" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99" t="s">
         <v>211</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D99" t="s">
         <v>212</v>
       </c>
-      <c r="G94" t="s">
-        <v>17</v>
-      </c>
-      <c r="H94" t="s">
+      <c r="G99" t="s">
+        <v>17</v>
+      </c>
+      <c r="H99" t="s">
         <v>213</v>
       </c>
-      <c r="I94" s="3" t="s">
+      <c r="I99" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
-        <v>15</v>
-      </c>
-      <c r="C95" t="s">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" t="s">
         <v>215</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D100" t="s">
         <v>216</v>
       </c>
-      <c r="G95" t="s">
-        <v>17</v>
-      </c>
-      <c r="H95" t="s">
+      <c r="G100" t="s">
+        <v>17</v>
+      </c>
+      <c r="H100" t="s">
         <v>217</v>
       </c>
-      <c r="I95" s="3" t="s">
+      <c r="I100" s="3" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
-        <v>15</v>
-      </c>
-      <c r="C96" t="s">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" t="s">
         <v>219</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D101" t="s">
         <v>220</v>
       </c>
-      <c r="G96" t="s">
-        <v>17</v>
-      </c>
-      <c r="H96" t="s">
+      <c r="G101" t="s">
+        <v>17</v>
+      </c>
+      <c r="H101" t="s">
         <v>221</v>
       </c>
-      <c r="I96" s="3" t="s">
+      <c r="I101" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
-        <v>15</v>
-      </c>
-      <c r="C97" t="s">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
+        <v>15</v>
+      </c>
+      <c r="C102" t="s">
         <v>223</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D102" t="s">
         <v>224</v>
       </c>
-      <c r="G97" t="s">
-        <v>17</v>
-      </c>
-      <c r="H97" t="s">
+      <c r="G102" t="s">
+        <v>17</v>
+      </c>
+      <c r="H102" t="s">
         <v>225</v>
       </c>
-      <c r="I97" s="3" t="s">
+      <c r="I102" s="3" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D98" s="7" t="s">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D103" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="G98" t="s">
-        <v>17</v>
-      </c>
-      <c r="H98" s="7" t="s">
+      <c r="G103" t="s">
+        <v>17</v>
+      </c>
+      <c r="H103" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="I98" s="3" t="s">
+      <c r="I103" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D99" s="7" t="s">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D104" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="G99" t="s">
-        <v>17</v>
-      </c>
-      <c r="H99" s="7" t="s">
+      <c r="G104" t="s">
+        <v>17</v>
+      </c>
+      <c r="H104" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="I99" s="3" t="s">
+      <c r="I104" s="3" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D100" s="7" t="s">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D105" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="G100" t="s">
-        <v>17</v>
-      </c>
-      <c r="H100" s="7" t="s">
+      <c r="G105" t="s">
+        <v>17</v>
+      </c>
+      <c r="H105" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="I100" s="3" t="s">
+      <c r="I105" s="3" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
-        <v>15</v>
-      </c>
-      <c r="C102" s="6" t="s">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B107" t="s">
+        <v>15</v>
+      </c>
+      <c r="C107" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="D102" t="str">
-        <f>B102&amp;"_"&amp;C102</f>
+      <c r="D107" t="str">
+        <f>B107&amp;"_"&amp;C107</f>
         <v>ResIcon_Monster_MiFeng1</v>
       </c>
-      <c r="G102" t="s">
-        <v>17</v>
-      </c>
-      <c r="H102" s="6" t="s">
+      <c r="G107" t="s">
+        <v>17</v>
+      </c>
+      <c r="H107" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="I102" t="str">
-        <f>"Assets/ResAB/UI/Icon/"&amp;H102&amp;".png"</f>
+      <c r="I107" t="str">
+        <f>"Assets/ResAB/UI/Icon/"&amp;H107&amp;".png"</f>
         <v>Assets/ResAB/UI/Icon/Icon_Monster_MiFeng1.png</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B103" t="s">
-        <v>15</v>
-      </c>
-      <c r="C103" s="6" t="s">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
+        <v>15</v>
+      </c>
+      <c r="C108" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="D103" t="str">
-        <f t="shared" ref="D103:D122" si="9">B103&amp;"_"&amp;C103</f>
+      <c r="D108" t="str">
+        <f t="shared" ref="D108:D127" si="9">B108&amp;"_"&amp;C108</f>
         <v>ResIcon_Monster_MiFeng2</v>
       </c>
-      <c r="G103" t="s">
-        <v>17</v>
-      </c>
-      <c r="H103" s="6" t="s">
+      <c r="G108" t="s">
+        <v>17</v>
+      </c>
+      <c r="H108" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="I103" t="str">
-        <f t="shared" ref="I103:I122" si="10">"Assets/ResAB/UI/Icon/"&amp;H103&amp;".png"</f>
+      <c r="I108" t="str">
+        <f t="shared" ref="I108:I136" si="10">"Assets/ResAB/UI/Icon/"&amp;H108&amp;".png"</f>
         <v>Assets/ResAB/UI/Icon/Icon_Monster_MiFeng2.png</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B104" t="s">
-        <v>15</v>
-      </c>
-      <c r="C104" s="6" t="s">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B109" t="s">
+        <v>15</v>
+      </c>
+      <c r="C109" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="D104" t="str">
+      <c r="D109" t="str">
         <f t="shared" si="9"/>
         <v>ResIcon_Monster_MiFeng3</v>
       </c>
-      <c r="G104" t="s">
-        <v>17</v>
-      </c>
-      <c r="H104" s="6" t="s">
+      <c r="G109" t="s">
+        <v>17</v>
+      </c>
+      <c r="H109" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="I104" t="str">
+      <c r="I109" t="str">
         <f t="shared" si="10"/>
         <v>Assets/ResAB/UI/Icon/Icon_Monster_MiFeng3.png</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B105" t="s">
-        <v>15</v>
-      </c>
-      <c r="C105" s="6" t="s">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B110" t="s">
+        <v>15</v>
+      </c>
+      <c r="C110" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="D105" t="str">
+      <c r="D110" t="str">
         <f t="shared" si="9"/>
         <v>ResIcon_Monster_BianFu1</v>
       </c>
-      <c r="G105" t="s">
-        <v>17</v>
-      </c>
-      <c r="H105" s="6" t="s">
+      <c r="G110" t="s">
+        <v>17</v>
+      </c>
+      <c r="H110" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="I105" t="str">
+      <c r="I110" t="str">
         <f t="shared" si="10"/>
         <v>Assets/ResAB/UI/Icon/Icon_Monster_BianFu1.png</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B106" t="s">
-        <v>15</v>
-      </c>
-      <c r="C106" s="6" t="s">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B111" t="s">
+        <v>15</v>
+      </c>
+      <c r="C111" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="D106" t="str">
+      <c r="D111" t="str">
         <f t="shared" si="9"/>
         <v>ResIcon_Monster_BianFu2</v>
       </c>
-      <c r="G106" t="s">
-        <v>17</v>
-      </c>
-      <c r="H106" s="6" t="s">
+      <c r="G111" t="s">
+        <v>17</v>
+      </c>
+      <c r="H111" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="I106" t="str">
+      <c r="I111" t="str">
         <f t="shared" si="10"/>
         <v>Assets/ResAB/UI/Icon/Icon_Monster_BianFu2.png</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
-        <v>15</v>
-      </c>
-      <c r="C107" s="6" t="s">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B112" t="s">
+        <v>15</v>
+      </c>
+      <c r="C112" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="D107" t="str">
+      <c r="D112" t="str">
         <f t="shared" si="9"/>
         <v>ResIcon_Monster_BianFu3</v>
       </c>
-      <c r="G107" t="s">
-        <v>17</v>
-      </c>
-      <c r="H107" s="6" t="s">
+      <c r="G112" t="s">
+        <v>17</v>
+      </c>
+      <c r="H112" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="I107" t="str">
+      <c r="I112" t="str">
         <f t="shared" si="10"/>
         <v>Assets/ResAB/UI/Icon/Icon_Monster_BianFu3.png</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
-        <v>15</v>
-      </c>
-      <c r="C108" s="6" t="s">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B113" t="s">
+        <v>15</v>
+      </c>
+      <c r="C113" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="D108" t="str">
+      <c r="D113" t="str">
         <f t="shared" si="9"/>
         <v>ResIcon_Monster_ZhiZhu1</v>
       </c>
-      <c r="G108" t="s">
-        <v>17</v>
-      </c>
-      <c r="H108" s="6" t="s">
+      <c r="G113" t="s">
+        <v>17</v>
+      </c>
+      <c r="H113" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="I108" t="str">
+      <c r="I113" t="str">
         <f t="shared" si="10"/>
         <v>Assets/ResAB/UI/Icon/Icon_Monster_ZhiZhu1.png</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
-        <v>15</v>
-      </c>
-      <c r="C109" s="6" t="s">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
+        <v>15</v>
+      </c>
+      <c r="C114" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="D109" t="str">
+      <c r="D114" t="str">
         <f t="shared" si="9"/>
         <v>ResIcon_Monster_ZhiZhu2</v>
       </c>
-      <c r="G109" t="s">
-        <v>17</v>
-      </c>
-      <c r="H109" s="6" t="s">
+      <c r="G114" t="s">
+        <v>17</v>
+      </c>
+      <c r="H114" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="I109" t="str">
+      <c r="I114" t="str">
         <f t="shared" si="10"/>
         <v>Assets/ResAB/UI/Icon/Icon_Monster_ZhiZhu2.png</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
-        <v>15</v>
-      </c>
-      <c r="C110" s="6" t="s">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B115" t="s">
+        <v>15</v>
+      </c>
+      <c r="C115" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="D110" t="str">
+      <c r="D115" t="str">
         <f t="shared" si="9"/>
         <v>ResIcon_Monster_ZhiZhu3</v>
       </c>
-      <c r="G110" t="s">
-        <v>17</v>
-      </c>
-      <c r="H110" s="6" t="s">
+      <c r="G115" t="s">
+        <v>17</v>
+      </c>
+      <c r="H115" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="I110" t="str">
+      <c r="I115" t="str">
         <f t="shared" si="10"/>
         <v>Assets/ResAB/UI/Icon/Icon_Monster_ZhiZhu3.png</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B111" t="s">
-        <v>15</v>
-      </c>
-      <c r="C111" s="6" t="s">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B116" t="s">
+        <v>15</v>
+      </c>
+      <c r="C116" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="D111" t="str">
+      <c r="D116" t="str">
         <f t="shared" si="9"/>
         <v>ResIcon_Monster_ZhongZi1</v>
       </c>
-      <c r="G111" t="s">
-        <v>17</v>
-      </c>
-      <c r="H111" s="6" t="s">
+      <c r="G116" t="s">
+        <v>17</v>
+      </c>
+      <c r="H116" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="I111" t="str">
+      <c r="I116" t="str">
         <f t="shared" si="10"/>
         <v>Assets/ResAB/UI/Icon/Icon_Monster_ZhongZi1.png</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B112" t="s">
-        <v>15</v>
-      </c>
-      <c r="C112" s="6" t="s">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B117" t="s">
+        <v>15</v>
+      </c>
+      <c r="C117" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="D112" t="str">
+      <c r="D117" t="str">
         <f t="shared" si="9"/>
         <v>ResIcon_Monster_ZhongZi2</v>
       </c>
-      <c r="G112" t="s">
-        <v>17</v>
-      </c>
-      <c r="H112" s="6" t="s">
+      <c r="G117" t="s">
+        <v>17</v>
+      </c>
+      <c r="H117" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="I112" t="str">
+      <c r="I117" t="str">
         <f t="shared" si="10"/>
         <v>Assets/ResAB/UI/Icon/Icon_Monster_ZhongZi2.png</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B113" t="s">
-        <v>15</v>
-      </c>
-      <c r="C113" s="6" t="s">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B118" t="s">
+        <v>15</v>
+      </c>
+      <c r="C118" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="D113" t="str">
+      <c r="D118" t="str">
         <f t="shared" si="9"/>
         <v>ResIcon_Monster_ZhongZi3</v>
       </c>
-      <c r="G113" t="s">
-        <v>17</v>
-      </c>
-      <c r="H113" s="6" t="s">
+      <c r="G118" t="s">
+        <v>17</v>
+      </c>
+      <c r="H118" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="I113" t="str">
+      <c r="I118" t="str">
         <f t="shared" si="10"/>
         <v>Assets/ResAB/UI/Icon/Icon_Monster_ZhongZi3.png</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B114" t="s">
-        <v>15</v>
-      </c>
-      <c r="C114" s="6" t="s">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B119" t="s">
+        <v>15</v>
+      </c>
+      <c r="C119" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="D114" t="str">
+      <c r="D119" t="str">
         <f t="shared" si="9"/>
         <v>ResIcon_Monster_Gui1</v>
       </c>
-      <c r="G114" t="s">
-        <v>17</v>
-      </c>
-      <c r="H114" s="6" t="s">
+      <c r="G119" t="s">
+        <v>17</v>
+      </c>
+      <c r="H119" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="I114" t="str">
+      <c r="I119" t="str">
         <f t="shared" si="10"/>
         <v>Assets/ResAB/UI/Icon/Icon_Monster_Gui1.png</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
-        <v>15</v>
-      </c>
-      <c r="C115" s="6" t="s">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B120" t="s">
+        <v>15</v>
+      </c>
+      <c r="C120" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="D115" t="str">
+      <c r="D120" t="str">
         <f t="shared" si="9"/>
         <v>ResIcon_Monster_Gui2</v>
       </c>
-      <c r="G115" t="s">
-        <v>17</v>
-      </c>
-      <c r="H115" s="6" t="s">
+      <c r="G120" t="s">
+        <v>17</v>
+      </c>
+      <c r="H120" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="I115" t="str">
+      <c r="I120" t="str">
         <f t="shared" si="10"/>
         <v>Assets/ResAB/UI/Icon/Icon_Monster_Gui2.png</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B116" t="s">
-        <v>15</v>
-      </c>
-      <c r="C116" s="6" t="s">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B121" t="s">
+        <v>15</v>
+      </c>
+      <c r="C121" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="D116" t="str">
+      <c r="D121" t="str">
         <f t="shared" si="9"/>
         <v>ResIcon_Monster_Gui3</v>
       </c>
-      <c r="G116" t="s">
-        <v>17</v>
-      </c>
-      <c r="H116" s="6" t="s">
+      <c r="G121" t="s">
+        <v>17</v>
+      </c>
+      <c r="H121" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="I116" t="str">
+      <c r="I121" t="str">
         <f t="shared" si="10"/>
         <v>Assets/ResAB/UI/Icon/Icon_Monster_Gui3.png</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B117" t="s">
-        <v>15</v>
-      </c>
-      <c r="C117" s="6" t="s">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B122" t="s">
+        <v>15</v>
+      </c>
+      <c r="C122" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="D117" t="str">
+      <c r="D122" t="str">
         <f t="shared" si="9"/>
         <v>ResIcon_Monster_Dan1</v>
       </c>
-      <c r="G117" t="s">
-        <v>17</v>
-      </c>
-      <c r="H117" s="6" t="s">
+      <c r="G122" t="s">
+        <v>17</v>
+      </c>
+      <c r="H122" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="I117" t="str">
+      <c r="I122" t="str">
         <f t="shared" si="10"/>
         <v>Assets/ResAB/UI/Icon/Icon_Monster_Dan1.png</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B118" t="s">
-        <v>15</v>
-      </c>
-      <c r="C118" s="6" t="s">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B123" t="s">
+        <v>15</v>
+      </c>
+      <c r="C123" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="D118" t="str">
+      <c r="D123" t="str">
         <f t="shared" si="9"/>
         <v>ResIcon_Monster_Dan2</v>
       </c>
-      <c r="G118" t="s">
-        <v>17</v>
-      </c>
-      <c r="H118" s="6" t="s">
+      <c r="G123" t="s">
+        <v>17</v>
+      </c>
+      <c r="H123" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="I118" t="str">
+      <c r="I123" t="str">
         <f t="shared" si="10"/>
         <v>Assets/ResAB/UI/Icon/Icon_Monster_Dan2.png</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B119" t="s">
-        <v>15</v>
-      </c>
-      <c r="C119" s="6" t="s">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B124" t="s">
+        <v>15</v>
+      </c>
+      <c r="C124" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="D119" t="str">
+      <c r="D124" t="str">
         <f t="shared" si="9"/>
         <v>ResIcon_Monster_Dan3</v>
       </c>
-      <c r="G119" t="s">
-        <v>17</v>
-      </c>
-      <c r="H119" s="6" t="s">
+      <c r="G124" t="s">
+        <v>17</v>
+      </c>
+      <c r="H124" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="I119" t="str">
+      <c r="I124" t="str">
         <f t="shared" si="10"/>
         <v>Assets/ResAB/UI/Icon/Icon_Monster_Dan3.png</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B120" t="s">
-        <v>15</v>
-      </c>
-      <c r="C120" s="6" t="s">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B125" t="s">
+        <v>15</v>
+      </c>
+      <c r="C125" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="D120" t="str">
+      <c r="D125" t="str">
         <f t="shared" si="9"/>
         <v>ResIcon_Monster_Niao1</v>
       </c>
-      <c r="G120" t="s">
-        <v>17</v>
-      </c>
-      <c r="H120" s="6" t="s">
+      <c r="G125" t="s">
+        <v>17</v>
+      </c>
+      <c r="H125" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="I120" t="str">
+      <c r="I125" t="str">
         <f t="shared" si="10"/>
         <v>Assets/ResAB/UI/Icon/Icon_Monster_Niao1.png</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B121" t="s">
-        <v>15</v>
-      </c>
-      <c r="C121" s="6" t="s">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B126" t="s">
+        <v>15</v>
+      </c>
+      <c r="C126" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D121" t="str">
+      <c r="D126" t="str">
         <f t="shared" si="9"/>
         <v>ResIcon_Monster_Niao2</v>
       </c>
-      <c r="G121" t="s">
-        <v>17</v>
-      </c>
-      <c r="H121" s="6" t="s">
+      <c r="G126" t="s">
+        <v>17</v>
+      </c>
+      <c r="H126" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="I121" t="str">
+      <c r="I126" t="str">
         <f t="shared" si="10"/>
         <v>Assets/ResAB/UI/Icon/Icon_Monster_Niao2.png</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B122" t="s">
-        <v>15</v>
-      </c>
-      <c r="C122" s="6" t="s">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B127" t="s">
+        <v>15</v>
+      </c>
+      <c r="C127" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="D122" t="str">
+      <c r="D127" t="str">
         <f t="shared" si="9"/>
         <v>ResIcon_Monster_Niao3</v>
       </c>
-      <c r="G122" t="s">
-        <v>17</v>
-      </c>
-      <c r="H122" s="6" t="s">
+      <c r="G127" t="s">
+        <v>17</v>
+      </c>
+      <c r="H127" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="I122" t="str">
+      <c r="I127" t="str">
         <f t="shared" si="10"/>
         <v>Assets/ResAB/UI/Icon/Icon_Monster_Niao3.png</v>
       </c>
     </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D128" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="G128" t="s">
+        <v>17</v>
+      </c>
+      <c r="H128" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="I128" t="str">
+        <f t="shared" si="10"/>
+        <v>Assets/ResAB/UI/Icon/Icon_Monster_Rou1.png</v>
+      </c>
+    </row>
+    <row r="129" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D129" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="G129" t="s">
+        <v>17</v>
+      </c>
+      <c r="H129" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="I129" t="str">
+        <f t="shared" si="10"/>
+        <v>Assets/ResAB/UI/Icon/Icon_Monster_Rou2.png</v>
+      </c>
+    </row>
+    <row r="130" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D130" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="G130" t="s">
+        <v>17</v>
+      </c>
+      <c r="H130" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="I130" t="str">
+        <f t="shared" si="10"/>
+        <v>Assets/ResAB/UI/Icon/Icon_Monster_Rou3.png</v>
+      </c>
+    </row>
+    <row r="131" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D131" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="G131" t="s">
+        <v>17</v>
+      </c>
+      <c r="H131" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="I131" t="str">
+        <f t="shared" si="10"/>
+        <v>Assets/ResAB/UI/Icon/Icon_Monster_XueRen1.png</v>
+      </c>
+    </row>
+    <row r="132" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D132" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="G132" t="s">
+        <v>17</v>
+      </c>
+      <c r="H132" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="I132" t="str">
+        <f t="shared" si="10"/>
+        <v>Assets/ResAB/UI/Icon/Icon_Monster_XueRen2.png</v>
+      </c>
+    </row>
+    <row r="133" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D133" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="G133" t="s">
+        <v>17</v>
+      </c>
+      <c r="H133" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="I133" t="str">
+        <f t="shared" si="10"/>
+        <v>Assets/ResAB/UI/Icon/Icon_Monster_XueRen3.png</v>
+      </c>
+    </row>
+    <row r="134" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D134" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="G134" t="s">
+        <v>17</v>
+      </c>
+      <c r="H134" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="I134" t="str">
+        <f t="shared" si="10"/>
+        <v>Assets/ResAB/UI/Icon/Icon_Monster_WuGui1.png</v>
+      </c>
+    </row>
+    <row r="135" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D135" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="G135" t="s">
+        <v>17</v>
+      </c>
+      <c r="H135" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="I135" t="str">
+        <f t="shared" si="10"/>
+        <v>Assets/ResAB/UI/Icon/Icon_Monster_WuGui2.png</v>
+      </c>
+    </row>
+    <row r="136" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D136" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="G136" t="s">
+        <v>17</v>
+      </c>
+      <c r="H136" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="I136" t="str">
+        <f t="shared" si="10"/>
+        <v>Assets/ResAB/UI/Icon/Icon_Monster_WuGui3.png</v>
+      </c>
+    </row>
+    <row r="138" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D138" t="s">
+        <v>320</v>
+      </c>
+      <c r="G138" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="H138" t="s">
+        <v>332</v>
+      </c>
+      <c r="I138" t="str">
+        <f>G138&amp;"/"&amp;H138&amp;".png"</f>
+        <v>Assets/ResAB/UI/Season/Season_icon_Maxtowers.png</v>
+      </c>
+    </row>
+    <row r="139" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D139" t="s">
+        <v>321</v>
+      </c>
+      <c r="G139" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="H139" t="s">
+        <v>333</v>
+      </c>
+      <c r="I139" t="str">
+        <f t="shared" ref="I139:I148" si="11">G139&amp;"/"&amp;H139&amp;".png"</f>
+        <v>Assets/ResAB/UI/Season/Season_icon_startinggold.png</v>
+      </c>
+    </row>
+    <row r="140" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D140" t="s">
+        <v>322</v>
+      </c>
+      <c r="G140" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="H140" t="s">
+        <v>334</v>
+      </c>
+      <c r="I140" t="str">
+        <f t="shared" si="11"/>
+        <v>Assets/ResAB/UI/Season/Season_icon_damage.png</v>
+      </c>
+    </row>
+    <row r="141" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D141" t="s">
+        <v>323</v>
+      </c>
+      <c r="G141" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="H141" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="I141" t="str">
+        <f t="shared" si="11"/>
+        <v>Assets/ResAB/UI/Season/Season_icon_towercost.png</v>
+      </c>
+    </row>
+    <row r="142" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D142" t="s">
+        <v>324</v>
+      </c>
+      <c r="G142" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="H142" t="s">
+        <v>336</v>
+      </c>
+      <c r="I142" t="str">
+        <f t="shared" si="11"/>
+        <v>Assets/ResAB/UI/Season/Season_icon_HQHP.png</v>
+      </c>
+    </row>
+    <row r="143" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D143" t="s">
+        <v>325</v>
+      </c>
+      <c r="G143" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="H143" t="s">
+        <v>337</v>
+      </c>
+      <c r="I143" t="str">
+        <f t="shared" si="11"/>
+        <v>Assets/ResAB/UI/Season/Season_icon_HQregen.png</v>
+      </c>
+    </row>
+    <row r="144" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D144" t="s">
+        <v>326</v>
+      </c>
+      <c r="G144" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="H144" t="s">
+        <v>338</v>
+      </c>
+      <c r="I144" t="str">
+        <f t="shared" si="11"/>
+        <v>Assets/ResAB/UI/Season/Season_icon_ATKrange.png</v>
+      </c>
+    </row>
+    <row r="145" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D145" t="s">
+        <v>327</v>
+      </c>
+      <c r="G145" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="H145" t="s">
+        <v>339</v>
+      </c>
+      <c r="I145" t="str">
+        <f t="shared" si="11"/>
+        <v>Assets/ResAB/UI/Season/Season_icon_ATKInterval.png</v>
+      </c>
+    </row>
+    <row r="146" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D146" t="s">
+        <v>328</v>
+      </c>
+      <c r="G146" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="H146" t="s">
+        <v>340</v>
+      </c>
+      <c r="I146" t="str">
+        <f t="shared" si="11"/>
+        <v>Assets/ResAB/UI/Season/Season_icon_goldreward.png</v>
+      </c>
+    </row>
+    <row r="147" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D147" t="s">
+        <v>329</v>
+      </c>
+      <c r="G147" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="H147" t="s">
+        <v>341</v>
+      </c>
+      <c r="I147" t="str">
+        <f t="shared" si="11"/>
+        <v>Assets/ResAB/UI/Season/Season_icon_revive.png</v>
+      </c>
+    </row>
+    <row r="148" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D148" t="s">
+        <v>330</v>
+      </c>
+      <c r="G148" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="H148" t="s">
+        <v>342</v>
+      </c>
+      <c r="I148" t="str">
+        <f t="shared" si="11"/>
+        <v>Assets/ResAB/UI/Season/Season_icon_diamondreward.png</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
+  <conditionalFormatting sqref="D128:D136">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H128:H136">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -4149,19 +4675,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23:I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="17.21875" customWidth="1"/>
-    <col min="7" max="7" width="32.33203125" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" customWidth="1"/>
-    <col min="9" max="9" width="25.77734375" customWidth="1"/>
+    <col min="4" max="4" width="17.25" customWidth="1"/>
+    <col min="7" max="7" width="32.375" customWidth="1"/>
+    <col min="8" max="8" width="30.625" customWidth="1"/>
+    <col min="9" max="9" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4182,7 +4708,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4195,7 +4721,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -4216,7 +4742,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -4231,7 +4757,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -4252,7 +4778,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>15</v>
       </c>
@@ -4274,7 +4800,7 @@
         <v>Assets/ResAB/UI/Beginners_Guide/Beginners_Guide_img_guide1.png</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>15</v>
       </c>
@@ -4296,7 +4822,7 @@
         <v>Assets/ResAB/UI/Beginners_Guide/Beginners_Guide_img_guide2.png</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>15</v>
       </c>
@@ -4318,7 +4844,7 @@
         <v>Assets/ResAB/UI/Beginners_Guide/Beginners_Guide_img_guide3.png</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>15</v>
       </c>
@@ -4340,7 +4866,7 @@
         <v>Assets/ResAB/UI/Beginners_Guide/Beginners_Guide_img_guide4.png</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>15</v>
       </c>
@@ -4362,7 +4888,7 @@
         <v>Assets/ResAB/UI/common/Common_img_avatar_01.png</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>15</v>
       </c>
@@ -4384,7 +4910,7 @@
         <v>Assets/ResAB/UI/common/Common_img_avatar_02.png</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>15</v>
       </c>
@@ -4406,7 +4932,7 @@
         <v>Assets/ResAB/UI/common/Common_img_avatar_03.png</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>15</v>
       </c>
@@ -4428,7 +4954,7 @@
         <v>Assets/ResAB/UI/common/Common_img_avatar_04.png</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>15</v>
       </c>
@@ -4450,7 +4976,7 @@
         <v>Assets/ResAB/UI/common/Common_img_avatar_05.png</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>15</v>
       </c>
@@ -4472,7 +4998,7 @@
         <v>Assets/ResAB/UI/common/Common_img_frame_None.png</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>15</v>
       </c>
@@ -4494,7 +5020,7 @@
         <v>Assets/ResAB/UI/common/Common_img_frame_01.png</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>15</v>
       </c>
@@ -4516,7 +5042,7 @@
         <v>Assets/ResAB/UI/common/Common_img_frame_02.png</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>15</v>
       </c>
@@ -4538,7 +5064,7 @@
         <v>Assets/ResAB/UI/common/Common_img_frame_03.png</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>15</v>
       </c>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResIconCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResIconCfg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ResConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9906921E-FD13-4C22-9197-E4F53E0DA856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A847E02-1304-4366-B24B-C1E659218183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="420">
   <si>
     <t>##var</t>
   </si>
@@ -795,9 +795,6 @@
   </si>
   <si>
     <t>Assets/ResAB/UI/common</t>
-  </si>
-  <si>
-    <t>Common_img_avatar_01.png</t>
   </si>
   <si>
     <t>Avatar02</t>
@@ -1090,30 +1087,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Common_img_frame_01.png</t>
-  </si>
-  <si>
-    <t>Common_img_frame_02.png</t>
-  </si>
-  <si>
-    <t>Common_img_frame_03.png</t>
-  </si>
-  <si>
-    <t>Common_img_frame_04.png</t>
-  </si>
-  <si>
-    <t>AvatarFrame01</t>
-  </si>
-  <si>
-    <t>AvatarFrame02</t>
-  </si>
-  <si>
-    <t>AvatarFrame03</t>
-  </si>
-  <si>
-    <t>AvatarFrame04</t>
-  </si>
-  <si>
     <t>AvatarFrame_None</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1286,6 +1259,203 @@
   </si>
   <si>
     <t>Icon_Monster_WuGui3</t>
+  </si>
+  <si>
+    <t>ResIcon_AvatarFrame_Season1_1</t>
+  </si>
+  <si>
+    <t>ResIcon_AvatarFrame_Season1_2</t>
+  </si>
+  <si>
+    <t>ResIcon_AvatarFrame_Season1_3</t>
+  </si>
+  <si>
+    <t>ResIcon_AvatarFrame_Season1_4</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Season/Season_img_frame_A1.png</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Season/Season_img_frame_A3.png</t>
+  </si>
+  <si>
+    <t>ResIcon_AvatarFrame_Season1_5</t>
+  </si>
+  <si>
+    <t>ResIcon_AvatarFrame_Season2_1</t>
+  </si>
+  <si>
+    <t>ResIcon_AvatarFrame_Season2_2</t>
+  </si>
+  <si>
+    <t>ResIcon_AvatarFrame_Season2_3</t>
+  </si>
+  <si>
+    <t>ResIcon_AvatarFrame_Season2_4</t>
+  </si>
+  <si>
+    <t>ResIcon_AvatarFrame_Season2_5</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Season/Season_img_frame_B2.png</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Season/Season_img_frame_B3.png</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Season/Season_img_frame_B4.png</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Season/Season_img_frame_B5.png</t>
+  </si>
+  <si>
+    <t>ResIcon_AvatarFrame_Season3_1</t>
+  </si>
+  <si>
+    <t>ResIcon_AvatarFrame_Season3_2</t>
+  </si>
+  <si>
+    <t>ResIcon_AvatarFrame_Season3_3</t>
+  </si>
+  <si>
+    <t>ResIcon_AvatarFrame_Season3_4</t>
+  </si>
+  <si>
+    <t>ResIcon_AvatarFrame_Season3_5</t>
+  </si>
+  <si>
+    <t>ResIcon_AvatarFrame_Season4_1</t>
+  </si>
+  <si>
+    <t>ResIcon_AvatarFrame_Season4_2</t>
+  </si>
+  <si>
+    <t>ResIcon_AvatarFrame_Season4_3</t>
+  </si>
+  <si>
+    <t>ResIcon_AvatarFrame_Season4_4</t>
+  </si>
+  <si>
+    <t>ResIcon_AvatarFrame_Season4_5</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Season/Season_img_frame_A4.png</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Season/Season_img_frame_A2.png</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Season/Season_img_frame_B1.png</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Season/Season_img_frame_A5.png</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Season/Season_img_frame_C5.png</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Season/Season_img_frame_C4.png</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Season/Season_img_frame_C3.png</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Season/Season_img_frame_C2.png</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Season/Season_img_frame_C1.png</t>
+  </si>
+  <si>
+    <t>BG1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG2</t>
+  </si>
+  <si>
+    <t>BG3</t>
+  </si>
+  <si>
+    <t>BG4</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/BG</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>common_bg_Start_01.png</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>common_bg_Start_02.png</t>
+  </si>
+  <si>
+    <t>common_bg_Start_03.png</t>
+  </si>
+  <si>
+    <t>common_bg_Start_04.png</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Season/Season_img_frame_D5.png</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Season/Season_img_frame_D4.png</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Season/Season_img_frame_D3.png</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Season/Season_img_frame_D2.png</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Season/Season_img_frame_D1.png</t>
+  </si>
+  <si>
+    <t>Avatar06</t>
+  </si>
+  <si>
+    <t>Avatar07</t>
+  </si>
+  <si>
+    <t>Avatar08</t>
+  </si>
+  <si>
+    <t>Avatar09</t>
+  </si>
+  <si>
+    <t>Avatar10</t>
+  </si>
+  <si>
+    <t>Common_img_avatar_06.png</t>
+  </si>
+  <si>
+    <t>Common_img_avatar_07.png</t>
+  </si>
+  <si>
+    <t>Common_img_avatar_08.png</t>
+  </si>
+  <si>
+    <t>Common_img_avatar_09.png</t>
+  </si>
+  <si>
+    <t>Common_img_avatar_10.png</t>
+  </si>
+  <si>
+    <t>Common_img_avatar_01.png</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResIcon_MailType_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common_img_avatar_logo.png</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1410,7 +1580,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
@@ -1421,6 +1591,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -1721,11 +1892,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E120" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="I127" sqref="I127:I136"/>
+      <selection pane="bottomRight" activeCell="N46" sqref="N46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1733,7 +1904,7 @@
     <col min="1" max="1" width="9.25" customWidth="1"/>
     <col min="2" max="2" width="4.25" customWidth="1"/>
     <col min="3" max="3" width="6.125" customWidth="1"/>
-    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="4" max="4" width="39.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="14.625" customWidth="1"/>
     <col min="7" max="7" width="31.375" customWidth="1"/>
@@ -2194,7 +2365,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" ref="D19" si="4">B19&amp;"_"&amp;C19</f>
@@ -2204,7 +2375,7 @@
         <v>17</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I19" s="3" t="str">
         <f t="shared" ref="I19" si="5">G19&amp;"/"&amp;H19</f>
@@ -2214,13 +2385,13 @@
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C20" s="7"/>
       <c r="D20" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G20" t="s">
         <v>17</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I20" s="3" t="str">
         <f t="shared" ref="I20:I23" si="6">G20&amp;"/"&amp;H20</f>
@@ -2230,13 +2401,13 @@
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C21" s="7"/>
       <c r="D21" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G21" t="s">
         <v>17</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I21" s="3" t="str">
         <f t="shared" si="6"/>
@@ -2246,13 +2417,13 @@
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C22" s="7"/>
       <c r="D22" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G22" t="s">
         <v>17</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I22" s="3" t="str">
         <f t="shared" si="6"/>
@@ -2262,13 +2433,13 @@
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C23" s="7"/>
       <c r="D23" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G23" t="s">
         <v>17</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I23" s="3" t="str">
         <f t="shared" si="6"/>
@@ -2283,11 +2454,11 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="3" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
@@ -3352,26 +3523,26 @@
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D75" s="7" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D76" s="7" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D77" s="7" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.2">
@@ -3851,49 +4022,49 @@
         <v>225</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D103" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G103" t="s">
         <v>17</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D104" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G104" t="s">
         <v>17</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D105" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G105" t="s">
         <v>17</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.2">
@@ -3901,7 +4072,7 @@
         <v>15</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D107" t="str">
         <f>B107&amp;"_"&amp;C107</f>
@@ -3911,7 +4082,7 @@
         <v>17</v>
       </c>
       <c r="H107" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I107" t="str">
         <f>"Assets/ResAB/UI/Icon/"&amp;H107&amp;".png"</f>
@@ -3923,7 +4094,7 @@
         <v>15</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D108" t="str">
         <f t="shared" ref="D108:D127" si="9">B108&amp;"_"&amp;C108</f>
@@ -3933,7 +4104,7 @@
         <v>17</v>
       </c>
       <c r="H108" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I108" t="str">
         <f t="shared" ref="I108:I136" si="10">"Assets/ResAB/UI/Icon/"&amp;H108&amp;".png"</f>
@@ -3945,7 +4116,7 @@
         <v>15</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D109" t="str">
         <f t="shared" si="9"/>
@@ -3955,7 +4126,7 @@
         <v>17</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I109" t="str">
         <f t="shared" si="10"/>
@@ -3967,7 +4138,7 @@
         <v>15</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D110" t="str">
         <f t="shared" si="9"/>
@@ -3977,7 +4148,7 @@
         <v>17</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I110" t="str">
         <f t="shared" si="10"/>
@@ -3989,7 +4160,7 @@
         <v>15</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D111" t="str">
         <f t="shared" si="9"/>
@@ -3999,7 +4170,7 @@
         <v>17</v>
       </c>
       <c r="H111" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I111" t="str">
         <f t="shared" si="10"/>
@@ -4011,7 +4182,7 @@
         <v>15</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D112" t="str">
         <f t="shared" si="9"/>
@@ -4021,7 +4192,7 @@
         <v>17</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I112" t="str">
         <f t="shared" si="10"/>
@@ -4033,7 +4204,7 @@
         <v>15</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D113" t="str">
         <f t="shared" si="9"/>
@@ -4043,7 +4214,7 @@
         <v>17</v>
       </c>
       <c r="H113" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I113" t="str">
         <f t="shared" si="10"/>
@@ -4055,7 +4226,7 @@
         <v>15</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D114" t="str">
         <f t="shared" si="9"/>
@@ -4065,7 +4236,7 @@
         <v>17</v>
       </c>
       <c r="H114" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I114" t="str">
         <f t="shared" si="10"/>
@@ -4077,7 +4248,7 @@
         <v>15</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D115" t="str">
         <f t="shared" si="9"/>
@@ -4087,7 +4258,7 @@
         <v>17</v>
       </c>
       <c r="H115" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I115" t="str">
         <f t="shared" si="10"/>
@@ -4099,7 +4270,7 @@
         <v>15</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D116" t="str">
         <f t="shared" si="9"/>
@@ -4109,7 +4280,7 @@
         <v>17</v>
       </c>
       <c r="H116" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I116" t="str">
         <f t="shared" si="10"/>
@@ -4121,7 +4292,7 @@
         <v>15</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D117" t="str">
         <f t="shared" si="9"/>
@@ -4131,7 +4302,7 @@
         <v>17</v>
       </c>
       <c r="H117" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I117" t="str">
         <f t="shared" si="10"/>
@@ -4143,7 +4314,7 @@
         <v>15</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D118" t="str">
         <f t="shared" si="9"/>
@@ -4153,7 +4324,7 @@
         <v>17</v>
       </c>
       <c r="H118" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I118" t="str">
         <f t="shared" si="10"/>
@@ -4165,7 +4336,7 @@
         <v>15</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D119" t="str">
         <f t="shared" si="9"/>
@@ -4175,7 +4346,7 @@
         <v>17</v>
       </c>
       <c r="H119" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I119" t="str">
         <f t="shared" si="10"/>
@@ -4187,7 +4358,7 @@
         <v>15</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D120" t="str">
         <f t="shared" si="9"/>
@@ -4197,7 +4368,7 @@
         <v>17</v>
       </c>
       <c r="H120" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I120" t="str">
         <f t="shared" si="10"/>
@@ -4209,7 +4380,7 @@
         <v>15</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D121" t="str">
         <f t="shared" si="9"/>
@@ -4219,7 +4390,7 @@
         <v>17</v>
       </c>
       <c r="H121" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I121" t="str">
         <f t="shared" si="10"/>
@@ -4231,7 +4402,7 @@
         <v>15</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D122" t="str">
         <f t="shared" si="9"/>
@@ -4241,7 +4412,7 @@
         <v>17</v>
       </c>
       <c r="H122" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I122" t="str">
         <f t="shared" si="10"/>
@@ -4253,7 +4424,7 @@
         <v>15</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D123" t="str">
         <f t="shared" si="9"/>
@@ -4263,7 +4434,7 @@
         <v>17</v>
       </c>
       <c r="H123" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I123" t="str">
         <f t="shared" si="10"/>
@@ -4275,7 +4446,7 @@
         <v>15</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D124" t="str">
         <f t="shared" si="9"/>
@@ -4285,7 +4456,7 @@
         <v>17</v>
       </c>
       <c r="H124" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I124" t="str">
         <f t="shared" si="10"/>
@@ -4297,7 +4468,7 @@
         <v>15</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D125" t="str">
         <f t="shared" si="9"/>
@@ -4307,7 +4478,7 @@
         <v>17</v>
       </c>
       <c r="H125" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I125" t="str">
         <f t="shared" si="10"/>
@@ -4319,7 +4490,7 @@
         <v>15</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D126" t="str">
         <f t="shared" si="9"/>
@@ -4329,7 +4500,7 @@
         <v>17</v>
       </c>
       <c r="H126" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I126" t="str">
         <f t="shared" si="10"/>
@@ -4341,7 +4512,7 @@
         <v>15</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D127" t="str">
         <f t="shared" si="9"/>
@@ -4351,7 +4522,7 @@
         <v>17</v>
       </c>
       <c r="H127" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I127" t="str">
         <f t="shared" si="10"/>
@@ -4360,13 +4531,13 @@
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D128" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="G128" t="s">
+        <v>17</v>
+      </c>
+      <c r="H128" s="6" t="s">
         <v>349</v>
-      </c>
-      <c r="G128" t="s">
-        <v>17</v>
-      </c>
-      <c r="H128" s="6" t="s">
-        <v>358</v>
       </c>
       <c r="I128" t="str">
         <f t="shared" si="10"/>
@@ -4375,13 +4546,13 @@
     </row>
     <row r="129" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D129" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="G129" t="s">
+        <v>17</v>
+      </c>
+      <c r="H129" s="6" t="s">
         <v>350</v>
-      </c>
-      <c r="G129" t="s">
-        <v>17</v>
-      </c>
-      <c r="H129" s="6" t="s">
-        <v>359</v>
       </c>
       <c r="I129" t="str">
         <f t="shared" si="10"/>
@@ -4390,13 +4561,13 @@
     </row>
     <row r="130" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D130" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="G130" t="s">
+        <v>17</v>
+      </c>
+      <c r="H130" s="6" t="s">
         <v>351</v>
-      </c>
-      <c r="G130" t="s">
-        <v>17</v>
-      </c>
-      <c r="H130" s="6" t="s">
-        <v>360</v>
       </c>
       <c r="I130" t="str">
         <f t="shared" si="10"/>
@@ -4405,13 +4576,13 @@
     </row>
     <row r="131" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D131" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="G131" t="s">
+        <v>17</v>
+      </c>
+      <c r="H131" s="6" t="s">
         <v>352</v>
-      </c>
-      <c r="G131" t="s">
-        <v>17</v>
-      </c>
-      <c r="H131" s="6" t="s">
-        <v>361</v>
       </c>
       <c r="I131" t="str">
         <f t="shared" si="10"/>
@@ -4420,13 +4591,13 @@
     </row>
     <row r="132" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D132" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="G132" t="s">
+        <v>17</v>
+      </c>
+      <c r="H132" s="6" t="s">
         <v>353</v>
-      </c>
-      <c r="G132" t="s">
-        <v>17</v>
-      </c>
-      <c r="H132" s="6" t="s">
-        <v>362</v>
       </c>
       <c r="I132" t="str">
         <f t="shared" si="10"/>
@@ -4435,13 +4606,13 @@
     </row>
     <row r="133" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D133" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="G133" t="s">
+        <v>17</v>
+      </c>
+      <c r="H133" s="6" t="s">
         <v>354</v>
-      </c>
-      <c r="G133" t="s">
-        <v>17</v>
-      </c>
-      <c r="H133" s="6" t="s">
-        <v>363</v>
       </c>
       <c r="I133" t="str">
         <f t="shared" si="10"/>
@@ -4450,13 +4621,13 @@
     </row>
     <row r="134" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D134" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="G134" t="s">
+        <v>17</v>
+      </c>
+      <c r="H134" s="6" t="s">
         <v>355</v>
-      </c>
-      <c r="G134" t="s">
-        <v>17</v>
-      </c>
-      <c r="H134" s="6" t="s">
-        <v>364</v>
       </c>
       <c r="I134" t="str">
         <f t="shared" si="10"/>
@@ -4465,13 +4636,13 @@
     </row>
     <row r="135" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D135" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="G135" t="s">
+        <v>17</v>
+      </c>
+      <c r="H135" s="6" t="s">
         <v>356</v>
-      </c>
-      <c r="G135" t="s">
-        <v>17</v>
-      </c>
-      <c r="H135" s="6" t="s">
-        <v>365</v>
       </c>
       <c r="I135" t="str">
         <f t="shared" si="10"/>
@@ -4480,13 +4651,13 @@
     </row>
     <row r="136" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D136" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="G136" t="s">
+        <v>17</v>
+      </c>
+      <c r="H136" s="6" t="s">
         <v>357</v>
-      </c>
-      <c r="G136" t="s">
-        <v>17</v>
-      </c>
-      <c r="H136" s="6" t="s">
-        <v>366</v>
       </c>
       <c r="I136" t="str">
         <f t="shared" si="10"/>
@@ -4495,13 +4666,13 @@
     </row>
     <row r="138" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D138" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="H138" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="I138" t="str">
         <f>G138&amp;"/"&amp;H138&amp;".png"</f>
@@ -4510,13 +4681,13 @@
     </row>
     <row r="139" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D139" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="H139" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="I139" t="str">
         <f t="shared" ref="I139:I148" si="11">G139&amp;"/"&amp;H139&amp;".png"</f>
@@ -4525,13 +4696,13 @@
     </row>
     <row r="140" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D140" t="s">
+        <v>313</v>
+      </c>
+      <c r="G140" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="G140" s="7" t="s">
-        <v>331</v>
-      </c>
       <c r="H140" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="I140" t="str">
         <f t="shared" si="11"/>
@@ -4540,13 +4711,13 @@
     </row>
     <row r="141" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D141" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="H141" s="7" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="I141" t="str">
         <f t="shared" si="11"/>
@@ -4555,13 +4726,13 @@
     </row>
     <row r="142" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D142" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="H142" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="I142" t="str">
         <f t="shared" si="11"/>
@@ -4570,13 +4741,13 @@
     </row>
     <row r="143" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D143" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="H143" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="I143" t="str">
         <f t="shared" si="11"/>
@@ -4585,13 +4756,13 @@
     </row>
     <row r="144" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D144" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="H144" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="I144" t="str">
         <f t="shared" si="11"/>
@@ -4600,13 +4771,13 @@
     </row>
     <row r="145" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D145" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="G145" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="H145" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="I145" t="str">
         <f t="shared" si="11"/>
@@ -4615,13 +4786,13 @@
     </row>
     <row r="146" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D146" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="G146" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="H146" t="s">
         <v>331</v>
-      </c>
-      <c r="H146" t="s">
-        <v>340</v>
       </c>
       <c r="I146" t="str">
         <f t="shared" si="11"/>
@@ -4630,13 +4801,13 @@
     </row>
     <row r="147" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D147" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="G147" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="H147" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="I147" t="str">
         <f t="shared" si="11"/>
@@ -4645,13 +4816,13 @@
     </row>
     <row r="148" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D148" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="G148" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="H148" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="I148" t="str">
         <f t="shared" si="11"/>
@@ -4673,10 +4844,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:I23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4866,136 +5037,138 @@
         <v>Assets/ResAB/UI/Beginners_Guide/Beginners_Guide_img_guide4.png</v>
       </c>
     </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I10" s="3"/>
+    </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="C11" t="s">
-        <v>235</v>
+      <c r="C11" s="7" t="s">
+        <v>393</v>
       </c>
       <c r="D11" t="str">
         <f>B11&amp;"_"&amp;C11</f>
-        <v>ResIcon_Avatar01</v>
-      </c>
-      <c r="G11" t="s">
-        <v>236</v>
-      </c>
-      <c r="H11" t="s">
-        <v>237</v>
+        <v>ResIcon_BG1</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>398</v>
       </c>
       <c r="I11" s="3" t="str">
         <f>G11&amp;"/"&amp;H11</f>
-        <v>Assets/ResAB/UI/common/Common_img_avatar_01.png</v>
+        <v>Assets/ResAB/UI/BG/common_bg_Start_01.png</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" t="s">
-        <v>238</v>
+      <c r="C12" s="7" t="s">
+        <v>394</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" ref="D12:D15" si="2">B12&amp;"_"&amp;C12</f>
-        <v>ResIcon_Avatar02</v>
-      </c>
-      <c r="G12" t="s">
-        <v>236</v>
-      </c>
-      <c r="H12" t="s">
-        <v>239</v>
+        <f>B12&amp;"_"&amp;C12</f>
+        <v>ResIcon_BG2</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>399</v>
       </c>
       <c r="I12" s="3" t="str">
-        <f t="shared" ref="I12:I15" si="3">G12&amp;"/"&amp;H12</f>
-        <v>Assets/ResAB/UI/common/Common_img_avatar_02.png</v>
+        <f>G12&amp;"/"&amp;H12</f>
+        <v>Assets/ResAB/UI/BG/common_bg_Start_02.png</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="C13" t="s">
-        <v>240</v>
+      <c r="C13" s="7" t="s">
+        <v>395</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" si="2"/>
-        <v>ResIcon_Avatar03</v>
-      </c>
-      <c r="G13" t="s">
-        <v>236</v>
-      </c>
-      <c r="H13" t="s">
-        <v>241</v>
+        <f>B13&amp;"_"&amp;C13</f>
+        <v>ResIcon_BG3</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>400</v>
       </c>
       <c r="I13" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>Assets/ResAB/UI/common/Common_img_avatar_03.png</v>
+        <f>G13&amp;"/"&amp;H13</f>
+        <v>Assets/ResAB/UI/BG/common_bg_Start_03.png</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="C14" t="s">
-        <v>242</v>
+      <c r="C14" s="7" t="s">
+        <v>396</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="2"/>
-        <v>ResIcon_Avatar04</v>
-      </c>
-      <c r="G14" t="s">
+        <f t="shared" ref="D14" si="2">B14&amp;"_"&amp;C14</f>
+        <v>ResIcon_BG4</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="I14" s="3" t="str">
+        <f t="shared" ref="I14" si="3">G14&amp;"/"&amp;H14</f>
+        <v>Assets/ResAB/UI/BG/common_bg_Start_04.png</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>418</v>
+      </c>
+      <c r="G16" t="s">
         <v>236</v>
       </c>
-      <c r="H14" t="s">
-        <v>243</v>
-      </c>
-      <c r="I14" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>Assets/ResAB/UI/common/Common_img_avatar_04.png</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>244</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" si="2"/>
-        <v>ResIcon_Avatar05</v>
-      </c>
-      <c r="G15" t="s">
-        <v>236</v>
-      </c>
-      <c r="H15" t="s">
-        <v>245</v>
-      </c>
-      <c r="I15" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>Assets/ResAB/UI/common/Common_img_avatar_05.png</v>
+      <c r="H16" t="s">
+        <v>419</v>
+      </c>
+      <c r="I16" s="3" t="str">
+        <f>G16&amp;"/"&amp;H16</f>
+        <v>Assets/ResAB/UI/common/Common_img_avatar_logo.png</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>316</v>
+      <c r="C17" t="s">
+        <v>235</v>
       </c>
       <c r="D17" t="str">
         <f>B17&amp;"_"&amp;C17</f>
-        <v>ResIcon_AvatarFrame_None</v>
+        <v>ResIcon_Avatar01</v>
       </c>
       <c r="G17" t="s">
         <v>236</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>317</v>
+        <v>417</v>
       </c>
       <c r="I17" s="3" t="str">
         <f>G17&amp;"/"&amp;H17</f>
-        <v>Assets/ResAB/UI/common/Common_img_frame_None.png</v>
+        <v>Assets/ResAB/UI/common/Common_img_avatar_01.png</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
@@ -5003,21 +5176,21 @@
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>312</v>
+        <v>237</v>
       </c>
       <c r="D18" t="str">
-        <f>B18&amp;"_"&amp;C18</f>
-        <v>ResIcon_AvatarFrame01</v>
+        <f t="shared" ref="D18:D21" si="4">B18&amp;"_"&amp;C18</f>
+        <v>ResIcon_Avatar02</v>
       </c>
       <c r="G18" t="s">
         <v>236</v>
       </c>
       <c r="H18" t="s">
-        <v>308</v>
+        <v>238</v>
       </c>
       <c r="I18" s="3" t="str">
-        <f>G18&amp;"/"&amp;H18</f>
-        <v>Assets/ResAB/UI/common/Common_img_frame_01.png</v>
+        <f t="shared" ref="I18:I21" si="5">G18&amp;"/"&amp;H18</f>
+        <v>Assets/ResAB/UI/common/Common_img_avatar_02.png</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
@@ -5025,21 +5198,21 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>313</v>
+        <v>239</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" ref="D19:D21" si="4">B19&amp;"_"&amp;C19</f>
-        <v>ResIcon_AvatarFrame02</v>
+        <f t="shared" si="4"/>
+        <v>ResIcon_Avatar03</v>
       </c>
       <c r="G19" t="s">
         <v>236</v>
       </c>
       <c r="H19" t="s">
-        <v>309</v>
+        <v>240</v>
       </c>
       <c r="I19" s="3" t="str">
-        <f t="shared" ref="I19:I21" si="5">G19&amp;"/"&amp;H19</f>
-        <v>Assets/ResAB/UI/common/Common_img_frame_02.png</v>
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/common/Common_img_avatar_03.png</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
@@ -5047,21 +5220,21 @@
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>314</v>
+        <v>241</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="4"/>
-        <v>ResIcon_AvatarFrame03</v>
+        <v>ResIcon_Avatar04</v>
       </c>
       <c r="G20" t="s">
         <v>236</v>
       </c>
       <c r="H20" t="s">
-        <v>310</v>
+        <v>242</v>
       </c>
       <c r="I20" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>Assets/ResAB/UI/common/Common_img_frame_03.png</v>
+        <v>Assets/ResAB/UI/common/Common_img_avatar_04.png</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
@@ -5069,24 +5242,324 @@
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>315</v>
+        <v>243</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="4"/>
-        <v>ResIcon_AvatarFrame04</v>
+        <v>ResIcon_Avatar05</v>
       </c>
       <c r="G21" t="s">
         <v>236</v>
       </c>
       <c r="H21" t="s">
-        <v>311</v>
+        <v>244</v>
       </c>
       <c r="I21" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>Assets/ResAB/UI/common/Common_img_frame_04.png</v>
+        <v>Assets/ResAB/UI/common/Common_img_avatar_05.png</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>407</v>
+      </c>
+      <c r="D22" t="str">
+        <f>B22&amp;"_"&amp;C22</f>
+        <v>ResIcon_Avatar06</v>
+      </c>
+      <c r="G22" t="s">
+        <v>236</v>
+      </c>
+      <c r="H22" t="s">
+        <v>412</v>
+      </c>
+      <c r="I22" s="3" t="str">
+        <f>G22&amp;"/"&amp;H22</f>
+        <v>Assets/ResAB/UI/common/Common_img_avatar_06.png</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" t="s">
+        <v>408</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" ref="D23:D26" si="6">B23&amp;"_"&amp;C23</f>
+        <v>ResIcon_Avatar07</v>
+      </c>
+      <c r="G23" t="s">
+        <v>236</v>
+      </c>
+      <c r="H23" t="s">
+        <v>413</v>
+      </c>
+      <c r="I23" s="3" t="str">
+        <f t="shared" ref="I23:I26" si="7">G23&amp;"/"&amp;H23</f>
+        <v>Assets/ResAB/UI/common/Common_img_avatar_07.png</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>409</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="6"/>
+        <v>ResIcon_Avatar08</v>
+      </c>
+      <c r="G24" t="s">
+        <v>236</v>
+      </c>
+      <c r="H24" t="s">
+        <v>414</v>
+      </c>
+      <c r="I24" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>Assets/ResAB/UI/common/Common_img_avatar_08.png</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>410</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="6"/>
+        <v>ResIcon_Avatar09</v>
+      </c>
+      <c r="G25" t="s">
+        <v>236</v>
+      </c>
+      <c r="H25" t="s">
+        <v>415</v>
+      </c>
+      <c r="I25" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>Assets/ResAB/UI/common/Common_img_avatar_09.png</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" t="s">
+        <v>411</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="6"/>
+        <v>ResIcon_Avatar10</v>
+      </c>
+      <c r="G26" t="s">
+        <v>236</v>
+      </c>
+      <c r="H26" t="s">
+        <v>416</v>
+      </c>
+      <c r="I26" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>Assets/ResAB/UI/common/Common_img_avatar_10.png</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="D28" t="str">
+        <f>B28&amp;"_"&amp;C28</f>
+        <v>ResIcon_AvatarFrame_None</v>
+      </c>
+      <c r="G28" t="s">
+        <v>236</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="I28" s="3" t="str">
+        <f>G28&amp;"/"&amp;H28</f>
+        <v>Assets/ResAB/UI/common/Common_img_frame_None.png</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>358</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>359</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>360</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>361</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>364</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="36" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>365</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="37" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>366</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="38" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>367</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="39" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>368</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="40" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>369</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="42" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>374</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="43" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>375</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="44" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>376</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="45" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>377</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="46" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
+        <v>378</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="48" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>379</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="49" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
+        <v>380</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="50" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
+        <v>381</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="51" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
+        <v>382</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="52" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D52" t="s">
+        <v>383</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>406</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I48:I52">
+    <sortCondition descending="1" ref="I48:I52"/>
+  </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResIconCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResIconCfg.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ResConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CJ\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ResConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A847E02-1304-4366-B24B-C1E659218183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BB18BE-6AD2-4246-89F8-8050AD1610C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="404">
   <si>
     <t>##var</t>
   </si>
@@ -137,12 +137,6 @@
     <t>NULL</t>
   </si>
   <si>
-    <t>Assets/ResAB/UI/Icon</t>
-  </si>
-  <si>
-    <t>Icon_1.png</t>
-  </si>
-  <si>
     <t>Player1</t>
   </si>
   <si>
@@ -158,610 +152,307 @@
     <t>MachineGunTower_0</t>
   </si>
   <si>
-    <t>Icon_MachineGunTower_0.png</t>
-  </si>
-  <si>
     <t>LaserTower_0</t>
   </si>
   <si>
-    <t>Icon_LaserTower_0.png</t>
-  </si>
-  <si>
     <t>Hoverboss</t>
   </si>
   <si>
-    <t>Icon_Hoverboss.png</t>
-  </si>
-  <si>
     <t>Hoverbuggy</t>
   </si>
   <si>
-    <t>Icon_Hoverbuggy.png</t>
-  </si>
-  <si>
     <t>Hovercopter</t>
   </si>
   <si>
-    <t>Icon_Hovercopter.png</t>
-  </si>
-  <si>
     <t>Hovertank</t>
   </si>
   <si>
-    <t>Icon_Hovertank.png</t>
-  </si>
-  <si>
     <t>TowerMagicBall1</t>
   </si>
   <si>
-    <t>Icon_TowerMagicBall1.png</t>
-  </si>
-  <si>
     <t>TowerMagicBall2</t>
   </si>
   <si>
-    <t>Icon_TowerMagicBall2.png</t>
-  </si>
-  <si>
     <t>TowerMagicBall3</t>
   </si>
   <si>
-    <t>Icon_TowerMagicBall3.png</t>
-  </si>
-  <si>
     <t>TowerAlchemy1</t>
   </si>
   <si>
-    <t>Icon_TowerAlchemy1.png</t>
-  </si>
-  <si>
     <t>TowerAlchemy2</t>
   </si>
   <si>
-    <t>Icon_TowerAlchemy2.png</t>
-  </si>
-  <si>
     <t>TowerAlchemy3</t>
   </si>
   <si>
-    <t>Icon_TowerAlchemy3.png</t>
-  </si>
-  <si>
     <t>TowerScorpio1</t>
   </si>
   <si>
-    <t>Icon_TowerScorpio1.png</t>
-  </si>
-  <si>
     <t>TowerScorpio2</t>
   </si>
   <si>
-    <t>Icon_TowerScorpio2.png</t>
-  </si>
-  <si>
     <t>TowerScorpio3</t>
   </si>
   <si>
-    <t>Icon_TowerScorpio3.png</t>
-  </si>
-  <si>
     <t>TowerCurse1</t>
   </si>
   <si>
-    <t>Icon_TowerCurse1.png</t>
-  </si>
-  <si>
     <t>TowerCurse2</t>
   </si>
   <si>
-    <t>Icon_TowerCurse2.png</t>
-  </si>
-  <si>
     <t>TowerCurse3</t>
   </si>
   <si>
-    <t>Icon_TowerCurse3.png</t>
-  </si>
-  <si>
     <t>Towerwitch1</t>
   </si>
   <si>
-    <t>Icon_Towerwitch1.png</t>
-  </si>
-  <si>
     <t>Towerwitch2</t>
   </si>
   <si>
-    <t>Icon_Towerwitch2.png</t>
-  </si>
-  <si>
     <t>Towerwitch3</t>
   </si>
   <si>
-    <t>Icon_Towerwitch3.png</t>
-  </si>
-  <si>
     <t>TowerIceArrow1</t>
   </si>
   <si>
-    <t>Icon_TowerIceArrow1.png</t>
-  </si>
-  <si>
     <t>TowerIceArrow2</t>
   </si>
   <si>
-    <t>Icon_TowerIceArrow2.png</t>
-  </si>
-  <si>
     <t>TowerIceArrow3</t>
   </si>
   <si>
-    <t>Icon_TowerIceArrow3.png</t>
-  </si>
-  <si>
     <t>TowerWater1</t>
   </si>
   <si>
-    <t>Icon_TowerWater1.png</t>
-  </si>
-  <si>
     <t>TowerWater2</t>
   </si>
   <si>
-    <t>Icon_TowerWater2.png</t>
-  </si>
-  <si>
     <t>TowerWater3</t>
   </si>
   <si>
-    <t>Icon_TowerWater3.png</t>
-  </si>
-  <si>
     <t>TowerElectromagnetic1</t>
   </si>
   <si>
-    <t>Icon_TowerElectromagnetic1.png</t>
-  </si>
-  <si>
     <t>TowerElectromagnetic2</t>
   </si>
   <si>
-    <t>Icon_TowerElectromagnetic2.png</t>
-  </si>
-  <si>
     <t>TowerElectromagnetic3</t>
   </si>
   <si>
-    <t>Icon_TowerElectromagnetic3.png</t>
-  </si>
-  <si>
     <t>TowerFire1</t>
   </si>
   <si>
-    <t>Icon_TowerFire1.png</t>
-  </si>
-  <si>
     <t>TowerFire2</t>
   </si>
   <si>
-    <t>Icon_TowerFire2.png</t>
-  </si>
-  <si>
     <t>TowerFire3</t>
   </si>
   <si>
-    <t>Icon_TowerFire3.png</t>
-  </si>
-  <si>
     <t>TowerAoShu1</t>
   </si>
   <si>
-    <t>Icon_TowerAoShu1.png</t>
-  </si>
-  <si>
     <t>TowerAoShu2</t>
   </si>
   <si>
-    <t>Icon_TowerAoShu2.png</t>
-  </si>
-  <si>
     <t>TowerAoShu3</t>
   </si>
   <si>
-    <t>Icon_TowerAoShu3.png</t>
-  </si>
-  <si>
     <t>TowerLianJi1</t>
   </si>
   <si>
-    <t>Icon_TowerLianJi1.png</t>
-  </si>
-  <si>
     <t>TowerLianJi2</t>
   </si>
   <si>
-    <t>Icon_TowerLianJi2.png</t>
-  </si>
-  <si>
     <t>TowerLianJi3</t>
   </si>
   <si>
-    <t>Icon_TowerLianJi3.png</t>
-  </si>
-  <si>
     <t>TowerZaiE1</t>
   </si>
   <si>
-    <t>Icon_TowerZaiE1.png</t>
-  </si>
-  <si>
     <t>TowerZaiE2</t>
   </si>
   <si>
-    <t>Icon_TowerZaiE2.png</t>
-  </si>
-  <si>
     <t>TowerZaiE3</t>
   </si>
   <si>
-    <t>Icon_TowerZaiE3.png</t>
-  </si>
-  <si>
     <t>TowerGoblin1</t>
   </si>
   <si>
-    <t>Icon_TowerGoblin1.png</t>
-  </si>
-  <si>
     <t>TowerGoblin2</t>
   </si>
   <si>
-    <t>Icon_TowerGoblin2.png</t>
-  </si>
-  <si>
     <t>TowerGoblin3</t>
   </si>
   <si>
-    <t>Icon_TowerGoblin3.png</t>
-  </si>
-  <si>
     <t>TowerDuCi1</t>
   </si>
   <si>
-    <t>Icon_TowerDuCi1.png</t>
-  </si>
-  <si>
     <t>TowerDuCi2</t>
   </si>
   <si>
-    <t>Icon_TowerDuCi2.png</t>
-  </si>
-  <si>
     <t>TowerDuCi3</t>
   </si>
   <si>
-    <t>Icon_TowerDuCi3.png</t>
-  </si>
-  <si>
     <t>TowerRocket1</t>
   </si>
   <si>
-    <t>Icon_TowerRocket1.png</t>
-  </si>
-  <si>
     <t>TowerRocket2</t>
   </si>
   <si>
-    <t>Icon_TowerRocket2.png</t>
-  </si>
-  <si>
     <t>TowerRocket3</t>
   </si>
   <si>
-    <t>Icon_TowerRocket3.png</t>
-  </si>
-  <si>
     <t>TowerFireBall1</t>
   </si>
   <si>
-    <t>Icon_TowerFireBall1.png</t>
-  </si>
-  <si>
     <t>TowerFireBall2</t>
   </si>
   <si>
-    <t>Icon_TowerFireBall2.png</t>
-  </si>
-  <si>
     <t>TowerFireBall3</t>
   </si>
   <si>
-    <t>Icon_TowerFireBall3.png</t>
-  </si>
-  <si>
     <t>TowerArrowSolo1</t>
   </si>
   <si>
     <t>ResIcon_TowerArrowSolo1</t>
   </si>
   <si>
-    <t>Icon_TowerArrowSolo1.png</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UI/Icon/Icon_TowerArrowSolo1.png</t>
-  </si>
-  <si>
     <t>TowerArrowSolo2</t>
   </si>
   <si>
     <t>ResIcon_TowerArrowSolo2</t>
   </si>
   <si>
-    <t>Icon_TowerArrowSolo2.png</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UI/Icon/Icon_TowerArrowSolo2.png</t>
-  </si>
-  <si>
     <t>TowerArrowSolo3</t>
   </si>
   <si>
     <t>ResIcon_TowerArrowSolo3</t>
   </si>
   <si>
-    <t>Icon_TowerArrowSolo3.png</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UI/Icon/Icon_TowerArrowSolo3.png</t>
-  </si>
-  <si>
     <t>TowerCanon1</t>
   </si>
   <si>
     <t>ResIcon_TowerCanon1</t>
   </si>
   <si>
-    <t>Icon_TowerCanon1.png</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UI/Icon/Icon_TowerCanon1.png</t>
-  </si>
-  <si>
     <t>TowerCanon2</t>
   </si>
   <si>
     <t>ResIcon_TowerCanon2</t>
   </si>
   <si>
-    <t>Icon_TowerCanon2.png</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UI/Icon/Icon_TowerCanon2.png</t>
-  </si>
-  <si>
     <t>TowerCanon3</t>
   </si>
   <si>
     <t>ResIcon_TowerCanon3</t>
   </si>
   <si>
-    <t>Icon_TowerCanon3.png</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UI/Icon/Icon_TowerCanon3.png</t>
-  </si>
-  <si>
     <t>TowerDragon1</t>
   </si>
   <si>
     <t>ResIcon_TowerDragon1</t>
   </si>
   <si>
-    <t>Icon_TowerDragon1.png</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UI/Icon/Icon_TowerDragon1.png</t>
-  </si>
-  <si>
     <t>TowerDragon2</t>
   </si>
   <si>
     <t>ResIcon_TowerDragon2</t>
   </si>
   <si>
-    <t>Icon_TowerDragon2.png</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UI/Icon/Icon_TowerDragon2.png</t>
-  </si>
-  <si>
     <t>TowerDragon3</t>
   </si>
   <si>
     <t>ResIcon_TowerDragon3</t>
   </si>
   <si>
-    <t>Icon_TowerDragon3.png</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UI/Icon/Icon_TowerDragon3.png</t>
-  </si>
-  <si>
     <t>TowerElec1</t>
   </si>
   <si>
     <t>ResIcon_TowerElec1</t>
   </si>
   <si>
-    <t>Icon_TowerElec1.png</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UI/Icon/Icon_TowerElec1.png</t>
-  </si>
-  <si>
     <t>TowerElec2</t>
   </si>
   <si>
     <t>ResIcon_TowerElec2</t>
   </si>
   <si>
-    <t>Icon_TowerElec2.png</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UI/Icon/Icon_TowerElec2.png</t>
-  </si>
-  <si>
     <t>TowerElec3</t>
   </si>
   <si>
     <t>ResIcon_TowerElec3</t>
   </si>
   <si>
-    <t>Icon_TowerElec3.png</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UI/Icon/Icon_TowerElec3.png</t>
-  </si>
-  <si>
     <t>TowerIce1</t>
   </si>
   <si>
     <t>ResIcon_TowerIce1</t>
   </si>
   <si>
-    <t>Icon_TowerIce1.png</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UI/Icon/Icon_TowerIce1.png</t>
-  </si>
-  <si>
     <t>TowerIce2</t>
   </si>
   <si>
     <t>ResIcon_TowerIce2</t>
   </si>
   <si>
-    <t>Icon_TowerIce2.png</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UI/Icon/Icon_TowerIce2.png</t>
-  </si>
-  <si>
     <t>TowerIce3</t>
   </si>
   <si>
     <t>ResIcon_TowerIce3</t>
   </si>
   <si>
-    <t>Icon_TowerIce3.png</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UI/Icon/Icon_TowerIce3.png</t>
-  </si>
-  <si>
     <t>TowerTime1</t>
   </si>
   <si>
     <t>ResIcon_TowerTime1</t>
   </si>
   <si>
-    <t>Icon_TowerTime1.png</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UI/Icon/Icon_TowerTime1.png</t>
-  </si>
-  <si>
     <t>TowerTime2</t>
   </si>
   <si>
     <t>ResIcon_TowerTime2</t>
   </si>
   <si>
-    <t>Icon_TowerTime2.png</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UI/Icon/Icon_TowerTime2.png</t>
-  </si>
-  <si>
     <t>TowerTime3</t>
   </si>
   <si>
     <t>ResIcon_TowerTime3</t>
   </si>
   <si>
-    <t>Icon_TowerTime3.png</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UI/Icon/Icon_TowerTime3.png</t>
-  </si>
-  <si>
     <t>TowerFireLine1</t>
   </si>
   <si>
     <t>ResIcon_TowerFireLine1</t>
   </si>
   <si>
-    <t>Icon_TowerFireLine1.png</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UI/Icon/Icon_TowerFireLine1.png</t>
-  </si>
-  <si>
     <t>TowerFireLine2</t>
   </si>
   <si>
     <t>ResIcon_TowerFireLine2</t>
   </si>
   <si>
-    <t>Icon_TowerFireLine2.png</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UI/Icon/Icon_TowerFireLine2.png</t>
-  </si>
-  <si>
     <t>TowerFireLine3</t>
   </si>
   <si>
     <t>ResIcon_TowerFireLine3</t>
   </si>
   <si>
-    <t>Icon_TowerFireLine3.png</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UI/Icon/Icon_TowerFireLine3.png</t>
-  </si>
-  <si>
     <t>TowerDragCircle1</t>
   </si>
   <si>
     <t>ResIcon_TowerDragCircle1</t>
   </si>
   <si>
-    <t>Icon_TowerDragCircle1.png</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UI/Icon/Icon_TowerDragCircle1.png</t>
-  </si>
-  <si>
     <t>TowerDragCircle2</t>
   </si>
   <si>
     <t>ResIcon_TowerDragCircle2</t>
   </si>
   <si>
-    <t>Icon_TowerDragCircle2.png</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UI/Icon/Icon_TowerDragCircle2.png</t>
-  </si>
-  <si>
     <t>TowerDragCircle3</t>
   </si>
   <si>
     <t>ResIcon_TowerDragCircle3</t>
-  </si>
-  <si>
-    <t>Icon_TowerDragCircle3.png</t>
   </si>
   <si>
     <t>Beginners_Guide1</t>
@@ -952,10 +643,6 @@
   </si>
   <si>
     <t>Icon_Monster_Niao3</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UI/Icon/Icon_TowerDragCircle3.png</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1027,34 +714,10 @@
     </r>
   </si>
   <si>
-    <t>Icon_TowerBomb1.png</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon_TowerBomb2.png</t>
-  </si>
-  <si>
-    <t>Icon_TowerBomb3.png</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UI/Icon/Icon_TowerBomb1.png</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/ResAB/UI/Icon/Icon_TowerBomb2.png</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UI/Icon/Icon_TowerBomb3.png</t>
-  </si>
-  <si>
     <t>Infinite</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Icon_Infinite.png</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>ResIcon_PVP</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1071,22 +734,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Icon_PVP.png</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon_card.png</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon_battle.png</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon_discord.png</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>AvatarFrame_None</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1096,10 +743,6 @@
   </si>
   <si>
     <t>ResIcon_Diamond_Common</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/ResAB/UI/Icon/Icon_common_diamond.png</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1162,10 +805,6 @@
     <t>Season_icon_damage</t>
   </si>
   <si>
-    <t>Season_icon_towercost</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Season_icon_HQHP</t>
   </si>
   <si>
@@ -1197,16 +836,6 @@
     <t>ResIcon_TowerGolem3</t>
   </si>
   <si>
-    <t>Assets/ResAB/UI/Icon/Icon_TowerGolem1.png</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/ResAB/UI/Icon/Icon_TowerGolem2.png</t>
-  </si>
-  <si>
-    <t>Assets/ResAB/UI/Icon/Icon_TowerGolem3.png</t>
-  </si>
-  <si>
     <t>ResIcon_Monster_Rou1</t>
   </si>
   <si>
@@ -1455,6 +1084,330 @@
   </si>
   <si>
     <t>Common_img_avatar_logo.png</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Icon@dynamic</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_TowerGolem1</t>
+  </si>
+  <si>
+    <t>Icon_TowerGolem2</t>
+  </si>
+  <si>
+    <t>Icon_TowerGolem3</t>
+  </si>
+  <si>
+    <t>Icon_1</t>
+  </si>
+  <si>
+    <t>Icon_MachineGunTower_0</t>
+  </si>
+  <si>
+    <t>Icon_LaserTower_0</t>
+  </si>
+  <si>
+    <t>Icon_Hoverboss</t>
+  </si>
+  <si>
+    <t>Icon_Hoverbuggy</t>
+  </si>
+  <si>
+    <t>Icon_Hovercopter</t>
+  </si>
+  <si>
+    <t>Icon_Hovertank</t>
+  </si>
+  <si>
+    <t>Icon_Infinite</t>
+  </si>
+  <si>
+    <t>Icon_PVP</t>
+  </si>
+  <si>
+    <t>Icon_card</t>
+  </si>
+  <si>
+    <t>Icon_battle</t>
+  </si>
+  <si>
+    <t>Icon_discord</t>
+  </si>
+  <si>
+    <t>Icon_common_diamond</t>
+  </si>
+  <si>
+    <t>Icon_TowerMagicBall1</t>
+  </si>
+  <si>
+    <t>Icon_TowerMagicBall2</t>
+  </si>
+  <si>
+    <t>Icon_TowerMagicBall3</t>
+  </si>
+  <si>
+    <t>Icon_TowerAlchemy1</t>
+  </si>
+  <si>
+    <t>Icon_TowerAlchemy2</t>
+  </si>
+  <si>
+    <t>Icon_TowerAlchemy3</t>
+  </si>
+  <si>
+    <t>Icon_TowerScorpio1</t>
+  </si>
+  <si>
+    <t>Icon_TowerScorpio2</t>
+  </si>
+  <si>
+    <t>Icon_TowerScorpio3</t>
+  </si>
+  <si>
+    <t>Icon_TowerCurse1</t>
+  </si>
+  <si>
+    <t>Icon_TowerCurse2</t>
+  </si>
+  <si>
+    <t>Icon_TowerCurse3</t>
+  </si>
+  <si>
+    <t>Icon_Towerwitch1</t>
+  </si>
+  <si>
+    <t>Icon_Towerwitch2</t>
+  </si>
+  <si>
+    <t>Icon_Towerwitch3</t>
+  </si>
+  <si>
+    <t>Icon_TowerIceArrow1</t>
+  </si>
+  <si>
+    <t>Icon_TowerIceArrow2</t>
+  </si>
+  <si>
+    <t>Icon_TowerIceArrow3</t>
+  </si>
+  <si>
+    <t>Icon_TowerWater1</t>
+  </si>
+  <si>
+    <t>Icon_TowerWater2</t>
+  </si>
+  <si>
+    <t>Icon_TowerWater3</t>
+  </si>
+  <si>
+    <t>Icon_TowerElectromagnetic1</t>
+  </si>
+  <si>
+    <t>Icon_TowerElectromagnetic2</t>
+  </si>
+  <si>
+    <t>Icon_TowerElectromagnetic3</t>
+  </si>
+  <si>
+    <t>Icon_TowerFire1</t>
+  </si>
+  <si>
+    <t>Icon_TowerFire2</t>
+  </si>
+  <si>
+    <t>Icon_TowerFire3</t>
+  </si>
+  <si>
+    <t>Icon_TowerAoShu1</t>
+  </si>
+  <si>
+    <t>Icon_TowerAoShu2</t>
+  </si>
+  <si>
+    <t>Icon_TowerAoShu3</t>
+  </si>
+  <si>
+    <t>Icon_TowerLianJi1</t>
+  </si>
+  <si>
+    <t>Icon_TowerLianJi2</t>
+  </si>
+  <si>
+    <t>Icon_TowerLianJi3</t>
+  </si>
+  <si>
+    <t>Icon_TowerZaiE1</t>
+  </si>
+  <si>
+    <t>Icon_TowerZaiE2</t>
+  </si>
+  <si>
+    <t>Icon_TowerZaiE3</t>
+  </si>
+  <si>
+    <t>Icon_TowerGoblin1</t>
+  </si>
+  <si>
+    <t>Icon_TowerGoblin2</t>
+  </si>
+  <si>
+    <t>Icon_TowerGoblin3</t>
+  </si>
+  <si>
+    <t>Icon_TowerDuCi1</t>
+  </si>
+  <si>
+    <t>Icon_TowerDuCi2</t>
+  </si>
+  <si>
+    <t>Icon_TowerDuCi3</t>
+  </si>
+  <si>
+    <t>Icon_TowerRocket1</t>
+  </si>
+  <si>
+    <t>Icon_TowerRocket2</t>
+  </si>
+  <si>
+    <t>Icon_TowerRocket3</t>
+  </si>
+  <si>
+    <t>Icon_TowerFireBall1</t>
+  </si>
+  <si>
+    <t>Icon_TowerFireBall2</t>
+  </si>
+  <si>
+    <t>Icon_TowerFireBall3</t>
+  </si>
+  <si>
+    <t>Icon_TowerArrowSolo1</t>
+  </si>
+  <si>
+    <t>Icon_TowerArrowSolo2</t>
+  </si>
+  <si>
+    <t>Icon_TowerArrowSolo3</t>
+  </si>
+  <si>
+    <t>Icon_TowerCanon1</t>
+  </si>
+  <si>
+    <t>Icon_TowerCanon2</t>
+  </si>
+  <si>
+    <t>Icon_TowerCanon3</t>
+  </si>
+  <si>
+    <t>Icon_TowerDragon1</t>
+  </si>
+  <si>
+    <t>Icon_TowerDragon2</t>
+  </si>
+  <si>
+    <t>Icon_TowerDragon3</t>
+  </si>
+  <si>
+    <t>Icon_TowerElec1</t>
+  </si>
+  <si>
+    <t>Icon_TowerElec2</t>
+  </si>
+  <si>
+    <t>Icon_TowerElec3</t>
+  </si>
+  <si>
+    <t>Icon_TowerIce1</t>
+  </si>
+  <si>
+    <t>Icon_TowerIce2</t>
+  </si>
+  <si>
+    <t>Icon_TowerIce3</t>
+  </si>
+  <si>
+    <t>Icon_TowerTime1</t>
+  </si>
+  <si>
+    <t>Icon_TowerTime2</t>
+  </si>
+  <si>
+    <t>Icon_TowerTime3</t>
+  </si>
+  <si>
+    <t>Icon_TowerFireLine1</t>
+  </si>
+  <si>
+    <t>Icon_TowerFireLine2</t>
+  </si>
+  <si>
+    <t>Icon_TowerFireLine3</t>
+  </si>
+  <si>
+    <t>Icon_TowerDragCircle1</t>
+  </si>
+  <si>
+    <t>Icon_TowerDragCircle2</t>
+  </si>
+  <si>
+    <t>Icon_TowerDragCircle3</t>
+  </si>
+  <si>
+    <t>Icon_TowerBomb1</t>
+  </si>
+  <si>
+    <t>Icon_TowerBomb2</t>
+  </si>
+  <si>
+    <t>Icon_TowerBomb3</t>
+  </si>
+  <si>
+    <t>Season_icon_towercost</t>
+  </si>
+  <si>
+    <t>ResIcon_Skill_Function1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Season</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Skill</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResIcon_Skill_Function3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResIcon_Skill_Function2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_Hoverbuggy</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_Hovercopter</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_Hoverboss</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Skill/Icon_Hoverboss.png</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Skill/Icon_Hoverbuggy.png</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Skill/Icon_Hovercopter.png</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1580,7 +1533,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
@@ -1592,6 +1545,8 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -1890,29 +1845,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA148"/>
+  <dimension ref="A1:AA152"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="5" topLeftCell="E120" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="N46" sqref="N46"/>
+      <selection pane="bottomRight" activeCell="I152" sqref="I152"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.25" customWidth="1"/>
-    <col min="2" max="2" width="4.25" customWidth="1"/>
-    <col min="3" max="3" width="6.125" customWidth="1"/>
-    <col min="4" max="4" width="39.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="39.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="14.625" customWidth="1"/>
-    <col min="7" max="7" width="31.375" customWidth="1"/>
-    <col min="8" max="8" width="20.625" customWidth="1"/>
-    <col min="9" max="9" width="19.625" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="31.33203125" customWidth="1"/>
+    <col min="8" max="8" width="27.109375" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1951,7 +1906,7 @@
       <c r="Z1"/>
       <c r="AA1"/>
     </row>
-    <row r="2" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1982,7 +1937,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -2021,7 +1976,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -2054,7 +2009,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -2093,7 +2048,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>15</v>
       </c>
@@ -2105,17 +2060,17 @@
         <v>ResIcon_NULL</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>300</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="3" t="str">
-        <f>G6&amp;"/"&amp;H6</f>
-        <v>Assets/ResAB/UI/Icon/Icon_1.png</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+      <c r="I6" t="str">
+        <f>G6&amp;"/"&amp;H6&amp;".png"</f>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_1.png</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>15</v>
       </c>
@@ -2127,2706 +2082,2814 @@
         <v>ResIcon_1</v>
       </c>
       <c r="G7" t="s">
+        <v>300</v>
+      </c>
+      <c r="H7" t="s">
+        <v>304</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" ref="I7:I70" si="0">G7&amp;"/"&amp;H7&amp;".png"</f>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_1.png</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
         <v>17</v>
-      </c>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="3" t="str">
-        <f>G7&amp;"/"&amp;H7</f>
-        <v>Assets/ResAB/UI/Icon/Icon_1.png</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
       </c>
       <c r="D8" t="str">
         <f>B8&amp;"_"&amp;C8</f>
         <v>ResIcon_Player1</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>300</v>
       </c>
       <c r="H8" t="s">
+        <v>304</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_1.png</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="3" t="str">
-        <f>G8&amp;"/"&amp;H8</f>
-        <v>Assets/ResAB/UI/Icon/Icon_1.png</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" t="str">
+        <f t="shared" ref="D9:D18" si="1">B9&amp;"_"&amp;C9</f>
+        <v>ResIcon_Monster1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>300</v>
+      </c>
+      <c r="H9" t="s">
+        <v>304</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_1.png</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v>ResIcon_HeadQuarter1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>300</v>
+      </c>
+      <c r="H10" t="s">
+        <v>304</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_1.png</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
         <v>20</v>
-      </c>
-      <c r="D9" t="str">
-        <f t="shared" ref="D9:D18" si="0">B9&amp;"_"&amp;C9</f>
-        <v>ResIcon_Monster1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="3" t="str">
-        <f t="shared" ref="I9:I18" si="1">G9&amp;"/"&amp;H9</f>
-        <v>Assets/ResAB/UI/Icon/Icon_1.png</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="str">
-        <f t="shared" si="0"/>
-        <v>ResIcon_HeadQuarter1</v>
-      </c>
-      <c r="G10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Assets/ResAB/UI/Icon/Icon_1.png</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" ref="D11" si="2">B11&amp;"_"&amp;C11</f>
         <v>ResIcon_MonsterCall</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>300</v>
       </c>
       <c r="H11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="3" t="str">
-        <f t="shared" ref="I11" si="3">G11&amp;"/"&amp;H11</f>
-        <v>Assets/ResAB/UI/Icon/Icon_1.png</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_1.png</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v>ResIcon_MachineGunTower_0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>300</v>
+      </c>
+      <c r="H13" t="s">
+        <v>305</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_MachineGunTower_0.png</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v>ResIcon_LaserTower_0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>300</v>
+      </c>
+      <c r="H14" t="s">
+        <v>306</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="0"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_LaserTower_0.png</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="str">
-        <f t="shared" si="0"/>
-        <v>ResIcon_MachineGunTower_0</v>
-      </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="D15" t="str">
+        <f t="shared" si="1"/>
+        <v>ResIcon_Hoverboss</v>
+      </c>
+      <c r="G15" t="s">
+        <v>300</v>
+      </c>
+      <c r="H15" t="s">
+        <v>307</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="0"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_Hoverboss.png</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="3" t="str">
+      <c r="D16" t="str">
         <f t="shared" si="1"/>
-        <v>Assets/ResAB/UI/Icon/Icon_MachineGunTower_0.png</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
+        <v>ResIcon_Hoverbuggy</v>
+      </c>
+      <c r="G16" t="s">
+        <v>300</v>
+      </c>
+      <c r="H16" t="s">
+        <v>308</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="0"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_Hoverbuggy.png</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
         <v>25</v>
       </c>
-      <c r="D14" t="str">
-        <f t="shared" si="0"/>
-        <v>ResIcon_LaserTower_0</v>
-      </c>
-      <c r="G14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="D17" t="str">
+        <f t="shared" si="1"/>
+        <v>ResIcon_Hovercopter</v>
+      </c>
+      <c r="G17" t="s">
+        <v>300</v>
+      </c>
+      <c r="H17" t="s">
+        <v>309</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="0"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_Hovercopter.png</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="3" t="str">
+      <c r="D18" t="str">
         <f t="shared" si="1"/>
-        <v>Assets/ResAB/UI/Icon/Icon_LaserTower_0.png</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" si="0"/>
-        <v>ResIcon_Hoverboss</v>
-      </c>
-      <c r="G15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Assets/ResAB/UI/Icon/Icon_Hoverboss.png</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" t="str">
-        <f t="shared" si="0"/>
-        <v>ResIcon_Hoverbuggy</v>
-      </c>
-      <c r="G16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" t="s">
-        <v>30</v>
-      </c>
-      <c r="I16" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Assets/ResAB/UI/Icon/Icon_Hoverbuggy.png</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" t="str">
-        <f t="shared" si="0"/>
-        <v>ResIcon_Hovercopter</v>
-      </c>
-      <c r="G17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Assets/ResAB/UI/Icon/Icon_Hovercopter.png</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" t="str">
-        <f t="shared" si="0"/>
         <v>ResIcon_Hovertank</v>
       </c>
       <c r="G18" t="s">
-        <v>17</v>
+        <v>300</v>
       </c>
       <c r="H18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I18" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Assets/ResAB/UI/Icon/Icon_Hovertank.png</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+        <v>310</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="0"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_Hovertank.png</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>297</v>
+        <v>187</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" ref="D19" si="4">B19&amp;"_"&amp;C19</f>
+        <f t="shared" ref="D19" si="3">B19&amp;"_"&amp;C19</f>
         <v>ResIcon_Infinite</v>
       </c>
       <c r="G19" t="s">
-        <v>17</v>
+        <v>300</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="I19" s="3" t="str">
-        <f t="shared" ref="I19" si="5">G19&amp;"/"&amp;H19</f>
-        <v>Assets/ResAB/UI/Icon/Icon_Infinite.png</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+        <v>311</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="0"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_Infinite.png</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C20" s="7"/>
       <c r="D20" s="7" t="s">
-        <v>299</v>
+        <v>188</v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>300</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="I20" s="3" t="str">
-        <f t="shared" ref="I20:I23" si="6">G20&amp;"/"&amp;H20</f>
-        <v>Assets/ResAB/UI/Icon/Icon_PVP.png</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+        <v>312</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="0"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_PVP.png</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C21" s="7"/>
       <c r="D21" s="7" t="s">
-        <v>300</v>
+        <v>189</v>
       </c>
       <c r="G21" t="s">
-        <v>17</v>
+        <v>300</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="I21" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>Assets/ResAB/UI/Icon/Icon_card.png</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="0"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_card.png</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C22" s="7"/>
       <c r="D22" s="7" t="s">
-        <v>301</v>
+        <v>190</v>
       </c>
       <c r="G22" t="s">
-        <v>17</v>
+        <v>300</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="I22" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>Assets/ResAB/UI/Icon/Icon_battle.png</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="0"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_battle.png</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C23" s="7"/>
       <c r="D23" s="7" t="s">
-        <v>302</v>
+        <v>191</v>
       </c>
       <c r="G23" t="s">
-        <v>17</v>
+        <v>300</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="I23" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>Assets/ResAB/UI/Icon/Icon_discord.png</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="0"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_discord.png</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
+      <c r="G24" s="9"/>
       <c r="H24" s="7"/>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>309</v>
-      </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="G25" t="s">
+        <v>300</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="0"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_common_diamond.png</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G26" s="9"/>
       <c r="H26" s="7"/>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>15</v>
       </c>
       <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" ref="D27:D74" si="4">B27&amp;"_"&amp;C27</f>
+        <v>ResIcon_TowerMagicBall1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>300</v>
+      </c>
+      <c r="H27" t="s">
+        <v>317</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="0"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerMagicBall1.png</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerMagicBall2</v>
+      </c>
+      <c r="G28" t="s">
+        <v>300</v>
+      </c>
+      <c r="H28" t="s">
+        <v>318</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="0"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerMagicBall2.png</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerMagicBall3</v>
+      </c>
+      <c r="G29" t="s">
+        <v>300</v>
+      </c>
+      <c r="H29" t="s">
+        <v>319</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="0"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerMagicBall3.png</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerAlchemy1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>300</v>
+      </c>
+      <c r="H30" t="s">
+        <v>320</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="0"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerAlchemy1.png</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerAlchemy2</v>
+      </c>
+      <c r="G31" t="s">
+        <v>300</v>
+      </c>
+      <c r="H31" t="s">
+        <v>321</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="0"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerAlchemy2.png</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerAlchemy3</v>
+      </c>
+      <c r="G32" t="s">
+        <v>300</v>
+      </c>
+      <c r="H32" t="s">
+        <v>322</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="0"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerAlchemy3.png</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerScorpio1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>300</v>
+      </c>
+      <c r="H33" t="s">
+        <v>323</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="0"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerScorpio1.png</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerScorpio2</v>
+      </c>
+      <c r="G34" t="s">
+        <v>300</v>
+      </c>
+      <c r="H34" t="s">
+        <v>324</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="0"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerScorpio2.png</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
         <v>35</v>
       </c>
-      <c r="D27" t="str">
-        <f t="shared" ref="D27:D74" si="7">B27&amp;"_"&amp;C27</f>
-        <v>ResIcon_TowerMagicBall1</v>
-      </c>
-      <c r="G27" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="D35" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerScorpio3</v>
+      </c>
+      <c r="G35" t="s">
+        <v>300</v>
+      </c>
+      <c r="H35" t="s">
+        <v>325</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="0"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerScorpio3.png</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
         <v>36</v>
       </c>
-      <c r="I27" s="3" t="str">
-        <f t="shared" ref="I27:I74" si="8">G27&amp;"/"&amp;H27</f>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerMagicBall1.png</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="D36" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerCurse1</v>
+      </c>
+      <c r="G36" t="s">
+        <v>300</v>
+      </c>
+      <c r="H36" t="s">
+        <v>326</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="0"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerCurse1.png</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
         <v>37</v>
       </c>
-      <c r="D28" t="str">
-        <f t="shared" si="7"/>
-        <v>ResIcon_TowerMagicBall2</v>
-      </c>
-      <c r="G28" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="D37" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerCurse2</v>
+      </c>
+      <c r="G37" t="s">
+        <v>300</v>
+      </c>
+      <c r="H37" t="s">
+        <v>327</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="0"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerCurse2.png</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
         <v>38</v>
       </c>
-      <c r="I28" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerMagicBall2.png</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="D38" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerCurse3</v>
+      </c>
+      <c r="G38" t="s">
+        <v>300</v>
+      </c>
+      <c r="H38" t="s">
+        <v>328</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="0"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerCurse3.png</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" t="s">
         <v>39</v>
       </c>
-      <c r="D29" t="str">
-        <f t="shared" si="7"/>
-        <v>ResIcon_TowerMagicBall3</v>
-      </c>
-      <c r="G29" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="D39" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_Towerwitch1</v>
+      </c>
+      <c r="G39" t="s">
+        <v>300</v>
+      </c>
+      <c r="H39" t="s">
+        <v>329</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="0"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_Towerwitch1.png</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" t="s">
         <v>40</v>
       </c>
-      <c r="I29" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerMagicBall3.png</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="D40" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_Towerwitch2</v>
+      </c>
+      <c r="G40" t="s">
+        <v>300</v>
+      </c>
+      <c r="H40" t="s">
+        <v>330</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="0"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_Towerwitch2.png</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" t="s">
         <v>41</v>
       </c>
-      <c r="D30" t="str">
-        <f t="shared" si="7"/>
-        <v>ResIcon_TowerAlchemy1</v>
-      </c>
-      <c r="G30" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" t="s">
+      <c r="D41" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_Towerwitch3</v>
+      </c>
+      <c r="G41" t="s">
+        <v>300</v>
+      </c>
+      <c r="H41" t="s">
+        <v>331</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="0"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_Towerwitch3.png</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" t="s">
         <v>42</v>
       </c>
-      <c r="I30" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerAlchemy1.png</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="D42" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerIceArrow1</v>
+      </c>
+      <c r="G42" t="s">
+        <v>300</v>
+      </c>
+      <c r="H42" t="s">
+        <v>332</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="0"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerIceArrow1.png</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" t="s">
         <v>43</v>
       </c>
-      <c r="D31" t="str">
-        <f t="shared" si="7"/>
-        <v>ResIcon_TowerAlchemy2</v>
-      </c>
-      <c r="G31" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="D43" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerIceArrow2</v>
+      </c>
+      <c r="G43" t="s">
+        <v>300</v>
+      </c>
+      <c r="H43" t="s">
+        <v>333</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="0"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerIceArrow2.png</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" t="s">
         <v>44</v>
       </c>
-      <c r="I31" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerAlchemy2.png</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="D44" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerIceArrow3</v>
+      </c>
+      <c r="G44" t="s">
+        <v>300</v>
+      </c>
+      <c r="H44" t="s">
+        <v>334</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="0"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerIceArrow3.png</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" t="s">
         <v>45</v>
       </c>
-      <c r="D32" t="str">
-        <f t="shared" si="7"/>
-        <v>ResIcon_TowerAlchemy3</v>
-      </c>
-      <c r="G32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32" t="s">
+      <c r="D45" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerWater1</v>
+      </c>
+      <c r="G45" t="s">
+        <v>300</v>
+      </c>
+      <c r="H45" t="s">
+        <v>335</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="0"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerWater1.png</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" t="s">
         <v>46</v>
       </c>
-      <c r="I32" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerAlchemy3.png</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="D46" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerWater2</v>
+      </c>
+      <c r="G46" t="s">
+        <v>300</v>
+      </c>
+      <c r="H46" t="s">
+        <v>336</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="0"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerWater2.png</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" t="s">
         <v>47</v>
       </c>
-      <c r="D33" t="str">
-        <f t="shared" si="7"/>
-        <v>ResIcon_TowerScorpio1</v>
-      </c>
-      <c r="G33" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33" t="s">
+      <c r="D47" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerWater3</v>
+      </c>
+      <c r="G47" t="s">
+        <v>300</v>
+      </c>
+      <c r="H47" t="s">
+        <v>337</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="0"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerWater3.png</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" t="s">
         <v>48</v>
       </c>
-      <c r="I33" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerScorpio1.png</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="D48" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerElectromagnetic1</v>
+      </c>
+      <c r="G48" t="s">
+        <v>300</v>
+      </c>
+      <c r="H48" t="s">
+        <v>338</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="0"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerElectromagnetic1.png</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" t="s">
         <v>49</v>
       </c>
-      <c r="D34" t="str">
-        <f t="shared" si="7"/>
-        <v>ResIcon_TowerScorpio2</v>
-      </c>
-      <c r="G34" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34" t="s">
+      <c r="D49" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerElectromagnetic2</v>
+      </c>
+      <c r="G49" t="s">
+        <v>300</v>
+      </c>
+      <c r="H49" t="s">
+        <v>339</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="0"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerElectromagnetic2.png</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" t="s">
         <v>50</v>
       </c>
-      <c r="I34" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerScorpio2.png</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="D50" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerElectromagnetic3</v>
+      </c>
+      <c r="G50" t="s">
+        <v>300</v>
+      </c>
+      <c r="H50" t="s">
+        <v>340</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="0"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerElectromagnetic3.png</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" t="s">
         <v>51</v>
       </c>
-      <c r="D35" t="str">
-        <f t="shared" si="7"/>
-        <v>ResIcon_TowerScorpio3</v>
-      </c>
-      <c r="G35" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" t="s">
+      <c r="D51" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerFire1</v>
+      </c>
+      <c r="G51" t="s">
+        <v>300</v>
+      </c>
+      <c r="H51" t="s">
+        <v>341</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" si="0"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerFire1.png</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" t="s">
         <v>52</v>
       </c>
-      <c r="I35" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerScorpio3.png</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="D52" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerFire2</v>
+      </c>
+      <c r="G52" t="s">
+        <v>300</v>
+      </c>
+      <c r="H52" t="s">
+        <v>342</v>
+      </c>
+      <c r="I52" t="str">
+        <f t="shared" si="0"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerFire2.png</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" t="s">
         <v>53</v>
       </c>
-      <c r="D36" t="str">
-        <f t="shared" si="7"/>
-        <v>ResIcon_TowerCurse1</v>
-      </c>
-      <c r="G36" t="s">
-        <v>17</v>
-      </c>
-      <c r="H36" t="s">
+      <c r="D53" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerFire3</v>
+      </c>
+      <c r="G53" t="s">
+        <v>300</v>
+      </c>
+      <c r="H53" t="s">
+        <v>343</v>
+      </c>
+      <c r="I53" t="str">
+        <f t="shared" si="0"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerFire3.png</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" t="s">
         <v>54</v>
       </c>
-      <c r="I36" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerCurse1.png</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="D54" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerAoShu1</v>
+      </c>
+      <c r="G54" t="s">
+        <v>300</v>
+      </c>
+      <c r="H54" t="s">
+        <v>344</v>
+      </c>
+      <c r="I54" t="str">
+        <f t="shared" si="0"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerAoShu1.png</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" t="s">
         <v>55</v>
       </c>
-      <c r="D37" t="str">
-        <f t="shared" si="7"/>
-        <v>ResIcon_TowerCurse2</v>
-      </c>
-      <c r="G37" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37" t="s">
+      <c r="D55" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerAoShu2</v>
+      </c>
+      <c r="G55" t="s">
+        <v>300</v>
+      </c>
+      <c r="H55" t="s">
+        <v>345</v>
+      </c>
+      <c r="I55" t="str">
+        <f t="shared" si="0"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerAoShu2.png</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" t="s">
         <v>56</v>
       </c>
-      <c r="I37" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerCurse2.png</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="D56" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerAoShu3</v>
+      </c>
+      <c r="G56" t="s">
+        <v>300</v>
+      </c>
+      <c r="H56" t="s">
+        <v>346</v>
+      </c>
+      <c r="I56" t="str">
+        <f t="shared" si="0"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerAoShu3.png</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" t="s">
         <v>57</v>
       </c>
-      <c r="D38" t="str">
-        <f t="shared" si="7"/>
-        <v>ResIcon_TowerCurse3</v>
-      </c>
-      <c r="G38" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" t="s">
+      <c r="D57" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerLianJi1</v>
+      </c>
+      <c r="G57" t="s">
+        <v>300</v>
+      </c>
+      <c r="H57" t="s">
+        <v>347</v>
+      </c>
+      <c r="I57" t="str">
+        <f t="shared" si="0"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerLianJi1.png</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" t="s">
         <v>58</v>
       </c>
-      <c r="I38" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerCurse3.png</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="D58" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerLianJi2</v>
+      </c>
+      <c r="G58" t="s">
+        <v>300</v>
+      </c>
+      <c r="H58" t="s">
+        <v>348</v>
+      </c>
+      <c r="I58" t="str">
+        <f t="shared" si="0"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerLianJi2.png</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" t="s">
         <v>59</v>
       </c>
-      <c r="D39" t="str">
-        <f t="shared" si="7"/>
-        <v>ResIcon_Towerwitch1</v>
-      </c>
-      <c r="G39" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39" t="s">
+      <c r="D59" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerLianJi3</v>
+      </c>
+      <c r="G59" t="s">
+        <v>300</v>
+      </c>
+      <c r="H59" t="s">
+        <v>349</v>
+      </c>
+      <c r="I59" t="str">
+        <f t="shared" si="0"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerLianJi3.png</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" t="s">
         <v>60</v>
       </c>
-      <c r="I39" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Assets/ResAB/UI/Icon/Icon_Towerwitch1.png</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="D60" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerZaiE1</v>
+      </c>
+      <c r="G60" t="s">
+        <v>300</v>
+      </c>
+      <c r="H60" t="s">
+        <v>350</v>
+      </c>
+      <c r="I60" t="str">
+        <f t="shared" si="0"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerZaiE1.png</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" t="s">
         <v>61</v>
       </c>
-      <c r="D40" t="str">
-        <f t="shared" si="7"/>
-        <v>ResIcon_Towerwitch2</v>
-      </c>
-      <c r="G40" t="s">
-        <v>17</v>
-      </c>
-      <c r="H40" t="s">
+      <c r="D61" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerZaiE2</v>
+      </c>
+      <c r="G61" t="s">
+        <v>300</v>
+      </c>
+      <c r="H61" t="s">
+        <v>351</v>
+      </c>
+      <c r="I61" t="str">
+        <f t="shared" si="0"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerZaiE2.png</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" t="s">
         <v>62</v>
       </c>
-      <c r="I40" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Assets/ResAB/UI/Icon/Icon_Towerwitch2.png</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="D62" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerZaiE3</v>
+      </c>
+      <c r="G62" t="s">
+        <v>300</v>
+      </c>
+      <c r="H62" t="s">
+        <v>352</v>
+      </c>
+      <c r="I62" t="str">
+        <f t="shared" si="0"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerZaiE3.png</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" t="s">
         <v>63</v>
       </c>
-      <c r="D41" t="str">
-        <f t="shared" si="7"/>
-        <v>ResIcon_Towerwitch3</v>
-      </c>
-      <c r="G41" t="s">
-        <v>17</v>
-      </c>
-      <c r="H41" t="s">
+      <c r="D63" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerGoblin1</v>
+      </c>
+      <c r="G63" t="s">
+        <v>300</v>
+      </c>
+      <c r="H63" t="s">
+        <v>353</v>
+      </c>
+      <c r="I63" t="str">
+        <f t="shared" si="0"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerGoblin1.png</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" t="s">
         <v>64</v>
       </c>
-      <c r="I41" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Assets/ResAB/UI/Icon/Icon_Towerwitch3.png</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="D64" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerGoblin2</v>
+      </c>
+      <c r="G64" t="s">
+        <v>300</v>
+      </c>
+      <c r="H64" t="s">
+        <v>354</v>
+      </c>
+      <c r="I64" t="str">
+        <f t="shared" si="0"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerGoblin2.png</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" t="s">
         <v>65</v>
       </c>
-      <c r="D42" t="str">
-        <f t="shared" si="7"/>
-        <v>ResIcon_TowerIceArrow1</v>
-      </c>
-      <c r="G42" t="s">
-        <v>17</v>
-      </c>
-      <c r="H42" t="s">
+      <c r="D65" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerGoblin3</v>
+      </c>
+      <c r="G65" t="s">
+        <v>300</v>
+      </c>
+      <c r="H65" t="s">
+        <v>355</v>
+      </c>
+      <c r="I65" t="str">
+        <f t="shared" si="0"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerGoblin3.png</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" t="s">
         <v>66</v>
       </c>
-      <c r="I42" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerIceArrow1.png</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="D66" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerDuCi1</v>
+      </c>
+      <c r="G66" t="s">
+        <v>300</v>
+      </c>
+      <c r="H66" t="s">
+        <v>356</v>
+      </c>
+      <c r="I66" t="str">
+        <f t="shared" si="0"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerDuCi1.png</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" t="s">
         <v>67</v>
       </c>
-      <c r="D43" t="str">
-        <f t="shared" si="7"/>
-        <v>ResIcon_TowerIceArrow2</v>
-      </c>
-      <c r="G43" t="s">
-        <v>17</v>
-      </c>
-      <c r="H43" t="s">
+      <c r="D67" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerDuCi2</v>
+      </c>
+      <c r="G67" t="s">
+        <v>300</v>
+      </c>
+      <c r="H67" t="s">
+        <v>357</v>
+      </c>
+      <c r="I67" t="str">
+        <f t="shared" si="0"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerDuCi2.png</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" t="s">
         <v>68</v>
       </c>
-      <c r="I43" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerIceArrow2.png</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="D68" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerDuCi3</v>
+      </c>
+      <c r="G68" t="s">
+        <v>300</v>
+      </c>
+      <c r="H68" t="s">
+        <v>358</v>
+      </c>
+      <c r="I68" t="str">
+        <f t="shared" si="0"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerDuCi3.png</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" t="s">
         <v>69</v>
       </c>
-      <c r="D44" t="str">
-        <f t="shared" si="7"/>
-        <v>ResIcon_TowerIceArrow3</v>
-      </c>
-      <c r="G44" t="s">
-        <v>17</v>
-      </c>
-      <c r="H44" t="s">
+      <c r="D69" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerRocket1</v>
+      </c>
+      <c r="G69" t="s">
+        <v>300</v>
+      </c>
+      <c r="H69" t="s">
+        <v>359</v>
+      </c>
+      <c r="I69" t="str">
+        <f t="shared" si="0"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerRocket1.png</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" t="s">
         <v>70</v>
       </c>
-      <c r="I44" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerIceArrow3.png</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="D70" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerRocket2</v>
+      </c>
+      <c r="G70" t="s">
+        <v>300</v>
+      </c>
+      <c r="H70" t="s">
+        <v>360</v>
+      </c>
+      <c r="I70" t="str">
+        <f t="shared" si="0"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerRocket2.png</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" t="s">
         <v>71</v>
       </c>
-      <c r="D45" t="str">
-        <f t="shared" si="7"/>
-        <v>ResIcon_TowerWater1</v>
-      </c>
-      <c r="G45" t="s">
-        <v>17</v>
-      </c>
-      <c r="H45" t="s">
+      <c r="D71" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerRocket3</v>
+      </c>
+      <c r="G71" t="s">
+        <v>300</v>
+      </c>
+      <c r="H71" t="s">
+        <v>361</v>
+      </c>
+      <c r="I71" t="str">
+        <f t="shared" ref="I71:I134" si="5">G71&amp;"/"&amp;H71&amp;".png"</f>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerRocket3.png</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" t="s">
         <v>72</v>
       </c>
-      <c r="I45" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerWater1.png</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="D72" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerFireBall1</v>
+      </c>
+      <c r="G72" t="s">
+        <v>300</v>
+      </c>
+      <c r="H72" t="s">
+        <v>362</v>
+      </c>
+      <c r="I72" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerFireBall1.png</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>15</v>
+      </c>
+      <c r="C73" t="s">
         <v>73</v>
       </c>
-      <c r="D46" t="str">
-        <f t="shared" si="7"/>
-        <v>ResIcon_TowerWater2</v>
-      </c>
-      <c r="G46" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46" t="s">
+      <c r="D73" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerFireBall2</v>
+      </c>
+      <c r="G73" t="s">
+        <v>300</v>
+      </c>
+      <c r="H73" t="s">
+        <v>363</v>
+      </c>
+      <c r="I73" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerFireBall2.png</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74" t="s">
         <v>74</v>
       </c>
-      <c r="I46" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerWater2.png</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
-        <v>15</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="D74" t="str">
+        <f t="shared" si="4"/>
+        <v>ResIcon_TowerFireBall3</v>
+      </c>
+      <c r="G74" t="s">
+        <v>300</v>
+      </c>
+      <c r="H74" t="s">
+        <v>364</v>
+      </c>
+      <c r="I74" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerFireBall3.png</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D75" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G75" t="s">
+        <v>300</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="I75" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerGolem1.png</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D76" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G76" t="s">
+        <v>300</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="I76" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerGolem2.png</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D77" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G77" t="s">
+        <v>300</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="I77" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerGolem3.png</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G78" s="9"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79" t="s">
         <v>75</v>
       </c>
-      <c r="D47" t="str">
-        <f t="shared" si="7"/>
-        <v>ResIcon_TowerWater3</v>
-      </c>
-      <c r="G47" t="s">
-        <v>17</v>
-      </c>
-      <c r="H47" t="s">
+      <c r="D79" t="s">
         <v>76</v>
       </c>
-      <c r="I47" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerWater3.png</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="G79" t="s">
+        <v>300</v>
+      </c>
+      <c r="H79" t="s">
+        <v>365</v>
+      </c>
+      <c r="I79" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerArrowSolo1.png</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" t="s">
         <v>77</v>
       </c>
-      <c r="D48" t="str">
-        <f t="shared" si="7"/>
-        <v>ResIcon_TowerElectromagnetic1</v>
-      </c>
-      <c r="G48" t="s">
-        <v>17</v>
-      </c>
-      <c r="H48" t="s">
+      <c r="D80" t="s">
         <v>78</v>
       </c>
-      <c r="I48" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerElectromagnetic1.png</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="G80" t="s">
+        <v>300</v>
+      </c>
+      <c r="H80" t="s">
+        <v>366</v>
+      </c>
+      <c r="I80" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerArrowSolo2.png</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81" t="s">
         <v>79</v>
       </c>
-      <c r="D49" t="str">
-        <f t="shared" si="7"/>
-        <v>ResIcon_TowerElectromagnetic2</v>
-      </c>
-      <c r="G49" t="s">
-        <v>17</v>
-      </c>
-      <c r="H49" t="s">
+      <c r="D81" t="s">
         <v>80</v>
       </c>
-      <c r="I49" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerElectromagnetic2.png</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
-        <v>15</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="G81" t="s">
+        <v>300</v>
+      </c>
+      <c r="H81" t="s">
+        <v>367</v>
+      </c>
+      <c r="I81" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerArrowSolo3.png</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" t="s">
         <v>81</v>
       </c>
-      <c r="D50" t="str">
-        <f t="shared" si="7"/>
-        <v>ResIcon_TowerElectromagnetic3</v>
-      </c>
-      <c r="G50" t="s">
-        <v>17</v>
-      </c>
-      <c r="H50" t="s">
+      <c r="D82" t="s">
         <v>82</v>
       </c>
-      <c r="I50" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerElectromagnetic3.png</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="G82" t="s">
+        <v>300</v>
+      </c>
+      <c r="H82" t="s">
+        <v>368</v>
+      </c>
+      <c r="I82" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerCanon1.png</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83" t="s">
         <v>83</v>
       </c>
-      <c r="D51" t="str">
-        <f t="shared" si="7"/>
-        <v>ResIcon_TowerFire1</v>
-      </c>
-      <c r="G51" t="s">
-        <v>17</v>
-      </c>
-      <c r="H51" t="s">
+      <c r="D83" t="s">
         <v>84</v>
       </c>
-      <c r="I51" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerFire1.png</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
-        <v>15</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="G83" t="s">
+        <v>300</v>
+      </c>
+      <c r="H83" t="s">
+        <v>369</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerCanon2.png</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>15</v>
+      </c>
+      <c r="C84" t="s">
         <v>85</v>
       </c>
-      <c r="D52" t="str">
-        <f t="shared" si="7"/>
-        <v>ResIcon_TowerFire2</v>
-      </c>
-      <c r="G52" t="s">
-        <v>17</v>
-      </c>
-      <c r="H52" t="s">
+      <c r="D84" t="s">
         <v>86</v>
       </c>
-      <c r="I52" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerFire2.png</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
-        <v>15</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="G84" t="s">
+        <v>300</v>
+      </c>
+      <c r="H84" t="s">
+        <v>370</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerCanon3.png</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85" t="s">
         <v>87</v>
       </c>
-      <c r="D53" t="str">
-        <f t="shared" si="7"/>
-        <v>ResIcon_TowerFire3</v>
-      </c>
-      <c r="G53" t="s">
-        <v>17</v>
-      </c>
-      <c r="H53" t="s">
+      <c r="D85" t="s">
         <v>88</v>
       </c>
-      <c r="I53" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerFire3.png</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
-        <v>15</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="G85" t="s">
+        <v>300</v>
+      </c>
+      <c r="H85" t="s">
+        <v>371</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerDragon1.png</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86" t="s">
         <v>89</v>
       </c>
-      <c r="D54" t="str">
-        <f t="shared" si="7"/>
-        <v>ResIcon_TowerAoShu1</v>
-      </c>
-      <c r="G54" t="s">
-        <v>17</v>
-      </c>
-      <c r="H54" t="s">
+      <c r="D86" t="s">
         <v>90</v>
       </c>
-      <c r="I54" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerAoShu1.png</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
-        <v>15</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="G86" t="s">
+        <v>300</v>
+      </c>
+      <c r="H86" t="s">
+        <v>372</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerDragon2.png</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" t="s">
         <v>91</v>
       </c>
-      <c r="D55" t="str">
-        <f t="shared" si="7"/>
-        <v>ResIcon_TowerAoShu2</v>
-      </c>
-      <c r="G55" t="s">
-        <v>17</v>
-      </c>
-      <c r="H55" t="s">
+      <c r="D87" t="s">
         <v>92</v>
       </c>
-      <c r="I55" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerAoShu2.png</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
-        <v>15</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="G87" t="s">
+        <v>300</v>
+      </c>
+      <c r="H87" t="s">
+        <v>373</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerDragon3.png</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88" t="s">
         <v>93</v>
       </c>
-      <c r="D56" t="str">
-        <f t="shared" si="7"/>
-        <v>ResIcon_TowerAoShu3</v>
-      </c>
-      <c r="G56" t="s">
-        <v>17</v>
-      </c>
-      <c r="H56" t="s">
+      <c r="D88" t="s">
         <v>94</v>
       </c>
-      <c r="I56" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerAoShu3.png</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B57" t="s">
-        <v>15</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="G88" t="s">
+        <v>300</v>
+      </c>
+      <c r="H88" t="s">
+        <v>374</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerElec1.png</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>15</v>
+      </c>
+      <c r="C89" t="s">
         <v>95</v>
       </c>
-      <c r="D57" t="str">
-        <f t="shared" si="7"/>
-        <v>ResIcon_TowerLianJi1</v>
-      </c>
-      <c r="G57" t="s">
-        <v>17</v>
-      </c>
-      <c r="H57" t="s">
+      <c r="D89" t="s">
         <v>96</v>
       </c>
-      <c r="I57" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerLianJi1.png</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
-        <v>15</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="G89" t="s">
+        <v>300</v>
+      </c>
+      <c r="H89" t="s">
+        <v>375</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerElec2.png</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>15</v>
+      </c>
+      <c r="C90" t="s">
         <v>97</v>
       </c>
-      <c r="D58" t="str">
-        <f t="shared" si="7"/>
-        <v>ResIcon_TowerLianJi2</v>
-      </c>
-      <c r="G58" t="s">
-        <v>17</v>
-      </c>
-      <c r="H58" t="s">
+      <c r="D90" t="s">
         <v>98</v>
       </c>
-      <c r="I58" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerLianJi2.png</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B59" t="s">
-        <v>15</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="G90" t="s">
+        <v>300</v>
+      </c>
+      <c r="H90" t="s">
+        <v>376</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerElec3.png</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>15</v>
+      </c>
+      <c r="C91" t="s">
         <v>99</v>
       </c>
-      <c r="D59" t="str">
-        <f t="shared" si="7"/>
-        <v>ResIcon_TowerLianJi3</v>
-      </c>
-      <c r="G59" t="s">
-        <v>17</v>
-      </c>
-      <c r="H59" t="s">
+      <c r="D91" t="s">
         <v>100</v>
       </c>
-      <c r="I59" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerLianJi3.png</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B60" t="s">
-        <v>15</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="G91" t="s">
+        <v>300</v>
+      </c>
+      <c r="H91" t="s">
+        <v>377</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerIce1.png</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>15</v>
+      </c>
+      <c r="C92" t="s">
         <v>101</v>
       </c>
-      <c r="D60" t="str">
-        <f t="shared" si="7"/>
-        <v>ResIcon_TowerZaiE1</v>
-      </c>
-      <c r="G60" t="s">
-        <v>17</v>
-      </c>
-      <c r="H60" t="s">
+      <c r="D92" t="s">
         <v>102</v>
       </c>
-      <c r="I60" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerZaiE1.png</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
-        <v>15</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="G92" t="s">
+        <v>300</v>
+      </c>
+      <c r="H92" t="s">
+        <v>378</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerIce2.png</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93" t="s">
         <v>103</v>
       </c>
-      <c r="D61" t="str">
-        <f t="shared" si="7"/>
-        <v>ResIcon_TowerZaiE2</v>
-      </c>
-      <c r="G61" t="s">
-        <v>17</v>
-      </c>
-      <c r="H61" t="s">
+      <c r="D93" t="s">
         <v>104</v>
       </c>
-      <c r="I61" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerZaiE2.png</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
-        <v>15</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="G93" t="s">
+        <v>300</v>
+      </c>
+      <c r="H93" t="s">
+        <v>379</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerIce3.png</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>15</v>
+      </c>
+      <c r="C94" t="s">
         <v>105</v>
       </c>
-      <c r="D62" t="str">
-        <f t="shared" si="7"/>
-        <v>ResIcon_TowerZaiE3</v>
-      </c>
-      <c r="G62" t="s">
-        <v>17</v>
-      </c>
-      <c r="H62" t="s">
+      <c r="D94" t="s">
         <v>106</v>
       </c>
-      <c r="I62" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerZaiE3.png</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B63" t="s">
-        <v>15</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="G94" t="s">
+        <v>300</v>
+      </c>
+      <c r="H94" t="s">
+        <v>380</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerTime1.png</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>15</v>
+      </c>
+      <c r="C95" t="s">
         <v>107</v>
       </c>
-      <c r="D63" t="str">
-        <f t="shared" si="7"/>
-        <v>ResIcon_TowerGoblin1</v>
-      </c>
-      <c r="G63" t="s">
-        <v>17</v>
-      </c>
-      <c r="H63" t="s">
+      <c r="D95" t="s">
         <v>108</v>
       </c>
-      <c r="I63" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerGoblin1.png</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B64" t="s">
-        <v>15</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="G95" t="s">
+        <v>300</v>
+      </c>
+      <c r="H95" t="s">
+        <v>381</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerTime2.png</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96" t="s">
         <v>109</v>
       </c>
-      <c r="D64" t="str">
-        <f t="shared" si="7"/>
-        <v>ResIcon_TowerGoblin2</v>
-      </c>
-      <c r="G64" t="s">
-        <v>17</v>
-      </c>
-      <c r="H64" t="s">
+      <c r="D96" t="s">
         <v>110</v>
       </c>
-      <c r="I64" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerGoblin2.png</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B65" t="s">
-        <v>15</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="G96" t="s">
+        <v>300</v>
+      </c>
+      <c r="H96" t="s">
+        <v>382</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerTime3.png</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>15</v>
+      </c>
+      <c r="C97" t="s">
         <v>111</v>
       </c>
-      <c r="D65" t="str">
-        <f t="shared" si="7"/>
-        <v>ResIcon_TowerGoblin3</v>
-      </c>
-      <c r="G65" t="s">
-        <v>17</v>
-      </c>
-      <c r="H65" t="s">
+      <c r="D97" t="s">
         <v>112</v>
       </c>
-      <c r="I65" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerGoblin3.png</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
-        <v>15</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="G97" t="s">
+        <v>300</v>
+      </c>
+      <c r="H97" t="s">
+        <v>383</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerFireLine1.png</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>15</v>
+      </c>
+      <c r="C98" t="s">
         <v>113</v>
       </c>
-      <c r="D66" t="str">
-        <f t="shared" si="7"/>
-        <v>ResIcon_TowerDuCi1</v>
-      </c>
-      <c r="G66" t="s">
-        <v>17</v>
-      </c>
-      <c r="H66" t="s">
+      <c r="D98" t="s">
         <v>114</v>
       </c>
-      <c r="I66" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerDuCi1.png</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B67" t="s">
-        <v>15</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="G98" t="s">
+        <v>300</v>
+      </c>
+      <c r="H98" t="s">
+        <v>384</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerFireLine2.png</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99" t="s">
         <v>115</v>
       </c>
-      <c r="D67" t="str">
-        <f t="shared" si="7"/>
-        <v>ResIcon_TowerDuCi2</v>
-      </c>
-      <c r="G67" t="s">
-        <v>17</v>
-      </c>
-      <c r="H67" t="s">
+      <c r="D99" t="s">
         <v>116</v>
       </c>
-      <c r="I67" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerDuCi2.png</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B68" t="s">
-        <v>15</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="G99" t="s">
+        <v>300</v>
+      </c>
+      <c r="H99" t="s">
+        <v>385</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerFireLine3.png</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" t="s">
         <v>117</v>
       </c>
-      <c r="D68" t="str">
-        <f t="shared" si="7"/>
-        <v>ResIcon_TowerDuCi3</v>
-      </c>
-      <c r="G68" t="s">
-        <v>17</v>
-      </c>
-      <c r="H68" t="s">
+      <c r="D100" t="s">
         <v>118</v>
       </c>
-      <c r="I68" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerDuCi3.png</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B69" t="s">
-        <v>15</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="G100" t="s">
+        <v>300</v>
+      </c>
+      <c r="H100" t="s">
+        <v>386</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerDragCircle1.png</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" t="s">
         <v>119</v>
       </c>
-      <c r="D69" t="str">
-        <f t="shared" si="7"/>
-        <v>ResIcon_TowerRocket1</v>
-      </c>
-      <c r="G69" t="s">
-        <v>17</v>
-      </c>
-      <c r="H69" t="s">
+      <c r="D101" t="s">
         <v>120</v>
       </c>
-      <c r="I69" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerRocket1.png</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B70" t="s">
-        <v>15</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="G101" t="s">
+        <v>300</v>
+      </c>
+      <c r="H101" t="s">
+        <v>387</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerDragCircle2.png</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>15</v>
+      </c>
+      <c r="C102" t="s">
         <v>121</v>
       </c>
-      <c r="D70" t="str">
-        <f t="shared" si="7"/>
-        <v>ResIcon_TowerRocket2</v>
-      </c>
-      <c r="G70" t="s">
-        <v>17</v>
-      </c>
-      <c r="H70" t="s">
+      <c r="D102" t="s">
         <v>122</v>
       </c>
-      <c r="I70" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerRocket2.png</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B71" t="s">
-        <v>15</v>
-      </c>
-      <c r="C71" t="s">
-        <v>123</v>
-      </c>
-      <c r="D71" t="str">
-        <f t="shared" si="7"/>
-        <v>ResIcon_TowerRocket3</v>
-      </c>
-      <c r="G71" t="s">
-        <v>17</v>
-      </c>
-      <c r="H71" t="s">
-        <v>124</v>
-      </c>
-      <c r="I71" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerRocket3.png</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B72" t="s">
-        <v>15</v>
-      </c>
-      <c r="C72" t="s">
-        <v>125</v>
-      </c>
-      <c r="D72" t="str">
-        <f t="shared" si="7"/>
-        <v>ResIcon_TowerFireBall1</v>
-      </c>
-      <c r="G72" t="s">
-        <v>17</v>
-      </c>
-      <c r="H72" t="s">
-        <v>126</v>
-      </c>
-      <c r="I72" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerFireBall1.png</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B73" t="s">
-        <v>15</v>
-      </c>
-      <c r="C73" t="s">
-        <v>127</v>
-      </c>
-      <c r="D73" t="str">
-        <f t="shared" si="7"/>
-        <v>ResIcon_TowerFireBall2</v>
-      </c>
-      <c r="G73" t="s">
-        <v>17</v>
-      </c>
-      <c r="H73" t="s">
-        <v>128</v>
-      </c>
-      <c r="I73" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerFireBall2.png</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B74" t="s">
-        <v>15</v>
-      </c>
-      <c r="C74" t="s">
-        <v>129</v>
-      </c>
-      <c r="D74" t="str">
-        <f t="shared" si="7"/>
-        <v>ResIcon_TowerFireBall3</v>
-      </c>
-      <c r="G74" t="s">
-        <v>17</v>
-      </c>
-      <c r="H74" t="s">
-        <v>130</v>
-      </c>
-      <c r="I74" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Assets/ResAB/UI/Icon/Icon_TowerFireBall3.png</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D75" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="I75" s="3" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D76" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D77" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="I77" s="3" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B79" t="s">
-        <v>15</v>
-      </c>
-      <c r="C79" t="s">
-        <v>131</v>
-      </c>
-      <c r="D79" t="s">
-        <v>132</v>
-      </c>
-      <c r="G79" t="s">
-        <v>17</v>
-      </c>
-      <c r="H79" t="s">
-        <v>133</v>
-      </c>
-      <c r="I79" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B80" t="s">
-        <v>15</v>
-      </c>
-      <c r="C80" t="s">
-        <v>135</v>
-      </c>
-      <c r="D80" t="s">
-        <v>136</v>
-      </c>
-      <c r="G80" t="s">
-        <v>17</v>
-      </c>
-      <c r="H80" t="s">
-        <v>137</v>
-      </c>
-      <c r="I80" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B81" t="s">
-        <v>15</v>
-      </c>
-      <c r="C81" t="s">
-        <v>139</v>
-      </c>
-      <c r="D81" t="s">
-        <v>140</v>
-      </c>
-      <c r="G81" t="s">
-        <v>17</v>
-      </c>
-      <c r="H81" t="s">
-        <v>141</v>
-      </c>
-      <c r="I81" s="3" t="s">
+      <c r="G102" t="s">
+        <v>300</v>
+      </c>
+      <c r="H102" t="s">
+        <v>388</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerDragCircle3.png</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D103" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G103" t="s">
+        <v>300</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerBomb1.png</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D104" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G104" t="s">
+        <v>300</v>
+      </c>
+      <c r="H104" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerBomb2.png</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D105" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G105" t="s">
+        <v>300</v>
+      </c>
+      <c r="H105" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerBomb3.png</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G106" s="9"/>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>15</v>
+      </c>
+      <c r="C107" s="6" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B82" t="s">
-        <v>15</v>
-      </c>
-      <c r="C82" t="s">
-        <v>143</v>
-      </c>
-      <c r="D82" t="s">
-        <v>144</v>
-      </c>
-      <c r="G82" t="s">
-        <v>17</v>
-      </c>
-      <c r="H82" t="s">
-        <v>145</v>
-      </c>
-      <c r="I82" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B83" t="s">
-        <v>15</v>
-      </c>
-      <c r="C83" t="s">
-        <v>147</v>
-      </c>
-      <c r="D83" t="s">
-        <v>148</v>
-      </c>
-      <c r="G83" t="s">
-        <v>17</v>
-      </c>
-      <c r="H83" t="s">
-        <v>149</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B84" t="s">
-        <v>15</v>
-      </c>
-      <c r="C84" t="s">
-        <v>151</v>
-      </c>
-      <c r="D84" t="s">
-        <v>152</v>
-      </c>
-      <c r="G84" t="s">
-        <v>17</v>
-      </c>
-      <c r="H84" t="s">
-        <v>153</v>
-      </c>
-      <c r="I84" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B85" t="s">
-        <v>15</v>
-      </c>
-      <c r="C85" t="s">
-        <v>155</v>
-      </c>
-      <c r="D85" t="s">
-        <v>156</v>
-      </c>
-      <c r="G85" t="s">
-        <v>17</v>
-      </c>
-      <c r="H85" t="s">
-        <v>157</v>
-      </c>
-      <c r="I85" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B86" t="s">
-        <v>15</v>
-      </c>
-      <c r="C86" t="s">
-        <v>159</v>
-      </c>
-      <c r="D86" t="s">
-        <v>160</v>
-      </c>
-      <c r="G86" t="s">
-        <v>17</v>
-      </c>
-      <c r="H86" t="s">
-        <v>161</v>
-      </c>
-      <c r="I86" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B87" t="s">
-        <v>15</v>
-      </c>
-      <c r="C87" t="s">
-        <v>163</v>
-      </c>
-      <c r="D87" t="s">
-        <v>164</v>
-      </c>
-      <c r="G87" t="s">
-        <v>17</v>
-      </c>
-      <c r="H87" t="s">
-        <v>165</v>
-      </c>
-      <c r="I87" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B88" t="s">
-        <v>15</v>
-      </c>
-      <c r="C88" t="s">
-        <v>167</v>
-      </c>
-      <c r="D88" t="s">
-        <v>168</v>
-      </c>
-      <c r="G88" t="s">
-        <v>17</v>
-      </c>
-      <c r="H88" t="s">
-        <v>169</v>
-      </c>
-      <c r="I88" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B89" t="s">
-        <v>15</v>
-      </c>
-      <c r="C89" t="s">
-        <v>171</v>
-      </c>
-      <c r="D89" t="s">
-        <v>172</v>
-      </c>
-      <c r="G89" t="s">
-        <v>17</v>
-      </c>
-      <c r="H89" t="s">
-        <v>173</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B90" t="s">
-        <v>15</v>
-      </c>
-      <c r="C90" t="s">
-        <v>175</v>
-      </c>
-      <c r="D90" t="s">
-        <v>176</v>
-      </c>
-      <c r="G90" t="s">
-        <v>17</v>
-      </c>
-      <c r="H90" t="s">
-        <v>177</v>
-      </c>
-      <c r="I90" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B91" t="s">
-        <v>15</v>
-      </c>
-      <c r="C91" t="s">
-        <v>179</v>
-      </c>
-      <c r="D91" t="s">
-        <v>180</v>
-      </c>
-      <c r="G91" t="s">
-        <v>17</v>
-      </c>
-      <c r="H91" t="s">
-        <v>181</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B92" t="s">
-        <v>15</v>
-      </c>
-      <c r="C92" t="s">
-        <v>183</v>
-      </c>
-      <c r="D92" t="s">
-        <v>184</v>
-      </c>
-      <c r="G92" t="s">
-        <v>17</v>
-      </c>
-      <c r="H92" t="s">
-        <v>185</v>
-      </c>
-      <c r="I92" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B93" t="s">
-        <v>15</v>
-      </c>
-      <c r="C93" t="s">
-        <v>187</v>
-      </c>
-      <c r="D93" t="s">
-        <v>188</v>
-      </c>
-      <c r="G93" t="s">
-        <v>17</v>
-      </c>
-      <c r="H93" t="s">
-        <v>189</v>
-      </c>
-      <c r="I93" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B94" t="s">
-        <v>15</v>
-      </c>
-      <c r="C94" t="s">
-        <v>191</v>
-      </c>
-      <c r="D94" t="s">
-        <v>192</v>
-      </c>
-      <c r="G94" t="s">
-        <v>17</v>
-      </c>
-      <c r="H94" t="s">
-        <v>193</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B95" t="s">
-        <v>15</v>
-      </c>
-      <c r="C95" t="s">
-        <v>195</v>
-      </c>
-      <c r="D95" t="s">
-        <v>196</v>
-      </c>
-      <c r="G95" t="s">
-        <v>17</v>
-      </c>
-      <c r="H95" t="s">
-        <v>197</v>
-      </c>
-      <c r="I95" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B96" t="s">
-        <v>15</v>
-      </c>
-      <c r="C96" t="s">
-        <v>199</v>
-      </c>
-      <c r="D96" t="s">
-        <v>200</v>
-      </c>
-      <c r="G96" t="s">
-        <v>17</v>
-      </c>
-      <c r="H96" t="s">
-        <v>201</v>
-      </c>
-      <c r="I96" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B97" t="s">
-        <v>15</v>
-      </c>
-      <c r="C97" t="s">
-        <v>203</v>
-      </c>
-      <c r="D97" t="s">
-        <v>204</v>
-      </c>
-      <c r="G97" t="s">
-        <v>17</v>
-      </c>
-      <c r="H97" t="s">
-        <v>205</v>
-      </c>
-      <c r="I97" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B98" t="s">
-        <v>15</v>
-      </c>
-      <c r="C98" t="s">
-        <v>207</v>
-      </c>
-      <c r="D98" t="s">
-        <v>208</v>
-      </c>
-      <c r="G98" t="s">
-        <v>17</v>
-      </c>
-      <c r="H98" t="s">
-        <v>209</v>
-      </c>
-      <c r="I98" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B99" t="s">
-        <v>15</v>
-      </c>
-      <c r="C99" t="s">
-        <v>211</v>
-      </c>
-      <c r="D99" t="s">
-        <v>212</v>
-      </c>
-      <c r="G99" t="s">
-        <v>17</v>
-      </c>
-      <c r="H99" t="s">
-        <v>213</v>
-      </c>
-      <c r="I99" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B100" t="s">
-        <v>15</v>
-      </c>
-      <c r="C100" t="s">
-        <v>215</v>
-      </c>
-      <c r="D100" t="s">
-        <v>216</v>
-      </c>
-      <c r="G100" t="s">
-        <v>17</v>
-      </c>
-      <c r="H100" t="s">
-        <v>217</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B101" t="s">
-        <v>15</v>
-      </c>
-      <c r="C101" t="s">
-        <v>219</v>
-      </c>
-      <c r="D101" t="s">
-        <v>220</v>
-      </c>
-      <c r="G101" t="s">
-        <v>17</v>
-      </c>
-      <c r="H101" t="s">
-        <v>221</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B102" t="s">
-        <v>15</v>
-      </c>
-      <c r="C102" t="s">
-        <v>223</v>
-      </c>
-      <c r="D102" t="s">
-        <v>224</v>
-      </c>
-      <c r="G102" t="s">
-        <v>17</v>
-      </c>
-      <c r="H102" t="s">
-        <v>225</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D103" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G103" t="s">
-        <v>17</v>
-      </c>
-      <c r="H103" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="I103" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D104" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G104" t="s">
-        <v>17</v>
-      </c>
-      <c r="H104" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="I104" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D105" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G105" t="s">
-        <v>17</v>
-      </c>
-      <c r="H105" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="I105" s="3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B107" t="s">
-        <v>15</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>245</v>
       </c>
       <c r="D107" t="str">
         <f>B107&amp;"_"&amp;C107</f>
         <v>ResIcon_Monster_MiFeng1</v>
       </c>
       <c r="G107" t="s">
-        <v>17</v>
+        <v>300</v>
       </c>
       <c r="H107" s="6" t="s">
-        <v>267</v>
+        <v>164</v>
       </c>
       <c r="I107" t="str">
-        <f>"Assets/ResAB/UI/Icon/"&amp;H107&amp;".png"</f>
-        <v>Assets/ResAB/UI/Icon/Icon_Monster_MiFeng1.png</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_Monster_MiFeng1.png</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>15</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>246</v>
+        <v>143</v>
       </c>
       <c r="D108" t="str">
-        <f t="shared" ref="D108:D127" si="9">B108&amp;"_"&amp;C108</f>
+        <f t="shared" ref="D108:D127" si="6">B108&amp;"_"&amp;C108</f>
         <v>ResIcon_Monster_MiFeng2</v>
       </c>
       <c r="G108" t="s">
-        <v>17</v>
+        <v>300</v>
       </c>
       <c r="H108" s="6" t="s">
-        <v>268</v>
+        <v>165</v>
       </c>
       <c r="I108" t="str">
-        <f t="shared" ref="I108:I136" si="10">"Assets/ResAB/UI/Icon/"&amp;H108&amp;".png"</f>
-        <v>Assets/ResAB/UI/Icon/Icon_Monster_MiFeng2.png</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_Monster_MiFeng2.png</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>15</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>247</v>
+        <v>144</v>
       </c>
       <c r="D109" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>ResIcon_Monster_MiFeng3</v>
       </c>
       <c r="G109" t="s">
-        <v>17</v>
+        <v>300</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>269</v>
+        <v>166</v>
       </c>
       <c r="I109" t="str">
-        <f t="shared" si="10"/>
-        <v>Assets/ResAB/UI/Icon/Icon_Monster_MiFeng3.png</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_Monster_MiFeng3.png</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>15</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>248</v>
+        <v>145</v>
       </c>
       <c r="D110" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>ResIcon_Monster_BianFu1</v>
       </c>
       <c r="G110" t="s">
-        <v>17</v>
+        <v>300</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>270</v>
+        <v>167</v>
       </c>
       <c r="I110" t="str">
-        <f t="shared" si="10"/>
-        <v>Assets/ResAB/UI/Icon/Icon_Monster_BianFu1.png</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_Monster_BianFu1.png</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>15</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>249</v>
+        <v>146</v>
       </c>
       <c r="D111" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>ResIcon_Monster_BianFu2</v>
       </c>
       <c r="G111" t="s">
-        <v>17</v>
+        <v>300</v>
       </c>
       <c r="H111" s="6" t="s">
-        <v>271</v>
+        <v>168</v>
       </c>
       <c r="I111" t="str">
-        <f t="shared" si="10"/>
-        <v>Assets/ResAB/UI/Icon/Icon_Monster_BianFu2.png</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_Monster_BianFu2.png</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>15</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>250</v>
+        <v>147</v>
       </c>
       <c r="D112" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>ResIcon_Monster_BianFu3</v>
       </c>
       <c r="G112" t="s">
-        <v>17</v>
+        <v>300</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>272</v>
+        <v>169</v>
       </c>
       <c r="I112" t="str">
-        <f t="shared" si="10"/>
-        <v>Assets/ResAB/UI/Icon/Icon_Monster_BianFu3.png</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_Monster_BianFu3.png</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>15</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>251</v>
+        <v>148</v>
       </c>
       <c r="D113" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>ResIcon_Monster_ZhiZhu1</v>
       </c>
       <c r="G113" t="s">
-        <v>17</v>
+        <v>300</v>
       </c>
       <c r="H113" s="6" t="s">
-        <v>273</v>
+        <v>170</v>
       </c>
       <c r="I113" t="str">
-        <f t="shared" si="10"/>
-        <v>Assets/ResAB/UI/Icon/Icon_Monster_ZhiZhu1.png</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_Monster_ZhiZhu1.png</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>15</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>252</v>
+        <v>149</v>
       </c>
       <c r="D114" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>ResIcon_Monster_ZhiZhu2</v>
       </c>
       <c r="G114" t="s">
-        <v>17</v>
+        <v>300</v>
       </c>
       <c r="H114" s="6" t="s">
-        <v>274</v>
+        <v>171</v>
       </c>
       <c r="I114" t="str">
-        <f t="shared" si="10"/>
-        <v>Assets/ResAB/UI/Icon/Icon_Monster_ZhiZhu2.png</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_Monster_ZhiZhu2.png</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>15</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>253</v>
+        <v>150</v>
       </c>
       <c r="D115" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>ResIcon_Monster_ZhiZhu3</v>
       </c>
       <c r="G115" t="s">
-        <v>17</v>
+        <v>300</v>
       </c>
       <c r="H115" s="6" t="s">
-        <v>275</v>
+        <v>172</v>
       </c>
       <c r="I115" t="str">
-        <f t="shared" si="10"/>
-        <v>Assets/ResAB/UI/Icon/Icon_Monster_ZhiZhu3.png</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_Monster_ZhiZhu3.png</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>15</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>254</v>
+        <v>151</v>
       </c>
       <c r="D116" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>ResIcon_Monster_ZhongZi1</v>
       </c>
       <c r="G116" t="s">
-        <v>17</v>
+        <v>300</v>
       </c>
       <c r="H116" s="6" t="s">
-        <v>276</v>
+        <v>173</v>
       </c>
       <c r="I116" t="str">
-        <f t="shared" si="10"/>
-        <v>Assets/ResAB/UI/Icon/Icon_Monster_ZhongZi1.png</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_Monster_ZhongZi1.png</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>15</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>255</v>
+        <v>152</v>
       </c>
       <c r="D117" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>ResIcon_Monster_ZhongZi2</v>
       </c>
       <c r="G117" t="s">
-        <v>17</v>
+        <v>300</v>
       </c>
       <c r="H117" s="6" t="s">
-        <v>277</v>
+        <v>174</v>
       </c>
       <c r="I117" t="str">
-        <f t="shared" si="10"/>
-        <v>Assets/ResAB/UI/Icon/Icon_Monster_ZhongZi2.png</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_Monster_ZhongZi2.png</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>15</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>256</v>
+        <v>153</v>
       </c>
       <c r="D118" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>ResIcon_Monster_ZhongZi3</v>
       </c>
       <c r="G118" t="s">
-        <v>17</v>
+        <v>300</v>
       </c>
       <c r="H118" s="6" t="s">
-        <v>278</v>
+        <v>175</v>
       </c>
       <c r="I118" t="str">
-        <f t="shared" si="10"/>
-        <v>Assets/ResAB/UI/Icon/Icon_Monster_ZhongZi3.png</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_Monster_ZhongZi3.png</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>15</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>257</v>
+        <v>154</v>
       </c>
       <c r="D119" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>ResIcon_Monster_Gui1</v>
       </c>
       <c r="G119" t="s">
-        <v>17</v>
+        <v>300</v>
       </c>
       <c r="H119" s="6" t="s">
-        <v>266</v>
+        <v>163</v>
       </c>
       <c r="I119" t="str">
-        <f t="shared" si="10"/>
-        <v>Assets/ResAB/UI/Icon/Icon_Monster_Gui1.png</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_Monster_Gui1.png</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>15</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>258</v>
+        <v>155</v>
       </c>
       <c r="D120" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>ResIcon_Monster_Gui2</v>
       </c>
       <c r="G120" t="s">
-        <v>17</v>
+        <v>300</v>
       </c>
       <c r="H120" s="6" t="s">
-        <v>279</v>
+        <v>176</v>
       </c>
       <c r="I120" t="str">
-        <f t="shared" si="10"/>
-        <v>Assets/ResAB/UI/Icon/Icon_Monster_Gui2.png</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_Monster_Gui2.png</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>15</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>259</v>
+        <v>156</v>
       </c>
       <c r="D121" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>ResIcon_Monster_Gui3</v>
       </c>
       <c r="G121" t="s">
-        <v>17</v>
+        <v>300</v>
       </c>
       <c r="H121" s="6" t="s">
-        <v>280</v>
+        <v>177</v>
       </c>
       <c r="I121" t="str">
-        <f t="shared" si="10"/>
-        <v>Assets/ResAB/UI/Icon/Icon_Monster_Gui3.png</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_Monster_Gui3.png</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>15</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>260</v>
+        <v>157</v>
       </c>
       <c r="D122" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>ResIcon_Monster_Dan1</v>
       </c>
       <c r="G122" t="s">
-        <v>17</v>
+        <v>300</v>
       </c>
       <c r="H122" s="6" t="s">
-        <v>281</v>
+        <v>178</v>
       </c>
       <c r="I122" t="str">
-        <f t="shared" si="10"/>
-        <v>Assets/ResAB/UI/Icon/Icon_Monster_Dan1.png</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_Monster_Dan1.png</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>15</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>261</v>
+        <v>158</v>
       </c>
       <c r="D123" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>ResIcon_Monster_Dan2</v>
       </c>
       <c r="G123" t="s">
-        <v>17</v>
+        <v>300</v>
       </c>
       <c r="H123" s="6" t="s">
-        <v>282</v>
+        <v>179</v>
       </c>
       <c r="I123" t="str">
-        <f t="shared" si="10"/>
-        <v>Assets/ResAB/UI/Icon/Icon_Monster_Dan2.png</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_Monster_Dan2.png</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>15</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>262</v>
+        <v>159</v>
       </c>
       <c r="D124" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>ResIcon_Monster_Dan3</v>
       </c>
       <c r="G124" t="s">
-        <v>17</v>
+        <v>300</v>
       </c>
       <c r="H124" s="6" t="s">
-        <v>283</v>
+        <v>180</v>
       </c>
       <c r="I124" t="str">
-        <f t="shared" si="10"/>
-        <v>Assets/ResAB/UI/Icon/Icon_Monster_Dan3.png</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_Monster_Dan3.png</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>15</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>263</v>
+        <v>160</v>
       </c>
       <c r="D125" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>ResIcon_Monster_Niao1</v>
       </c>
       <c r="G125" t="s">
-        <v>17</v>
+        <v>300</v>
       </c>
       <c r="H125" s="6" t="s">
-        <v>284</v>
+        <v>181</v>
       </c>
       <c r="I125" t="str">
-        <f t="shared" si="10"/>
-        <v>Assets/ResAB/UI/Icon/Icon_Monster_Niao1.png</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_Monster_Niao1.png</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>15</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>264</v>
+        <v>161</v>
       </c>
       <c r="D126" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>ResIcon_Monster_Niao2</v>
       </c>
       <c r="G126" t="s">
-        <v>17</v>
+        <v>300</v>
       </c>
       <c r="H126" s="6" t="s">
-        <v>285</v>
+        <v>182</v>
       </c>
       <c r="I126" t="str">
-        <f t="shared" si="10"/>
-        <v>Assets/ResAB/UI/Icon/Icon_Monster_Niao2.png</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_Monster_Niao2.png</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>15</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>265</v>
+        <v>162</v>
       </c>
       <c r="D127" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>ResIcon_Monster_Niao3</v>
       </c>
       <c r="G127" t="s">
-        <v>17</v>
+        <v>300</v>
       </c>
       <c r="H127" s="6" t="s">
-        <v>286</v>
+        <v>183</v>
       </c>
       <c r="I127" t="str">
-        <f t="shared" si="10"/>
-        <v>Assets/ResAB/UI/Icon/Icon_Monster_Niao3.png</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_Monster_Niao3.png</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D128" s="6" t="s">
-        <v>340</v>
+        <v>220</v>
       </c>
       <c r="G128" t="s">
-        <v>17</v>
+        <v>300</v>
       </c>
       <c r="H128" s="6" t="s">
-        <v>349</v>
+        <v>229</v>
       </c>
       <c r="I128" t="str">
-        <f t="shared" si="10"/>
-        <v>Assets/ResAB/UI/Icon/Icon_Monster_Rou1.png</v>
-      </c>
-    </row>
-    <row r="129" spans="4:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_Monster_Rou1.png</v>
+      </c>
+    </row>
+    <row r="129" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D129" s="6" t="s">
-        <v>341</v>
+        <v>221</v>
       </c>
       <c r="G129" t="s">
-        <v>17</v>
+        <v>300</v>
       </c>
       <c r="H129" s="6" t="s">
-        <v>350</v>
+        <v>230</v>
       </c>
       <c r="I129" t="str">
-        <f t="shared" si="10"/>
-        <v>Assets/ResAB/UI/Icon/Icon_Monster_Rou2.png</v>
-      </c>
-    </row>
-    <row r="130" spans="4:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_Monster_Rou2.png</v>
+      </c>
+    </row>
+    <row r="130" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D130" s="6" t="s">
-        <v>342</v>
+        <v>222</v>
       </c>
       <c r="G130" t="s">
-        <v>17</v>
+        <v>300</v>
       </c>
       <c r="H130" s="6" t="s">
-        <v>351</v>
+        <v>231</v>
       </c>
       <c r="I130" t="str">
-        <f t="shared" si="10"/>
-        <v>Assets/ResAB/UI/Icon/Icon_Monster_Rou3.png</v>
-      </c>
-    </row>
-    <row r="131" spans="4:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_Monster_Rou3.png</v>
+      </c>
+    </row>
+    <row r="131" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D131" s="6" t="s">
-        <v>343</v>
+        <v>223</v>
       </c>
       <c r="G131" t="s">
-        <v>17</v>
+        <v>300</v>
       </c>
       <c r="H131" s="6" t="s">
-        <v>352</v>
+        <v>232</v>
       </c>
       <c r="I131" t="str">
-        <f t="shared" si="10"/>
-        <v>Assets/ResAB/UI/Icon/Icon_Monster_XueRen1.png</v>
-      </c>
-    </row>
-    <row r="132" spans="4:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_Monster_XueRen1.png</v>
+      </c>
+    </row>
+    <row r="132" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D132" s="6" t="s">
-        <v>344</v>
+        <v>224</v>
       </c>
       <c r="G132" t="s">
-        <v>17</v>
+        <v>300</v>
       </c>
       <c r="H132" s="6" t="s">
-        <v>353</v>
+        <v>233</v>
       </c>
       <c r="I132" t="str">
-        <f t="shared" si="10"/>
-        <v>Assets/ResAB/UI/Icon/Icon_Monster_XueRen2.png</v>
-      </c>
-    </row>
-    <row r="133" spans="4:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_Monster_XueRen2.png</v>
+      </c>
+    </row>
+    <row r="133" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D133" s="6" t="s">
-        <v>345</v>
+        <v>225</v>
       </c>
       <c r="G133" t="s">
-        <v>17</v>
+        <v>300</v>
       </c>
       <c r="H133" s="6" t="s">
-        <v>354</v>
+        <v>234</v>
       </c>
       <c r="I133" t="str">
-        <f t="shared" si="10"/>
-        <v>Assets/ResAB/UI/Icon/Icon_Monster_XueRen3.png</v>
-      </c>
-    </row>
-    <row r="134" spans="4:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_Monster_XueRen3.png</v>
+      </c>
+    </row>
+    <row r="134" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D134" s="6" t="s">
-        <v>346</v>
+        <v>226</v>
       </c>
       <c r="G134" t="s">
-        <v>17</v>
+        <v>300</v>
       </c>
       <c r="H134" s="6" t="s">
-        <v>355</v>
+        <v>235</v>
       </c>
       <c r="I134" t="str">
-        <f t="shared" si="10"/>
-        <v>Assets/ResAB/UI/Icon/Icon_Monster_WuGui1.png</v>
-      </c>
-    </row>
-    <row r="135" spans="4:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_Monster_WuGui1.png</v>
+      </c>
+    </row>
+    <row r="135" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D135" s="6" t="s">
-        <v>347</v>
+        <v>227</v>
       </c>
       <c r="G135" t="s">
-        <v>17</v>
+        <v>300</v>
       </c>
       <c r="H135" s="6" t="s">
-        <v>356</v>
+        <v>236</v>
       </c>
       <c r="I135" t="str">
-        <f t="shared" si="10"/>
-        <v>Assets/ResAB/UI/Icon/Icon_Monster_WuGui2.png</v>
-      </c>
-    </row>
-    <row r="136" spans="4:9" x14ac:dyDescent="0.2">
+        <f t="shared" ref="I135:I148" si="7">G135&amp;"/"&amp;H135&amp;".png"</f>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_Monster_WuGui2.png</v>
+      </c>
+    </row>
+    <row r="136" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D136" s="6" t="s">
-        <v>348</v>
+        <v>228</v>
       </c>
       <c r="G136" t="s">
-        <v>17</v>
+        <v>300</v>
       </c>
       <c r="H136" s="6" t="s">
-        <v>357</v>
+        <v>237</v>
       </c>
       <c r="I136" t="str">
-        <f t="shared" si="10"/>
-        <v>Assets/ResAB/UI/Icon/Icon_Monster_WuGui3.png</v>
-      </c>
-    </row>
-    <row r="138" spans="4:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>Assets/ResAB/UI/Icon@dynamic/Icon_Monster_WuGui3.png</v>
+      </c>
+    </row>
+    <row r="137" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="G137" s="9"/>
+    </row>
+    <row r="138" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D138" t="s">
-        <v>311</v>
-      </c>
-      <c r="G138" s="7" t="s">
-        <v>322</v>
+        <v>195</v>
+      </c>
+      <c r="G138" s="10" t="s">
+        <v>206</v>
       </c>
       <c r="H138" t="s">
-        <v>323</v>
+        <v>207</v>
       </c>
       <c r="I138" t="str">
-        <f>G138&amp;"/"&amp;H138&amp;".png"</f>
+        <f t="shared" si="7"/>
         <v>Assets/ResAB/UI/Season/Season_icon_Maxtowers.png</v>
       </c>
     </row>
-    <row r="139" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D139" t="s">
-        <v>312</v>
-      </c>
-      <c r="G139" s="7" t="s">
-        <v>322</v>
+        <v>196</v>
+      </c>
+      <c r="G139" s="10" t="s">
+        <v>206</v>
       </c>
       <c r="H139" t="s">
-        <v>324</v>
+        <v>208</v>
       </c>
       <c r="I139" t="str">
-        <f t="shared" ref="I139:I148" si="11">G139&amp;"/"&amp;H139&amp;".png"</f>
+        <f t="shared" si="7"/>
         <v>Assets/ResAB/UI/Season/Season_icon_startinggold.png</v>
       </c>
     </row>
-    <row r="140" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D140" t="s">
-        <v>313</v>
-      </c>
-      <c r="G140" s="7" t="s">
-        <v>322</v>
+        <v>197</v>
+      </c>
+      <c r="G140" s="10" t="s">
+        <v>206</v>
       </c>
       <c r="H140" t="s">
-        <v>325</v>
+        <v>209</v>
       </c>
       <c r="I140" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>Assets/ResAB/UI/Season/Season_icon_damage.png</v>
       </c>
     </row>
-    <row r="141" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D141" t="s">
-        <v>314</v>
-      </c>
-      <c r="G141" s="7" t="s">
-        <v>322</v>
+        <v>198</v>
+      </c>
+      <c r="G141" s="10" t="s">
+        <v>206</v>
       </c>
       <c r="H141" s="7" t="s">
-        <v>326</v>
+        <v>392</v>
       </c>
       <c r="I141" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>Assets/ResAB/UI/Season/Season_icon_towercost.png</v>
       </c>
     </row>
-    <row r="142" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D142" t="s">
-        <v>315</v>
-      </c>
-      <c r="G142" s="7" t="s">
-        <v>322</v>
+        <v>199</v>
+      </c>
+      <c r="G142" s="10" t="s">
+        <v>206</v>
       </c>
       <c r="H142" t="s">
-        <v>327</v>
+        <v>210</v>
       </c>
       <c r="I142" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>Assets/ResAB/UI/Season/Season_icon_HQHP.png</v>
       </c>
     </row>
-    <row r="143" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D143" t="s">
-        <v>316</v>
-      </c>
-      <c r="G143" s="7" t="s">
-        <v>322</v>
+        <v>200</v>
+      </c>
+      <c r="G143" s="10" t="s">
+        <v>206</v>
       </c>
       <c r="H143" t="s">
-        <v>328</v>
+        <v>211</v>
       </c>
       <c r="I143" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>Assets/ResAB/UI/Season/Season_icon_HQregen.png</v>
       </c>
     </row>
-    <row r="144" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D144" t="s">
-        <v>317</v>
-      </c>
-      <c r="G144" s="7" t="s">
-        <v>322</v>
+        <v>201</v>
+      </c>
+      <c r="G144" s="10" t="s">
+        <v>206</v>
       </c>
       <c r="H144" t="s">
-        <v>329</v>
+        <v>212</v>
       </c>
       <c r="I144" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>Assets/ResAB/UI/Season/Season_icon_ATKrange.png</v>
       </c>
     </row>
-    <row r="145" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D145" t="s">
-        <v>318</v>
-      </c>
-      <c r="G145" s="7" t="s">
-        <v>322</v>
+        <v>202</v>
+      </c>
+      <c r="G145" s="10" t="s">
+        <v>206</v>
       </c>
       <c r="H145" t="s">
-        <v>330</v>
+        <v>213</v>
       </c>
       <c r="I145" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>Assets/ResAB/UI/Season/Season_icon_ATKInterval.png</v>
       </c>
     </row>
-    <row r="146" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D146" t="s">
-        <v>319</v>
-      </c>
-      <c r="G146" s="7" t="s">
-        <v>322</v>
+        <v>203</v>
+      </c>
+      <c r="G146" s="10" t="s">
+        <v>206</v>
       </c>
       <c r="H146" t="s">
-        <v>331</v>
+        <v>214</v>
       </c>
       <c r="I146" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>Assets/ResAB/UI/Season/Season_icon_goldreward.png</v>
       </c>
     </row>
-    <row r="147" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D147" t="s">
-        <v>320</v>
-      </c>
-      <c r="G147" s="7" t="s">
-        <v>322</v>
+        <v>204</v>
+      </c>
+      <c r="G147" s="10" t="s">
+        <v>206</v>
       </c>
       <c r="H147" t="s">
-        <v>332</v>
+        <v>215</v>
       </c>
       <c r="I147" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>Assets/ResAB/UI/Season/Season_icon_revive.png</v>
       </c>
     </row>
-    <row r="148" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D148" t="s">
-        <v>321</v>
-      </c>
-      <c r="G148" s="7" t="s">
-        <v>322</v>
+        <v>205</v>
+      </c>
+      <c r="G148" s="10" t="s">
+        <v>394</v>
       </c>
       <c r="H148" t="s">
-        <v>333</v>
+        <v>216</v>
       </c>
       <c r="I148" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>Assets/ResAB/UI/Season/Season_icon_diamondreward.png</v>
+      </c>
+    </row>
+    <row r="149" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="G149" s="9"/>
+    </row>
+    <row r="150" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D150" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="G150" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="H150" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="I150" s="7" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="151" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D151" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="G151" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="H151" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="I151" s="7" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="152" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D152" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="G152" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="H152" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="I152" s="7" t="s">
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -4846,19 +4909,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="17.25" customWidth="1"/>
-    <col min="7" max="7" width="32.375" customWidth="1"/>
-    <col min="8" max="8" width="30.625" customWidth="1"/>
-    <col min="9" max="9" width="25.75" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" customWidth="1"/>
+    <col min="7" max="7" width="32.33203125" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" customWidth="1"/>
+    <col min="9" max="9" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4879,7 +4942,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4892,7 +4955,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -4913,7 +4976,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -4928,7 +4991,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -4949,611 +5012,611 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>226</v>
+        <v>123</v>
       </c>
       <c r="D6" t="str">
         <f>B6&amp;"_"&amp;C6</f>
         <v>ResIcon_Beginners_Guide1</v>
       </c>
       <c r="G6" t="s">
-        <v>227</v>
+        <v>124</v>
       </c>
       <c r="H6" t="s">
-        <v>228</v>
+        <v>125</v>
       </c>
       <c r="I6" s="3" t="str">
         <f>G6&amp;"/"&amp;H6</f>
         <v>Assets/ResAB/UI/Beginners_Guide/Beginners_Guide_img_guide1.png</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>229</v>
+        <v>126</v>
       </c>
       <c r="D7" t="str">
         <f>B7&amp;"_"&amp;C7</f>
         <v>ResIcon_Beginners_Guide2</v>
       </c>
       <c r="G7" t="s">
-        <v>227</v>
+        <v>124</v>
       </c>
       <c r="H7" t="s">
-        <v>230</v>
+        <v>127</v>
       </c>
       <c r="I7" s="3" t="str">
         <f>G7&amp;"/"&amp;H7</f>
         <v>Assets/ResAB/UI/Beginners_Guide/Beginners_Guide_img_guide2.png</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>231</v>
+        <v>128</v>
       </c>
       <c r="D8" t="str">
         <f>B8&amp;"_"&amp;C8</f>
         <v>ResIcon_Beginners_Guide3</v>
       </c>
       <c r="G8" t="s">
-        <v>227</v>
+        <v>124</v>
       </c>
       <c r="H8" t="s">
-        <v>232</v>
+        <v>129</v>
       </c>
       <c r="I8" s="3" t="str">
         <f>G8&amp;"/"&amp;H8</f>
         <v>Assets/ResAB/UI/Beginners_Guide/Beginners_Guide_img_guide3.png</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>233</v>
+        <v>130</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" ref="D9" si="0">B9&amp;"_"&amp;C9</f>
         <v>ResIcon_Beginners_Guide4</v>
       </c>
       <c r="G9" t="s">
-        <v>227</v>
+        <v>124</v>
       </c>
       <c r="H9" t="s">
-        <v>234</v>
+        <v>131</v>
       </c>
       <c r="I9" s="3" t="str">
         <f t="shared" ref="I9" si="1">G9&amp;"/"&amp;H9</f>
         <v>Assets/ResAB/UI/Beginners_Guide/Beginners_Guide_img_guide4.png</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>393</v>
+        <v>273</v>
       </c>
       <c r="D11" t="str">
         <f>B11&amp;"_"&amp;C11</f>
         <v>ResIcon_BG1</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>397</v>
+        <v>277</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>398</v>
+        <v>278</v>
       </c>
       <c r="I11" s="3" t="str">
         <f>G11&amp;"/"&amp;H11</f>
         <v>Assets/ResAB/UI/BG/common_bg_Start_01.png</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>394</v>
+        <v>274</v>
       </c>
       <c r="D12" t="str">
         <f>B12&amp;"_"&amp;C12</f>
         <v>ResIcon_BG2</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>397</v>
+        <v>277</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>399</v>
+        <v>279</v>
       </c>
       <c r="I12" s="3" t="str">
         <f>G12&amp;"/"&amp;H12</f>
         <v>Assets/ResAB/UI/BG/common_bg_Start_02.png</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>395</v>
+        <v>275</v>
       </c>
       <c r="D13" t="str">
         <f>B13&amp;"_"&amp;C13</f>
         <v>ResIcon_BG3</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>397</v>
+        <v>277</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="I13" s="3" t="str">
         <f>G13&amp;"/"&amp;H13</f>
         <v>Assets/ResAB/UI/BG/common_bg_Start_03.png</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>396</v>
+        <v>276</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" ref="D14" si="2">B14&amp;"_"&amp;C14</f>
         <v>ResIcon_BG4</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>397</v>
+        <v>277</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>401</v>
+        <v>281</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" ref="I14" si="3">G14&amp;"/"&amp;H14</f>
         <v>Assets/ResAB/UI/BG/common_bg_Start_04.png</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>418</v>
+        <v>298</v>
       </c>
       <c r="G16" t="s">
-        <v>236</v>
+        <v>133</v>
       </c>
       <c r="H16" t="s">
-        <v>419</v>
+        <v>299</v>
       </c>
       <c r="I16" s="3" t="str">
         <f>G16&amp;"/"&amp;H16</f>
         <v>Assets/ResAB/UI/common/Common_img_avatar_logo.png</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>235</v>
+        <v>132</v>
       </c>
       <c r="D17" t="str">
         <f>B17&amp;"_"&amp;C17</f>
         <v>ResIcon_Avatar01</v>
       </c>
       <c r="G17" t="s">
-        <v>236</v>
+        <v>133</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>417</v>
+        <v>297</v>
       </c>
       <c r="I17" s="3" t="str">
         <f>G17&amp;"/"&amp;H17</f>
         <v>Assets/ResAB/UI/common/Common_img_avatar_01.png</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>237</v>
+        <v>134</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" ref="D18:D21" si="4">B18&amp;"_"&amp;C18</f>
         <v>ResIcon_Avatar02</v>
       </c>
       <c r="G18" t="s">
-        <v>236</v>
+        <v>133</v>
       </c>
       <c r="H18" t="s">
-        <v>238</v>
+        <v>135</v>
       </c>
       <c r="I18" s="3" t="str">
         <f t="shared" ref="I18:I21" si="5">G18&amp;"/"&amp;H18</f>
         <v>Assets/ResAB/UI/common/Common_img_avatar_02.png</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>239</v>
+        <v>136</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="4"/>
         <v>ResIcon_Avatar03</v>
       </c>
       <c r="G19" t="s">
-        <v>236</v>
+        <v>133</v>
       </c>
       <c r="H19" t="s">
-        <v>240</v>
+        <v>137</v>
       </c>
       <c r="I19" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Assets/ResAB/UI/common/Common_img_avatar_03.png</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>241</v>
+        <v>138</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="4"/>
         <v>ResIcon_Avatar04</v>
       </c>
       <c r="G20" t="s">
-        <v>236</v>
+        <v>133</v>
       </c>
       <c r="H20" t="s">
-        <v>242</v>
+        <v>139</v>
       </c>
       <c r="I20" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Assets/ResAB/UI/common/Common_img_avatar_04.png</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>243</v>
+        <v>140</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="4"/>
         <v>ResIcon_Avatar05</v>
       </c>
       <c r="G21" t="s">
-        <v>236</v>
+        <v>133</v>
       </c>
       <c r="H21" t="s">
-        <v>244</v>
+        <v>141</v>
       </c>
       <c r="I21" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Assets/ResAB/UI/common/Common_img_avatar_05.png</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>407</v>
+        <v>287</v>
       </c>
       <c r="D22" t="str">
         <f>B22&amp;"_"&amp;C22</f>
         <v>ResIcon_Avatar06</v>
       </c>
       <c r="G22" t="s">
-        <v>236</v>
+        <v>133</v>
       </c>
       <c r="H22" t="s">
-        <v>412</v>
+        <v>292</v>
       </c>
       <c r="I22" s="3" t="str">
         <f>G22&amp;"/"&amp;H22</f>
         <v>Assets/ResAB/UI/common/Common_img_avatar_06.png</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>408</v>
+        <v>288</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" ref="D23:D26" si="6">B23&amp;"_"&amp;C23</f>
         <v>ResIcon_Avatar07</v>
       </c>
       <c r="G23" t="s">
-        <v>236</v>
+        <v>133</v>
       </c>
       <c r="H23" t="s">
-        <v>413</v>
+        <v>293</v>
       </c>
       <c r="I23" s="3" t="str">
         <f t="shared" ref="I23:I26" si="7">G23&amp;"/"&amp;H23</f>
         <v>Assets/ResAB/UI/common/Common_img_avatar_07.png</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>409</v>
+        <v>289</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="6"/>
         <v>ResIcon_Avatar08</v>
       </c>
       <c r="G24" t="s">
-        <v>236</v>
+        <v>133</v>
       </c>
       <c r="H24" t="s">
-        <v>414</v>
+        <v>294</v>
       </c>
       <c r="I24" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Assets/ResAB/UI/common/Common_img_avatar_08.png</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>410</v>
+        <v>290</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="6"/>
         <v>ResIcon_Avatar09</v>
       </c>
       <c r="G25" t="s">
-        <v>236</v>
+        <v>133</v>
       </c>
       <c r="H25" t="s">
-        <v>415</v>
+        <v>295</v>
       </c>
       <c r="I25" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Assets/ResAB/UI/common/Common_img_avatar_09.png</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>411</v>
+        <v>291</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="6"/>
         <v>ResIcon_Avatar10</v>
       </c>
       <c r="G26" t="s">
-        <v>236</v>
+        <v>133</v>
       </c>
       <c r="H26" t="s">
-        <v>416</v>
+        <v>296</v>
       </c>
       <c r="I26" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Assets/ResAB/UI/common/Common_img_avatar_10.png</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>15</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>307</v>
+        <v>192</v>
       </c>
       <c r="D28" t="str">
         <f>B28&amp;"_"&amp;C28</f>
         <v>ResIcon_AvatarFrame_None</v>
       </c>
       <c r="G28" t="s">
-        <v>236</v>
+        <v>133</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>308</v>
+        <v>193</v>
       </c>
       <c r="I28" s="3" t="str">
         <f>G28&amp;"/"&amp;H28</f>
         <v>Assets/ResAB/UI/common/Common_img_frame_None.png</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>358</v>
+        <v>238</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>359</v>
+        <v>239</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>361</v>
+        <v>241</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>364</v>
+        <v>244</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="36" spans="4:9" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="36" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>365</v>
+        <v>245</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="37" spans="4:9" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="37" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>366</v>
+        <v>246</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="38" spans="4:9" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="38" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>367</v>
+        <v>247</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="39" spans="4:9" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="39" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>368</v>
+        <v>248</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="40" spans="4:9" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="40" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>369</v>
+        <v>249</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="42" spans="4:9" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="42" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>374</v>
+        <v>254</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="43" spans="4:9" x14ac:dyDescent="0.2">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="43" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
-        <v>375</v>
+        <v>255</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="44" spans="4:9" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="44" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>376</v>
+        <v>256</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="45" spans="4:9" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="45" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>377</v>
+        <v>257</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="46" spans="4:9" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="46" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>378</v>
+        <v>258</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="48" spans="4:9" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="48" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>379</v>
+        <v>259</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="49" spans="4:9" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="49" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
-        <v>380</v>
+        <v>260</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="50" spans="4:9" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="50" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
-        <v>381</v>
+        <v>261</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="51" spans="4:9" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="51" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
-        <v>382</v>
+        <v>262</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="52" spans="4:9" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="52" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>383</v>
+        <v>263</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>406</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResIconCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ResConfig/ResIconCfg.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CJ\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ResConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ResConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BB18BE-6AD2-4246-89F8-8050AD1610C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45268D7F-B686-4D5C-A30A-C08969737DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="玩家技能" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="440">
   <si>
     <t>##var</t>
   </si>
@@ -1408,6 +1409,136 @@
   </si>
   <si>
     <t>Assets/ResAB/UI/Skill/Icon_Hovercopter.png</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResIcon_PlayerSkill_BreakArmor</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResIcon_PlayerSkill_IceBind</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResIcon_PlayerSkill_TimeBarrier</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>破甲弹</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰霜漩涡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>时空结界</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害敌方并降低护甲</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>冻结范围内的所有敌人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>创造结界，敌人大幅减速，友军大幅加速</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Skill/Common_PlayerSkill_BreakArmor.png</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Skill/Common_PlayerSkill_IceBind.png</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Skill/Common_PlayerSkill_TimeBarrier.png</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResIcon_Player_PlayerSkill_PurifyWater</t>
+  </si>
+  <si>
+    <t>ResIcon_Player_PlayerSkill_Enhance</t>
+  </si>
+  <si>
+    <t>ResIcon_Player_PlayerSkill_Silence</t>
+  </si>
+  <si>
+    <t>ResIcon_Player_PlayerSkill_GoblinSummon</t>
+  </si>
+  <si>
+    <t>ResIcon_Player_PlayerSkill_Hellfire</t>
+  </si>
+  <si>
+    <t>ResIcon_Player_PlayerSkill_Blackhole</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Skill/Common_Player_PlayerSkill_PurifyWater.png</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Skill/Common_Player_PlayerSkill_GoblinSummon.png</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Skill/Common_Player_PlayerSkill_Enhance.png</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Skill/Common_Player_PlayerSkill_Silence.png</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Skill/Common_Player_PlayerSkill_Hellfire.png</t>
+  </si>
+  <si>
+    <t>Assets/ResAB/UI/Skill/Common_Player_PlayerSkill_Blackhole.png</t>
+  </si>
+  <si>
+    <t>净化药水</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>驱散敌人隐身、护盾等各种加成效果，并造成持续伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化子弹</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时大幅强化一名友军并使其无敌</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝对静默</t>
+  </si>
+  <si>
+    <t>禁止范围内敌人使用任何技能，且造成持续伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>哥布林召唤</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤一个哥布林在一段时间内偷取敌人金钱</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>地狱烈焰</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>降下大范围火焰，并留下火焰灼烧经过的敌人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑洞</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续吸引大片敌人，造成生命上限的百分比伤害</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1533,7 +1664,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
@@ -1547,6 +1678,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -1847,27 +1987,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E120" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="5" topLeftCell="E141" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="I152" sqref="I152"/>
+      <selection pane="bottomRight" activeCell="I150" sqref="I150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.25" customWidth="1"/>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="3" max="3" width="15.25" customWidth="1"/>
+    <col min="4" max="4" width="39.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
-    <col min="7" max="7" width="31.33203125" customWidth="1"/>
-    <col min="8" max="8" width="27.109375" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.625" customWidth="1"/>
+    <col min="7" max="7" width="31.375" customWidth="1"/>
+    <col min="8" max="8" width="27.125" customWidth="1"/>
+    <col min="9" max="9" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1906,7 +2046,7 @@
       <c r="Z1"/>
       <c r="AA1"/>
     </row>
-    <row r="2" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1937,7 +2077,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1976,7 +2116,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -2009,7 +2149,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -2048,7 +2188,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>15</v>
       </c>
@@ -2070,7 +2210,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_1.png</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>15</v>
       </c>
@@ -2092,7 +2232,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_1.png</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>15</v>
       </c>
@@ -2114,7 +2254,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_1.png</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>15</v>
       </c>
@@ -2136,7 +2276,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_1.png</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>15</v>
       </c>
@@ -2158,7 +2298,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_1.png</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>15</v>
       </c>
@@ -2180,10 +2320,10 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_1.png</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>15</v>
       </c>
@@ -2205,7 +2345,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_MachineGunTower_0.png</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>15</v>
       </c>
@@ -2227,7 +2367,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_LaserTower_0.png</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>15</v>
       </c>
@@ -2249,7 +2389,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_Hoverboss.png</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>15</v>
       </c>
@@ -2271,7 +2411,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_Hoverbuggy.png</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>15</v>
       </c>
@@ -2293,7 +2433,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_Hovercopter.png</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>15</v>
       </c>
@@ -2315,7 +2455,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_Hovertank.png</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>15</v>
       </c>
@@ -2337,7 +2477,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_Infinite.png</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C20" s="7"/>
       <c r="D20" s="7" t="s">
         <v>188</v>
@@ -2353,7 +2493,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_PVP.png</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C21" s="7"/>
       <c r="D21" s="7" t="s">
         <v>189</v>
@@ -2369,7 +2509,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_card.png</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C22" s="7"/>
       <c r="D22" s="7" t="s">
         <v>190</v>
@@ -2385,7 +2525,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_battle.png</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C23" s="7"/>
       <c r="D23" s="7" t="s">
         <v>191</v>
@@ -2401,13 +2541,13 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_discord.png</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="G24" s="9"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
         <v>194</v>
       </c>
@@ -2422,11 +2562,11 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_common_diamond.png</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G26" s="9"/>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>15</v>
       </c>
@@ -2448,7 +2588,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerMagicBall1.png</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>15</v>
       </c>
@@ -2470,7 +2610,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerMagicBall2.png</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>15</v>
       </c>
@@ -2492,7 +2632,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerMagicBall3.png</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>15</v>
       </c>
@@ -2514,7 +2654,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerAlchemy1.png</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>15</v>
       </c>
@@ -2536,7 +2676,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerAlchemy2.png</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>15</v>
       </c>
@@ -2558,7 +2698,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerAlchemy3.png</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>15</v>
       </c>
@@ -2580,7 +2720,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerScorpio1.png</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>15</v>
       </c>
@@ -2602,7 +2742,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerScorpio2.png</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>15</v>
       </c>
@@ -2624,7 +2764,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerScorpio3.png</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>15</v>
       </c>
@@ -2646,7 +2786,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerCurse1.png</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>15</v>
       </c>
@@ -2668,7 +2808,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerCurse2.png</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>15</v>
       </c>
@@ -2690,7 +2830,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerCurse3.png</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>15</v>
       </c>
@@ -2712,7 +2852,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_Towerwitch1.png</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>15</v>
       </c>
@@ -2734,7 +2874,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_Towerwitch2.png</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>15</v>
       </c>
@@ -2756,7 +2896,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_Towerwitch3.png</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>15</v>
       </c>
@@ -2778,7 +2918,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerIceArrow1.png</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>15</v>
       </c>
@@ -2800,7 +2940,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerIceArrow2.png</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>15</v>
       </c>
@@ -2822,7 +2962,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerIceArrow3.png</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>15</v>
       </c>
@@ -2844,7 +2984,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerWater1.png</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>15</v>
       </c>
@@ -2866,7 +3006,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerWater2.png</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>15</v>
       </c>
@@ -2888,7 +3028,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerWater3.png</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>15</v>
       </c>
@@ -2910,7 +3050,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerElectromagnetic1.png</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>15</v>
       </c>
@@ -2932,7 +3072,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerElectromagnetic2.png</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>15</v>
       </c>
@@ -2954,7 +3094,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerElectromagnetic3.png</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>15</v>
       </c>
@@ -2976,7 +3116,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerFire1.png</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>15</v>
       </c>
@@ -2998,7 +3138,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerFire2.png</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>15</v>
       </c>
@@ -3020,7 +3160,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerFire3.png</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>15</v>
       </c>
@@ -3042,7 +3182,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerAoShu1.png</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>15</v>
       </c>
@@ -3064,7 +3204,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerAoShu2.png</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>15</v>
       </c>
@@ -3086,7 +3226,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerAoShu3.png</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>15</v>
       </c>
@@ -3108,7 +3248,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerLianJi1.png</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>15</v>
       </c>
@@ -3130,7 +3270,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerLianJi2.png</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>15</v>
       </c>
@@ -3152,7 +3292,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerLianJi3.png</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>15</v>
       </c>
@@ -3174,7 +3314,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerZaiE1.png</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>15</v>
       </c>
@@ -3196,7 +3336,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerZaiE2.png</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>15</v>
       </c>
@@ -3218,7 +3358,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerZaiE3.png</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>15</v>
       </c>
@@ -3240,7 +3380,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerGoblin1.png</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>15</v>
       </c>
@@ -3262,7 +3402,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerGoblin2.png</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>15</v>
       </c>
@@ -3284,7 +3424,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerGoblin3.png</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>15</v>
       </c>
@@ -3306,7 +3446,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerDuCi1.png</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>15</v>
       </c>
@@ -3328,7 +3468,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerDuCi2.png</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>15</v>
       </c>
@@ -3350,7 +3490,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerDuCi3.png</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>15</v>
       </c>
@@ -3372,7 +3512,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerRocket1.png</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>15</v>
       </c>
@@ -3394,7 +3534,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerRocket2.png</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>15</v>
       </c>
@@ -3416,7 +3556,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerRocket3.png</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>15</v>
       </c>
@@ -3438,7 +3578,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerFireBall1.png</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>15</v>
       </c>
@@ -3460,7 +3600,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerFireBall2.png</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>15</v>
       </c>
@@ -3482,7 +3622,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerFireBall3.png</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D75" s="7" t="s">
         <v>217</v>
       </c>
@@ -3497,7 +3637,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerGolem1.png</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D76" s="7" t="s">
         <v>218</v>
       </c>
@@ -3512,7 +3652,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerGolem2.png</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D77" s="7" t="s">
         <v>219</v>
       </c>
@@ -3527,10 +3667,10 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerGolem3.png</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G78" s="9"/>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>15</v>
       </c>
@@ -3551,7 +3691,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerArrowSolo1.png</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>15</v>
       </c>
@@ -3572,7 +3712,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerArrowSolo2.png</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>15</v>
       </c>
@@ -3593,7 +3733,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerArrowSolo3.png</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>15</v>
       </c>
@@ -3614,7 +3754,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerCanon1.png</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>15</v>
       </c>
@@ -3635,7 +3775,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerCanon2.png</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>15</v>
       </c>
@@ -3656,7 +3796,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerCanon3.png</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>15</v>
       </c>
@@ -3677,7 +3817,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerDragon1.png</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>15</v>
       </c>
@@ -3698,7 +3838,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerDragon2.png</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>15</v>
       </c>
@@ -3719,7 +3859,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerDragon3.png</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>15</v>
       </c>
@@ -3740,7 +3880,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerElec1.png</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>15</v>
       </c>
@@ -3761,7 +3901,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerElec2.png</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>15</v>
       </c>
@@ -3782,7 +3922,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerElec3.png</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>15</v>
       </c>
@@ -3803,7 +3943,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerIce1.png</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>15</v>
       </c>
@@ -3824,7 +3964,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerIce2.png</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>15</v>
       </c>
@@ -3845,7 +3985,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerIce3.png</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>15</v>
       </c>
@@ -3866,7 +4006,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerTime1.png</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>15</v>
       </c>
@@ -3887,7 +4027,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerTime2.png</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>15</v>
       </c>
@@ -3908,7 +4048,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerTime3.png</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>15</v>
       </c>
@@ -3929,7 +4069,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerFireLine1.png</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>15</v>
       </c>
@@ -3950,7 +4090,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerFireLine2.png</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>15</v>
       </c>
@@ -3971,7 +4111,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerFireLine3.png</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>15</v>
       </c>
@@ -3992,7 +4132,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerDragCircle1.png</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>15</v>
       </c>
@@ -4013,7 +4153,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerDragCircle2.png</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>15</v>
       </c>
@@ -4034,7 +4174,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerDragCircle3.png</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D103" s="7" t="s">
         <v>184</v>
       </c>
@@ -4049,7 +4189,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerBomb1.png</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D104" s="7" t="s">
         <v>185</v>
       </c>
@@ -4064,7 +4204,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerBomb2.png</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D105" s="7" t="s">
         <v>186</v>
       </c>
@@ -4079,10 +4219,10 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_TowerBomb3.png</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G106" s="9"/>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>15</v>
       </c>
@@ -4104,7 +4244,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_Monster_MiFeng1.png</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>15</v>
       </c>
@@ -4126,7 +4266,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_Monster_MiFeng2.png</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>15</v>
       </c>
@@ -4148,7 +4288,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_Monster_MiFeng3.png</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>15</v>
       </c>
@@ -4170,7 +4310,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_Monster_BianFu1.png</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>15</v>
       </c>
@@ -4192,7 +4332,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_Monster_BianFu2.png</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>15</v>
       </c>
@@ -4214,7 +4354,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_Monster_BianFu3.png</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>15</v>
       </c>
@@ -4236,7 +4376,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_Monster_ZhiZhu1.png</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>15</v>
       </c>
@@ -4258,7 +4398,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_Monster_ZhiZhu2.png</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>15</v>
       </c>
@@ -4280,7 +4420,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_Monster_ZhiZhu3.png</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>15</v>
       </c>
@@ -4302,7 +4442,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_Monster_ZhongZi1.png</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>15</v>
       </c>
@@ -4324,7 +4464,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_Monster_ZhongZi2.png</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>15</v>
       </c>
@@ -4346,7 +4486,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_Monster_ZhongZi3.png</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>15</v>
       </c>
@@ -4368,7 +4508,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_Monster_Gui1.png</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>15</v>
       </c>
@@ -4390,7 +4530,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_Monster_Gui2.png</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>15</v>
       </c>
@@ -4412,7 +4552,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_Monster_Gui3.png</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>15</v>
       </c>
@@ -4434,7 +4574,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_Monster_Dan1.png</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>15</v>
       </c>
@@ -4456,7 +4596,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_Monster_Dan2.png</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>15</v>
       </c>
@@ -4478,7 +4618,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_Monster_Dan3.png</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>15</v>
       </c>
@@ -4500,7 +4640,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_Monster_Niao1.png</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>15</v>
       </c>
@@ -4522,7 +4662,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_Monster_Niao2.png</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
         <v>15</v>
       </c>
@@ -4544,7 +4684,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_Monster_Niao3.png</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D128" s="6" t="s">
         <v>220</v>
       </c>
@@ -4559,7 +4699,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_Monster_Rou1.png</v>
       </c>
     </row>
-    <row r="129" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D129" s="6" t="s">
         <v>221</v>
       </c>
@@ -4574,7 +4714,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_Monster_Rou2.png</v>
       </c>
     </row>
-    <row r="130" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D130" s="6" t="s">
         <v>222</v>
       </c>
@@ -4589,7 +4729,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_Monster_Rou3.png</v>
       </c>
     </row>
-    <row r="131" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D131" s="6" t="s">
         <v>223</v>
       </c>
@@ -4604,7 +4744,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_Monster_XueRen1.png</v>
       </c>
     </row>
-    <row r="132" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D132" s="6" t="s">
         <v>224</v>
       </c>
@@ -4619,7 +4759,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_Monster_XueRen2.png</v>
       </c>
     </row>
-    <row r="133" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D133" s="6" t="s">
         <v>225</v>
       </c>
@@ -4634,7 +4774,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_Monster_XueRen3.png</v>
       </c>
     </row>
-    <row r="134" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D134" s="6" t="s">
         <v>226</v>
       </c>
@@ -4649,7 +4789,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_Monster_WuGui1.png</v>
       </c>
     </row>
-    <row r="135" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D135" s="6" t="s">
         <v>227</v>
       </c>
@@ -4664,7 +4804,7 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_Monster_WuGui2.png</v>
       </c>
     </row>
-    <row r="136" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D136" s="6" t="s">
         <v>228</v>
       </c>
@@ -4679,10 +4819,10 @@
         <v>Assets/ResAB/UI/Icon@dynamic/Icon_Monster_WuGui3.png</v>
       </c>
     </row>
-    <row r="137" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="4:9" x14ac:dyDescent="0.2">
       <c r="G137" s="9"/>
     </row>
-    <row r="138" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D138" t="s">
         <v>195</v>
       </c>
@@ -4697,7 +4837,7 @@
         <v>Assets/ResAB/UI/Season/Season_icon_Maxtowers.png</v>
       </c>
     </row>
-    <row r="139" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D139" t="s">
         <v>196</v>
       </c>
@@ -4712,7 +4852,7 @@
         <v>Assets/ResAB/UI/Season/Season_icon_startinggold.png</v>
       </c>
     </row>
-    <row r="140" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D140" t="s">
         <v>197</v>
       </c>
@@ -4727,7 +4867,7 @@
         <v>Assets/ResAB/UI/Season/Season_icon_damage.png</v>
       </c>
     </row>
-    <row r="141" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D141" t="s">
         <v>198</v>
       </c>
@@ -4742,7 +4882,7 @@
         <v>Assets/ResAB/UI/Season/Season_icon_towercost.png</v>
       </c>
     </row>
-    <row r="142" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D142" t="s">
         <v>199</v>
       </c>
@@ -4757,7 +4897,7 @@
         <v>Assets/ResAB/UI/Season/Season_icon_HQHP.png</v>
       </c>
     </row>
-    <row r="143" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D143" t="s">
         <v>200</v>
       </c>
@@ -4772,7 +4912,7 @@
         <v>Assets/ResAB/UI/Season/Season_icon_HQregen.png</v>
       </c>
     </row>
-    <row r="144" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D144" t="s">
         <v>201</v>
       </c>
@@ -4787,7 +4927,7 @@
         <v>Assets/ResAB/UI/Season/Season_icon_ATKrange.png</v>
       </c>
     </row>
-    <row r="145" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D145" t="s">
         <v>202</v>
       </c>
@@ -4802,7 +4942,7 @@
         <v>Assets/ResAB/UI/Season/Season_icon_ATKInterval.png</v>
       </c>
     </row>
-    <row r="146" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D146" t="s">
         <v>203</v>
       </c>
@@ -4817,7 +4957,7 @@
         <v>Assets/ResAB/UI/Season/Season_icon_goldreward.png</v>
       </c>
     </row>
-    <row r="147" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D147" t="s">
         <v>204</v>
       </c>
@@ -4832,7 +4972,7 @@
         <v>Assets/ResAB/UI/Season/Season_icon_revive.png</v>
       </c>
     </row>
-    <row r="148" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D148" t="s">
         <v>205</v>
       </c>
@@ -4847,10 +4987,10 @@
         <v>Assets/ResAB/UI/Season/Season_icon_diamondreward.png</v>
       </c>
     </row>
-    <row r="149" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="4:9" x14ac:dyDescent="0.2">
       <c r="G149" s="9"/>
     </row>
-    <row r="150" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D150" s="7" t="s">
         <v>393</v>
       </c>
@@ -4864,7 +5004,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="151" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D151" s="7" t="s">
         <v>397</v>
       </c>
@@ -4878,7 +5018,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="152" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D152" s="7" t="s">
         <v>396</v>
       </c>
@@ -4909,19 +5049,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I1" sqref="A1:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="17.21875" customWidth="1"/>
-    <col min="7" max="7" width="32.33203125" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" customWidth="1"/>
-    <col min="9" max="9" width="25.77734375" customWidth="1"/>
+    <col min="4" max="4" width="17.25" customWidth="1"/>
+    <col min="7" max="7" width="32.375" customWidth="1"/>
+    <col min="8" max="8" width="30.625" customWidth="1"/>
+    <col min="9" max="9" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4942,7 +5082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4955,7 +5095,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -4976,7 +5116,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -4991,7 +5131,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -5012,7 +5152,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>15</v>
       </c>
@@ -5034,7 +5174,7 @@
         <v>Assets/ResAB/UI/Beginners_Guide/Beginners_Guide_img_guide1.png</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>15</v>
       </c>
@@ -5056,7 +5196,7 @@
         <v>Assets/ResAB/UI/Beginners_Guide/Beginners_Guide_img_guide2.png</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>15</v>
       </c>
@@ -5078,7 +5218,7 @@
         <v>Assets/ResAB/UI/Beginners_Guide/Beginners_Guide_img_guide3.png</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>15</v>
       </c>
@@ -5100,10 +5240,10 @@
         <v>Assets/ResAB/UI/Beginners_Guide/Beginners_Guide_img_guide4.png</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>15</v>
       </c>
@@ -5125,7 +5265,7 @@
         <v>Assets/ResAB/UI/BG/common_bg_Start_01.png</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>15</v>
       </c>
@@ -5147,7 +5287,7 @@
         <v>Assets/ResAB/UI/BG/common_bg_Start_02.png</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>15</v>
       </c>
@@ -5169,7 +5309,7 @@
         <v>Assets/ResAB/UI/BG/common_bg_Start_03.png</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>15</v>
       </c>
@@ -5191,13 +5331,13 @@
         <v>Assets/ResAB/UI/BG/common_bg_Start_04.png</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
         <v>298</v>
       </c>
@@ -5212,7 +5352,7 @@
         <v>Assets/ResAB/UI/common/Common_img_avatar_logo.png</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>15</v>
       </c>
@@ -5234,7 +5374,7 @@
         <v>Assets/ResAB/UI/common/Common_img_avatar_01.png</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>15</v>
       </c>
@@ -5256,7 +5396,7 @@
         <v>Assets/ResAB/UI/common/Common_img_avatar_02.png</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>15</v>
       </c>
@@ -5278,7 +5418,7 @@
         <v>Assets/ResAB/UI/common/Common_img_avatar_03.png</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>15</v>
       </c>
@@ -5300,7 +5440,7 @@
         <v>Assets/ResAB/UI/common/Common_img_avatar_04.png</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>15</v>
       </c>
@@ -5322,7 +5462,7 @@
         <v>Assets/ResAB/UI/common/Common_img_avatar_05.png</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>15</v>
       </c>
@@ -5344,7 +5484,7 @@
         <v>Assets/ResAB/UI/common/Common_img_avatar_06.png</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>15</v>
       </c>
@@ -5366,7 +5506,7 @@
         <v>Assets/ResAB/UI/common/Common_img_avatar_07.png</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>15</v>
       </c>
@@ -5388,7 +5528,7 @@
         <v>Assets/ResAB/UI/common/Common_img_avatar_08.png</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>15</v>
       </c>
@@ -5410,7 +5550,7 @@
         <v>Assets/ResAB/UI/common/Common_img_avatar_09.png</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>15</v>
       </c>
@@ -5432,7 +5572,7 @@
         <v>Assets/ResAB/UI/common/Common_img_avatar_10.png</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>15</v>
       </c>
@@ -5454,12 +5594,12 @@
         <v>Assets/ResAB/UI/common/Common_img_frame_None.png</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D30" t="s">
         <v>238</v>
       </c>
@@ -5467,7 +5607,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
         <v>239</v>
       </c>
@@ -5475,7 +5615,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
         <v>240</v>
       </c>
@@ -5483,7 +5623,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
         <v>241</v>
       </c>
@@ -5491,7 +5631,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
         <v>244</v>
       </c>
@@ -5499,7 +5639,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="36" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D36" t="s">
         <v>245</v>
       </c>
@@ -5507,7 +5647,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="37" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
         <v>246</v>
       </c>
@@ -5515,7 +5655,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="38" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D38" t="s">
         <v>247</v>
       </c>
@@ -5523,7 +5663,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="39" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
         <v>248</v>
       </c>
@@ -5531,7 +5671,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="40" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
         <v>249</v>
       </c>
@@ -5539,7 +5679,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="42" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
         <v>254</v>
       </c>
@@ -5547,7 +5687,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="43" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
         <v>255</v>
       </c>
@@ -5555,7 +5695,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="44" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D44" t="s">
         <v>256</v>
       </c>
@@ -5563,7 +5703,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="45" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D45" t="s">
         <v>257</v>
       </c>
@@ -5571,7 +5711,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="46" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D46" t="s">
         <v>258</v>
       </c>
@@ -5579,7 +5719,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="48" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D48" t="s">
         <v>259</v>
       </c>
@@ -5587,7 +5727,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="49" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D49" t="s">
         <v>260</v>
       </c>
@@ -5595,7 +5735,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="50" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D50" t="s">
         <v>261</v>
       </c>
@@ -5603,7 +5743,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="51" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D51" t="s">
         <v>262</v>
       </c>
@@ -5611,7 +5751,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="52" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D52" t="s">
         <v>263</v>
       </c>
@@ -5627,4 +5767,247 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A885A432-2027-44D8-B8AB-E437FE2262D7}">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="E9" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="E10" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="E11" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="E12" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="E13" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="E14" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D15" s="13"/>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D16" s="13"/>
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D17" s="13"/>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D18" s="13"/>
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D19" s="13"/>
+      <c r="F19" s="13"/>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D20" s="13"/>
+      <c r="F20" s="13"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>